--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-30-4А-700 (Байрон 0.7 л.)/Байрон 0.7 л. от 06.11.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-30-4А-700 (Байрон 0.7 л.)/Байрон 0.7 л. от 06.11.2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Детали ф-тов" sheetId="17" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="152">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -496,6 +496,9 @@
   </si>
   <si>
     <t>Корпус низ и плечи (M)</t>
+  </si>
+  <si>
+    <t>Профиль чистовой формы в точках контроля увеличен от 0,4 до 0,6 мм относительно чертежа</t>
   </si>
 </sst>
 </file>
@@ -3616,86 +3619,89 @@
     <xf numFmtId="14" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="58" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="47" fillId="12" borderId="94" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3716,6 +3722,12 @@
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3760,11 +3772,14 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3775,14 +3790,77 @@
     <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3834,76 +3912,73 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3927,75 +4002,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4022,6 +4028,9 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4032,12 +4041,12 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4048,12 +4057,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="58" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -6367,374 +6370,374 @@
       <c r="J3" s="314"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A4" s="525" t="s">
+      <c r="A4" s="501" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="525" t="s">
+      <c r="B4" s="501" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="525"/>
-      <c r="D4" s="525"/>
-      <c r="E4" s="525" t="s">
+      <c r="C4" s="501"/>
+      <c r="D4" s="501"/>
+      <c r="E4" s="501" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="525"/>
-      <c r="G4" s="526" t="s">
+      <c r="F4" s="501"/>
+      <c r="G4" s="502" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="525" t="s">
+      <c r="H4" s="501" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="525"/>
-      <c r="J4" s="525"/>
+      <c r="I4" s="501"/>
+      <c r="J4" s="501"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="525"/>
-      <c r="B5" s="525"/>
-      <c r="C5" s="525"/>
-      <c r="D5" s="525"/>
-      <c r="E5" s="525"/>
-      <c r="F5" s="525"/>
-      <c r="G5" s="526"/>
-      <c r="H5" s="525"/>
-      <c r="I5" s="525"/>
-      <c r="J5" s="525"/>
+      <c r="A5" s="501"/>
+      <c r="B5" s="501"/>
+      <c r="C5" s="501"/>
+      <c r="D5" s="501"/>
+      <c r="E5" s="501"/>
+      <c r="F5" s="501"/>
+      <c r="G5" s="502"/>
+      <c r="H5" s="501"/>
+      <c r="I5" s="501"/>
+      <c r="J5" s="501"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="500">
+      <c r="A6" s="503">
         <v>1</v>
       </c>
-      <c r="B6" s="522" t="s">
+      <c r="B6" s="505" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="523"/>
-      <c r="D6" s="524"/>
-      <c r="E6" s="505"/>
-      <c r="F6" s="506"/>
-      <c r="G6" s="509"/>
-      <c r="H6" s="511"/>
-      <c r="I6" s="512"/>
-      <c r="J6" s="513"/>
+      <c r="C6" s="506"/>
+      <c r="D6" s="507"/>
+      <c r="E6" s="508"/>
+      <c r="F6" s="509"/>
+      <c r="G6" s="512"/>
+      <c r="H6" s="514"/>
+      <c r="I6" s="515"/>
+      <c r="J6" s="516"/>
     </row>
     <row r="7" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A7" s="520"/>
-      <c r="B7" s="517"/>
-      <c r="C7" s="518"/>
-      <c r="D7" s="519"/>
-      <c r="E7" s="521"/>
-      <c r="F7" s="508"/>
-      <c r="G7" s="510"/>
-      <c r="H7" s="514"/>
-      <c r="I7" s="515"/>
-      <c r="J7" s="516"/>
+      <c r="A7" s="504"/>
+      <c r="B7" s="520"/>
+      <c r="C7" s="521"/>
+      <c r="D7" s="522"/>
+      <c r="E7" s="510"/>
+      <c r="F7" s="511"/>
+      <c r="G7" s="513"/>
+      <c r="H7" s="517"/>
+      <c r="I7" s="518"/>
+      <c r="J7" s="519"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="500">
+      <c r="A8" s="503">
         <v>1</v>
       </c>
-      <c r="B8" s="502" t="s">
+      <c r="B8" s="523" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="503"/>
-      <c r="D8" s="504"/>
-      <c r="E8" s="505"/>
-      <c r="F8" s="506"/>
-      <c r="G8" s="509"/>
-      <c r="H8" s="511"/>
-      <c r="I8" s="512"/>
-      <c r="J8" s="513"/>
+      <c r="C8" s="524"/>
+      <c r="D8" s="525"/>
+      <c r="E8" s="508"/>
+      <c r="F8" s="509"/>
+      <c r="G8" s="512"/>
+      <c r="H8" s="514"/>
+      <c r="I8" s="515"/>
+      <c r="J8" s="516"/>
     </row>
     <row r="9" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A9" s="520"/>
-      <c r="B9" s="517"/>
-      <c r="C9" s="518"/>
-      <c r="D9" s="519"/>
-      <c r="E9" s="521"/>
-      <c r="F9" s="508"/>
-      <c r="G9" s="510"/>
-      <c r="H9" s="514"/>
-      <c r="I9" s="515"/>
-      <c r="J9" s="516"/>
+      <c r="A9" s="504"/>
+      <c r="B9" s="520"/>
+      <c r="C9" s="521"/>
+      <c r="D9" s="522"/>
+      <c r="E9" s="510"/>
+      <c r="F9" s="511"/>
+      <c r="G9" s="513"/>
+      <c r="H9" s="517"/>
+      <c r="I9" s="518"/>
+      <c r="J9" s="519"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="500">
+      <c r="A10" s="503">
         <v>1</v>
       </c>
-      <c r="B10" s="502" t="s">
+      <c r="B10" s="523" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="503"/>
-      <c r="D10" s="504"/>
-      <c r="E10" s="505"/>
-      <c r="F10" s="506"/>
-      <c r="G10" s="509"/>
-      <c r="H10" s="511"/>
-      <c r="I10" s="512"/>
-      <c r="J10" s="513"/>
+      <c r="C10" s="524"/>
+      <c r="D10" s="525"/>
+      <c r="E10" s="508"/>
+      <c r="F10" s="509"/>
+      <c r="G10" s="512"/>
+      <c r="H10" s="514"/>
+      <c r="I10" s="515"/>
+      <c r="J10" s="516"/>
     </row>
     <row r="11" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A11" s="520"/>
-      <c r="B11" s="517"/>
-      <c r="C11" s="518"/>
-      <c r="D11" s="519"/>
-      <c r="E11" s="521"/>
-      <c r="F11" s="508"/>
-      <c r="G11" s="510"/>
-      <c r="H11" s="514"/>
-      <c r="I11" s="515"/>
-      <c r="J11" s="516"/>
+      <c r="A11" s="504"/>
+      <c r="B11" s="520"/>
+      <c r="C11" s="521"/>
+      <c r="D11" s="522"/>
+      <c r="E11" s="510"/>
+      <c r="F11" s="511"/>
+      <c r="G11" s="513"/>
+      <c r="H11" s="517"/>
+      <c r="I11" s="518"/>
+      <c r="J11" s="519"/>
     </row>
     <row r="12" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A12" s="500">
+      <c r="A12" s="503">
         <v>1</v>
       </c>
-      <c r="B12" s="502" t="s">
+      <c r="B12" s="523" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="503"/>
-      <c r="D12" s="504"/>
-      <c r="E12" s="505"/>
-      <c r="F12" s="506"/>
-      <c r="G12" s="509"/>
-      <c r="H12" s="511"/>
-      <c r="I12" s="512"/>
-      <c r="J12" s="513"/>
+      <c r="C12" s="524"/>
+      <c r="D12" s="525"/>
+      <c r="E12" s="508"/>
+      <c r="F12" s="509"/>
+      <c r="G12" s="512"/>
+      <c r="H12" s="514"/>
+      <c r="I12" s="515"/>
+      <c r="J12" s="516"/>
     </row>
     <row r="13" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A13" s="501"/>
-      <c r="B13" s="517"/>
-      <c r="C13" s="518"/>
-      <c r="D13" s="519"/>
-      <c r="E13" s="507"/>
-      <c r="F13" s="508"/>
-      <c r="G13" s="510"/>
-      <c r="H13" s="514"/>
-      <c r="I13" s="515"/>
-      <c r="J13" s="516"/>
+      <c r="A13" s="526"/>
+      <c r="B13" s="520"/>
+      <c r="C13" s="521"/>
+      <c r="D13" s="522"/>
+      <c r="E13" s="527"/>
+      <c r="F13" s="511"/>
+      <c r="G13" s="513"/>
+      <c r="H13" s="517"/>
+      <c r="I13" s="518"/>
+      <c r="J13" s="519"/>
     </row>
     <row r="14" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A14" s="500">
+      <c r="A14" s="503">
         <v>1</v>
       </c>
-      <c r="B14" s="502" t="s">
+      <c r="B14" s="523" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="503"/>
-      <c r="D14" s="504"/>
-      <c r="E14" s="505"/>
-      <c r="F14" s="506"/>
-      <c r="G14" s="509"/>
-      <c r="H14" s="511"/>
-      <c r="I14" s="512"/>
-      <c r="J14" s="513"/>
+      <c r="C14" s="524"/>
+      <c r="D14" s="525"/>
+      <c r="E14" s="508"/>
+      <c r="F14" s="509"/>
+      <c r="G14" s="512"/>
+      <c r="H14" s="514"/>
+      <c r="I14" s="515"/>
+      <c r="J14" s="516"/>
     </row>
     <row r="15" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A15" s="501"/>
-      <c r="B15" s="517"/>
-      <c r="C15" s="518"/>
-      <c r="D15" s="519"/>
-      <c r="E15" s="507"/>
-      <c r="F15" s="508"/>
-      <c r="G15" s="510"/>
-      <c r="H15" s="514"/>
-      <c r="I15" s="515"/>
-      <c r="J15" s="516"/>
+      <c r="A15" s="526"/>
+      <c r="B15" s="520"/>
+      <c r="C15" s="521"/>
+      <c r="D15" s="522"/>
+      <c r="E15" s="527"/>
+      <c r="F15" s="511"/>
+      <c r="G15" s="513"/>
+      <c r="H15" s="517"/>
+      <c r="I15" s="518"/>
+      <c r="J15" s="519"/>
     </row>
     <row r="16" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A16" s="500">
+      <c r="A16" s="503">
         <v>1</v>
       </c>
-      <c r="B16" s="502" t="s">
+      <c r="B16" s="523" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="503"/>
-      <c r="D16" s="504"/>
-      <c r="E16" s="505"/>
-      <c r="F16" s="506"/>
-      <c r="G16" s="509"/>
-      <c r="H16" s="511"/>
-      <c r="I16" s="512"/>
-      <c r="J16" s="513"/>
+      <c r="C16" s="524"/>
+      <c r="D16" s="525"/>
+      <c r="E16" s="508"/>
+      <c r="F16" s="509"/>
+      <c r="G16" s="512"/>
+      <c r="H16" s="514"/>
+      <c r="I16" s="515"/>
+      <c r="J16" s="516"/>
     </row>
     <row r="17" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A17" s="501"/>
-      <c r="B17" s="517"/>
-      <c r="C17" s="518"/>
-      <c r="D17" s="519"/>
-      <c r="E17" s="507"/>
-      <c r="F17" s="508"/>
-      <c r="G17" s="510"/>
-      <c r="H17" s="514"/>
-      <c r="I17" s="515"/>
-      <c r="J17" s="516"/>
+      <c r="A17" s="526"/>
+      <c r="B17" s="520"/>
+      <c r="C17" s="521"/>
+      <c r="D17" s="522"/>
+      <c r="E17" s="527"/>
+      <c r="F17" s="511"/>
+      <c r="G17" s="513"/>
+      <c r="H17" s="517"/>
+      <c r="I17" s="518"/>
+      <c r="J17" s="519"/>
     </row>
     <row r="18" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A18" s="500">
+      <c r="A18" s="503">
         <v>1</v>
       </c>
-      <c r="B18" s="502" t="s">
+      <c r="B18" s="523" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="503"/>
-      <c r="D18" s="504"/>
-      <c r="E18" s="505"/>
-      <c r="F18" s="506"/>
-      <c r="G18" s="509"/>
-      <c r="H18" s="511"/>
-      <c r="I18" s="512"/>
-      <c r="J18" s="513"/>
+      <c r="C18" s="524"/>
+      <c r="D18" s="525"/>
+      <c r="E18" s="508"/>
+      <c r="F18" s="509"/>
+      <c r="G18" s="512"/>
+      <c r="H18" s="514"/>
+      <c r="I18" s="515"/>
+      <c r="J18" s="516"/>
     </row>
     <row r="19" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A19" s="501"/>
-      <c r="B19" s="517"/>
-      <c r="C19" s="518"/>
-      <c r="D19" s="519"/>
-      <c r="E19" s="507"/>
-      <c r="F19" s="508"/>
-      <c r="G19" s="510"/>
-      <c r="H19" s="514"/>
-      <c r="I19" s="515"/>
-      <c r="J19" s="516"/>
+      <c r="A19" s="526"/>
+      <c r="B19" s="520"/>
+      <c r="C19" s="521"/>
+      <c r="D19" s="522"/>
+      <c r="E19" s="527"/>
+      <c r="F19" s="511"/>
+      <c r="G19" s="513"/>
+      <c r="H19" s="517"/>
+      <c r="I19" s="518"/>
+      <c r="J19" s="519"/>
     </row>
     <row r="20" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A20" s="500">
+      <c r="A20" s="503">
         <v>1</v>
       </c>
-      <c r="B20" s="502" t="s">
+      <c r="B20" s="523" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="503"/>
-      <c r="D20" s="504"/>
-      <c r="E20" s="505"/>
-      <c r="F20" s="506"/>
-      <c r="G20" s="509"/>
-      <c r="H20" s="511"/>
-      <c r="I20" s="512"/>
-      <c r="J20" s="513"/>
+      <c r="C20" s="524"/>
+      <c r="D20" s="525"/>
+      <c r="E20" s="508"/>
+      <c r="F20" s="509"/>
+      <c r="G20" s="512"/>
+      <c r="H20" s="514"/>
+      <c r="I20" s="515"/>
+      <c r="J20" s="516"/>
     </row>
     <row r="21" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A21" s="501"/>
-      <c r="B21" s="517"/>
-      <c r="C21" s="518"/>
-      <c r="D21" s="519"/>
-      <c r="E21" s="507"/>
-      <c r="F21" s="508"/>
-      <c r="G21" s="510"/>
-      <c r="H21" s="514"/>
-      <c r="I21" s="515"/>
-      <c r="J21" s="516"/>
+      <c r="A21" s="526"/>
+      <c r="B21" s="520"/>
+      <c r="C21" s="521"/>
+      <c r="D21" s="522"/>
+      <c r="E21" s="527"/>
+      <c r="F21" s="511"/>
+      <c r="G21" s="513"/>
+      <c r="H21" s="517"/>
+      <c r="I21" s="518"/>
+      <c r="J21" s="519"/>
     </row>
     <row r="22" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A22" s="500">
+      <c r="A22" s="503">
         <v>1</v>
       </c>
-      <c r="B22" s="502" t="s">
+      <c r="B22" s="523" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="503"/>
-      <c r="D22" s="504"/>
-      <c r="E22" s="505"/>
-      <c r="F22" s="506"/>
-      <c r="G22" s="509"/>
-      <c r="H22" s="511"/>
-      <c r="I22" s="512"/>
-      <c r="J22" s="513"/>
+      <c r="C22" s="524"/>
+      <c r="D22" s="525"/>
+      <c r="E22" s="508"/>
+      <c r="F22" s="509"/>
+      <c r="G22" s="512"/>
+      <c r="H22" s="514"/>
+      <c r="I22" s="515"/>
+      <c r="J22" s="516"/>
     </row>
     <row r="23" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A23" s="501"/>
-      <c r="B23" s="517"/>
-      <c r="C23" s="518"/>
-      <c r="D23" s="519"/>
-      <c r="E23" s="507"/>
-      <c r="F23" s="508"/>
-      <c r="G23" s="510"/>
-      <c r="H23" s="514"/>
-      <c r="I23" s="515"/>
-      <c r="J23" s="516"/>
+      <c r="A23" s="526"/>
+      <c r="B23" s="520"/>
+      <c r="C23" s="521"/>
+      <c r="D23" s="522"/>
+      <c r="E23" s="527"/>
+      <c r="F23" s="511"/>
+      <c r="G23" s="513"/>
+      <c r="H23" s="517"/>
+      <c r="I23" s="518"/>
+      <c r="J23" s="519"/>
     </row>
     <row r="24" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A24" s="500">
+      <c r="A24" s="503">
         <v>1</v>
       </c>
-      <c r="B24" s="502" t="s">
+      <c r="B24" s="523" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="503"/>
-      <c r="D24" s="504"/>
-      <c r="E24" s="505"/>
-      <c r="F24" s="506"/>
-      <c r="G24" s="509"/>
-      <c r="H24" s="511"/>
-      <c r="I24" s="512"/>
-      <c r="J24" s="513"/>
+      <c r="C24" s="524"/>
+      <c r="D24" s="525"/>
+      <c r="E24" s="508"/>
+      <c r="F24" s="509"/>
+      <c r="G24" s="512"/>
+      <c r="H24" s="514"/>
+      <c r="I24" s="515"/>
+      <c r="J24" s="516"/>
     </row>
     <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A25" s="501"/>
-      <c r="B25" s="517"/>
-      <c r="C25" s="518"/>
-      <c r="D25" s="519"/>
-      <c r="E25" s="507"/>
-      <c r="F25" s="508"/>
-      <c r="G25" s="510"/>
-      <c r="H25" s="514"/>
-      <c r="I25" s="515"/>
-      <c r="J25" s="516"/>
+      <c r="A25" s="526"/>
+      <c r="B25" s="520"/>
+      <c r="C25" s="521"/>
+      <c r="D25" s="522"/>
+      <c r="E25" s="527"/>
+      <c r="F25" s="511"/>
+      <c r="G25" s="513"/>
+      <c r="H25" s="517"/>
+      <c r="I25" s="518"/>
+      <c r="J25" s="519"/>
     </row>
     <row r="26" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A26" s="500">
+      <c r="A26" s="503">
         <v>1</v>
       </c>
-      <c r="B26" s="502" t="s">
+      <c r="B26" s="523" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="503"/>
-      <c r="D26" s="504"/>
-      <c r="E26" s="505"/>
-      <c r="F26" s="506"/>
-      <c r="G26" s="509"/>
-      <c r="H26" s="511"/>
-      <c r="I26" s="512"/>
-      <c r="J26" s="513"/>
+      <c r="C26" s="524"/>
+      <c r="D26" s="525"/>
+      <c r="E26" s="508"/>
+      <c r="F26" s="509"/>
+      <c r="G26" s="512"/>
+      <c r="H26" s="514"/>
+      <c r="I26" s="515"/>
+      <c r="J26" s="516"/>
     </row>
     <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A27" s="501"/>
-      <c r="B27" s="517"/>
-      <c r="C27" s="518"/>
-      <c r="D27" s="519"/>
-      <c r="E27" s="507"/>
-      <c r="F27" s="508"/>
-      <c r="G27" s="510"/>
-      <c r="H27" s="514"/>
-      <c r="I27" s="515"/>
-      <c r="J27" s="516"/>
+      <c r="A27" s="526"/>
+      <c r="B27" s="520"/>
+      <c r="C27" s="521"/>
+      <c r="D27" s="522"/>
+      <c r="E27" s="527"/>
+      <c r="F27" s="511"/>
+      <c r="G27" s="513"/>
+      <c r="H27" s="517"/>
+      <c r="I27" s="518"/>
+      <c r="J27" s="519"/>
     </row>
     <row r="28" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A28" s="500">
+      <c r="A28" s="503">
         <v>1</v>
       </c>
-      <c r="B28" s="502" t="s">
+      <c r="B28" s="523" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="503"/>
-      <c r="D28" s="504"/>
-      <c r="E28" s="505"/>
-      <c r="F28" s="506"/>
-      <c r="G28" s="509"/>
-      <c r="H28" s="511"/>
-      <c r="I28" s="512"/>
-      <c r="J28" s="513"/>
+      <c r="C28" s="524"/>
+      <c r="D28" s="525"/>
+      <c r="E28" s="508"/>
+      <c r="F28" s="509"/>
+      <c r="G28" s="512"/>
+      <c r="H28" s="514"/>
+      <c r="I28" s="515"/>
+      <c r="J28" s="516"/>
     </row>
     <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A29" s="501"/>
-      <c r="B29" s="517"/>
-      <c r="C29" s="518"/>
-      <c r="D29" s="519"/>
-      <c r="E29" s="507"/>
-      <c r="F29" s="508"/>
-      <c r="G29" s="510"/>
-      <c r="H29" s="514"/>
-      <c r="I29" s="515"/>
-      <c r="J29" s="516"/>
+      <c r="A29" s="526"/>
+      <c r="B29" s="520"/>
+      <c r="C29" s="521"/>
+      <c r="D29" s="522"/>
+      <c r="E29" s="527"/>
+      <c r="F29" s="511"/>
+      <c r="G29" s="513"/>
+      <c r="H29" s="517"/>
+      <c r="I29" s="518"/>
+      <c r="J29" s="519"/>
     </row>
     <row r="30" spans="1:10" ht="15.6">
       <c r="A30" s="313"/>
@@ -6849,83 +6852,83 @@
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:D5"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:J5"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:J25"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:J23"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:J21"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:J19"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:J17"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:J15"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:J13"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:J11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:J9"/>
+    <mergeCell ref="B9:D9"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:F7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:J7"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:J9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:J11"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:J13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:J15"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:J17"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:J19"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:J21"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:J23"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:J25"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:J5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6979,47 +6982,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1">
       <c r="A2" s="65"/>
-      <c r="B2" s="609"/>
-      <c r="C2" s="610"/>
-      <c r="D2" s="611"/>
-      <c r="E2" s="618" t="s">
+      <c r="B2" s="603"/>
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="619"/>
-      <c r="G2" s="619"/>
-      <c r="H2" s="620"/>
-      <c r="I2" s="624" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="625"/>
-      <c r="K2" s="628">
+      <c r="J2" s="619"/>
+      <c r="K2" s="622">
         <f>Данные!B19</f>
         <v>0</v>
       </c>
-      <c r="L2" s="629"/>
+      <c r="L2" s="623"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="639"/>
-      <c r="Q2" s="639"/>
+      <c r="P2" s="640"/>
+      <c r="Q2" s="640"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="612"/>
-      <c r="C3" s="613"/>
-      <c r="D3" s="614"/>
-      <c r="E3" s="621" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="622"/>
-      <c r="G3" s="622"/>
-      <c r="H3" s="623"/>
-      <c r="I3" s="626"/>
-      <c r="J3" s="627"/>
-      <c r="K3" s="630"/>
-      <c r="L3" s="631"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="624"/>
+      <c r="L3" s="625"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -7030,9 +7033,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="615"/>
-      <c r="C4" s="616"/>
-      <c r="D4" s="617"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -7051,22 +7054,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="563" t="s">
+      <c r="B5" s="588" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="602"/>
-      <c r="D5" s="546" t="str">
+      <c r="C5" s="626"/>
+      <c r="D5" s="549" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="547"/>
-      <c r="F5" s="547"/>
-      <c r="G5" s="547"/>
-      <c r="H5" s="548"/>
-      <c r="I5" s="603"/>
-      <c r="J5" s="604"/>
-      <c r="K5" s="605"/>
-      <c r="L5" s="548"/>
+      <c r="E5" s="550"/>
+      <c r="F5" s="550"/>
+      <c r="G5" s="550"/>
+      <c r="H5" s="551"/>
+      <c r="I5" s="627"/>
+      <c r="J5" s="628"/>
+      <c r="K5" s="629"/>
+      <c r="L5" s="551"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -7077,22 +7080,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="563" t="s">
+      <c r="B6" s="588" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="602"/>
-      <c r="D6" s="540" t="str">
+      <c r="C6" s="626"/>
+      <c r="D6" s="543" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
-      <c r="E6" s="568"/>
-      <c r="F6" s="568"/>
-      <c r="G6" s="568"/>
-      <c r="H6" s="569"/>
-      <c r="I6" s="603"/>
-      <c r="J6" s="604"/>
-      <c r="K6" s="605"/>
-      <c r="L6" s="548"/>
+      <c r="E6" s="593"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="593"/>
+      <c r="H6" s="594"/>
+      <c r="I6" s="627"/>
+      <c r="J6" s="628"/>
+      <c r="K6" s="629"/>
+      <c r="L6" s="551"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -7103,27 +7106,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="570" t="s">
+      <c r="B7" s="595" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="606"/>
-      <c r="D7" s="549">
+      <c r="C7" s="630"/>
+      <c r="D7" s="552">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="572"/>
-      <c r="F7" s="572"/>
-      <c r="G7" s="572"/>
-      <c r="H7" s="573"/>
-      <c r="I7" s="607" t="s">
+      <c r="E7" s="597"/>
+      <c r="F7" s="597"/>
+      <c r="G7" s="597"/>
+      <c r="H7" s="598"/>
+      <c r="I7" s="631" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="606"/>
-      <c r="K7" s="537">
+      <c r="J7" s="630"/>
+      <c r="K7" s="540">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="538"/>
+      <c r="L7" s="541"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -7386,12 +7389,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1">
       <c r="A16" s="78"/>
-      <c r="B16" s="560" t="s">
+      <c r="B16" s="585" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="561"/>
-      <c r="D16" s="561"/>
-      <c r="E16" s="562"/>
+      <c r="C16" s="586"/>
+      <c r="D16" s="586"/>
+      <c r="E16" s="587"/>
       <c r="F16" s="261" t="s">
         <v>16</v>
       </c>
@@ -7437,6 +7440,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
@@ -7447,15 +7459,6 @@
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
@@ -7523,47 +7526,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8">
       <c r="A2" s="172"/>
-      <c r="B2" s="609"/>
-      <c r="C2" s="610"/>
-      <c r="D2" s="611"/>
-      <c r="E2" s="618" t="s">
+      <c r="B2" s="603"/>
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="619"/>
-      <c r="G2" s="619"/>
-      <c r="H2" s="620"/>
-      <c r="I2" s="624" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="625"/>
-      <c r="K2" s="628">
+      <c r="J2" s="619"/>
+      <c r="K2" s="622">
         <f>Данные!B20</f>
         <v>0</v>
       </c>
-      <c r="L2" s="629"/>
+      <c r="L2" s="623"/>
       <c r="M2" s="173"/>
       <c r="N2" s="174"/>
       <c r="O2" s="175"/>
-      <c r="P2" s="640"/>
-      <c r="Q2" s="640"/>
+      <c r="P2" s="641"/>
+      <c r="Q2" s="641"/>
       <c r="R2" s="176"/>
       <c r="S2" s="177"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="172"/>
-      <c r="B3" s="612"/>
-      <c r="C3" s="613"/>
-      <c r="D3" s="614"/>
-      <c r="E3" s="621" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="622"/>
-      <c r="G3" s="622"/>
-      <c r="H3" s="623"/>
-      <c r="I3" s="626"/>
-      <c r="J3" s="627"/>
-      <c r="K3" s="630"/>
-      <c r="L3" s="631"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="624"/>
+      <c r="L3" s="625"/>
       <c r="M3" s="178"/>
       <c r="N3" s="179"/>
       <c r="O3" s="179"/>
@@ -7574,9 +7577,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="172"/>
-      <c r="B4" s="615"/>
-      <c r="C4" s="616"/>
-      <c r="D4" s="617"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -7595,22 +7598,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A5" s="172"/>
-      <c r="B5" s="563" t="s">
+      <c r="B5" s="588" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="602"/>
-      <c r="D5" s="546" t="str">
+      <c r="C5" s="626"/>
+      <c r="D5" s="549" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="547"/>
-      <c r="F5" s="547"/>
-      <c r="G5" s="547"/>
-      <c r="H5" s="548"/>
-      <c r="I5" s="603"/>
-      <c r="J5" s="604"/>
-      <c r="K5" s="605"/>
-      <c r="L5" s="548"/>
+      <c r="E5" s="550"/>
+      <c r="F5" s="550"/>
+      <c r="G5" s="550"/>
+      <c r="H5" s="551"/>
+      <c r="I5" s="627"/>
+      <c r="J5" s="628"/>
+      <c r="K5" s="629"/>
+      <c r="L5" s="551"/>
       <c r="M5" s="181"/>
       <c r="N5" s="179"/>
       <c r="O5" s="179"/>
@@ -7621,22 +7624,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="172"/>
-      <c r="B6" s="563" t="s">
+      <c r="B6" s="588" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="602"/>
-      <c r="D6" s="540" t="str">
+      <c r="C6" s="626"/>
+      <c r="D6" s="543" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
-      <c r="E6" s="568"/>
-      <c r="F6" s="568"/>
-      <c r="G6" s="568"/>
-      <c r="H6" s="569"/>
-      <c r="I6" s="603"/>
-      <c r="J6" s="604"/>
-      <c r="K6" s="605"/>
-      <c r="L6" s="548"/>
+      <c r="E6" s="593"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="593"/>
+      <c r="H6" s="594"/>
+      <c r="I6" s="627"/>
+      <c r="J6" s="628"/>
+      <c r="K6" s="629"/>
+      <c r="L6" s="551"/>
       <c r="M6" s="178"/>
       <c r="N6" s="179"/>
       <c r="O6" s="179"/>
@@ -7647,27 +7650,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="172"/>
-      <c r="B7" s="570" t="s">
+      <c r="B7" s="595" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="606"/>
-      <c r="D7" s="549">
+      <c r="C7" s="630"/>
+      <c r="D7" s="552">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="572"/>
-      <c r="F7" s="572"/>
-      <c r="G7" s="572"/>
-      <c r="H7" s="573"/>
-      <c r="I7" s="607" t="s">
+      <c r="E7" s="597"/>
+      <c r="F7" s="597"/>
+      <c r="G7" s="597"/>
+      <c r="H7" s="598"/>
+      <c r="I7" s="631" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="606"/>
-      <c r="K7" s="537">
+      <c r="J7" s="630"/>
+      <c r="K7" s="540">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="538"/>
+      <c r="L7" s="541"/>
       <c r="M7" s="181"/>
       <c r="N7" s="179"/>
       <c r="O7" s="179"/>
@@ -8053,6 +8056,17 @@
     <row r="20" spans="1:19" ht="13.8" thickTop="1"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -8060,17 +8074,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
@@ -8136,47 +8139,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8">
       <c r="A2" s="211"/>
-      <c r="B2" s="609"/>
-      <c r="C2" s="610"/>
-      <c r="D2" s="611"/>
-      <c r="E2" s="618" t="s">
+      <c r="B2" s="603"/>
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="619"/>
-      <c r="G2" s="619"/>
-      <c r="H2" s="620"/>
-      <c r="I2" s="624" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="625"/>
-      <c r="K2" s="628">
+      <c r="J2" s="619"/>
+      <c r="K2" s="622">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="L2" s="629"/>
+      <c r="L2" s="623"/>
       <c r="M2" s="212"/>
       <c r="N2" s="213"/>
       <c r="O2" s="214"/>
-      <c r="P2" s="644"/>
-      <c r="Q2" s="644"/>
+      <c r="P2" s="642"/>
+      <c r="Q2" s="642"/>
       <c r="R2" s="215"/>
       <c r="S2" s="216"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="211"/>
-      <c r="B3" s="612"/>
-      <c r="C3" s="613"/>
-      <c r="D3" s="614"/>
-      <c r="E3" s="621" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="622"/>
-      <c r="G3" s="622"/>
-      <c r="H3" s="623"/>
-      <c r="I3" s="626"/>
-      <c r="J3" s="627"/>
-      <c r="K3" s="630"/>
-      <c r="L3" s="631"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="624"/>
+      <c r="L3" s="625"/>
       <c r="M3" s="217"/>
       <c r="N3" s="218"/>
       <c r="O3" s="218"/>
@@ -8187,9 +8190,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="211"/>
-      <c r="B4" s="615"/>
-      <c r="C4" s="616"/>
-      <c r="D4" s="617"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -8208,22 +8211,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A5" s="211"/>
-      <c r="B5" s="563" t="s">
+      <c r="B5" s="588" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="602"/>
-      <c r="D5" s="546" t="str">
+      <c r="C5" s="626"/>
+      <c r="D5" s="549" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="547"/>
-      <c r="F5" s="547"/>
-      <c r="G5" s="547"/>
-      <c r="H5" s="548"/>
-      <c r="I5" s="603"/>
-      <c r="J5" s="604"/>
-      <c r="K5" s="605"/>
-      <c r="L5" s="548"/>
+      <c r="E5" s="550"/>
+      <c r="F5" s="550"/>
+      <c r="G5" s="550"/>
+      <c r="H5" s="551"/>
+      <c r="I5" s="627"/>
+      <c r="J5" s="628"/>
+      <c r="K5" s="629"/>
+      <c r="L5" s="551"/>
       <c r="M5" s="220"/>
       <c r="N5" s="218"/>
       <c r="O5" s="218"/>
@@ -8234,22 +8237,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="211"/>
-      <c r="B6" s="563" t="s">
+      <c r="B6" s="588" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="602"/>
-      <c r="D6" s="540" t="str">
+      <c r="C6" s="626"/>
+      <c r="D6" s="543" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
-      <c r="E6" s="568"/>
-      <c r="F6" s="568"/>
-      <c r="G6" s="568"/>
-      <c r="H6" s="569"/>
-      <c r="I6" s="603"/>
-      <c r="J6" s="604"/>
-      <c r="K6" s="605"/>
-      <c r="L6" s="548"/>
+      <c r="E6" s="593"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="593"/>
+      <c r="H6" s="594"/>
+      <c r="I6" s="627"/>
+      <c r="J6" s="628"/>
+      <c r="K6" s="629"/>
+      <c r="L6" s="551"/>
       <c r="M6" s="217"/>
       <c r="N6" s="218"/>
       <c r="O6" s="218"/>
@@ -8260,27 +8263,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="211"/>
-      <c r="B7" s="570" t="s">
+      <c r="B7" s="595" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="606"/>
-      <c r="D7" s="549">
+      <c r="C7" s="630"/>
+      <c r="D7" s="552">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="572"/>
-      <c r="F7" s="572"/>
-      <c r="G7" s="572"/>
-      <c r="H7" s="573"/>
-      <c r="I7" s="607" t="s">
+      <c r="E7" s="597"/>
+      <c r="F7" s="597"/>
+      <c r="G7" s="597"/>
+      <c r="H7" s="598"/>
+      <c r="I7" s="631" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="606"/>
-      <c r="K7" s="537">
+      <c r="J7" s="630"/>
+      <c r="K7" s="540">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="538"/>
+      <c r="L7" s="541"/>
       <c r="M7" s="220"/>
       <c r="N7" s="218"/>
       <c r="O7" s="218"/>
@@ -8609,12 +8612,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
       <c r="A18" s="221"/>
-      <c r="B18" s="641" t="s">
+      <c r="B18" s="643" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="642"/>
-      <c r="D18" s="642"/>
-      <c r="E18" s="643"/>
+      <c r="C18" s="644"/>
+      <c r="D18" s="644"/>
+      <c r="E18" s="645"/>
       <c r="F18" s="118" t="s">
         <v>16</v>
       </c>
@@ -8658,14 +8661,6 @@
     <row r="20" spans="1:19" ht="13.8" thickTop="1"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
@@ -8677,6 +8672,14 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8762,47 +8765,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8">
       <c r="A2" s="135"/>
-      <c r="B2" s="609"/>
-      <c r="C2" s="610"/>
-      <c r="D2" s="611"/>
-      <c r="E2" s="618" t="s">
+      <c r="B2" s="603"/>
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="619"/>
-      <c r="G2" s="619"/>
-      <c r="H2" s="620"/>
-      <c r="I2" s="624" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="625"/>
-      <c r="K2" s="628">
+      <c r="J2" s="619"/>
+      <c r="K2" s="622">
         <f>Данные!B25</f>
         <v>18</v>
       </c>
-      <c r="L2" s="629"/>
+      <c r="L2" s="623"/>
       <c r="M2" s="136"/>
       <c r="N2" s="137"/>
       <c r="O2" s="138"/>
-      <c r="P2" s="645"/>
-      <c r="Q2" s="645"/>
+      <c r="P2" s="646"/>
+      <c r="Q2" s="646"/>
       <c r="R2" s="139"/>
       <c r="S2" s="140"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="135"/>
-      <c r="B3" s="612"/>
-      <c r="C3" s="613"/>
-      <c r="D3" s="614"/>
-      <c r="E3" s="621" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="622"/>
-      <c r="G3" s="622"/>
-      <c r="H3" s="623"/>
-      <c r="I3" s="626"/>
-      <c r="J3" s="627"/>
-      <c r="K3" s="630"/>
-      <c r="L3" s="631"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="624"/>
+      <c r="L3" s="625"/>
       <c r="M3" s="141"/>
       <c r="N3" s="142"/>
       <c r="O3" s="142"/>
@@ -8813,9 +8816,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="135"/>
-      <c r="B4" s="615"/>
-      <c r="C4" s="616"/>
-      <c r="D4" s="617"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -8834,22 +8837,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A5" s="135"/>
-      <c r="B5" s="563" t="s">
+      <c r="B5" s="588" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="602"/>
-      <c r="D5" s="546" t="str">
+      <c r="C5" s="626"/>
+      <c r="D5" s="549" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="547"/>
-      <c r="F5" s="547"/>
-      <c r="G5" s="547"/>
-      <c r="H5" s="548"/>
-      <c r="I5" s="603"/>
-      <c r="J5" s="604"/>
-      <c r="K5" s="605"/>
-      <c r="L5" s="548"/>
+      <c r="E5" s="550"/>
+      <c r="F5" s="550"/>
+      <c r="G5" s="550"/>
+      <c r="H5" s="551"/>
+      <c r="I5" s="627"/>
+      <c r="J5" s="628"/>
+      <c r="K5" s="629"/>
+      <c r="L5" s="551"/>
       <c r="M5" s="144"/>
       <c r="N5" s="142"/>
       <c r="O5" s="142"/>
@@ -8860,22 +8863,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="135"/>
-      <c r="B6" s="563" t="s">
+      <c r="B6" s="588" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="602"/>
-      <c r="D6" s="540" t="str">
+      <c r="C6" s="626"/>
+      <c r="D6" s="543" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
-      <c r="E6" s="568"/>
-      <c r="F6" s="568"/>
-      <c r="G6" s="568"/>
-      <c r="H6" s="569"/>
-      <c r="I6" s="603"/>
-      <c r="J6" s="604"/>
-      <c r="K6" s="605"/>
-      <c r="L6" s="548"/>
+      <c r="E6" s="593"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="593"/>
+      <c r="H6" s="594"/>
+      <c r="I6" s="627"/>
+      <c r="J6" s="628"/>
+      <c r="K6" s="629"/>
+      <c r="L6" s="551"/>
       <c r="M6" s="141"/>
       <c r="N6" s="142"/>
       <c r="O6" s="142"/>
@@ -8886,27 +8889,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="135"/>
-      <c r="B7" s="570" t="s">
+      <c r="B7" s="595" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="606"/>
-      <c r="D7" s="549">
+      <c r="C7" s="630"/>
+      <c r="D7" s="552">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="572"/>
-      <c r="F7" s="572"/>
-      <c r="G7" s="572"/>
-      <c r="H7" s="573"/>
-      <c r="I7" s="607" t="s">
+      <c r="E7" s="597"/>
+      <c r="F7" s="597"/>
+      <c r="G7" s="597"/>
+      <c r="H7" s="598"/>
+      <c r="I7" s="631" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="606"/>
-      <c r="K7" s="537">
+      <c r="J7" s="630"/>
+      <c r="K7" s="540">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="538"/>
+      <c r="L7" s="541"/>
       <c r="M7" s="144"/>
       <c r="N7" s="142"/>
       <c r="O7" s="142"/>
@@ -9287,6 +9290,17 @@
     <row r="21" spans="1:19" ht="13.8" thickTop="1"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -9294,17 +9308,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:R19">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -9370,47 +9373,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8">
       <c r="A2" s="268"/>
-      <c r="B2" s="609"/>
-      <c r="C2" s="610"/>
-      <c r="D2" s="611"/>
-      <c r="E2" s="618" t="s">
+      <c r="B2" s="603"/>
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="619"/>
-      <c r="G2" s="619"/>
-      <c r="H2" s="620"/>
-      <c r="I2" s="624" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="625"/>
-      <c r="K2" s="646">
+      <c r="J2" s="619"/>
+      <c r="K2" s="648">
         <f>Данные!B23</f>
         <v>18</v>
       </c>
-      <c r="L2" s="647"/>
+      <c r="L2" s="649"/>
       <c r="M2" s="269"/>
       <c r="N2" s="270"/>
       <c r="O2" s="271"/>
-      <c r="P2" s="650"/>
-      <c r="Q2" s="650"/>
+      <c r="P2" s="647"/>
+      <c r="Q2" s="647"/>
       <c r="R2" s="272"/>
       <c r="S2" s="273"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="268"/>
-      <c r="B3" s="612"/>
-      <c r="C3" s="613"/>
-      <c r="D3" s="614"/>
-      <c r="E3" s="621" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="622"/>
-      <c r="G3" s="622"/>
-      <c r="H3" s="623"/>
-      <c r="I3" s="626"/>
-      <c r="J3" s="627"/>
-      <c r="K3" s="648"/>
-      <c r="L3" s="649"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="650"/>
+      <c r="L3" s="651"/>
       <c r="M3" s="274"/>
       <c r="N3" s="275"/>
       <c r="O3" s="275"/>
@@ -9421,9 +9424,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="268"/>
-      <c r="B4" s="615"/>
-      <c r="C4" s="616"/>
-      <c r="D4" s="617"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -9442,22 +9445,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A5" s="268"/>
-      <c r="B5" s="563" t="s">
+      <c r="B5" s="588" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="602"/>
-      <c r="D5" s="546" t="str">
+      <c r="C5" s="626"/>
+      <c r="D5" s="549" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="547"/>
-      <c r="F5" s="547"/>
-      <c r="G5" s="547"/>
-      <c r="H5" s="548"/>
-      <c r="I5" s="603"/>
-      <c r="J5" s="604"/>
-      <c r="K5" s="605"/>
-      <c r="L5" s="548"/>
+      <c r="E5" s="550"/>
+      <c r="F5" s="550"/>
+      <c r="G5" s="550"/>
+      <c r="H5" s="551"/>
+      <c r="I5" s="627"/>
+      <c r="J5" s="628"/>
+      <c r="K5" s="629"/>
+      <c r="L5" s="551"/>
       <c r="M5" s="277"/>
       <c r="N5" s="275"/>
       <c r="O5" s="275"/>
@@ -9468,22 +9471,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="268"/>
-      <c r="B6" s="563" t="s">
+      <c r="B6" s="588" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="602"/>
-      <c r="D6" s="540" t="str">
+      <c r="C6" s="626"/>
+      <c r="D6" s="543" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
-      <c r="E6" s="568"/>
-      <c r="F6" s="568"/>
-      <c r="G6" s="568"/>
-      <c r="H6" s="569"/>
-      <c r="I6" s="603"/>
-      <c r="J6" s="604"/>
-      <c r="K6" s="605"/>
-      <c r="L6" s="548"/>
+      <c r="E6" s="593"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="593"/>
+      <c r="H6" s="594"/>
+      <c r="I6" s="627"/>
+      <c r="J6" s="628"/>
+      <c r="K6" s="629"/>
+      <c r="L6" s="551"/>
       <c r="M6" s="274"/>
       <c r="N6" s="275"/>
       <c r="O6" s="275"/>
@@ -9494,27 +9497,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="268"/>
-      <c r="B7" s="570" t="s">
+      <c r="B7" s="595" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="606"/>
-      <c r="D7" s="549">
+      <c r="C7" s="630"/>
+      <c r="D7" s="552">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="572"/>
-      <c r="F7" s="572"/>
-      <c r="G7" s="572"/>
-      <c r="H7" s="573"/>
-      <c r="I7" s="607" t="s">
+      <c r="E7" s="597"/>
+      <c r="F7" s="597"/>
+      <c r="G7" s="597"/>
+      <c r="H7" s="598"/>
+      <c r="I7" s="631" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="606"/>
-      <c r="K7" s="537">
+      <c r="J7" s="630"/>
+      <c r="K7" s="540">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="538"/>
+      <c r="L7" s="541"/>
       <c r="M7" s="277"/>
       <c r="N7" s="275"/>
       <c r="O7" s="275"/>
@@ -9787,6 +9790,8 @@
     <row r="17" ht="13.8" thickTop="1"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B7:C7"/>
@@ -9803,8 +9808,6 @@
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -10614,12 +10617,12 @@
       <c r="J35" s="395"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A36" s="529" t="s">
+      <c r="A36" s="530" t="s">
         <v>127</v>
       </c>
-      <c r="B36" s="529"/>
-      <c r="C36" s="529"/>
-      <c r="D36" s="529"/>
+      <c r="B36" s="530"/>
+      <c r="C36" s="530"/>
+      <c r="D36" s="530"/>
       <c r="E36" s="395"/>
       <c r="F36" s="395"/>
       <c r="G36" s="395"/>
@@ -10628,10 +10631,10 @@
       <c r="J36" s="395"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="530" t="s">
+      <c r="A37" s="531" t="s">
         <v>128</v>
       </c>
-      <c r="B37" s="530"/>
+      <c r="B37" s="531"/>
       <c r="C37" s="468" t="s">
         <v>129</v>
       </c>
@@ -10646,11 +10649,11 @@
       <c r="J37" s="395"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="527">
+      <c r="A38" s="528">
         <f>A21-F32</f>
         <v>14368085</v>
       </c>
-      <c r="B38" s="528"/>
+      <c r="B38" s="529"/>
       <c r="C38" s="469">
         <f>1-G32</f>
         <v>0.93299253246753244</v>
@@ -10712,8 +10715,8 @@
       <c r="F42" s="473"/>
       <c r="G42" s="473"/>
       <c r="H42" s="473"/>
-      <c r="I42" s="531"/>
-      <c r="J42" s="532"/>
+      <c r="I42" s="532"/>
+      <c r="J42" s="533"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="474"/>
@@ -10807,9 +10810,9 @@
     </row>
     <row r="52" spans="1:10" ht="15.6">
       <c r="A52" s="395"/>
-      <c r="B52" s="533"/>
-      <c r="C52" s="533"/>
-      <c r="D52" s="534"/>
+      <c r="B52" s="534"/>
+      <c r="C52" s="534"/>
+      <c r="D52" s="535"/>
       <c r="E52" s="471"/>
       <c r="F52" s="395"/>
       <c r="G52" s="395"/>
@@ -10826,8 +10829,8 @@
       <c r="F53" s="473"/>
       <c r="G53" s="473"/>
       <c r="H53" s="473"/>
-      <c r="I53" s="531"/>
-      <c r="J53" s="532"/>
+      <c r="I53" s="532"/>
+      <c r="J53" s="533"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="474"/>
@@ -10838,8 +10841,8 @@
       <c r="F54" s="421"/>
       <c r="G54" s="421"/>
       <c r="H54" s="475"/>
-      <c r="I54" s="535"/>
-      <c r="J54" s="535"/>
+      <c r="I54" s="536"/>
+      <c r="J54" s="536"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="474"/>
@@ -10850,8 +10853,8 @@
       <c r="F55" s="413"/>
       <c r="G55" s="413"/>
       <c r="H55" s="413"/>
-      <c r="I55" s="535"/>
-      <c r="J55" s="535"/>
+      <c r="I55" s="536"/>
+      <c r="J55" s="536"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="395"/>
@@ -10864,12 +10867,12 @@
       <c r="H56" s="395"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="B61" s="531"/>
-      <c r="C61" s="532"/>
+      <c r="B61" s="532"/>
+      <c r="C61" s="533"/>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="531"/>
-      <c r="C68" s="532"/>
+      <c r="B68" s="532"/>
+      <c r="C68" s="533"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -10909,25 +10912,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A1" s="539" t="s">
+      <c r="A1" s="542" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="543"/>
-      <c r="C1" s="543"/>
-      <c r="D1" s="543"/>
-      <c r="E1" s="543"/>
+      <c r="B1" s="546"/>
+      <c r="C1" s="546"/>
+      <c r="D1" s="546"/>
+      <c r="E1" s="546"/>
       <c r="G1" s="373" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1">
-      <c r="A2" s="540" t="s">
+      <c r="A2" s="543" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="541"/>
-      <c r="C2" s="541"/>
-      <c r="D2" s="541"/>
-      <c r="E2" s="542"/>
+      <c r="B2" s="544"/>
+      <c r="C2" s="544"/>
+      <c r="D2" s="544"/>
+      <c r="E2" s="545"/>
       <c r="G2" s="372" t="s">
         <v>78</v>
       </c>
@@ -10938,45 +10941,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A4" s="544" t="s">
+      <c r="A4" s="547" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="545"/>
-      <c r="C4" s="545"/>
-      <c r="D4" s="545"/>
-      <c r="E4" s="545"/>
+      <c r="B4" s="548"/>
+      <c r="C4" s="548"/>
+      <c r="D4" s="548"/>
+      <c r="E4" s="548"/>
     </row>
     <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A5" s="546" t="s">
+      <c r="A5" s="549" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="547"/>
-      <c r="C5" s="547"/>
-      <c r="D5" s="547"/>
-      <c r="E5" s="548"/>
+      <c r="B5" s="550"/>
+      <c r="C5" s="550"/>
+      <c r="D5" s="550"/>
+      <c r="E5" s="551"/>
     </row>
     <row r="6" spans="1:11" ht="13.8" thickTop="1"/>
     <row r="7" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A7" s="539" t="s">
+      <c r="A7" s="542" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="543"/>
-      <c r="C7" s="543"/>
-      <c r="D7" s="543"/>
-      <c r="E7" s="543"/>
+      <c r="B7" s="546"/>
+      <c r="C7" s="546"/>
+      <c r="D7" s="546"/>
+      <c r="E7" s="546"/>
     </row>
     <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A8" s="549"/>
-      <c r="B8" s="550"/>
-      <c r="C8" s="550"/>
-      <c r="D8" s="550"/>
-      <c r="E8" s="551"/>
+      <c r="A8" s="552"/>
+      <c r="B8" s="553"/>
+      <c r="C8" s="553"/>
+      <c r="D8" s="553"/>
+      <c r="E8" s="554"/>
     </row>
     <row r="10" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A10" s="539" t="s">
+      <c r="A10" s="542" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="539"/>
+      <c r="B10" s="542"/>
       <c r="C10" s="374"/>
       <c r="D10" s="382" t="s">
         <v>92</v>
@@ -10987,33 +10990,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A11" s="537"/>
-      <c r="B11" s="538"/>
+      <c r="A11" s="540"/>
+      <c r="B11" s="541"/>
       <c r="D11" s="381">
         <v>43775</v>
       </c>
-      <c r="F11" s="552" t="s">
+      <c r="F11" s="537" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="552"/>
-      <c r="H11" s="552"/>
-      <c r="I11" s="552"/>
-      <c r="J11" s="553" t="s">
+      <c r="G11" s="537"/>
+      <c r="H11" s="537"/>
+      <c r="I11" s="537"/>
+      <c r="J11" s="538" t="s">
         <v>97</v>
       </c>
-      <c r="K11" s="553"/>
+      <c r="K11" s="538"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="F12" s="552" t="s">
+      <c r="F12" s="537" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="552"/>
-      <c r="H12" s="552"/>
-      <c r="I12" s="552"/>
-      <c r="J12" s="553" t="s">
+      <c r="G12" s="537"/>
+      <c r="H12" s="537"/>
+      <c r="I12" s="537"/>
+      <c r="J12" s="538" t="s">
         <v>98</v>
       </c>
-      <c r="K12" s="553"/>
+      <c r="K12" s="538"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="375" t="s">
@@ -11025,16 +11028,16 @@
       <c r="C13" s="386" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="552" t="s">
+      <c r="F13" s="537" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="552"/>
-      <c r="H13" s="552"/>
-      <c r="I13" s="552"/>
-      <c r="J13" s="553" t="s">
+      <c r="G13" s="537"/>
+      <c r="H13" s="537"/>
+      <c r="I13" s="537"/>
+      <c r="J13" s="538" t="s">
         <v>99</v>
       </c>
-      <c r="K13" s="553"/>
+      <c r="K13" s="538"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="377" t="s">
@@ -11180,11 +11183,11 @@
       <c r="A28" s="383"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="536" t="s">
+      <c r="A29" s="539" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="536"/>
-      <c r="C29" s="536"/>
+      <c r="B29" s="539"/>
+      <c r="C29" s="539"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="373" t="s">
@@ -11193,12 +11196,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -11208,6 +11205,12 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -11218,8 +11221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K57"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A23" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46:F47"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A17" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -11285,47 +11288,47 @@
       <c r="J8" s="319"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
-      <c r="A11" s="555" t="s">
+      <c r="A11" s="559" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="555"/>
-      <c r="C11" s="555"/>
-      <c r="D11" s="555"/>
-      <c r="E11" s="555"/>
-      <c r="F11" s="555"/>
-      <c r="G11" s="555"/>
-      <c r="H11" s="555"/>
-      <c r="I11" s="555"/>
-      <c r="J11" s="555"/>
+      <c r="B11" s="559"/>
+      <c r="C11" s="559"/>
+      <c r="D11" s="559"/>
+      <c r="E11" s="559"/>
+      <c r="F11" s="559"/>
+      <c r="G11" s="559"/>
+      <c r="H11" s="559"/>
+      <c r="I11" s="559"/>
+      <c r="J11" s="559"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
-      <c r="A12" s="554" t="s">
+      <c r="A12" s="558" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="554"/>
-      <c r="C12" s="554"/>
-      <c r="D12" s="554"/>
-      <c r="E12" s="554"/>
-      <c r="F12" s="554"/>
-      <c r="G12" s="554"/>
-      <c r="H12" s="554"/>
-      <c r="I12" s="554"/>
-      <c r="J12" s="554"/>
+      <c r="B12" s="558"/>
+      <c r="C12" s="558"/>
+      <c r="D12" s="558"/>
+      <c r="E12" s="558"/>
+      <c r="F12" s="558"/>
+      <c r="G12" s="558"/>
+      <c r="H12" s="558"/>
+      <c r="I12" s="558"/>
+      <c r="J12" s="558"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1">
-      <c r="A13" s="556" t="str">
+      <c r="A13" s="560" t="str">
         <f>Данные!A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
-      <c r="B13" s="555"/>
-      <c r="C13" s="555"/>
-      <c r="D13" s="555"/>
-      <c r="E13" s="555"/>
-      <c r="F13" s="555"/>
-      <c r="G13" s="555"/>
-      <c r="H13" s="555"/>
-      <c r="I13" s="555"/>
-      <c r="J13" s="555"/>
+      <c r="B13" s="559"/>
+      <c r="C13" s="559"/>
+      <c r="D13" s="559"/>
+      <c r="E13" s="559"/>
+      <c r="F13" s="559"/>
+      <c r="G13" s="559"/>
+      <c r="H13" s="559"/>
+      <c r="I13" s="559"/>
+      <c r="J13" s="559"/>
     </row>
     <row r="15" spans="1:11" ht="15.6">
       <c r="A15" s="313" t="s">
@@ -11450,489 +11453,491 @@
       <c r="J21" s="314"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A22" s="525" t="s">
+      <c r="A22" s="501" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="525" t="s">
+      <c r="B22" s="501" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="525"/>
-      <c r="D22" s="525"/>
-      <c r="E22" s="525" t="s">
+      <c r="C22" s="501"/>
+      <c r="D22" s="501"/>
+      <c r="E22" s="501" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="525"/>
-      <c r="G22" s="526" t="s">
+      <c r="F22" s="501"/>
+      <c r="G22" s="502" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="525" t="s">
+      <c r="H22" s="501" t="s">
         <v>68</v>
       </c>
-      <c r="I22" s="525"/>
-      <c r="J22" s="525"/>
+      <c r="I22" s="501"/>
+      <c r="J22" s="501"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="525"/>
-      <c r="B23" s="525"/>
-      <c r="C23" s="525"/>
-      <c r="D23" s="525"/>
-      <c r="E23" s="525"/>
-      <c r="F23" s="525"/>
-      <c r="G23" s="526"/>
-      <c r="H23" s="525"/>
-      <c r="I23" s="525"/>
-      <c r="J23" s="525"/>
+      <c r="A23" s="501"/>
+      <c r="B23" s="501"/>
+      <c r="C23" s="501"/>
+      <c r="D23" s="501"/>
+      <c r="E23" s="501"/>
+      <c r="F23" s="501"/>
+      <c r="G23" s="502"/>
+      <c r="H23" s="501"/>
+      <c r="I23" s="501"/>
+      <c r="J23" s="501"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="500">
+      <c r="A24" s="503">
         <v>1</v>
       </c>
-      <c r="B24" s="502" t="s">
+      <c r="B24" s="523" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="503"/>
-      <c r="D24" s="504"/>
-      <c r="E24" s="505" t="str">
+      <c r="C24" s="524"/>
+      <c r="D24" s="525"/>
+      <c r="E24" s="508" t="str">
         <f>Данные!C14</f>
         <v>XXI-В-30-4А-700</v>
       </c>
-      <c r="F24" s="506"/>
-      <c r="G24" s="509">
+      <c r="F24" s="509"/>
+      <c r="G24" s="512">
         <f>Данные!B14</f>
         <v>22</v>
       </c>
-      <c r="H24" s="511"/>
-      <c r="I24" s="512"/>
-      <c r="J24" s="513"/>
+      <c r="H24" s="514" t="s">
+        <v>151</v>
+      </c>
+      <c r="I24" s="515"/>
+      <c r="J24" s="516"/>
     </row>
     <row r="25" spans="1:10" ht="45.6" customHeight="1">
-      <c r="A25" s="520"/>
-      <c r="B25" s="557" t="str">
+      <c r="A25" s="504"/>
+      <c r="B25" s="555" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C25" s="558"/>
-      <c r="D25" s="559"/>
-      <c r="E25" s="521"/>
-      <c r="F25" s="508"/>
-      <c r="G25" s="510"/>
-      <c r="H25" s="514"/>
-      <c r="I25" s="515"/>
-      <c r="J25" s="516"/>
+      <c r="C25" s="556"/>
+      <c r="D25" s="557"/>
+      <c r="E25" s="510"/>
+      <c r="F25" s="511"/>
+      <c r="G25" s="513"/>
+      <c r="H25" s="517"/>
+      <c r="I25" s="518"/>
+      <c r="J25" s="519"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="500">
+      <c r="A26" s="503">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="502" t="s">
+      <c r="B26" s="523" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="503"/>
-      <c r="D26" s="504"/>
-      <c r="E26" s="505" t="str">
+      <c r="C26" s="524"/>
+      <c r="D26" s="525"/>
+      <c r="E26" s="508" t="str">
         <f>Данные!C15</f>
         <v>XXI-В-30-4А-700</v>
       </c>
-      <c r="F26" s="506"/>
-      <c r="G26" s="509">
+      <c r="F26" s="509"/>
+      <c r="G26" s="512">
         <f>Данные!B15</f>
         <v>22</v>
       </c>
-      <c r="H26" s="511"/>
-      <c r="I26" s="512"/>
-      <c r="J26" s="513"/>
+      <c r="H26" s="514"/>
+      <c r="I26" s="515"/>
+      <c r="J26" s="516"/>
     </row>
     <row r="27" spans="1:10" ht="44.4" customHeight="1">
-      <c r="A27" s="520"/>
-      <c r="B27" s="557" t="str">
+      <c r="A27" s="504"/>
+      <c r="B27" s="555" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C27" s="558"/>
-      <c r="D27" s="559"/>
-      <c r="E27" s="521"/>
-      <c r="F27" s="508"/>
-      <c r="G27" s="510"/>
-      <c r="H27" s="514"/>
-      <c r="I27" s="515"/>
-      <c r="J27" s="516"/>
+      <c r="C27" s="556"/>
+      <c r="D27" s="557"/>
+      <c r="E27" s="510"/>
+      <c r="F27" s="511"/>
+      <c r="G27" s="513"/>
+      <c r="H27" s="517"/>
+      <c r="I27" s="518"/>
+      <c r="J27" s="519"/>
     </row>
     <row r="28" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A28" s="500">
+      <c r="A28" s="503">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="502" t="s">
+      <c r="B28" s="523" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="503"/>
-      <c r="D28" s="504"/>
-      <c r="E28" s="505" t="str">
+      <c r="C28" s="524"/>
+      <c r="D28" s="525"/>
+      <c r="E28" s="508" t="str">
         <f>Данные!C16</f>
         <v>XXI-В-30-4А-700</v>
       </c>
-      <c r="F28" s="506"/>
-      <c r="G28" s="509">
+      <c r="F28" s="509"/>
+      <c r="G28" s="512">
         <f>Данные!B16</f>
         <v>26</v>
       </c>
-      <c r="H28" s="511"/>
-      <c r="I28" s="512"/>
-      <c r="J28" s="513"/>
+      <c r="H28" s="514"/>
+      <c r="I28" s="515"/>
+      <c r="J28" s="516"/>
     </row>
     <row r="29" spans="1:10" ht="46.2" customHeight="1">
-      <c r="A29" s="520"/>
-      <c r="B29" s="557" t="str">
+      <c r="A29" s="504"/>
+      <c r="B29" s="555" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C29" s="558"/>
-      <c r="D29" s="559"/>
-      <c r="E29" s="521"/>
-      <c r="F29" s="508"/>
-      <c r="G29" s="510"/>
-      <c r="H29" s="514"/>
-      <c r="I29" s="515"/>
-      <c r="J29" s="516"/>
+      <c r="C29" s="556"/>
+      <c r="D29" s="557"/>
+      <c r="E29" s="510"/>
+      <c r="F29" s="511"/>
+      <c r="G29" s="513"/>
+      <c r="H29" s="517"/>
+      <c r="I29" s="518"/>
+      <c r="J29" s="519"/>
     </row>
     <row r="30" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A30" s="500">
+      <c r="A30" s="503">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="502" t="s">
+      <c r="B30" s="523" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="503"/>
-      <c r="D30" s="504"/>
-      <c r="E30" s="505" t="str">
+      <c r="C30" s="524"/>
+      <c r="D30" s="525"/>
+      <c r="E30" s="508" t="str">
         <f>Данные!C17</f>
         <v>XXI-В-30-4А-700</v>
       </c>
-      <c r="F30" s="506"/>
-      <c r="G30" s="509">
+      <c r="F30" s="509"/>
+      <c r="G30" s="512">
         <f>Данные!B17</f>
         <v>26</v>
       </c>
-      <c r="H30" s="511"/>
-      <c r="I30" s="512"/>
-      <c r="J30" s="513"/>
+      <c r="H30" s="514"/>
+      <c r="I30" s="515"/>
+      <c r="J30" s="516"/>
     </row>
     <row r="31" spans="1:10" ht="48.6" customHeight="1">
-      <c r="A31" s="520"/>
-      <c r="B31" s="557" t="str">
+      <c r="A31" s="504"/>
+      <c r="B31" s="555" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C31" s="558"/>
-      <c r="D31" s="559"/>
-      <c r="E31" s="507"/>
-      <c r="F31" s="508"/>
-      <c r="G31" s="510"/>
-      <c r="H31" s="514"/>
-      <c r="I31" s="515"/>
-      <c r="J31" s="516"/>
+      <c r="C31" s="556"/>
+      <c r="D31" s="557"/>
+      <c r="E31" s="527"/>
+      <c r="F31" s="511"/>
+      <c r="G31" s="513"/>
+      <c r="H31" s="517"/>
+      <c r="I31" s="518"/>
+      <c r="J31" s="519"/>
     </row>
     <row r="32" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A32" s="500">
+      <c r="A32" s="503">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="502" t="s">
+      <c r="B32" s="523" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="503"/>
-      <c r="D32" s="504"/>
-      <c r="E32" s="505" t="str">
+      <c r="C32" s="524"/>
+      <c r="D32" s="525"/>
+      <c r="E32" s="508" t="str">
         <f>Данные!C18</f>
         <v>XXI-В-30-4А-700</v>
       </c>
-      <c r="F32" s="506"/>
-      <c r="G32" s="509" t="s">
+      <c r="F32" s="509"/>
+      <c r="G32" s="512" t="s">
         <v>60</v>
       </c>
-      <c r="H32" s="511"/>
-      <c r="I32" s="512"/>
-      <c r="J32" s="513"/>
+      <c r="H32" s="514"/>
+      <c r="I32" s="515"/>
+      <c r="J32" s="516"/>
     </row>
     <row r="33" spans="1:10" ht="44.4" customHeight="1">
-      <c r="A33" s="520"/>
-      <c r="B33" s="557" t="str">
+      <c r="A33" s="504"/>
+      <c r="B33" s="555" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C33" s="558"/>
-      <c r="D33" s="559"/>
-      <c r="E33" s="507"/>
-      <c r="F33" s="508"/>
-      <c r="G33" s="510"/>
-      <c r="H33" s="514"/>
-      <c r="I33" s="515"/>
-      <c r="J33" s="516"/>
+      <c r="C33" s="556"/>
+      <c r="D33" s="557"/>
+      <c r="E33" s="527"/>
+      <c r="F33" s="511"/>
+      <c r="G33" s="513"/>
+      <c r="H33" s="517"/>
+      <c r="I33" s="518"/>
+      <c r="J33" s="519"/>
     </row>
     <row r="34" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A34" s="500">
+      <c r="A34" s="503">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="502" t="s">
+      <c r="B34" s="523" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="503"/>
-      <c r="D34" s="504"/>
-      <c r="E34" s="505" t="str">
+      <c r="C34" s="524"/>
+      <c r="D34" s="525"/>
+      <c r="E34" s="508" t="str">
         <f>Данные!C19</f>
         <v>XXI-В-30-4А-700</v>
       </c>
-      <c r="F34" s="506"/>
-      <c r="G34" s="509" t="s">
+      <c r="F34" s="509"/>
+      <c r="G34" s="512" t="s">
         <v>60</v>
       </c>
-      <c r="H34" s="511"/>
-      <c r="I34" s="512"/>
-      <c r="J34" s="513"/>
+      <c r="H34" s="514"/>
+      <c r="I34" s="515"/>
+      <c r="J34" s="516"/>
     </row>
     <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A35" s="520"/>
-      <c r="B35" s="557" t="str">
+      <c r="A35" s="504"/>
+      <c r="B35" s="555" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C35" s="558"/>
-      <c r="D35" s="559"/>
-      <c r="E35" s="507"/>
-      <c r="F35" s="508"/>
-      <c r="G35" s="510"/>
-      <c r="H35" s="514"/>
-      <c r="I35" s="515"/>
-      <c r="J35" s="516"/>
+      <c r="C35" s="556"/>
+      <c r="D35" s="557"/>
+      <c r="E35" s="527"/>
+      <c r="F35" s="511"/>
+      <c r="G35" s="513"/>
+      <c r="H35" s="517"/>
+      <c r="I35" s="518"/>
+      <c r="J35" s="519"/>
     </row>
     <row r="36" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A36" s="500">
+      <c r="A36" s="503">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="502" t="s">
+      <c r="B36" s="523" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="503"/>
-      <c r="D36" s="504"/>
-      <c r="E36" s="505" t="str">
+      <c r="C36" s="524"/>
+      <c r="D36" s="525"/>
+      <c r="E36" s="508" t="str">
         <f>Данные!C20</f>
         <v>XXI-В-30-4А-700</v>
       </c>
-      <c r="F36" s="506"/>
-      <c r="G36" s="509" t="s">
+      <c r="F36" s="509"/>
+      <c r="G36" s="512" t="s">
         <v>60</v>
       </c>
-      <c r="H36" s="511"/>
-      <c r="I36" s="512"/>
-      <c r="J36" s="513"/>
+      <c r="H36" s="514"/>
+      <c r="I36" s="515"/>
+      <c r="J36" s="516"/>
     </row>
     <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A37" s="520"/>
-      <c r="B37" s="557" t="str">
+      <c r="A37" s="504"/>
+      <c r="B37" s="555" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C37" s="558"/>
-      <c r="D37" s="559"/>
-      <c r="E37" s="507"/>
-      <c r="F37" s="508"/>
-      <c r="G37" s="510"/>
-      <c r="H37" s="514"/>
-      <c r="I37" s="515"/>
-      <c r="J37" s="516"/>
+      <c r="C37" s="556"/>
+      <c r="D37" s="557"/>
+      <c r="E37" s="527"/>
+      <c r="F37" s="511"/>
+      <c r="G37" s="513"/>
+      <c r="H37" s="517"/>
+      <c r="I37" s="518"/>
+      <c r="J37" s="519"/>
     </row>
     <row r="38" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A38" s="500">
+      <c r="A38" s="503">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="502" t="s">
+      <c r="B38" s="523" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="503"/>
-      <c r="D38" s="504"/>
-      <c r="E38" s="505" t="str">
+      <c r="C38" s="524"/>
+      <c r="D38" s="525"/>
+      <c r="E38" s="508" t="str">
         <f>Данные!C21</f>
         <v>XXI-В-30-4А-700</v>
       </c>
-      <c r="F38" s="506"/>
-      <c r="G38" s="509">
+      <c r="F38" s="509"/>
+      <c r="G38" s="512">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="H38" s="511"/>
-      <c r="I38" s="512"/>
-      <c r="J38" s="513"/>
+      <c r="H38" s="514"/>
+      <c r="I38" s="515"/>
+      <c r="J38" s="516"/>
     </row>
     <row r="39" spans="1:10" ht="49.2" customHeight="1">
-      <c r="A39" s="520"/>
-      <c r="B39" s="557" t="str">
+      <c r="A39" s="504"/>
+      <c r="B39" s="555" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C39" s="558"/>
-      <c r="D39" s="559"/>
-      <c r="E39" s="507"/>
-      <c r="F39" s="508"/>
-      <c r="G39" s="510"/>
-      <c r="H39" s="514"/>
-      <c r="I39" s="515"/>
-      <c r="J39" s="516"/>
+      <c r="C39" s="556"/>
+      <c r="D39" s="557"/>
+      <c r="E39" s="527"/>
+      <c r="F39" s="511"/>
+      <c r="G39" s="513"/>
+      <c r="H39" s="517"/>
+      <c r="I39" s="518"/>
+      <c r="J39" s="519"/>
     </row>
     <row r="40" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A40" s="500">
+      <c r="A40" s="503">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="502" t="s">
+      <c r="B40" s="523" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="503"/>
-      <c r="D40" s="504"/>
-      <c r="E40" s="505" t="str">
+      <c r="C40" s="524"/>
+      <c r="D40" s="525"/>
+      <c r="E40" s="508" t="str">
         <f>Данные!C23</f>
         <v>XXI-В-30-4А-700</v>
       </c>
-      <c r="F40" s="506"/>
-      <c r="G40" s="509">
+      <c r="F40" s="509"/>
+      <c r="G40" s="512">
         <f>Данные!B23</f>
         <v>18</v>
       </c>
-      <c r="H40" s="511"/>
-      <c r="I40" s="512"/>
-      <c r="J40" s="513"/>
+      <c r="H40" s="514"/>
+      <c r="I40" s="515"/>
+      <c r="J40" s="516"/>
     </row>
     <row r="41" spans="1:10" ht="47.4" customHeight="1">
-      <c r="A41" s="520"/>
-      <c r="B41" s="557" t="str">
+      <c r="A41" s="504"/>
+      <c r="B41" s="555" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C41" s="558"/>
-      <c r="D41" s="559"/>
-      <c r="E41" s="507"/>
-      <c r="F41" s="508"/>
-      <c r="G41" s="510"/>
-      <c r="H41" s="514"/>
-      <c r="I41" s="515"/>
-      <c r="J41" s="516"/>
+      <c r="C41" s="556"/>
+      <c r="D41" s="557"/>
+      <c r="E41" s="527"/>
+      <c r="F41" s="511"/>
+      <c r="G41" s="513"/>
+      <c r="H41" s="517"/>
+      <c r="I41" s="518"/>
+      <c r="J41" s="519"/>
     </row>
     <row r="42" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A42" s="500">
+      <c r="A42" s="503">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="502" t="s">
+      <c r="B42" s="523" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="503"/>
-      <c r="D42" s="504"/>
-      <c r="E42" s="505" t="str">
+      <c r="C42" s="524"/>
+      <c r="D42" s="525"/>
+      <c r="E42" s="508" t="str">
         <f>Данные!C25</f>
         <v>XXI-В-30-4А-700</v>
       </c>
-      <c r="F42" s="506"/>
-      <c r="G42" s="509">
+      <c r="F42" s="509"/>
+      <c r="G42" s="512">
         <f>Данные!B25</f>
         <v>18</v>
       </c>
-      <c r="H42" s="511"/>
-      <c r="I42" s="512"/>
-      <c r="J42" s="513"/>
+      <c r="H42" s="514"/>
+      <c r="I42" s="515"/>
+      <c r="J42" s="516"/>
     </row>
     <row r="43" spans="1:10" ht="48.6" customHeight="1">
-      <c r="A43" s="520"/>
-      <c r="B43" s="557" t="str">
+      <c r="A43" s="504"/>
+      <c r="B43" s="555" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C43" s="558"/>
-      <c r="D43" s="559"/>
-      <c r="E43" s="507"/>
-      <c r="F43" s="508"/>
-      <c r="G43" s="510"/>
-      <c r="H43" s="514"/>
-      <c r="I43" s="515"/>
-      <c r="J43" s="516"/>
+      <c r="C43" s="556"/>
+      <c r="D43" s="557"/>
+      <c r="E43" s="527"/>
+      <c r="F43" s="511"/>
+      <c r="G43" s="513"/>
+      <c r="H43" s="517"/>
+      <c r="I43" s="518"/>
+      <c r="J43" s="519"/>
     </row>
     <row r="44" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A44" s="500">
+      <c r="A44" s="503">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="502" t="s">
+      <c r="B44" s="523" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="503"/>
-      <c r="D44" s="504"/>
-      <c r="E44" s="505" t="s">
+      <c r="C44" s="524"/>
+      <c r="D44" s="525"/>
+      <c r="E44" s="508" t="s">
         <v>60</v>
       </c>
-      <c r="F44" s="506"/>
-      <c r="G44" s="509">
+      <c r="F44" s="509"/>
+      <c r="G44" s="512">
         <f>Данные!B26</f>
         <v>18</v>
       </c>
-      <c r="H44" s="511"/>
-      <c r="I44" s="512"/>
-      <c r="J44" s="513"/>
+      <c r="H44" s="514"/>
+      <c r="I44" s="515"/>
+      <c r="J44" s="516"/>
     </row>
     <row r="45" spans="1:10" ht="40.799999999999997" customHeight="1">
-      <c r="A45" s="520"/>
-      <c r="B45" s="557" t="str">
+      <c r="A45" s="504"/>
+      <c r="B45" s="555" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C45" s="558"/>
-      <c r="D45" s="559"/>
-      <c r="E45" s="507"/>
-      <c r="F45" s="508"/>
-      <c r="G45" s="510"/>
-      <c r="H45" s="514"/>
-      <c r="I45" s="515"/>
-      <c r="J45" s="516"/>
+      <c r="C45" s="556"/>
+      <c r="D45" s="557"/>
+      <c r="E45" s="527"/>
+      <c r="F45" s="511"/>
+      <c r="G45" s="513"/>
+      <c r="H45" s="517"/>
+      <c r="I45" s="518"/>
+      <c r="J45" s="519"/>
     </row>
     <row r="46" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A46" s="500">
+      <c r="A46" s="503">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="502" t="s">
+      <c r="B46" s="523" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="503"/>
-      <c r="D46" s="504"/>
-      <c r="E46" s="505" t="str">
+      <c r="C46" s="524"/>
+      <c r="D46" s="525"/>
+      <c r="E46" s="508" t="str">
         <f>Данные!C24</f>
         <v>XXI-В-30-4А-700</v>
       </c>
-      <c r="F46" s="506"/>
-      <c r="G46" s="509">
+      <c r="F46" s="509"/>
+      <c r="G46" s="512">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="511"/>
-      <c r="I46" s="512"/>
-      <c r="J46" s="513"/>
+      <c r="H46" s="514"/>
+      <c r="I46" s="515"/>
+      <c r="J46" s="516"/>
     </row>
     <row r="47" spans="1:10" ht="42.6" customHeight="1">
-      <c r="A47" s="520"/>
-      <c r="B47" s="557" t="str">
+      <c r="A47" s="504"/>
+      <c r="B47" s="555" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C47" s="558"/>
-      <c r="D47" s="559"/>
-      <c r="E47" s="507"/>
-      <c r="F47" s="508"/>
-      <c r="G47" s="510"/>
-      <c r="H47" s="514"/>
-      <c r="I47" s="515"/>
-      <c r="J47" s="516"/>
+      <c r="C47" s="556"/>
+      <c r="D47" s="557"/>
+      <c r="E47" s="527"/>
+      <c r="F47" s="511"/>
+      <c r="G47" s="513"/>
+      <c r="H47" s="517"/>
+      <c r="I47" s="518"/>
+      <c r="J47" s="519"/>
     </row>
     <row r="48" spans="1:10" ht="15.6">
       <c r="A48" s="313"/>
@@ -12061,70 +12066,6 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -12141,6 +12082,70 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -12152,8 +12157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H21" activePane="bottomRight" state="frozen"/>
+    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
@@ -12195,47 +12200,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8">
       <c r="A2" s="65"/>
-      <c r="B2" s="578"/>
-      <c r="C2" s="579"/>
-      <c r="D2" s="580"/>
-      <c r="E2" s="587" t="s">
+      <c r="B2" s="561"/>
+      <c r="C2" s="562"/>
+      <c r="D2" s="563"/>
+      <c r="E2" s="570" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="588"/>
-      <c r="G2" s="588"/>
-      <c r="H2" s="589"/>
-      <c r="I2" s="594" t="s">
+      <c r="F2" s="571"/>
+      <c r="G2" s="571"/>
+      <c r="H2" s="572"/>
+      <c r="I2" s="577" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="595"/>
-      <c r="K2" s="598">
+      <c r="J2" s="578"/>
+      <c r="K2" s="581">
         <f>Данные!B14</f>
         <v>22</v>
       </c>
-      <c r="L2" s="599"/>
+      <c r="L2" s="582"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="590"/>
-      <c r="Q2" s="590"/>
+      <c r="P2" s="573"/>
+      <c r="Q2" s="573"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="23.4" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="581"/>
-      <c r="C3" s="582"/>
-      <c r="D3" s="583"/>
-      <c r="E3" s="591" t="s">
+      <c r="B3" s="564"/>
+      <c r="C3" s="565"/>
+      <c r="D3" s="566"/>
+      <c r="E3" s="574" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="592"/>
-      <c r="G3" s="592"/>
-      <c r="H3" s="593"/>
-      <c r="I3" s="596"/>
-      <c r="J3" s="597"/>
-      <c r="K3" s="600"/>
-      <c r="L3" s="601"/>
+      <c r="F3" s="575"/>
+      <c r="G3" s="575"/>
+      <c r="H3" s="576"/>
+      <c r="I3" s="579"/>
+      <c r="J3" s="580"/>
+      <c r="K3" s="583"/>
+      <c r="L3" s="584"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12246,9 +12251,9 @@
     </row>
     <row r="4" spans="1:19" ht="23.4" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="584"/>
-      <c r="C4" s="585"/>
-      <c r="D4" s="586"/>
+      <c r="B4" s="567"/>
+      <c r="C4" s="568"/>
+      <c r="D4" s="569"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12267,22 +12272,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="563" t="s">
+      <c r="B5" s="588" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="564"/>
-      <c r="D5" s="546" t="str">
+      <c r="C5" s="589"/>
+      <c r="D5" s="549" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="547"/>
-      <c r="F5" s="547"/>
-      <c r="G5" s="547"/>
-      <c r="H5" s="548"/>
-      <c r="I5" s="565"/>
-      <c r="J5" s="566"/>
-      <c r="K5" s="547"/>
-      <c r="L5" s="548"/>
+      <c r="E5" s="550"/>
+      <c r="F5" s="550"/>
+      <c r="G5" s="550"/>
+      <c r="H5" s="551"/>
+      <c r="I5" s="590"/>
+      <c r="J5" s="591"/>
+      <c r="K5" s="550"/>
+      <c r="L5" s="551"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12293,22 +12298,22 @@
     </row>
     <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="563" t="s">
+      <c r="B6" s="588" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="567"/>
-      <c r="D6" s="540" t="str">
+      <c r="C6" s="592"/>
+      <c r="D6" s="543" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
-      <c r="E6" s="568"/>
-      <c r="F6" s="568"/>
-      <c r="G6" s="568"/>
-      <c r="H6" s="569"/>
-      <c r="I6" s="565"/>
-      <c r="J6" s="566"/>
-      <c r="K6" s="547"/>
-      <c r="L6" s="548"/>
+      <c r="E6" s="593"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="593"/>
+      <c r="H6" s="594"/>
+      <c r="I6" s="590"/>
+      <c r="J6" s="591"/>
+      <c r="K6" s="550"/>
+      <c r="L6" s="551"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12319,27 +12324,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="570" t="s">
+      <c r="B7" s="595" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="571"/>
-      <c r="D7" s="549">
+      <c r="C7" s="596"/>
+      <c r="D7" s="552">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="572"/>
-      <c r="F7" s="572"/>
-      <c r="G7" s="572"/>
-      <c r="H7" s="573"/>
-      <c r="I7" s="570" t="s">
+      <c r="E7" s="597"/>
+      <c r="F7" s="597"/>
+      <c r="G7" s="597"/>
+      <c r="H7" s="598"/>
+      <c r="I7" s="595" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="574"/>
-      <c r="K7" s="537">
+      <c r="J7" s="599"/>
+      <c r="K7" s="540">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="538"/>
+      <c r="L7" s="541"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12858,12 +12863,12 @@
     </row>
     <row r="24" spans="1:19" ht="14.4">
       <c r="A24" s="78"/>
-      <c r="B24" s="575" t="s">
+      <c r="B24" s="600" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="576"/>
-      <c r="D24" s="576"/>
-      <c r="E24" s="577"/>
+      <c r="C24" s="601"/>
+      <c r="D24" s="601"/>
+      <c r="E24" s="602"/>
       <c r="F24" s="118" t="s">
         <v>16</v>
       </c>
@@ -12885,12 +12890,12 @@
     </row>
     <row r="25" spans="1:19" ht="15" thickBot="1">
       <c r="A25" s="78"/>
-      <c r="B25" s="560" t="s">
+      <c r="B25" s="585" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="561"/>
-      <c r="D25" s="561"/>
-      <c r="E25" s="562"/>
+      <c r="C25" s="586"/>
+      <c r="D25" s="586"/>
+      <c r="E25" s="587"/>
       <c r="F25" s="118" t="s">
         <v>16</v>
       </c>
@@ -12934,12 +12939,6 @@
     <row r="27" spans="1:19" ht="13.5" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -12954,6 +12953,12 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R25">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
@@ -13019,50 +13024,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1">
       <c r="A2" s="65"/>
-      <c r="B2" s="609">
+      <c r="B2" s="603">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="610"/>
-      <c r="D2" s="611"/>
-      <c r="E2" s="618" t="s">
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="619"/>
-      <c r="G2" s="619"/>
-      <c r="H2" s="620"/>
-      <c r="I2" s="624" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="625"/>
-      <c r="K2" s="628">
+      <c r="J2" s="619"/>
+      <c r="K2" s="622">
         <f>Данные!B15</f>
         <v>22</v>
       </c>
-      <c r="L2" s="629"/>
+      <c r="L2" s="623"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="590"/>
-      <c r="Q2" s="590"/>
+      <c r="P2" s="573"/>
+      <c r="Q2" s="573"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="612"/>
-      <c r="C3" s="613"/>
-      <c r="D3" s="614"/>
-      <c r="E3" s="621" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="622"/>
-      <c r="G3" s="622"/>
-      <c r="H3" s="623"/>
-      <c r="I3" s="626"/>
-      <c r="J3" s="627"/>
-      <c r="K3" s="630"/>
-      <c r="L3" s="631"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="624"/>
+      <c r="L3" s="625"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -13073,9 +13078,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="615"/>
-      <c r="C4" s="616"/>
-      <c r="D4" s="617"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -13094,22 +13099,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="563" t="s">
+      <c r="B5" s="588" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="602"/>
-      <c r="D5" s="546" t="str">
+      <c r="C5" s="626"/>
+      <c r="D5" s="549" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="547"/>
-      <c r="F5" s="547"/>
-      <c r="G5" s="547"/>
-      <c r="H5" s="548"/>
-      <c r="I5" s="603"/>
-      <c r="J5" s="604"/>
-      <c r="K5" s="605"/>
-      <c r="L5" s="548"/>
+      <c r="E5" s="550"/>
+      <c r="F5" s="550"/>
+      <c r="G5" s="550"/>
+      <c r="H5" s="551"/>
+      <c r="I5" s="627"/>
+      <c r="J5" s="628"/>
+      <c r="K5" s="629"/>
+      <c r="L5" s="551"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -13120,22 +13125,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="563" t="s">
+      <c r="B6" s="588" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="602"/>
-      <c r="D6" s="540" t="str">
+      <c r="C6" s="626"/>
+      <c r="D6" s="543" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
-      <c r="E6" s="568"/>
-      <c r="F6" s="568"/>
-      <c r="G6" s="568"/>
-      <c r="H6" s="569"/>
-      <c r="I6" s="603"/>
-      <c r="J6" s="604"/>
-      <c r="K6" s="605"/>
-      <c r="L6" s="548"/>
+      <c r="E6" s="593"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="593"/>
+      <c r="H6" s="594"/>
+      <c r="I6" s="627"/>
+      <c r="J6" s="628"/>
+      <c r="K6" s="629"/>
+      <c r="L6" s="551"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -13146,27 +13151,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="570" t="s">
+      <c r="B7" s="595" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="606"/>
-      <c r="D7" s="549">
+      <c r="C7" s="630"/>
+      <c r="D7" s="552">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="572"/>
-      <c r="F7" s="572"/>
-      <c r="G7" s="572"/>
-      <c r="H7" s="573"/>
-      <c r="I7" s="607" t="s">
+      <c r="E7" s="597"/>
+      <c r="F7" s="597"/>
+      <c r="G7" s="597"/>
+      <c r="H7" s="598"/>
+      <c r="I7" s="631" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="606"/>
-      <c r="K7" s="537">
+      <c r="J7" s="630"/>
+      <c r="K7" s="540">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="538"/>
+      <c r="L7" s="541"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -13234,7 +13239,7 @@
       <c r="B10" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="651" t="s">
+      <c r="C10" s="500" t="s">
         <v>137</v>
       </c>
       <c r="D10" s="93">
@@ -13363,13 +13368,13 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1">
       <c r="A14" s="78"/>
-      <c r="B14" s="575" t="s">
+      <c r="B14" s="600" t="s">
         <v>144</v>
       </c>
-      <c r="C14" s="576"/>
-      <c r="D14" s="576"/>
-      <c r="E14" s="576"/>
-      <c r="F14" s="608"/>
+      <c r="C14" s="601"/>
+      <c r="D14" s="601"/>
+      <c r="E14" s="601"/>
+      <c r="F14" s="632"/>
       <c r="G14" s="56" t="s">
         <v>76</v>
       </c>
@@ -13388,12 +13393,12 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
       <c r="A15" s="78"/>
-      <c r="B15" s="560" t="s">
+      <c r="B15" s="585" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="561"/>
-      <c r="D15" s="561"/>
-      <c r="E15" s="562"/>
+      <c r="C15" s="586"/>
+      <c r="D15" s="586"/>
+      <c r="E15" s="587"/>
       <c r="F15" s="118" t="s">
         <v>16</v>
       </c>
@@ -13444,12 +13449,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -13464,6 +13463,12 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="notBetween">
@@ -13537,47 +13542,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1">
       <c r="A2" s="65"/>
-      <c r="B2" s="578"/>
-      <c r="C2" s="579"/>
-      <c r="D2" s="580"/>
-      <c r="E2" s="587" t="s">
+      <c r="B2" s="561"/>
+      <c r="C2" s="562"/>
+      <c r="D2" s="563"/>
+      <c r="E2" s="570" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="588"/>
-      <c r="G2" s="588"/>
-      <c r="H2" s="589"/>
-      <c r="I2" s="594" t="s">
+      <c r="F2" s="571"/>
+      <c r="G2" s="571"/>
+      <c r="H2" s="572"/>
+      <c r="I2" s="577" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="595"/>
-      <c r="K2" s="598">
+      <c r="J2" s="578"/>
+      <c r="K2" s="581">
         <f>Данные!B16</f>
         <v>26</v>
       </c>
-      <c r="L2" s="599"/>
+      <c r="L2" s="582"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="590"/>
-      <c r="Q2" s="590"/>
+      <c r="P2" s="573"/>
+      <c r="Q2" s="573"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="581"/>
-      <c r="C3" s="582"/>
-      <c r="D3" s="583"/>
-      <c r="E3" s="591" t="s">
+      <c r="B3" s="564"/>
+      <c r="C3" s="565"/>
+      <c r="D3" s="566"/>
+      <c r="E3" s="574" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="592"/>
-      <c r="G3" s="592"/>
-      <c r="H3" s="593"/>
-      <c r="I3" s="596"/>
-      <c r="J3" s="597"/>
-      <c r="K3" s="600"/>
-      <c r="L3" s="601"/>
+      <c r="F3" s="575"/>
+      <c r="G3" s="575"/>
+      <c r="H3" s="576"/>
+      <c r="I3" s="579"/>
+      <c r="J3" s="580"/>
+      <c r="K3" s="583"/>
+      <c r="L3" s="584"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -13588,9 +13593,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="584"/>
-      <c r="C4" s="585"/>
-      <c r="D4" s="586"/>
+      <c r="B4" s="567"/>
+      <c r="C4" s="568"/>
+      <c r="D4" s="569"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13609,22 +13614,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="563" t="s">
+      <c r="B5" s="588" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="564"/>
-      <c r="D5" s="546" t="str">
+      <c r="C5" s="589"/>
+      <c r="D5" s="549" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="547"/>
-      <c r="F5" s="547"/>
-      <c r="G5" s="547"/>
-      <c r="H5" s="548"/>
-      <c r="I5" s="565"/>
-      <c r="J5" s="566"/>
-      <c r="K5" s="547"/>
-      <c r="L5" s="548"/>
+      <c r="E5" s="550"/>
+      <c r="F5" s="550"/>
+      <c r="G5" s="550"/>
+      <c r="H5" s="551"/>
+      <c r="I5" s="590"/>
+      <c r="J5" s="591"/>
+      <c r="K5" s="550"/>
+      <c r="L5" s="551"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -13635,22 +13640,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="563" t="s">
+      <c r="B6" s="588" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="567"/>
-      <c r="D6" s="540" t="str">
+      <c r="C6" s="592"/>
+      <c r="D6" s="543" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
-      <c r="E6" s="568"/>
-      <c r="F6" s="568"/>
-      <c r="G6" s="568"/>
-      <c r="H6" s="569"/>
-      <c r="I6" s="565"/>
-      <c r="J6" s="566"/>
-      <c r="K6" s="547"/>
-      <c r="L6" s="548"/>
+      <c r="E6" s="593"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="593"/>
+      <c r="H6" s="594"/>
+      <c r="I6" s="590"/>
+      <c r="J6" s="591"/>
+      <c r="K6" s="550"/>
+      <c r="L6" s="551"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -13661,27 +13666,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="570" t="s">
+      <c r="B7" s="595" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="571"/>
-      <c r="D7" s="549">
+      <c r="C7" s="596"/>
+      <c r="D7" s="552">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="572"/>
-      <c r="F7" s="572"/>
-      <c r="G7" s="572"/>
-      <c r="H7" s="573"/>
-      <c r="I7" s="570" t="s">
+      <c r="E7" s="597"/>
+      <c r="F7" s="597"/>
+      <c r="G7" s="597"/>
+      <c r="H7" s="598"/>
+      <c r="I7" s="595" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="574"/>
-      <c r="K7" s="537">
+      <c r="J7" s="599"/>
+      <c r="K7" s="540">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="538"/>
+      <c r="L7" s="541"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -14164,6 +14169,8 @@
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
@@ -14180,8 +14187,6 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -14249,47 +14254,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1">
       <c r="A2" s="6"/>
-      <c r="B2" s="578"/>
-      <c r="C2" s="579"/>
-      <c r="D2" s="580"/>
-      <c r="E2" s="587" t="s">
+      <c r="B2" s="561"/>
+      <c r="C2" s="562"/>
+      <c r="D2" s="563"/>
+      <c r="E2" s="570" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="588"/>
-      <c r="G2" s="588"/>
-      <c r="H2" s="589"/>
-      <c r="I2" s="594" t="s">
+      <c r="F2" s="571"/>
+      <c r="G2" s="571"/>
+      <c r="H2" s="572"/>
+      <c r="I2" s="577" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="595"/>
-      <c r="K2" s="598">
+      <c r="J2" s="578"/>
+      <c r="K2" s="581">
         <f>Данные!B17</f>
         <v>26</v>
       </c>
-      <c r="L2" s="599"/>
+      <c r="L2" s="582"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="632"/>
-      <c r="Q2" s="632"/>
+      <c r="P2" s="633"/>
+      <c r="Q2" s="633"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="6"/>
-      <c r="B3" s="581"/>
-      <c r="C3" s="582"/>
-      <c r="D3" s="583"/>
-      <c r="E3" s="591" t="s">
+      <c r="B3" s="564"/>
+      <c r="C3" s="565"/>
+      <c r="D3" s="566"/>
+      <c r="E3" s="574" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="592"/>
-      <c r="G3" s="592"/>
-      <c r="H3" s="593"/>
-      <c r="I3" s="596"/>
-      <c r="J3" s="597"/>
-      <c r="K3" s="600"/>
-      <c r="L3" s="601"/>
+      <c r="F3" s="575"/>
+      <c r="G3" s="575"/>
+      <c r="H3" s="576"/>
+      <c r="I3" s="579"/>
+      <c r="J3" s="580"/>
+      <c r="K3" s="583"/>
+      <c r="L3" s="584"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -14300,9 +14305,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="6"/>
-      <c r="B4" s="584"/>
-      <c r="C4" s="585"/>
-      <c r="D4" s="586"/>
+      <c r="B4" s="567"/>
+      <c r="C4" s="568"/>
+      <c r="D4" s="569"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -14321,22 +14326,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="6"/>
-      <c r="B5" s="563" t="s">
+      <c r="B5" s="588" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="564"/>
-      <c r="D5" s="546" t="str">
+      <c r="C5" s="589"/>
+      <c r="D5" s="549" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="547"/>
-      <c r="F5" s="547"/>
-      <c r="G5" s="547"/>
-      <c r="H5" s="548"/>
-      <c r="I5" s="565"/>
-      <c r="J5" s="566"/>
-      <c r="K5" s="547"/>
-      <c r="L5" s="548"/>
+      <c r="E5" s="550"/>
+      <c r="F5" s="550"/>
+      <c r="G5" s="550"/>
+      <c r="H5" s="551"/>
+      <c r="I5" s="590"/>
+      <c r="J5" s="591"/>
+      <c r="K5" s="550"/>
+      <c r="L5" s="551"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -14347,22 +14352,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="563" t="s">
+      <c r="B6" s="588" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="567"/>
-      <c r="D6" s="540" t="str">
+      <c r="C6" s="592"/>
+      <c r="D6" s="543" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
-      <c r="E6" s="568"/>
-      <c r="F6" s="568"/>
-      <c r="G6" s="568"/>
-      <c r="H6" s="569"/>
-      <c r="I6" s="565"/>
-      <c r="J6" s="566"/>
-      <c r="K6" s="547"/>
-      <c r="L6" s="548"/>
+      <c r="E6" s="593"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="593"/>
+      <c r="H6" s="594"/>
+      <c r="I6" s="590"/>
+      <c r="J6" s="591"/>
+      <c r="K6" s="550"/>
+      <c r="L6" s="551"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -14373,27 +14378,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="6"/>
-      <c r="B7" s="570" t="s">
+      <c r="B7" s="595" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="571"/>
-      <c r="D7" s="549">
+      <c r="C7" s="596"/>
+      <c r="D7" s="552">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="572"/>
-      <c r="F7" s="572"/>
-      <c r="G7" s="572"/>
-      <c r="H7" s="573"/>
-      <c r="I7" s="570" t="s">
+      <c r="E7" s="597"/>
+      <c r="F7" s="597"/>
+      <c r="G7" s="597"/>
+      <c r="H7" s="598"/>
+      <c r="I7" s="595" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="574"/>
-      <c r="K7" s="537">
+      <c r="J7" s="599"/>
+      <c r="K7" s="540">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="538"/>
+      <c r="L7" s="541"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -14678,17 +14683,6 @@
     <row r="17" ht="13.5" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -14696,6 +14690,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="B2:D4"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -14767,60 +14772,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1">
       <c r="A2" s="65"/>
-      <c r="B2" s="609"/>
-      <c r="C2" s="610"/>
-      <c r="D2" s="611"/>
-      <c r="E2" s="618" t="s">
+      <c r="B2" s="603"/>
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="619"/>
-      <c r="G2" s="619"/>
-      <c r="H2" s="620"/>
-      <c r="I2" s="624" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="625"/>
-      <c r="K2" s="628">
+      <c r="J2" s="619"/>
+      <c r="K2" s="622">
         <f>Данные!B18</f>
         <v>0</v>
       </c>
-      <c r="L2" s="629"/>
-      <c r="M2" s="633"/>
-      <c r="N2" s="634"/>
-      <c r="O2" s="634"/>
-      <c r="P2" s="634"/>
-      <c r="Q2" s="634"/>
-      <c r="R2" s="635"/>
+      <c r="L2" s="623"/>
+      <c r="M2" s="634"/>
+      <c r="N2" s="635"/>
+      <c r="O2" s="635"/>
+      <c r="P2" s="635"/>
+      <c r="Q2" s="635"/>
+      <c r="R2" s="636"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="612"/>
-      <c r="C3" s="613"/>
-      <c r="D3" s="614"/>
-      <c r="E3" s="621" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="622"/>
-      <c r="G3" s="622"/>
-      <c r="H3" s="623"/>
-      <c r="I3" s="626"/>
-      <c r="J3" s="627"/>
-      <c r="K3" s="630"/>
-      <c r="L3" s="631"/>
-      <c r="M3" s="636"/>
-      <c r="N3" s="637"/>
-      <c r="O3" s="637"/>
-      <c r="P3" s="637"/>
-      <c r="Q3" s="637"/>
-      <c r="R3" s="638"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="624"/>
+      <c r="L3" s="625"/>
+      <c r="M3" s="637"/>
+      <c r="N3" s="638"/>
+      <c r="O3" s="638"/>
+      <c r="P3" s="638"/>
+      <c r="Q3" s="638"/>
+      <c r="R3" s="639"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="615"/>
-      <c r="C4" s="616"/>
-      <c r="D4" s="617"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -14829,95 +14834,95 @@
       <c r="J4" s="251"/>
       <c r="K4" s="254"/>
       <c r="L4" s="255"/>
-      <c r="M4" s="636"/>
-      <c r="N4" s="637"/>
-      <c r="O4" s="637"/>
-      <c r="P4" s="637"/>
-      <c r="Q4" s="637"/>
-      <c r="R4" s="638"/>
+      <c r="M4" s="637"/>
+      <c r="N4" s="638"/>
+      <c r="O4" s="638"/>
+      <c r="P4" s="638"/>
+      <c r="Q4" s="638"/>
+      <c r="R4" s="639"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="563" t="s">
+      <c r="B5" s="588" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="602"/>
-      <c r="D5" s="546" t="str">
+      <c r="C5" s="626"/>
+      <c r="D5" s="549" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="547"/>
-      <c r="F5" s="547"/>
-      <c r="G5" s="547"/>
-      <c r="H5" s="548"/>
-      <c r="I5" s="603"/>
-      <c r="J5" s="604"/>
-      <c r="K5" s="605"/>
-      <c r="L5" s="548"/>
-      <c r="M5" s="636"/>
-      <c r="N5" s="637"/>
-      <c r="O5" s="637"/>
-      <c r="P5" s="637"/>
-      <c r="Q5" s="637"/>
-      <c r="R5" s="638"/>
+      <c r="E5" s="550"/>
+      <c r="F5" s="550"/>
+      <c r="G5" s="550"/>
+      <c r="H5" s="551"/>
+      <c r="I5" s="627"/>
+      <c r="J5" s="628"/>
+      <c r="K5" s="629"/>
+      <c r="L5" s="551"/>
+      <c r="M5" s="637"/>
+      <c r="N5" s="638"/>
+      <c r="O5" s="638"/>
+      <c r="P5" s="638"/>
+      <c r="Q5" s="638"/>
+      <c r="R5" s="639"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="563" t="s">
+      <c r="B6" s="588" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="602"/>
-      <c r="D6" s="540" t="str">
+      <c r="C6" s="626"/>
+      <c r="D6" s="543" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
-      <c r="E6" s="568"/>
-      <c r="F6" s="568"/>
-      <c r="G6" s="568"/>
-      <c r="H6" s="569"/>
-      <c r="I6" s="603"/>
-      <c r="J6" s="604"/>
-      <c r="K6" s="605"/>
-      <c r="L6" s="548"/>
-      <c r="M6" s="636"/>
-      <c r="N6" s="637"/>
-      <c r="O6" s="637"/>
-      <c r="P6" s="637"/>
-      <c r="Q6" s="637"/>
-      <c r="R6" s="638"/>
+      <c r="E6" s="593"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="593"/>
+      <c r="H6" s="594"/>
+      <c r="I6" s="627"/>
+      <c r="J6" s="628"/>
+      <c r="K6" s="629"/>
+      <c r="L6" s="551"/>
+      <c r="M6" s="637"/>
+      <c r="N6" s="638"/>
+      <c r="O6" s="638"/>
+      <c r="P6" s="638"/>
+      <c r="Q6" s="638"/>
+      <c r="R6" s="639"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="570" t="s">
+      <c r="B7" s="595" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="606"/>
-      <c r="D7" s="549">
+      <c r="C7" s="630"/>
+      <c r="D7" s="552">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="572"/>
-      <c r="F7" s="572"/>
-      <c r="G7" s="572"/>
-      <c r="H7" s="573"/>
-      <c r="I7" s="607" t="s">
+      <c r="E7" s="597"/>
+      <c r="F7" s="597"/>
+      <c r="G7" s="597"/>
+      <c r="H7" s="598"/>
+      <c r="I7" s="631" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="606"/>
-      <c r="K7" s="537">
+      <c r="J7" s="630"/>
+      <c r="K7" s="540">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="538"/>
-      <c r="M7" s="636"/>
-      <c r="N7" s="637"/>
-      <c r="O7" s="637"/>
-      <c r="P7" s="637"/>
-      <c r="Q7" s="637"/>
-      <c r="R7" s="638"/>
+      <c r="L7" s="541"/>
+      <c r="M7" s="637"/>
+      <c r="N7" s="638"/>
+      <c r="O7" s="638"/>
+      <c r="P7" s="638"/>
+      <c r="Q7" s="638"/>
+      <c r="R7" s="639"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
@@ -15339,12 +15344,12 @@
     </row>
     <row r="21" spans="1:19" ht="31.2" thickBot="1">
       <c r="A21" s="78"/>
-      <c r="B21" s="560" t="s">
+      <c r="B21" s="585" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="561"/>
-      <c r="D21" s="561"/>
-      <c r="E21" s="562"/>
+      <c r="C21" s="586"/>
+      <c r="D21" s="586"/>
+      <c r="E21" s="587"/>
       <c r="F21" s="118" t="s">
         <v>16</v>
       </c>
@@ -15390,6 +15395,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="M2:R7"/>
     <mergeCell ref="E2:H2"/>
@@ -15402,13 +15414,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-30-4А-700 (Байрон 0.7 л.)/Байрон 0.7 л. от 06.11.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-30-4А-700 (Байрон 0.7 л.)/Байрон 0.7 л. от 06.11.2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Детали ф-тов" sheetId="17" r:id="rId1"/>
@@ -3463,9 +3463,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4044,20 +4041,23 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6370,374 +6370,374 @@
       <c r="J3" s="314"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A4" s="501" t="s">
+      <c r="A4" s="500" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="501" t="s">
+      <c r="B4" s="500" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="501"/>
-      <c r="D4" s="501"/>
-      <c r="E4" s="501" t="s">
+      <c r="C4" s="500"/>
+      <c r="D4" s="500"/>
+      <c r="E4" s="500" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="501"/>
-      <c r="G4" s="502" t="s">
+      <c r="F4" s="500"/>
+      <c r="G4" s="501" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="501" t="s">
+      <c r="H4" s="500" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="501"/>
-      <c r="J4" s="501"/>
+      <c r="I4" s="500"/>
+      <c r="J4" s="500"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="501"/>
-      <c r="B5" s="501"/>
-      <c r="C5" s="501"/>
-      <c r="D5" s="501"/>
-      <c r="E5" s="501"/>
-      <c r="F5" s="501"/>
-      <c r="G5" s="502"/>
-      <c r="H5" s="501"/>
-      <c r="I5" s="501"/>
-      <c r="J5" s="501"/>
+      <c r="A5" s="500"/>
+      <c r="B5" s="500"/>
+      <c r="C5" s="500"/>
+      <c r="D5" s="500"/>
+      <c r="E5" s="500"/>
+      <c r="F5" s="500"/>
+      <c r="G5" s="501"/>
+      <c r="H5" s="500"/>
+      <c r="I5" s="500"/>
+      <c r="J5" s="500"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="503">
+      <c r="A6" s="502">
         <v>1</v>
       </c>
-      <c r="B6" s="505" t="s">
+      <c r="B6" s="504" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="506"/>
-      <c r="D6" s="507"/>
-      <c r="E6" s="508"/>
-      <c r="F6" s="509"/>
-      <c r="G6" s="512"/>
-      <c r="H6" s="514"/>
-      <c r="I6" s="515"/>
-      <c r="J6" s="516"/>
+      <c r="C6" s="505"/>
+      <c r="D6" s="506"/>
+      <c r="E6" s="507"/>
+      <c r="F6" s="508"/>
+      <c r="G6" s="511"/>
+      <c r="H6" s="513"/>
+      <c r="I6" s="514"/>
+      <c r="J6" s="515"/>
     </row>
     <row r="7" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A7" s="504"/>
-      <c r="B7" s="520"/>
-      <c r="C7" s="521"/>
-      <c r="D7" s="522"/>
-      <c r="E7" s="510"/>
-      <c r="F7" s="511"/>
-      <c r="G7" s="513"/>
-      <c r="H7" s="517"/>
-      <c r="I7" s="518"/>
-      <c r="J7" s="519"/>
+      <c r="A7" s="503"/>
+      <c r="B7" s="519"/>
+      <c r="C7" s="520"/>
+      <c r="D7" s="521"/>
+      <c r="E7" s="509"/>
+      <c r="F7" s="510"/>
+      <c r="G7" s="512"/>
+      <c r="H7" s="516"/>
+      <c r="I7" s="517"/>
+      <c r="J7" s="518"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="503">
+      <c r="A8" s="502">
         <v>1</v>
       </c>
-      <c r="B8" s="523" t="s">
+      <c r="B8" s="522" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="524"/>
-      <c r="D8" s="525"/>
-      <c r="E8" s="508"/>
-      <c r="F8" s="509"/>
-      <c r="G8" s="512"/>
-      <c r="H8" s="514"/>
-      <c r="I8" s="515"/>
-      <c r="J8" s="516"/>
+      <c r="C8" s="523"/>
+      <c r="D8" s="524"/>
+      <c r="E8" s="507"/>
+      <c r="F8" s="508"/>
+      <c r="G8" s="511"/>
+      <c r="H8" s="513"/>
+      <c r="I8" s="514"/>
+      <c r="J8" s="515"/>
     </row>
     <row r="9" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A9" s="504"/>
-      <c r="B9" s="520"/>
-      <c r="C9" s="521"/>
-      <c r="D9" s="522"/>
-      <c r="E9" s="510"/>
-      <c r="F9" s="511"/>
-      <c r="G9" s="513"/>
-      <c r="H9" s="517"/>
-      <c r="I9" s="518"/>
-      <c r="J9" s="519"/>
+      <c r="A9" s="503"/>
+      <c r="B9" s="519"/>
+      <c r="C9" s="520"/>
+      <c r="D9" s="521"/>
+      <c r="E9" s="509"/>
+      <c r="F9" s="510"/>
+      <c r="G9" s="512"/>
+      <c r="H9" s="516"/>
+      <c r="I9" s="517"/>
+      <c r="J9" s="518"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="503">
+      <c r="A10" s="502">
         <v>1</v>
       </c>
-      <c r="B10" s="523" t="s">
+      <c r="B10" s="522" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="524"/>
-      <c r="D10" s="525"/>
-      <c r="E10" s="508"/>
-      <c r="F10" s="509"/>
-      <c r="G10" s="512"/>
-      <c r="H10" s="514"/>
-      <c r="I10" s="515"/>
-      <c r="J10" s="516"/>
+      <c r="C10" s="523"/>
+      <c r="D10" s="524"/>
+      <c r="E10" s="507"/>
+      <c r="F10" s="508"/>
+      <c r="G10" s="511"/>
+      <c r="H10" s="513"/>
+      <c r="I10" s="514"/>
+      <c r="J10" s="515"/>
     </row>
     <row r="11" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A11" s="504"/>
-      <c r="B11" s="520"/>
-      <c r="C11" s="521"/>
-      <c r="D11" s="522"/>
-      <c r="E11" s="510"/>
-      <c r="F11" s="511"/>
-      <c r="G11" s="513"/>
-      <c r="H11" s="517"/>
-      <c r="I11" s="518"/>
-      <c r="J11" s="519"/>
+      <c r="A11" s="503"/>
+      <c r="B11" s="519"/>
+      <c r="C11" s="520"/>
+      <c r="D11" s="521"/>
+      <c r="E11" s="509"/>
+      <c r="F11" s="510"/>
+      <c r="G11" s="512"/>
+      <c r="H11" s="516"/>
+      <c r="I11" s="517"/>
+      <c r="J11" s="518"/>
     </row>
     <row r="12" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A12" s="503">
+      <c r="A12" s="502">
         <v>1</v>
       </c>
-      <c r="B12" s="523" t="s">
+      <c r="B12" s="522" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="524"/>
-      <c r="D12" s="525"/>
-      <c r="E12" s="508"/>
-      <c r="F12" s="509"/>
-      <c r="G12" s="512"/>
-      <c r="H12" s="514"/>
-      <c r="I12" s="515"/>
-      <c r="J12" s="516"/>
+      <c r="C12" s="523"/>
+      <c r="D12" s="524"/>
+      <c r="E12" s="507"/>
+      <c r="F12" s="508"/>
+      <c r="G12" s="511"/>
+      <c r="H12" s="513"/>
+      <c r="I12" s="514"/>
+      <c r="J12" s="515"/>
     </row>
     <row r="13" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A13" s="526"/>
-      <c r="B13" s="520"/>
-      <c r="C13" s="521"/>
-      <c r="D13" s="522"/>
-      <c r="E13" s="527"/>
-      <c r="F13" s="511"/>
-      <c r="G13" s="513"/>
-      <c r="H13" s="517"/>
-      <c r="I13" s="518"/>
-      <c r="J13" s="519"/>
+      <c r="A13" s="525"/>
+      <c r="B13" s="519"/>
+      <c r="C13" s="520"/>
+      <c r="D13" s="521"/>
+      <c r="E13" s="526"/>
+      <c r="F13" s="510"/>
+      <c r="G13" s="512"/>
+      <c r="H13" s="516"/>
+      <c r="I13" s="517"/>
+      <c r="J13" s="518"/>
     </row>
     <row r="14" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A14" s="503">
+      <c r="A14" s="502">
         <v>1</v>
       </c>
-      <c r="B14" s="523" t="s">
+      <c r="B14" s="522" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="524"/>
-      <c r="D14" s="525"/>
-      <c r="E14" s="508"/>
-      <c r="F14" s="509"/>
-      <c r="G14" s="512"/>
-      <c r="H14" s="514"/>
-      <c r="I14" s="515"/>
-      <c r="J14" s="516"/>
+      <c r="C14" s="523"/>
+      <c r="D14" s="524"/>
+      <c r="E14" s="507"/>
+      <c r="F14" s="508"/>
+      <c r="G14" s="511"/>
+      <c r="H14" s="513"/>
+      <c r="I14" s="514"/>
+      <c r="J14" s="515"/>
     </row>
     <row r="15" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A15" s="526"/>
-      <c r="B15" s="520"/>
-      <c r="C15" s="521"/>
-      <c r="D15" s="522"/>
-      <c r="E15" s="527"/>
-      <c r="F15" s="511"/>
-      <c r="G15" s="513"/>
-      <c r="H15" s="517"/>
-      <c r="I15" s="518"/>
-      <c r="J15" s="519"/>
+      <c r="A15" s="525"/>
+      <c r="B15" s="519"/>
+      <c r="C15" s="520"/>
+      <c r="D15" s="521"/>
+      <c r="E15" s="526"/>
+      <c r="F15" s="510"/>
+      <c r="G15" s="512"/>
+      <c r="H15" s="516"/>
+      <c r="I15" s="517"/>
+      <c r="J15" s="518"/>
     </row>
     <row r="16" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A16" s="503">
+      <c r="A16" s="502">
         <v>1</v>
       </c>
-      <c r="B16" s="523" t="s">
+      <c r="B16" s="522" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="524"/>
-      <c r="D16" s="525"/>
-      <c r="E16" s="508"/>
-      <c r="F16" s="509"/>
-      <c r="G16" s="512"/>
-      <c r="H16" s="514"/>
-      <c r="I16" s="515"/>
-      <c r="J16" s="516"/>
+      <c r="C16" s="523"/>
+      <c r="D16" s="524"/>
+      <c r="E16" s="507"/>
+      <c r="F16" s="508"/>
+      <c r="G16" s="511"/>
+      <c r="H16" s="513"/>
+      <c r="I16" s="514"/>
+      <c r="J16" s="515"/>
     </row>
     <row r="17" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A17" s="526"/>
-      <c r="B17" s="520"/>
-      <c r="C17" s="521"/>
-      <c r="D17" s="522"/>
-      <c r="E17" s="527"/>
-      <c r="F17" s="511"/>
-      <c r="G17" s="513"/>
-      <c r="H17" s="517"/>
-      <c r="I17" s="518"/>
-      <c r="J17" s="519"/>
+      <c r="A17" s="525"/>
+      <c r="B17" s="519"/>
+      <c r="C17" s="520"/>
+      <c r="D17" s="521"/>
+      <c r="E17" s="526"/>
+      <c r="F17" s="510"/>
+      <c r="G17" s="512"/>
+      <c r="H17" s="516"/>
+      <c r="I17" s="517"/>
+      <c r="J17" s="518"/>
     </row>
     <row r="18" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A18" s="503">
+      <c r="A18" s="502">
         <v>1</v>
       </c>
-      <c r="B18" s="523" t="s">
+      <c r="B18" s="522" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="524"/>
-      <c r="D18" s="525"/>
-      <c r="E18" s="508"/>
-      <c r="F18" s="509"/>
-      <c r="G18" s="512"/>
-      <c r="H18" s="514"/>
-      <c r="I18" s="515"/>
-      <c r="J18" s="516"/>
+      <c r="C18" s="523"/>
+      <c r="D18" s="524"/>
+      <c r="E18" s="507"/>
+      <c r="F18" s="508"/>
+      <c r="G18" s="511"/>
+      <c r="H18" s="513"/>
+      <c r="I18" s="514"/>
+      <c r="J18" s="515"/>
     </row>
     <row r="19" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A19" s="526"/>
-      <c r="B19" s="520"/>
-      <c r="C19" s="521"/>
-      <c r="D19" s="522"/>
-      <c r="E19" s="527"/>
-      <c r="F19" s="511"/>
-      <c r="G19" s="513"/>
-      <c r="H19" s="517"/>
-      <c r="I19" s="518"/>
-      <c r="J19" s="519"/>
+      <c r="A19" s="525"/>
+      <c r="B19" s="519"/>
+      <c r="C19" s="520"/>
+      <c r="D19" s="521"/>
+      <c r="E19" s="526"/>
+      <c r="F19" s="510"/>
+      <c r="G19" s="512"/>
+      <c r="H19" s="516"/>
+      <c r="I19" s="517"/>
+      <c r="J19" s="518"/>
     </row>
     <row r="20" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A20" s="503">
+      <c r="A20" s="502">
         <v>1</v>
       </c>
-      <c r="B20" s="523" t="s">
+      <c r="B20" s="522" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="524"/>
-      <c r="D20" s="525"/>
-      <c r="E20" s="508"/>
-      <c r="F20" s="509"/>
-      <c r="G20" s="512"/>
-      <c r="H20" s="514"/>
-      <c r="I20" s="515"/>
-      <c r="J20" s="516"/>
+      <c r="C20" s="523"/>
+      <c r="D20" s="524"/>
+      <c r="E20" s="507"/>
+      <c r="F20" s="508"/>
+      <c r="G20" s="511"/>
+      <c r="H20" s="513"/>
+      <c r="I20" s="514"/>
+      <c r="J20" s="515"/>
     </row>
     <row r="21" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A21" s="526"/>
-      <c r="B21" s="520"/>
-      <c r="C21" s="521"/>
-      <c r="D21" s="522"/>
-      <c r="E21" s="527"/>
-      <c r="F21" s="511"/>
-      <c r="G21" s="513"/>
-      <c r="H21" s="517"/>
-      <c r="I21" s="518"/>
-      <c r="J21" s="519"/>
+      <c r="A21" s="525"/>
+      <c r="B21" s="519"/>
+      <c r="C21" s="520"/>
+      <c r="D21" s="521"/>
+      <c r="E21" s="526"/>
+      <c r="F21" s="510"/>
+      <c r="G21" s="512"/>
+      <c r="H21" s="516"/>
+      <c r="I21" s="517"/>
+      <c r="J21" s="518"/>
     </row>
     <row r="22" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A22" s="503">
+      <c r="A22" s="502">
         <v>1</v>
       </c>
-      <c r="B22" s="523" t="s">
+      <c r="B22" s="522" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="524"/>
-      <c r="D22" s="525"/>
-      <c r="E22" s="508"/>
-      <c r="F22" s="509"/>
-      <c r="G22" s="512"/>
-      <c r="H22" s="514"/>
-      <c r="I22" s="515"/>
-      <c r="J22" s="516"/>
+      <c r="C22" s="523"/>
+      <c r="D22" s="524"/>
+      <c r="E22" s="507"/>
+      <c r="F22" s="508"/>
+      <c r="G22" s="511"/>
+      <c r="H22" s="513"/>
+      <c r="I22" s="514"/>
+      <c r="J22" s="515"/>
     </row>
     <row r="23" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A23" s="526"/>
-      <c r="B23" s="520"/>
-      <c r="C23" s="521"/>
-      <c r="D23" s="522"/>
-      <c r="E23" s="527"/>
-      <c r="F23" s="511"/>
-      <c r="G23" s="513"/>
-      <c r="H23" s="517"/>
-      <c r="I23" s="518"/>
-      <c r="J23" s="519"/>
+      <c r="A23" s="525"/>
+      <c r="B23" s="519"/>
+      <c r="C23" s="520"/>
+      <c r="D23" s="521"/>
+      <c r="E23" s="526"/>
+      <c r="F23" s="510"/>
+      <c r="G23" s="512"/>
+      <c r="H23" s="516"/>
+      <c r="I23" s="517"/>
+      <c r="J23" s="518"/>
     </row>
     <row r="24" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A24" s="503">
+      <c r="A24" s="502">
         <v>1</v>
       </c>
-      <c r="B24" s="523" t="s">
+      <c r="B24" s="522" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="524"/>
-      <c r="D24" s="525"/>
-      <c r="E24" s="508"/>
-      <c r="F24" s="509"/>
-      <c r="G24" s="512"/>
-      <c r="H24" s="514"/>
-      <c r="I24" s="515"/>
-      <c r="J24" s="516"/>
+      <c r="C24" s="523"/>
+      <c r="D24" s="524"/>
+      <c r="E24" s="507"/>
+      <c r="F24" s="508"/>
+      <c r="G24" s="511"/>
+      <c r="H24" s="513"/>
+      <c r="I24" s="514"/>
+      <c r="J24" s="515"/>
     </row>
     <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A25" s="526"/>
-      <c r="B25" s="520"/>
-      <c r="C25" s="521"/>
-      <c r="D25" s="522"/>
-      <c r="E25" s="527"/>
-      <c r="F25" s="511"/>
-      <c r="G25" s="513"/>
-      <c r="H25" s="517"/>
-      <c r="I25" s="518"/>
-      <c r="J25" s="519"/>
+      <c r="A25" s="525"/>
+      <c r="B25" s="519"/>
+      <c r="C25" s="520"/>
+      <c r="D25" s="521"/>
+      <c r="E25" s="526"/>
+      <c r="F25" s="510"/>
+      <c r="G25" s="512"/>
+      <c r="H25" s="516"/>
+      <c r="I25" s="517"/>
+      <c r="J25" s="518"/>
     </row>
     <row r="26" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A26" s="503">
+      <c r="A26" s="502">
         <v>1</v>
       </c>
-      <c r="B26" s="523" t="s">
+      <c r="B26" s="522" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="524"/>
-      <c r="D26" s="525"/>
-      <c r="E26" s="508"/>
-      <c r="F26" s="509"/>
-      <c r="G26" s="512"/>
-      <c r="H26" s="514"/>
-      <c r="I26" s="515"/>
-      <c r="J26" s="516"/>
+      <c r="C26" s="523"/>
+      <c r="D26" s="524"/>
+      <c r="E26" s="507"/>
+      <c r="F26" s="508"/>
+      <c r="G26" s="511"/>
+      <c r="H26" s="513"/>
+      <c r="I26" s="514"/>
+      <c r="J26" s="515"/>
     </row>
     <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A27" s="526"/>
-      <c r="B27" s="520"/>
-      <c r="C27" s="521"/>
-      <c r="D27" s="522"/>
-      <c r="E27" s="527"/>
-      <c r="F27" s="511"/>
-      <c r="G27" s="513"/>
-      <c r="H27" s="517"/>
-      <c r="I27" s="518"/>
-      <c r="J27" s="519"/>
+      <c r="A27" s="525"/>
+      <c r="B27" s="519"/>
+      <c r="C27" s="520"/>
+      <c r="D27" s="521"/>
+      <c r="E27" s="526"/>
+      <c r="F27" s="510"/>
+      <c r="G27" s="512"/>
+      <c r="H27" s="516"/>
+      <c r="I27" s="517"/>
+      <c r="J27" s="518"/>
     </row>
     <row r="28" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A28" s="503">
+      <c r="A28" s="502">
         <v>1</v>
       </c>
-      <c r="B28" s="523" t="s">
+      <c r="B28" s="522" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="524"/>
-      <c r="D28" s="525"/>
-      <c r="E28" s="508"/>
-      <c r="F28" s="509"/>
-      <c r="G28" s="512"/>
-      <c r="H28" s="514"/>
-      <c r="I28" s="515"/>
-      <c r="J28" s="516"/>
+      <c r="C28" s="523"/>
+      <c r="D28" s="524"/>
+      <c r="E28" s="507"/>
+      <c r="F28" s="508"/>
+      <c r="G28" s="511"/>
+      <c r="H28" s="513"/>
+      <c r="I28" s="514"/>
+      <c r="J28" s="515"/>
     </row>
     <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A29" s="526"/>
-      <c r="B29" s="520"/>
-      <c r="C29" s="521"/>
-      <c r="D29" s="522"/>
-      <c r="E29" s="527"/>
-      <c r="F29" s="511"/>
-      <c r="G29" s="513"/>
-      <c r="H29" s="517"/>
-      <c r="I29" s="518"/>
-      <c r="J29" s="519"/>
+      <c r="A29" s="525"/>
+      <c r="B29" s="519"/>
+      <c r="C29" s="520"/>
+      <c r="D29" s="521"/>
+      <c r="E29" s="526"/>
+      <c r="F29" s="510"/>
+      <c r="G29" s="512"/>
+      <c r="H29" s="516"/>
+      <c r="I29" s="517"/>
+      <c r="J29" s="518"/>
     </row>
     <row r="30" spans="1:10" ht="15.6">
       <c r="A30" s="313"/>
@@ -6751,90 +6751,90 @@
       <c r="I30" s="313"/>
       <c r="J30" s="314"/>
     </row>
-    <row r="31" spans="1:10" s="483" customFormat="1" ht="15.6">
-      <c r="A31" s="481"/>
-      <c r="B31" s="481"/>
-      <c r="C31" s="481"/>
-      <c r="D31" s="481"/>
-      <c r="E31" s="481"/>
-      <c r="F31" s="481"/>
-      <c r="G31" s="481"/>
-      <c r="H31" s="481"/>
-      <c r="I31" s="481"/>
-      <c r="J31" s="482"/>
-    </row>
-    <row r="32" spans="1:10" s="483" customFormat="1" ht="15.6">
-      <c r="A32" s="481"/>
-      <c r="B32" s="481"/>
-      <c r="C32" s="481"/>
-      <c r="D32" s="484"/>
-      <c r="E32" s="484"/>
-      <c r="F32" s="484"/>
-      <c r="G32" s="484"/>
-      <c r="H32" s="484"/>
-      <c r="I32" s="481"/>
-      <c r="J32" s="482"/>
-    </row>
-    <row r="33" spans="1:10" s="483" customFormat="1" ht="15.6">
-      <c r="A33" s="481"/>
-      <c r="B33" s="485"/>
-      <c r="C33" s="481"/>
-      <c r="D33" s="481"/>
-      <c r="E33" s="481"/>
-      <c r="F33" s="481"/>
-      <c r="G33" s="481"/>
-      <c r="H33" s="481"/>
-      <c r="I33" s="481"/>
-      <c r="J33" s="482"/>
-    </row>
-    <row r="34" spans="1:10" s="483" customFormat="1" ht="15.6">
-      <c r="A34" s="481"/>
-      <c r="B34" s="481"/>
-      <c r="C34" s="481"/>
-      <c r="D34" s="481"/>
-      <c r="E34" s="481"/>
-      <c r="F34" s="481"/>
-      <c r="G34" s="481"/>
-      <c r="H34" s="481"/>
-      <c r="I34" s="481"/>
-      <c r="J34" s="482"/>
-    </row>
-    <row r="35" spans="1:10" s="483" customFormat="1" ht="15.6">
-      <c r="A35" s="481"/>
-      <c r="B35" s="481"/>
-      <c r="C35" s="481"/>
-      <c r="D35" s="481"/>
-      <c r="E35" s="481"/>
-      <c r="G35" s="481"/>
-      <c r="H35" s="481"/>
-      <c r="I35" s="481"/>
-      <c r="J35" s="481"/>
-    </row>
-    <row r="36" spans="1:10" s="483" customFormat="1" ht="15.6">
-      <c r="A36" s="481"/>
-      <c r="B36" s="481"/>
-      <c r="C36" s="481"/>
-      <c r="D36" s="481"/>
-      <c r="E36" s="481"/>
-      <c r="G36" s="481"/>
-      <c r="H36" s="481"/>
-      <c r="I36" s="481"/>
-      <c r="J36" s="481"/>
-    </row>
-    <row r="37" spans="1:10" s="483" customFormat="1" ht="15.6">
-      <c r="A37" s="481"/>
-      <c r="B37" s="481"/>
-      <c r="C37" s="481"/>
-      <c r="D37" s="481"/>
-      <c r="E37" s="481"/>
-      <c r="I37" s="481"/>
-    </row>
-    <row r="38" spans="1:10" s="483" customFormat="1" ht="17.399999999999999">
-      <c r="A38" s="486"/>
-      <c r="B38" s="486"/>
-      <c r="C38" s="486"/>
-      <c r="D38" s="486"/>
-      <c r="E38" s="486"/>
+    <row r="31" spans="1:10" s="482" customFormat="1" ht="15.6">
+      <c r="A31" s="480"/>
+      <c r="B31" s="480"/>
+      <c r="C31" s="480"/>
+      <c r="D31" s="480"/>
+      <c r="E31" s="480"/>
+      <c r="F31" s="480"/>
+      <c r="G31" s="480"/>
+      <c r="H31" s="480"/>
+      <c r="I31" s="480"/>
+      <c r="J31" s="481"/>
+    </row>
+    <row r="32" spans="1:10" s="482" customFormat="1" ht="15.6">
+      <c r="A32" s="480"/>
+      <c r="B32" s="480"/>
+      <c r="C32" s="480"/>
+      <c r="D32" s="483"/>
+      <c r="E32" s="483"/>
+      <c r="F32" s="483"/>
+      <c r="G32" s="483"/>
+      <c r="H32" s="483"/>
+      <c r="I32" s="480"/>
+      <c r="J32" s="481"/>
+    </row>
+    <row r="33" spans="1:10" s="482" customFormat="1" ht="15.6">
+      <c r="A33" s="480"/>
+      <c r="B33" s="484"/>
+      <c r="C33" s="480"/>
+      <c r="D33" s="480"/>
+      <c r="E33" s="480"/>
+      <c r="F33" s="480"/>
+      <c r="G33" s="480"/>
+      <c r="H33" s="480"/>
+      <c r="I33" s="480"/>
+      <c r="J33" s="481"/>
+    </row>
+    <row r="34" spans="1:10" s="482" customFormat="1" ht="15.6">
+      <c r="A34" s="480"/>
+      <c r="B34" s="480"/>
+      <c r="C34" s="480"/>
+      <c r="D34" s="480"/>
+      <c r="E34" s="480"/>
+      <c r="F34" s="480"/>
+      <c r="G34" s="480"/>
+      <c r="H34" s="480"/>
+      <c r="I34" s="480"/>
+      <c r="J34" s="481"/>
+    </row>
+    <row r="35" spans="1:10" s="482" customFormat="1" ht="15.6">
+      <c r="A35" s="480"/>
+      <c r="B35" s="480"/>
+      <c r="C35" s="480"/>
+      <c r="D35" s="480"/>
+      <c r="E35" s="480"/>
+      <c r="G35" s="480"/>
+      <c r="H35" s="480"/>
+      <c r="I35" s="480"/>
+      <c r="J35" s="480"/>
+    </row>
+    <row r="36" spans="1:10" s="482" customFormat="1" ht="15.6">
+      <c r="A36" s="480"/>
+      <c r="B36" s="480"/>
+      <c r="C36" s="480"/>
+      <c r="D36" s="480"/>
+      <c r="E36" s="480"/>
+      <c r="G36" s="480"/>
+      <c r="H36" s="480"/>
+      <c r="I36" s="480"/>
+      <c r="J36" s="480"/>
+    </row>
+    <row r="37" spans="1:10" s="482" customFormat="1" ht="15.6">
+      <c r="A37" s="480"/>
+      <c r="B37" s="480"/>
+      <c r="C37" s="480"/>
+      <c r="D37" s="480"/>
+      <c r="E37" s="480"/>
+      <c r="I37" s="480"/>
+    </row>
+    <row r="38" spans="1:10" s="482" customFormat="1" ht="17.399999999999999">
+      <c r="A38" s="485"/>
+      <c r="B38" s="485"/>
+      <c r="C38" s="485"/>
+      <c r="D38" s="485"/>
+      <c r="E38" s="485"/>
     </row>
     <row r="39" spans="1:10" ht="17.399999999999999">
       <c r="A39" s="310"/>
@@ -6982,47 +6982,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1">
       <c r="A2" s="65"/>
-      <c r="B2" s="603"/>
-      <c r="C2" s="604"/>
-      <c r="D2" s="605"/>
-      <c r="E2" s="612" t="s">
+      <c r="B2" s="602"/>
+      <c r="C2" s="603"/>
+      <c r="D2" s="604"/>
+      <c r="E2" s="611" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="613"/>
-      <c r="G2" s="613"/>
-      <c r="H2" s="614"/>
-      <c r="I2" s="618" t="s">
+      <c r="F2" s="612"/>
+      <c r="G2" s="612"/>
+      <c r="H2" s="613"/>
+      <c r="I2" s="617" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="619"/>
-      <c r="K2" s="622">
+      <c r="J2" s="618"/>
+      <c r="K2" s="621">
         <f>Данные!B19</f>
         <v>0</v>
       </c>
-      <c r="L2" s="623"/>
+      <c r="L2" s="622"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="640"/>
-      <c r="Q2" s="640"/>
+      <c r="P2" s="639"/>
+      <c r="Q2" s="639"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="606"/>
-      <c r="C3" s="607"/>
-      <c r="D3" s="608"/>
-      <c r="E3" s="615" t="s">
+      <c r="B3" s="605"/>
+      <c r="C3" s="606"/>
+      <c r="D3" s="607"/>
+      <c r="E3" s="614" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="616"/>
-      <c r="G3" s="616"/>
-      <c r="H3" s="617"/>
-      <c r="I3" s="620"/>
-      <c r="J3" s="621"/>
-      <c r="K3" s="624"/>
-      <c r="L3" s="625"/>
+      <c r="F3" s="615"/>
+      <c r="G3" s="615"/>
+      <c r="H3" s="616"/>
+      <c r="I3" s="619"/>
+      <c r="J3" s="620"/>
+      <c r="K3" s="623"/>
+      <c r="L3" s="624"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -7033,9 +7033,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="609"/>
-      <c r="C4" s="610"/>
-      <c r="D4" s="611"/>
+      <c r="B4" s="608"/>
+      <c r="C4" s="609"/>
+      <c r="D4" s="610"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -7054,22 +7054,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="588" t="s">
+      <c r="B5" s="587" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="626"/>
-      <c r="D5" s="549" t="str">
+      <c r="C5" s="625"/>
+      <c r="D5" s="548" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="550"/>
-      <c r="F5" s="550"/>
-      <c r="G5" s="550"/>
-      <c r="H5" s="551"/>
-      <c r="I5" s="627"/>
-      <c r="J5" s="628"/>
-      <c r="K5" s="629"/>
-      <c r="L5" s="551"/>
+      <c r="E5" s="549"/>
+      <c r="F5" s="549"/>
+      <c r="G5" s="549"/>
+      <c r="H5" s="550"/>
+      <c r="I5" s="626"/>
+      <c r="J5" s="627"/>
+      <c r="K5" s="628"/>
+      <c r="L5" s="550"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -7080,22 +7080,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="588" t="s">
+      <c r="B6" s="587" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="626"/>
-      <c r="D6" s="543" t="str">
+      <c r="C6" s="625"/>
+      <c r="D6" s="542" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="627"/>
-      <c r="J6" s="628"/>
-      <c r="K6" s="629"/>
-      <c r="L6" s="551"/>
+      <c r="E6" s="592"/>
+      <c r="F6" s="592"/>
+      <c r="G6" s="592"/>
+      <c r="H6" s="593"/>
+      <c r="I6" s="626"/>
+      <c r="J6" s="627"/>
+      <c r="K6" s="628"/>
+      <c r="L6" s="550"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -7106,27 +7106,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="595" t="s">
+      <c r="B7" s="594" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="630"/>
-      <c r="D7" s="552">
+      <c r="C7" s="629"/>
+      <c r="D7" s="551">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="597"/>
-      <c r="F7" s="597"/>
-      <c r="G7" s="597"/>
-      <c r="H7" s="598"/>
-      <c r="I7" s="631" t="s">
+      <c r="E7" s="596"/>
+      <c r="F7" s="596"/>
+      <c r="G7" s="596"/>
+      <c r="H7" s="597"/>
+      <c r="I7" s="630" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="630"/>
-      <c r="K7" s="540">
+      <c r="J7" s="629"/>
+      <c r="K7" s="539">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="541"/>
+      <c r="L7" s="540"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -7389,12 +7389,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1">
       <c r="A16" s="78"/>
-      <c r="B16" s="585" t="s">
+      <c r="B16" s="584" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="586"/>
-      <c r="D16" s="586"/>
-      <c r="E16" s="587"/>
+      <c r="C16" s="585"/>
+      <c r="D16" s="585"/>
+      <c r="E16" s="586"/>
       <c r="F16" s="261" t="s">
         <v>16</v>
       </c>
@@ -7526,47 +7526,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8">
       <c r="A2" s="172"/>
-      <c r="B2" s="603"/>
-      <c r="C2" s="604"/>
-      <c r="D2" s="605"/>
-      <c r="E2" s="612" t="s">
+      <c r="B2" s="602"/>
+      <c r="C2" s="603"/>
+      <c r="D2" s="604"/>
+      <c r="E2" s="611" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="613"/>
-      <c r="G2" s="613"/>
-      <c r="H2" s="614"/>
-      <c r="I2" s="618" t="s">
+      <c r="F2" s="612"/>
+      <c r="G2" s="612"/>
+      <c r="H2" s="613"/>
+      <c r="I2" s="617" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="619"/>
-      <c r="K2" s="622">
+      <c r="J2" s="618"/>
+      <c r="K2" s="621">
         <f>Данные!B20</f>
         <v>0</v>
       </c>
-      <c r="L2" s="623"/>
+      <c r="L2" s="622"/>
       <c r="M2" s="173"/>
       <c r="N2" s="174"/>
       <c r="O2" s="175"/>
-      <c r="P2" s="641"/>
-      <c r="Q2" s="641"/>
+      <c r="P2" s="640"/>
+      <c r="Q2" s="640"/>
       <c r="R2" s="176"/>
       <c r="S2" s="177"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="172"/>
-      <c r="B3" s="606"/>
-      <c r="C3" s="607"/>
-      <c r="D3" s="608"/>
-      <c r="E3" s="615" t="s">
+      <c r="B3" s="605"/>
+      <c r="C3" s="606"/>
+      <c r="D3" s="607"/>
+      <c r="E3" s="614" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="616"/>
-      <c r="G3" s="616"/>
-      <c r="H3" s="617"/>
-      <c r="I3" s="620"/>
-      <c r="J3" s="621"/>
-      <c r="K3" s="624"/>
-      <c r="L3" s="625"/>
+      <c r="F3" s="615"/>
+      <c r="G3" s="615"/>
+      <c r="H3" s="616"/>
+      <c r="I3" s="619"/>
+      <c r="J3" s="620"/>
+      <c r="K3" s="623"/>
+      <c r="L3" s="624"/>
       <c r="M3" s="178"/>
       <c r="N3" s="179"/>
       <c r="O3" s="179"/>
@@ -7577,9 +7577,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="172"/>
-      <c r="B4" s="609"/>
-      <c r="C4" s="610"/>
-      <c r="D4" s="611"/>
+      <c r="B4" s="608"/>
+      <c r="C4" s="609"/>
+      <c r="D4" s="610"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -7598,22 +7598,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A5" s="172"/>
-      <c r="B5" s="588" t="s">
+      <c r="B5" s="587" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="626"/>
-      <c r="D5" s="549" t="str">
+      <c r="C5" s="625"/>
+      <c r="D5" s="548" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="550"/>
-      <c r="F5" s="550"/>
-      <c r="G5" s="550"/>
-      <c r="H5" s="551"/>
-      <c r="I5" s="627"/>
-      <c r="J5" s="628"/>
-      <c r="K5" s="629"/>
-      <c r="L5" s="551"/>
+      <c r="E5" s="549"/>
+      <c r="F5" s="549"/>
+      <c r="G5" s="549"/>
+      <c r="H5" s="550"/>
+      <c r="I5" s="626"/>
+      <c r="J5" s="627"/>
+      <c r="K5" s="628"/>
+      <c r="L5" s="550"/>
       <c r="M5" s="181"/>
       <c r="N5" s="179"/>
       <c r="O5" s="179"/>
@@ -7624,22 +7624,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="172"/>
-      <c r="B6" s="588" t="s">
+      <c r="B6" s="587" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="626"/>
-      <c r="D6" s="543" t="str">
+      <c r="C6" s="625"/>
+      <c r="D6" s="542" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="627"/>
-      <c r="J6" s="628"/>
-      <c r="K6" s="629"/>
-      <c r="L6" s="551"/>
+      <c r="E6" s="592"/>
+      <c r="F6" s="592"/>
+      <c r="G6" s="592"/>
+      <c r="H6" s="593"/>
+      <c r="I6" s="626"/>
+      <c r="J6" s="627"/>
+      <c r="K6" s="628"/>
+      <c r="L6" s="550"/>
       <c r="M6" s="178"/>
       <c r="N6" s="179"/>
       <c r="O6" s="179"/>
@@ -7650,27 +7650,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="172"/>
-      <c r="B7" s="595" t="s">
+      <c r="B7" s="594" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="630"/>
-      <c r="D7" s="552">
+      <c r="C7" s="629"/>
+      <c r="D7" s="551">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="597"/>
-      <c r="F7" s="597"/>
-      <c r="G7" s="597"/>
-      <c r="H7" s="598"/>
-      <c r="I7" s="631" t="s">
+      <c r="E7" s="596"/>
+      <c r="F7" s="596"/>
+      <c r="G7" s="596"/>
+      <c r="H7" s="597"/>
+      <c r="I7" s="630" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="630"/>
-      <c r="K7" s="540">
+      <c r="J7" s="629"/>
+      <c r="K7" s="539">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="541"/>
+      <c r="L7" s="540"/>
       <c r="M7" s="181"/>
       <c r="N7" s="179"/>
       <c r="O7" s="179"/>
@@ -8139,47 +8139,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8">
       <c r="A2" s="211"/>
-      <c r="B2" s="603"/>
-      <c r="C2" s="604"/>
-      <c r="D2" s="605"/>
-      <c r="E2" s="612" t="s">
+      <c r="B2" s="602"/>
+      <c r="C2" s="603"/>
+      <c r="D2" s="604"/>
+      <c r="E2" s="611" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="613"/>
-      <c r="G2" s="613"/>
-      <c r="H2" s="614"/>
-      <c r="I2" s="618" t="s">
+      <c r="F2" s="612"/>
+      <c r="G2" s="612"/>
+      <c r="H2" s="613"/>
+      <c r="I2" s="617" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="619"/>
-      <c r="K2" s="622">
+      <c r="J2" s="618"/>
+      <c r="K2" s="621">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="L2" s="623"/>
+      <c r="L2" s="622"/>
       <c r="M2" s="212"/>
       <c r="N2" s="213"/>
       <c r="O2" s="214"/>
-      <c r="P2" s="642"/>
-      <c r="Q2" s="642"/>
+      <c r="P2" s="641"/>
+      <c r="Q2" s="641"/>
       <c r="R2" s="215"/>
       <c r="S2" s="216"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="211"/>
-      <c r="B3" s="606"/>
-      <c r="C3" s="607"/>
-      <c r="D3" s="608"/>
-      <c r="E3" s="615" t="s">
+      <c r="B3" s="605"/>
+      <c r="C3" s="606"/>
+      <c r="D3" s="607"/>
+      <c r="E3" s="614" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="616"/>
-      <c r="G3" s="616"/>
-      <c r="H3" s="617"/>
-      <c r="I3" s="620"/>
-      <c r="J3" s="621"/>
-      <c r="K3" s="624"/>
-      <c r="L3" s="625"/>
+      <c r="F3" s="615"/>
+      <c r="G3" s="615"/>
+      <c r="H3" s="616"/>
+      <c r="I3" s="619"/>
+      <c r="J3" s="620"/>
+      <c r="K3" s="623"/>
+      <c r="L3" s="624"/>
       <c r="M3" s="217"/>
       <c r="N3" s="218"/>
       <c r="O3" s="218"/>
@@ -8190,9 +8190,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="211"/>
-      <c r="B4" s="609"/>
-      <c r="C4" s="610"/>
-      <c r="D4" s="611"/>
+      <c r="B4" s="608"/>
+      <c r="C4" s="609"/>
+      <c r="D4" s="610"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -8211,22 +8211,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A5" s="211"/>
-      <c r="B5" s="588" t="s">
+      <c r="B5" s="587" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="626"/>
-      <c r="D5" s="549" t="str">
+      <c r="C5" s="625"/>
+      <c r="D5" s="548" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="550"/>
-      <c r="F5" s="550"/>
-      <c r="G5" s="550"/>
-      <c r="H5" s="551"/>
-      <c r="I5" s="627"/>
-      <c r="J5" s="628"/>
-      <c r="K5" s="629"/>
-      <c r="L5" s="551"/>
+      <c r="E5" s="549"/>
+      <c r="F5" s="549"/>
+      <c r="G5" s="549"/>
+      <c r="H5" s="550"/>
+      <c r="I5" s="626"/>
+      <c r="J5" s="627"/>
+      <c r="K5" s="628"/>
+      <c r="L5" s="550"/>
       <c r="M5" s="220"/>
       <c r="N5" s="218"/>
       <c r="O5" s="218"/>
@@ -8237,22 +8237,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="211"/>
-      <c r="B6" s="588" t="s">
+      <c r="B6" s="587" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="626"/>
-      <c r="D6" s="543" t="str">
+      <c r="C6" s="625"/>
+      <c r="D6" s="542" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="627"/>
-      <c r="J6" s="628"/>
-      <c r="K6" s="629"/>
-      <c r="L6" s="551"/>
+      <c r="E6" s="592"/>
+      <c r="F6" s="592"/>
+      <c r="G6" s="592"/>
+      <c r="H6" s="593"/>
+      <c r="I6" s="626"/>
+      <c r="J6" s="627"/>
+      <c r="K6" s="628"/>
+      <c r="L6" s="550"/>
       <c r="M6" s="217"/>
       <c r="N6" s="218"/>
       <c r="O6" s="218"/>
@@ -8263,27 +8263,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="211"/>
-      <c r="B7" s="595" t="s">
+      <c r="B7" s="594" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="630"/>
-      <c r="D7" s="552">
+      <c r="C7" s="629"/>
+      <c r="D7" s="551">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="597"/>
-      <c r="F7" s="597"/>
-      <c r="G7" s="597"/>
-      <c r="H7" s="598"/>
-      <c r="I7" s="631" t="s">
+      <c r="E7" s="596"/>
+      <c r="F7" s="596"/>
+      <c r="G7" s="596"/>
+      <c r="H7" s="597"/>
+      <c r="I7" s="630" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="630"/>
-      <c r="K7" s="540">
+      <c r="J7" s="629"/>
+      <c r="K7" s="539">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="541"/>
+      <c r="L7" s="540"/>
       <c r="M7" s="220"/>
       <c r="N7" s="218"/>
       <c r="O7" s="218"/>
@@ -8612,12 +8612,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
       <c r="A18" s="221"/>
-      <c r="B18" s="643" t="s">
+      <c r="B18" s="642" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="644"/>
-      <c r="D18" s="644"/>
-      <c r="E18" s="645"/>
+      <c r="C18" s="643"/>
+      <c r="D18" s="643"/>
+      <c r="E18" s="644"/>
       <c r="F18" s="118" t="s">
         <v>16</v>
       </c>
@@ -8765,47 +8765,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8">
       <c r="A2" s="135"/>
-      <c r="B2" s="603"/>
-      <c r="C2" s="604"/>
-      <c r="D2" s="605"/>
-      <c r="E2" s="612" t="s">
+      <c r="B2" s="602"/>
+      <c r="C2" s="603"/>
+      <c r="D2" s="604"/>
+      <c r="E2" s="611" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="613"/>
-      <c r="G2" s="613"/>
-      <c r="H2" s="614"/>
-      <c r="I2" s="618" t="s">
+      <c r="F2" s="612"/>
+      <c r="G2" s="612"/>
+      <c r="H2" s="613"/>
+      <c r="I2" s="617" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="619"/>
-      <c r="K2" s="622">
+      <c r="J2" s="618"/>
+      <c r="K2" s="621">
         <f>Данные!B25</f>
         <v>18</v>
       </c>
-      <c r="L2" s="623"/>
+      <c r="L2" s="622"/>
       <c r="M2" s="136"/>
       <c r="N2" s="137"/>
       <c r="O2" s="138"/>
-      <c r="P2" s="646"/>
-      <c r="Q2" s="646"/>
+      <c r="P2" s="645"/>
+      <c r="Q2" s="645"/>
       <c r="R2" s="139"/>
       <c r="S2" s="140"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="135"/>
-      <c r="B3" s="606"/>
-      <c r="C3" s="607"/>
-      <c r="D3" s="608"/>
-      <c r="E3" s="615" t="s">
+      <c r="B3" s="605"/>
+      <c r="C3" s="606"/>
+      <c r="D3" s="607"/>
+      <c r="E3" s="614" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="616"/>
-      <c r="G3" s="616"/>
-      <c r="H3" s="617"/>
-      <c r="I3" s="620"/>
-      <c r="J3" s="621"/>
-      <c r="K3" s="624"/>
-      <c r="L3" s="625"/>
+      <c r="F3" s="615"/>
+      <c r="G3" s="615"/>
+      <c r="H3" s="616"/>
+      <c r="I3" s="619"/>
+      <c r="J3" s="620"/>
+      <c r="K3" s="623"/>
+      <c r="L3" s="624"/>
       <c r="M3" s="141"/>
       <c r="N3" s="142"/>
       <c r="O3" s="142"/>
@@ -8816,9 +8816,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="135"/>
-      <c r="B4" s="609"/>
-      <c r="C4" s="610"/>
-      <c r="D4" s="611"/>
+      <c r="B4" s="608"/>
+      <c r="C4" s="609"/>
+      <c r="D4" s="610"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -8837,22 +8837,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A5" s="135"/>
-      <c r="B5" s="588" t="s">
+      <c r="B5" s="587" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="626"/>
-      <c r="D5" s="549" t="str">
+      <c r="C5" s="625"/>
+      <c r="D5" s="548" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="550"/>
-      <c r="F5" s="550"/>
-      <c r="G5" s="550"/>
-      <c r="H5" s="551"/>
-      <c r="I5" s="627"/>
-      <c r="J5" s="628"/>
-      <c r="K5" s="629"/>
-      <c r="L5" s="551"/>
+      <c r="E5" s="549"/>
+      <c r="F5" s="549"/>
+      <c r="G5" s="549"/>
+      <c r="H5" s="550"/>
+      <c r="I5" s="626"/>
+      <c r="J5" s="627"/>
+      <c r="K5" s="628"/>
+      <c r="L5" s="550"/>
       <c r="M5" s="144"/>
       <c r="N5" s="142"/>
       <c r="O5" s="142"/>
@@ -8863,22 +8863,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="135"/>
-      <c r="B6" s="588" t="s">
+      <c r="B6" s="587" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="626"/>
-      <c r="D6" s="543" t="str">
+      <c r="C6" s="625"/>
+      <c r="D6" s="542" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="627"/>
-      <c r="J6" s="628"/>
-      <c r="K6" s="629"/>
-      <c r="L6" s="551"/>
+      <c r="E6" s="592"/>
+      <c r="F6" s="592"/>
+      <c r="G6" s="592"/>
+      <c r="H6" s="593"/>
+      <c r="I6" s="626"/>
+      <c r="J6" s="627"/>
+      <c r="K6" s="628"/>
+      <c r="L6" s="550"/>
       <c r="M6" s="141"/>
       <c r="N6" s="142"/>
       <c r="O6" s="142"/>
@@ -8889,27 +8889,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="135"/>
-      <c r="B7" s="595" t="s">
+      <c r="B7" s="594" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="630"/>
-      <c r="D7" s="552">
+      <c r="C7" s="629"/>
+      <c r="D7" s="551">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="597"/>
-      <c r="F7" s="597"/>
-      <c r="G7" s="597"/>
-      <c r="H7" s="598"/>
-      <c r="I7" s="631" t="s">
+      <c r="E7" s="596"/>
+      <c r="F7" s="596"/>
+      <c r="G7" s="596"/>
+      <c r="H7" s="597"/>
+      <c r="I7" s="630" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="630"/>
-      <c r="K7" s="540">
+      <c r="J7" s="629"/>
+      <c r="K7" s="539">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="541"/>
+      <c r="L7" s="540"/>
       <c r="M7" s="144"/>
       <c r="N7" s="142"/>
       <c r="O7" s="142"/>
@@ -9373,47 +9373,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8">
       <c r="A2" s="268"/>
-      <c r="B2" s="603"/>
-      <c r="C2" s="604"/>
-      <c r="D2" s="605"/>
-      <c r="E2" s="612" t="s">
+      <c r="B2" s="602"/>
+      <c r="C2" s="603"/>
+      <c r="D2" s="604"/>
+      <c r="E2" s="611" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="613"/>
-      <c r="G2" s="613"/>
-      <c r="H2" s="614"/>
-      <c r="I2" s="618" t="s">
+      <c r="F2" s="612"/>
+      <c r="G2" s="612"/>
+      <c r="H2" s="613"/>
+      <c r="I2" s="617" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="619"/>
-      <c r="K2" s="648">
+      <c r="J2" s="618"/>
+      <c r="K2" s="646">
         <f>Данные!B23</f>
         <v>18</v>
       </c>
-      <c r="L2" s="649"/>
+      <c r="L2" s="647"/>
       <c r="M2" s="269"/>
       <c r="N2" s="270"/>
       <c r="O2" s="271"/>
-      <c r="P2" s="647"/>
-      <c r="Q2" s="647"/>
+      <c r="P2" s="650"/>
+      <c r="Q2" s="650"/>
       <c r="R2" s="272"/>
       <c r="S2" s="273"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="268"/>
-      <c r="B3" s="606"/>
-      <c r="C3" s="607"/>
-      <c r="D3" s="608"/>
-      <c r="E3" s="615" t="s">
+      <c r="B3" s="605"/>
+      <c r="C3" s="606"/>
+      <c r="D3" s="607"/>
+      <c r="E3" s="614" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="616"/>
-      <c r="G3" s="616"/>
-      <c r="H3" s="617"/>
-      <c r="I3" s="620"/>
-      <c r="J3" s="621"/>
-      <c r="K3" s="650"/>
-      <c r="L3" s="651"/>
+      <c r="F3" s="615"/>
+      <c r="G3" s="615"/>
+      <c r="H3" s="616"/>
+      <c r="I3" s="619"/>
+      <c r="J3" s="620"/>
+      <c r="K3" s="648"/>
+      <c r="L3" s="649"/>
       <c r="M3" s="274"/>
       <c r="N3" s="275"/>
       <c r="O3" s="275"/>
@@ -9424,9 +9424,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="268"/>
-      <c r="B4" s="609"/>
-      <c r="C4" s="610"/>
-      <c r="D4" s="611"/>
+      <c r="B4" s="608"/>
+      <c r="C4" s="609"/>
+      <c r="D4" s="610"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -9445,22 +9445,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A5" s="268"/>
-      <c r="B5" s="588" t="s">
+      <c r="B5" s="587" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="626"/>
-      <c r="D5" s="549" t="str">
+      <c r="C5" s="625"/>
+      <c r="D5" s="548" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="550"/>
-      <c r="F5" s="550"/>
-      <c r="G5" s="550"/>
-      <c r="H5" s="551"/>
-      <c r="I5" s="627"/>
-      <c r="J5" s="628"/>
-      <c r="K5" s="629"/>
-      <c r="L5" s="551"/>
+      <c r="E5" s="549"/>
+      <c r="F5" s="549"/>
+      <c r="G5" s="549"/>
+      <c r="H5" s="550"/>
+      <c r="I5" s="626"/>
+      <c r="J5" s="627"/>
+      <c r="K5" s="628"/>
+      <c r="L5" s="550"/>
       <c r="M5" s="277"/>
       <c r="N5" s="275"/>
       <c r="O5" s="275"/>
@@ -9471,22 +9471,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="268"/>
-      <c r="B6" s="588" t="s">
+      <c r="B6" s="587" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="626"/>
-      <c r="D6" s="543" t="str">
+      <c r="C6" s="625"/>
+      <c r="D6" s="542" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="627"/>
-      <c r="J6" s="628"/>
-      <c r="K6" s="629"/>
-      <c r="L6" s="551"/>
+      <c r="E6" s="592"/>
+      <c r="F6" s="592"/>
+      <c r="G6" s="592"/>
+      <c r="H6" s="593"/>
+      <c r="I6" s="626"/>
+      <c r="J6" s="627"/>
+      <c r="K6" s="628"/>
+      <c r="L6" s="550"/>
       <c r="M6" s="274"/>
       <c r="N6" s="275"/>
       <c r="O6" s="275"/>
@@ -9497,27 +9497,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="268"/>
-      <c r="B7" s="595" t="s">
+      <c r="B7" s="594" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="630"/>
-      <c r="D7" s="552">
+      <c r="C7" s="629"/>
+      <c r="D7" s="551">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="597"/>
-      <c r="F7" s="597"/>
-      <c r="G7" s="597"/>
-      <c r="H7" s="598"/>
-      <c r="I7" s="631" t="s">
+      <c r="E7" s="596"/>
+      <c r="F7" s="596"/>
+      <c r="G7" s="596"/>
+      <c r="H7" s="597"/>
+      <c r="I7" s="630" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="630"/>
-      <c r="K7" s="540">
+      <c r="J7" s="629"/>
+      <c r="K7" s="539">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="541"/>
+      <c r="L7" s="540"/>
       <c r="M7" s="277"/>
       <c r="N7" s="275"/>
       <c r="O7" s="275"/>
@@ -9790,9 +9790,6 @@
     <row r="17" ht="13.8" thickTop="1"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B2:D4"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
@@ -9808,6 +9805,9 @@
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B2:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9836,8 +9836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -9858,11 +9858,11 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
       <c r="A1" s="392"/>
-      <c r="B1" s="489" t="s">
+      <c r="B1" s="488" t="s">
         <v>132</v>
       </c>
       <c r="C1" s="392"/>
-      <c r="D1" s="490" t="str">
+      <c r="D1" s="489" t="str">
         <f>Данные!A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
@@ -9892,21 +9892,21 @@
       <c r="L2" s="393"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="B3" s="498" t="s">
+      <c r="B3" s="497" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="499">
+      <c r="C3" s="498">
         <f>Данные!D11</f>
         <v>43775</v>
       </c>
-      <c r="D3" s="497" t="s">
+      <c r="D3" s="496" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="497"/>
-      <c r="F3" s="497"/>
-      <c r="G3" s="497"/>
-      <c r="H3" s="497"/>
-      <c r="I3" s="497"/>
+      <c r="E3" s="496"/>
+      <c r="F3" s="496"/>
+      <c r="G3" s="496"/>
+      <c r="H3" s="496"/>
+      <c r="I3" s="496"/>
       <c r="K3" s="394"/>
       <c r="L3" s="394"/>
       <c r="M3" s="395"/>
@@ -9933,7 +9933,7 @@
       <c r="C5" s="400" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="487" t="s">
+      <c r="D5" s="486" t="s">
         <v>111</v>
       </c>
       <c r="E5" s="400" t="s">
@@ -9957,7 +9957,7 @@
       <c r="A6" s="403">
         <v>1</v>
       </c>
-      <c r="B6" s="477" t="str">
+      <c r="B6" s="476" t="str">
         <f>Данные!A14</f>
         <v>Чистовая форма</v>
       </c>
@@ -10219,7 +10219,7 @@
         <f>Данные!$B22</f>
         <v>нет</v>
       </c>
-      <c r="E14" s="496" t="s">
+      <c r="E14" s="495" t="s">
         <v>91</v>
       </c>
       <c r="F14" s="391"/>
@@ -10302,11 +10302,11 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B17" s="478" t="str">
+      <c r="B17" s="477" t="str">
         <f>Данные!A25</f>
         <v>Дутьевая головка</v>
       </c>
-      <c r="C17" s="480" t="str">
+      <c r="C17" s="479" t="str">
         <f>Данные!C25</f>
         <v>XXI-В-30-4А-700</v>
       </c>
@@ -10330,9 +10330,9 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="422"/>
-      <c r="B18" s="479"/>
+      <c r="B18" s="478"/>
       <c r="C18" s="395"/>
-      <c r="D18" s="488"/>
+      <c r="D18" s="487"/>
       <c r="E18" s="395"/>
       <c r="F18" s="395"/>
       <c r="G18" s="395"/>
@@ -10390,79 +10390,79 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="428">
-        <f>D6*700000</f>
+        <f>E6*700000</f>
         <v>15400000</v>
       </c>
       <c r="B21" s="429">
-        <v>43759</v>
-      </c>
-      <c r="C21" s="430">
-        <v>43765</v>
-      </c>
-      <c r="D21" s="429">
-        <v>43769</v>
-      </c>
-      <c r="E21" s="431">
-        <v>948096</v>
-      </c>
-      <c r="F21" s="431">
-        <v>1031915</v>
-      </c>
-      <c r="G21" s="432">
+        <v>43791</v>
+      </c>
+      <c r="C21" s="651">
+        <v>43794</v>
+      </c>
+      <c r="D21" s="651">
+        <v>43795</v>
+      </c>
+      <c r="E21" s="430">
+        <v>468000</v>
+      </c>
+      <c r="F21" s="430">
+        <v>521755</v>
+      </c>
+      <c r="G21" s="431">
         <f>F21/A$21</f>
-        <v>6.700746753246753E-2</v>
-      </c>
-      <c r="H21" s="433">
+        <v>3.3880194805194802E-2</v>
+      </c>
+      <c r="H21" s="432">
         <f>A21-F21</f>
-        <v>14368085</v>
-      </c>
-      <c r="I21" s="434">
+        <v>14878245</v>
+      </c>
+      <c r="I21" s="433">
         <f>1-G21</f>
-        <v>0.93299253246753244</v>
-      </c>
-      <c r="J21" s="435"/>
+        <v>0.96611980519480523</v>
+      </c>
+      <c r="J21" s="434"/>
       <c r="K21" s="413"/>
       <c r="L21" s="413"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A22" s="436"/>
-      <c r="B22" s="437"/>
-      <c r="C22" s="437"/>
-      <c r="D22" s="437"/>
-      <c r="E22" s="438"/>
-      <c r="F22" s="438"/>
-      <c r="G22" s="432">
+      <c r="A22" s="435"/>
+      <c r="B22" s="436"/>
+      <c r="C22" s="436"/>
+      <c r="D22" s="436"/>
+      <c r="E22" s="437"/>
+      <c r="F22" s="437"/>
+      <c r="G22" s="431">
         <f>F22/A$21</f>
         <v>0</v>
       </c>
-      <c r="H22" s="439">
+      <c r="H22" s="438">
         <f>H21-F22</f>
-        <v>14368085</v>
-      </c>
-      <c r="I22" s="440">
+        <v>14878245</v>
+      </c>
+      <c r="I22" s="439">
         <f>I21-G22</f>
-        <v>0.93299253246753244</v>
+        <v>0.96611980519480523</v>
       </c>
       <c r="J22" s="395"/>
       <c r="K22" s="395"/>
       <c r="L22" s="395"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A23" s="441"/>
-      <c r="B23" s="442"/>
-      <c r="C23" s="442"/>
-      <c r="D23" s="442"/>
-      <c r="E23" s="443"/>
-      <c r="F23" s="443"/>
-      <c r="G23" s="444"/>
-      <c r="H23" s="445"/>
-      <c r="I23" s="446"/>
-      <c r="J23" s="435"/>
+      <c r="A23" s="440"/>
+      <c r="B23" s="441"/>
+      <c r="C23" s="441"/>
+      <c r="D23" s="441"/>
+      <c r="E23" s="442"/>
+      <c r="F23" s="442"/>
+      <c r="G23" s="443"/>
+      <c r="H23" s="444"/>
+      <c r="I23" s="445"/>
+      <c r="J23" s="434"/>
       <c r="K23" s="413"/>
       <c r="L23" s="413"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="441"/>
+      <c r="A24" s="440"/>
       <c r="B24" s="387"/>
       <c r="C24" s="387"/>
       <c r="D24" s="387"/>
@@ -10470,139 +10470,139 @@
       <c r="F24" s="387"/>
       <c r="G24" s="387"/>
       <c r="H24" s="387"/>
-      <c r="I24" s="447"/>
-      <c r="J24" s="435"/>
-      <c r="K24" s="435"/>
+      <c r="I24" s="446"/>
+      <c r="J24" s="434"/>
+      <c r="K24" s="434"/>
       <c r="L24" s="395"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="441"/>
-      <c r="B25" s="442"/>
-      <c r="C25" s="442"/>
-      <c r="D25" s="442"/>
-      <c r="E25" s="443"/>
-      <c r="F25" s="443"/>
-      <c r="G25" s="448"/>
-      <c r="H25" s="445"/>
-      <c r="I25" s="446"/>
-      <c r="J25" s="435"/>
-      <c r="K25" s="449"/>
+      <c r="A25" s="440"/>
+      <c r="B25" s="441"/>
+      <c r="C25" s="441"/>
+      <c r="D25" s="441"/>
+      <c r="E25" s="442"/>
+      <c r="F25" s="442"/>
+      <c r="G25" s="447"/>
+      <c r="H25" s="444"/>
+      <c r="I25" s="445"/>
+      <c r="J25" s="434"/>
+      <c r="K25" s="448"/>
       <c r="L25" s="395"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="441"/>
-      <c r="B26" s="442"/>
-      <c r="C26" s="442"/>
-      <c r="D26" s="442"/>
-      <c r="E26" s="443"/>
-      <c r="F26" s="443"/>
-      <c r="G26" s="448"/>
-      <c r="H26" s="445"/>
-      <c r="I26" s="446"/>
-      <c r="J26" s="435"/>
-      <c r="K26" s="435"/>
+      <c r="A26" s="440"/>
+      <c r="B26" s="441"/>
+      <c r="C26" s="441"/>
+      <c r="D26" s="441"/>
+      <c r="E26" s="442"/>
+      <c r="F26" s="442"/>
+      <c r="G26" s="447"/>
+      <c r="H26" s="444"/>
+      <c r="I26" s="445"/>
+      <c r="J26" s="434"/>
+      <c r="K26" s="434"/>
       <c r="L26" s="395"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="441"/>
-      <c r="B27" s="442"/>
-      <c r="C27" s="442"/>
-      <c r="D27" s="442"/>
-      <c r="E27" s="445"/>
-      <c r="F27" s="443"/>
-      <c r="G27" s="448"/>
-      <c r="H27" s="445"/>
-      <c r="I27" s="446"/>
-      <c r="J27" s="435"/>
-      <c r="K27" s="435"/>
+      <c r="A27" s="440"/>
+      <c r="B27" s="441"/>
+      <c r="C27" s="441"/>
+      <c r="D27" s="441"/>
+      <c r="E27" s="444"/>
+      <c r="F27" s="442"/>
+      <c r="G27" s="447"/>
+      <c r="H27" s="444"/>
+      <c r="I27" s="445"/>
+      <c r="J27" s="434"/>
+      <c r="K27" s="434"/>
       <c r="L27" s="395"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="441"/>
-      <c r="B28" s="442"/>
-      <c r="C28" s="442"/>
-      <c r="D28" s="442"/>
-      <c r="E28" s="445"/>
-      <c r="F28" s="443"/>
-      <c r="G28" s="448"/>
-      <c r="H28" s="445"/>
-      <c r="I28" s="446"/>
-      <c r="J28" s="435"/>
-      <c r="K28" s="435"/>
+      <c r="A28" s="440"/>
+      <c r="B28" s="441"/>
+      <c r="C28" s="441"/>
+      <c r="D28" s="441"/>
+      <c r="E28" s="444"/>
+      <c r="F28" s="442"/>
+      <c r="G28" s="447"/>
+      <c r="H28" s="444"/>
+      <c r="I28" s="445"/>
+      <c r="J28" s="434"/>
+      <c r="K28" s="434"/>
       <c r="L28" s="395"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="441"/>
-      <c r="B29" s="442"/>
-      <c r="C29" s="442"/>
+      <c r="A29" s="440"/>
+      <c r="B29" s="441"/>
+      <c r="C29" s="441"/>
       <c r="D29" s="387"/>
       <c r="E29" s="387"/>
-      <c r="F29" s="443"/>
-      <c r="G29" s="450"/>
-      <c r="H29" s="445"/>
-      <c r="I29" s="451"/>
-      <c r="J29" s="435"/>
-      <c r="K29" s="435"/>
+      <c r="F29" s="442"/>
+      <c r="G29" s="449"/>
+      <c r="H29" s="444"/>
+      <c r="I29" s="450"/>
+      <c r="J29" s="434"/>
+      <c r="K29" s="434"/>
       <c r="L29" s="395"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="441"/>
-      <c r="B30" s="442"/>
-      <c r="C30" s="442"/>
+      <c r="A30" s="440"/>
+      <c r="B30" s="441"/>
+      <c r="C30" s="441"/>
       <c r="D30" s="387"/>
       <c r="E30" s="387"/>
-      <c r="F30" s="443"/>
-      <c r="G30" s="448"/>
-      <c r="H30" s="445"/>
-      <c r="I30" s="451"/>
-      <c r="J30" s="435"/>
-      <c r="K30" s="435"/>
+      <c r="F30" s="442"/>
+      <c r="G30" s="447"/>
+      <c r="H30" s="444"/>
+      <c r="I30" s="450"/>
+      <c r="J30" s="434"/>
+      <c r="K30" s="434"/>
       <c r="L30" s="395"/>
     </row>
     <row r="31" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A31" s="452"/>
-      <c r="B31" s="453"/>
-      <c r="C31" s="453"/>
-      <c r="D31" s="454"/>
-      <c r="E31" s="454"/>
-      <c r="F31" s="455"/>
-      <c r="G31" s="456"/>
-      <c r="H31" s="457"/>
-      <c r="I31" s="458"/>
+      <c r="A31" s="451"/>
+      <c r="B31" s="452"/>
+      <c r="C31" s="452"/>
+      <c r="D31" s="453"/>
+      <c r="E31" s="453"/>
+      <c r="F31" s="454"/>
+      <c r="G31" s="455"/>
+      <c r="H31" s="456"/>
+      <c r="I31" s="457"/>
       <c r="J31" s="395"/>
       <c r="K31" s="395"/>
       <c r="L31" s="395"/>
     </row>
     <row r="32" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A32" s="459" t="s">
+      <c r="A32" s="458" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="460"/>
-      <c r="C32" s="460"/>
-      <c r="D32" s="461"/>
-      <c r="E32" s="462">
+      <c r="B32" s="459"/>
+      <c r="C32" s="459"/>
+      <c r="D32" s="460"/>
+      <c r="E32" s="461">
         <f>SUM(E21:E31)</f>
-        <v>948096</v>
-      </c>
-      <c r="F32" s="463">
+        <v>468000</v>
+      </c>
+      <c r="F32" s="462">
         <f>SUM(F21:F31)</f>
-        <v>1031915</v>
-      </c>
-      <c r="G32" s="464">
+        <v>521755</v>
+      </c>
+      <c r="G32" s="463">
         <f>SUM(G21:G31)</f>
-        <v>6.700746753246753E-2</v>
-      </c>
-      <c r="H32" s="465">
+        <v>3.3880194805194802E-2</v>
+      </c>
+      <c r="H32" s="464">
         <f>A21-F32</f>
-        <v>14368085</v>
-      </c>
-      <c r="I32" s="466">
+        <v>14878245</v>
+      </c>
+      <c r="I32" s="465">
         <f>1-G32</f>
-        <v>0.93299253246753244</v>
-      </c>
-      <c r="J32" s="467"/>
-      <c r="K32" s="467"/>
-      <c r="L32" s="467"/>
+        <v>0.96611980519480523</v>
+      </c>
+      <c r="J32" s="466"/>
+      <c r="K32" s="466"/>
+      <c r="L32" s="466"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="395"/>
@@ -10617,12 +10617,12 @@
       <c r="J35" s="395"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A36" s="530" t="s">
+      <c r="A36" s="529" t="s">
         <v>127</v>
       </c>
-      <c r="B36" s="530"/>
-      <c r="C36" s="530"/>
-      <c r="D36" s="530"/>
+      <c r="B36" s="529"/>
+      <c r="C36" s="529"/>
+      <c r="D36" s="529"/>
       <c r="E36" s="395"/>
       <c r="F36" s="395"/>
       <c r="G36" s="395"/>
@@ -10631,14 +10631,14 @@
       <c r="J36" s="395"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="531" t="s">
+      <c r="A37" s="530" t="s">
         <v>128</v>
       </c>
-      <c r="B37" s="531"/>
-      <c r="C37" s="468" t="s">
+      <c r="B37" s="530"/>
+      <c r="C37" s="467" t="s">
         <v>129</v>
       </c>
-      <c r="D37" s="468" t="s">
+      <c r="D37" s="467" t="s">
         <v>130</v>
       </c>
       <c r="E37" s="395"/>
@@ -10649,27 +10649,27 @@
       <c r="J37" s="395"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="528">
+      <c r="A38" s="527">
         <f>A21-F32</f>
-        <v>14368085</v>
-      </c>
-      <c r="B38" s="529"/>
-      <c r="C38" s="469">
+        <v>14878245</v>
+      </c>
+      <c r="B38" s="528"/>
+      <c r="C38" s="468">
         <f>1-G32</f>
-        <v>0.93299253246753244</v>
-      </c>
-      <c r="D38" s="470">
+        <v>0.96611980519480523</v>
+      </c>
+      <c r="D38" s="469">
         <f>(C38/0.8)*100</f>
-        <v>116.62406655844156</v>
-      </c>
-      <c r="E38" s="471" t="s">
+        <v>120.76497564935065</v>
+      </c>
+      <c r="E38" s="470" t="s">
         <v>131</v>
       </c>
-      <c r="F38" s="471"/>
-      <c r="G38" s="471"/>
-      <c r="H38" s="471"/>
-      <c r="I38" s="471"/>
-      <c r="J38" s="471"/>
+      <c r="F38" s="470"/>
+      <c r="G38" s="470"/>
+      <c r="H38" s="470"/>
+      <c r="I38" s="470"/>
+      <c r="J38" s="470"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="395"/>
@@ -10696,8 +10696,8 @@
     </row>
     <row r="41" spans="1:11" ht="15.6">
       <c r="A41" s="395"/>
-      <c r="B41" s="472"/>
-      <c r="C41" s="472"/>
+      <c r="B41" s="471"/>
+      <c r="C41" s="471"/>
       <c r="D41" s="395"/>
       <c r="E41" s="395"/>
       <c r="F41" s="395"/>
@@ -10707,113 +10707,113 @@
       <c r="J41" s="395"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="473"/>
-      <c r="B42" s="473"/>
-      <c r="C42" s="473"/>
-      <c r="D42" s="473"/>
-      <c r="E42" s="473"/>
-      <c r="F42" s="473"/>
-      <c r="G42" s="473"/>
-      <c r="H42" s="473"/>
-      <c r="I42" s="532"/>
-      <c r="J42" s="533"/>
+      <c r="A42" s="472"/>
+      <c r="B42" s="472"/>
+      <c r="C42" s="472"/>
+      <c r="D42" s="472"/>
+      <c r="E42" s="472"/>
+      <c r="F42" s="472"/>
+      <c r="G42" s="472"/>
+      <c r="H42" s="472"/>
+      <c r="I42" s="531"/>
+      <c r="J42" s="532"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="474"/>
-      <c r="B43" s="475"/>
-      <c r="C43" s="475"/>
+      <c r="A43" s="473"/>
+      <c r="B43" s="474"/>
+      <c r="C43" s="474"/>
       <c r="D43" s="395"/>
       <c r="E43" s="395"/>
-      <c r="F43" s="475"/>
+      <c r="F43" s="474"/>
       <c r="G43" s="421"/>
-      <c r="H43" s="475"/>
+      <c r="H43" s="474"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="474"/>
-      <c r="B44" s="475"/>
-      <c r="C44" s="475"/>
-      <c r="D44" s="475"/>
-      <c r="E44" s="475"/>
-      <c r="F44" s="475"/>
+      <c r="A44" s="473"/>
+      <c r="B44" s="474"/>
+      <c r="C44" s="474"/>
+      <c r="D44" s="474"/>
+      <c r="E44" s="474"/>
+      <c r="F44" s="474"/>
       <c r="G44" s="421"/>
-      <c r="H44" s="475"/>
+      <c r="H44" s="474"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="474"/>
-      <c r="B45" s="475"/>
-      <c r="C45" s="475"/>
+      <c r="A45" s="473"/>
+      <c r="B45" s="474"/>
+      <c r="C45" s="474"/>
       <c r="D45" s="395"/>
       <c r="E45" s="395"/>
-      <c r="F45" s="475"/>
+      <c r="F45" s="474"/>
       <c r="G45" s="421"/>
-      <c r="H45" s="475"/>
+      <c r="H45" s="474"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="474"/>
-      <c r="B46" s="475"/>
-      <c r="C46" s="475"/>
-      <c r="D46" s="475"/>
-      <c r="E46" s="475"/>
-      <c r="F46" s="475"/>
+      <c r="A46" s="473"/>
+      <c r="B46" s="474"/>
+      <c r="C46" s="474"/>
+      <c r="D46" s="474"/>
+      <c r="E46" s="474"/>
+      <c r="F46" s="474"/>
       <c r="G46" s="421"/>
-      <c r="H46" s="475"/>
+      <c r="H46" s="474"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="474"/>
-      <c r="B47" s="475"/>
-      <c r="C47" s="475"/>
+      <c r="A47" s="473"/>
+      <c r="B47" s="474"/>
+      <c r="C47" s="474"/>
       <c r="D47" s="395"/>
       <c r="E47" s="395"/>
-      <c r="F47" s="475"/>
+      <c r="F47" s="474"/>
       <c r="G47" s="421"/>
-      <c r="H47" s="475"/>
+      <c r="H47" s="474"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="474"/>
-      <c r="B48" s="475"/>
+      <c r="A48" s="473"/>
+      <c r="B48" s="474"/>
       <c r="C48" s="413"/>
-      <c r="D48" s="476"/>
-      <c r="E48" s="476"/>
+      <c r="D48" s="475"/>
+      <c r="E48" s="475"/>
       <c r="F48" s="413"/>
       <c r="G48" s="413"/>
       <c r="H48" s="413"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="474"/>
-      <c r="B49" s="475"/>
-      <c r="C49" s="475"/>
-      <c r="D49" s="475"/>
-      <c r="E49" s="475"/>
-      <c r="F49" s="475"/>
+      <c r="A49" s="473"/>
+      <c r="B49" s="474"/>
+      <c r="C49" s="474"/>
+      <c r="D49" s="474"/>
+      <c r="E49" s="474"/>
+      <c r="F49" s="474"/>
       <c r="G49" s="421"/>
-      <c r="H49" s="475"/>
+      <c r="H49" s="474"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="474"/>
-      <c r="B50" s="475"/>
-      <c r="C50" s="475"/>
-      <c r="D50" s="475"/>
-      <c r="E50" s="475"/>
-      <c r="F50" s="475"/>
+      <c r="A50" s="473"/>
+      <c r="B50" s="474"/>
+      <c r="C50" s="474"/>
+      <c r="D50" s="474"/>
+      <c r="E50" s="474"/>
+      <c r="F50" s="474"/>
       <c r="G50" s="421"/>
-      <c r="H50" s="475"/>
+      <c r="H50" s="474"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="474"/>
-      <c r="B51" s="475"/>
-      <c r="C51" s="475"/>
+      <c r="A51" s="473"/>
+      <c r="B51" s="474"/>
+      <c r="C51" s="474"/>
       <c r="D51" s="395"/>
       <c r="E51" s="395"/>
-      <c r="F51" s="475"/>
+      <c r="F51" s="474"/>
       <c r="G51" s="421"/>
-      <c r="H51" s="475"/>
+      <c r="H51" s="474"/>
     </row>
     <row r="52" spans="1:10" ht="15.6">
       <c r="A52" s="395"/>
-      <c r="B52" s="534"/>
-      <c r="C52" s="534"/>
-      <c r="D52" s="535"/>
-      <c r="E52" s="471"/>
+      <c r="B52" s="533"/>
+      <c r="C52" s="533"/>
+      <c r="D52" s="534"/>
+      <c r="E52" s="470"/>
       <c r="F52" s="395"/>
       <c r="G52" s="395"/>
       <c r="H52" s="395"/>
@@ -10821,31 +10821,31 @@
       <c r="J52" s="395"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="473"/>
-      <c r="B53" s="473"/>
-      <c r="C53" s="473"/>
-      <c r="D53" s="473"/>
-      <c r="E53" s="473"/>
-      <c r="F53" s="473"/>
-      <c r="G53" s="473"/>
-      <c r="H53" s="473"/>
-      <c r="I53" s="532"/>
-      <c r="J53" s="533"/>
+      <c r="A53" s="472"/>
+      <c r="B53" s="472"/>
+      <c r="C53" s="472"/>
+      <c r="D53" s="472"/>
+      <c r="E53" s="472"/>
+      <c r="F53" s="472"/>
+      <c r="G53" s="472"/>
+      <c r="H53" s="472"/>
+      <c r="I53" s="531"/>
+      <c r="J53" s="532"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="474"/>
+      <c r="A54" s="473"/>
       <c r="B54" s="395"/>
       <c r="C54" s="395"/>
       <c r="D54" s="395"/>
       <c r="E54" s="395"/>
       <c r="F54" s="421"/>
       <c r="G54" s="421"/>
-      <c r="H54" s="475"/>
-      <c r="I54" s="536"/>
-      <c r="J54" s="536"/>
+      <c r="H54" s="474"/>
+      <c r="I54" s="535"/>
+      <c r="J54" s="535"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="474"/>
+      <c r="A55" s="473"/>
       <c r="B55" s="395"/>
       <c r="C55" s="395"/>
       <c r="D55" s="413"/>
@@ -10853,8 +10853,8 @@
       <c r="F55" s="413"/>
       <c r="G55" s="413"/>
       <c r="H55" s="413"/>
-      <c r="I55" s="536"/>
-      <c r="J55" s="536"/>
+      <c r="I55" s="535"/>
+      <c r="J55" s="535"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="395"/>
@@ -10867,12 +10867,12 @@
       <c r="H56" s="395"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="B61" s="532"/>
-      <c r="C61" s="533"/>
+      <c r="B61" s="531"/>
+      <c r="C61" s="532"/>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="532"/>
-      <c r="C68" s="533"/>
+      <c r="B68" s="531"/>
+      <c r="C68" s="532"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -10887,8 +10887,9 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="B61:C61"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="83" orientation="landscape" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="9" max="1048575" man="1"/>
   </colBreaks>
@@ -10912,25 +10913,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A1" s="542" t="s">
+      <c r="A1" s="541" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="546"/>
-      <c r="C1" s="546"/>
-      <c r="D1" s="546"/>
-      <c r="E1" s="546"/>
+      <c r="B1" s="545"/>
+      <c r="C1" s="545"/>
+      <c r="D1" s="545"/>
+      <c r="E1" s="545"/>
       <c r="G1" s="373" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1">
-      <c r="A2" s="543" t="s">
+      <c r="A2" s="542" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="544"/>
-      <c r="C2" s="544"/>
-      <c r="D2" s="544"/>
-      <c r="E2" s="545"/>
+      <c r="B2" s="543"/>
+      <c r="C2" s="543"/>
+      <c r="D2" s="543"/>
+      <c r="E2" s="544"/>
       <c r="G2" s="372" t="s">
         <v>78</v>
       </c>
@@ -10941,45 +10942,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A4" s="547" t="s">
+      <c r="A4" s="546" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="548"/>
-      <c r="C4" s="548"/>
-      <c r="D4" s="548"/>
-      <c r="E4" s="548"/>
+      <c r="B4" s="547"/>
+      <c r="C4" s="547"/>
+      <c r="D4" s="547"/>
+      <c r="E4" s="547"/>
     </row>
     <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A5" s="549" t="s">
+      <c r="A5" s="548" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="550"/>
-      <c r="C5" s="550"/>
-      <c r="D5" s="550"/>
-      <c r="E5" s="551"/>
+      <c r="B5" s="549"/>
+      <c r="C5" s="549"/>
+      <c r="D5" s="549"/>
+      <c r="E5" s="550"/>
     </row>
     <row r="6" spans="1:11" ht="13.8" thickTop="1"/>
     <row r="7" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A7" s="542" t="s">
+      <c r="A7" s="541" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="546"/>
-      <c r="C7" s="546"/>
-      <c r="D7" s="546"/>
-      <c r="E7" s="546"/>
+      <c r="B7" s="545"/>
+      <c r="C7" s="545"/>
+      <c r="D7" s="545"/>
+      <c r="E7" s="545"/>
     </row>
     <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A8" s="552"/>
-      <c r="B8" s="553"/>
-      <c r="C8" s="553"/>
-      <c r="D8" s="553"/>
-      <c r="E8" s="554"/>
+      <c r="A8" s="551"/>
+      <c r="B8" s="552"/>
+      <c r="C8" s="552"/>
+      <c r="D8" s="552"/>
+      <c r="E8" s="553"/>
     </row>
     <row r="10" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A10" s="542" t="s">
+      <c r="A10" s="541" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="542"/>
+      <c r="B10" s="541"/>
       <c r="C10" s="374"/>
       <c r="D10" s="382" t="s">
         <v>92</v>
@@ -10990,33 +10991,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A11" s="540"/>
-      <c r="B11" s="541"/>
+      <c r="A11" s="539"/>
+      <c r="B11" s="540"/>
       <c r="D11" s="381">
         <v>43775</v>
       </c>
-      <c r="F11" s="537" t="s">
+      <c r="F11" s="536" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="537"/>
-      <c r="H11" s="537"/>
-      <c r="I11" s="537"/>
-      <c r="J11" s="538" t="s">
+      <c r="G11" s="536"/>
+      <c r="H11" s="536"/>
+      <c r="I11" s="536"/>
+      <c r="J11" s="537" t="s">
         <v>97</v>
       </c>
-      <c r="K11" s="538"/>
+      <c r="K11" s="537"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="F12" s="537" t="s">
+      <c r="F12" s="536" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="537"/>
-      <c r="H12" s="537"/>
-      <c r="I12" s="537"/>
-      <c r="J12" s="538" t="s">
+      <c r="G12" s="536"/>
+      <c r="H12" s="536"/>
+      <c r="I12" s="536"/>
+      <c r="J12" s="537" t="s">
         <v>98</v>
       </c>
-      <c r="K12" s="538"/>
+      <c r="K12" s="537"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="375" t="s">
@@ -11028,16 +11029,16 @@
       <c r="C13" s="386" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="537" t="s">
+      <c r="F13" s="536" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="537"/>
-      <c r="H13" s="537"/>
-      <c r="I13" s="537"/>
-      <c r="J13" s="538" t="s">
+      <c r="G13" s="536"/>
+      <c r="H13" s="536"/>
+      <c r="I13" s="536"/>
+      <c r="J13" s="537" t="s">
         <v>99</v>
       </c>
-      <c r="K13" s="538"/>
+      <c r="K13" s="537"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="377" t="s">
@@ -11183,11 +11184,11 @@
       <c r="A28" s="383"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="539" t="s">
+      <c r="A29" s="538" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="539"/>
-      <c r="C29" s="539"/>
+      <c r="B29" s="538"/>
+      <c r="C29" s="538"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="373" t="s">
@@ -11221,7 +11222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A17" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A17" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H24" sqref="H24:J25"/>
     </sheetView>
   </sheetViews>
@@ -11288,47 +11289,47 @@
       <c r="J8" s="319"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
-      <c r="A11" s="559" t="s">
+      <c r="A11" s="558" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="559"/>
-      <c r="C11" s="559"/>
-      <c r="D11" s="559"/>
-      <c r="E11" s="559"/>
-      <c r="F11" s="559"/>
-      <c r="G11" s="559"/>
-      <c r="H11" s="559"/>
-      <c r="I11" s="559"/>
-      <c r="J11" s="559"/>
+      <c r="B11" s="558"/>
+      <c r="C11" s="558"/>
+      <c r="D11" s="558"/>
+      <c r="E11" s="558"/>
+      <c r="F11" s="558"/>
+      <c r="G11" s="558"/>
+      <c r="H11" s="558"/>
+      <c r="I11" s="558"/>
+      <c r="J11" s="558"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
-      <c r="A12" s="558" t="s">
+      <c r="A12" s="557" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="558"/>
-      <c r="C12" s="558"/>
-      <c r="D12" s="558"/>
-      <c r="E12" s="558"/>
-      <c r="F12" s="558"/>
-      <c r="G12" s="558"/>
-      <c r="H12" s="558"/>
-      <c r="I12" s="558"/>
-      <c r="J12" s="558"/>
+      <c r="B12" s="557"/>
+      <c r="C12" s="557"/>
+      <c r="D12" s="557"/>
+      <c r="E12" s="557"/>
+      <c r="F12" s="557"/>
+      <c r="G12" s="557"/>
+      <c r="H12" s="557"/>
+      <c r="I12" s="557"/>
+      <c r="J12" s="557"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1">
-      <c r="A13" s="560" t="str">
+      <c r="A13" s="559" t="str">
         <f>Данные!A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
-      <c r="B13" s="559"/>
-      <c r="C13" s="559"/>
-      <c r="D13" s="559"/>
-      <c r="E13" s="559"/>
-      <c r="F13" s="559"/>
-      <c r="G13" s="559"/>
-      <c r="H13" s="559"/>
-      <c r="I13" s="559"/>
-      <c r="J13" s="559"/>
+      <c r="B13" s="558"/>
+      <c r="C13" s="558"/>
+      <c r="D13" s="558"/>
+      <c r="E13" s="558"/>
+      <c r="F13" s="558"/>
+      <c r="G13" s="558"/>
+      <c r="H13" s="558"/>
+      <c r="I13" s="558"/>
+      <c r="J13" s="558"/>
     </row>
     <row r="15" spans="1:11" ht="15.6">
       <c r="A15" s="313" t="s">
@@ -11453,491 +11454,491 @@
       <c r="J21" s="314"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A22" s="501" t="s">
+      <c r="A22" s="500" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="501" t="s">
+      <c r="B22" s="500" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="501"/>
-      <c r="D22" s="501"/>
-      <c r="E22" s="501" t="s">
+      <c r="C22" s="500"/>
+      <c r="D22" s="500"/>
+      <c r="E22" s="500" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="501"/>
-      <c r="G22" s="502" t="s">
+      <c r="F22" s="500"/>
+      <c r="G22" s="501" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="501" t="s">
+      <c r="H22" s="500" t="s">
         <v>68</v>
       </c>
-      <c r="I22" s="501"/>
-      <c r="J22" s="501"/>
+      <c r="I22" s="500"/>
+      <c r="J22" s="500"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="501"/>
-      <c r="B23" s="501"/>
-      <c r="C23" s="501"/>
-      <c r="D23" s="501"/>
-      <c r="E23" s="501"/>
-      <c r="F23" s="501"/>
-      <c r="G23" s="502"/>
-      <c r="H23" s="501"/>
-      <c r="I23" s="501"/>
-      <c r="J23" s="501"/>
+      <c r="A23" s="500"/>
+      <c r="B23" s="500"/>
+      <c r="C23" s="500"/>
+      <c r="D23" s="500"/>
+      <c r="E23" s="500"/>
+      <c r="F23" s="500"/>
+      <c r="G23" s="501"/>
+      <c r="H23" s="500"/>
+      <c r="I23" s="500"/>
+      <c r="J23" s="500"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="503">
+      <c r="A24" s="502">
         <v>1</v>
       </c>
-      <c r="B24" s="523" t="s">
+      <c r="B24" s="522" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="524"/>
-      <c r="D24" s="525"/>
-      <c r="E24" s="508" t="str">
+      <c r="C24" s="523"/>
+      <c r="D24" s="524"/>
+      <c r="E24" s="507" t="str">
         <f>Данные!C14</f>
         <v>XXI-В-30-4А-700</v>
       </c>
-      <c r="F24" s="509"/>
-      <c r="G24" s="512">
+      <c r="F24" s="508"/>
+      <c r="G24" s="511">
         <f>Данные!B14</f>
         <v>22</v>
       </c>
-      <c r="H24" s="514" t="s">
+      <c r="H24" s="513" t="s">
         <v>151</v>
       </c>
-      <c r="I24" s="515"/>
-      <c r="J24" s="516"/>
+      <c r="I24" s="514"/>
+      <c r="J24" s="515"/>
     </row>
     <row r="25" spans="1:10" ht="45.6" customHeight="1">
-      <c r="A25" s="504"/>
-      <c r="B25" s="555" t="str">
+      <c r="A25" s="503"/>
+      <c r="B25" s="554" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C25" s="556"/>
-      <c r="D25" s="557"/>
-      <c r="E25" s="510"/>
-      <c r="F25" s="511"/>
-      <c r="G25" s="513"/>
-      <c r="H25" s="517"/>
-      <c r="I25" s="518"/>
-      <c r="J25" s="519"/>
+      <c r="C25" s="555"/>
+      <c r="D25" s="556"/>
+      <c r="E25" s="509"/>
+      <c r="F25" s="510"/>
+      <c r="G25" s="512"/>
+      <c r="H25" s="516"/>
+      <c r="I25" s="517"/>
+      <c r="J25" s="518"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="503">
+      <c r="A26" s="502">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="523" t="s">
+      <c r="B26" s="522" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="524"/>
-      <c r="D26" s="525"/>
-      <c r="E26" s="508" t="str">
+      <c r="C26" s="523"/>
+      <c r="D26" s="524"/>
+      <c r="E26" s="507" t="str">
         <f>Данные!C15</f>
         <v>XXI-В-30-4А-700</v>
       </c>
-      <c r="F26" s="509"/>
-      <c r="G26" s="512">
+      <c r="F26" s="508"/>
+      <c r="G26" s="511">
         <f>Данные!B15</f>
         <v>22</v>
       </c>
-      <c r="H26" s="514"/>
-      <c r="I26" s="515"/>
-      <c r="J26" s="516"/>
+      <c r="H26" s="513"/>
+      <c r="I26" s="514"/>
+      <c r="J26" s="515"/>
     </row>
     <row r="27" spans="1:10" ht="44.4" customHeight="1">
-      <c r="A27" s="504"/>
-      <c r="B27" s="555" t="str">
+      <c r="A27" s="503"/>
+      <c r="B27" s="554" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C27" s="556"/>
-      <c r="D27" s="557"/>
-      <c r="E27" s="510"/>
-      <c r="F27" s="511"/>
-      <c r="G27" s="513"/>
-      <c r="H27" s="517"/>
-      <c r="I27" s="518"/>
-      <c r="J27" s="519"/>
+      <c r="C27" s="555"/>
+      <c r="D27" s="556"/>
+      <c r="E27" s="509"/>
+      <c r="F27" s="510"/>
+      <c r="G27" s="512"/>
+      <c r="H27" s="516"/>
+      <c r="I27" s="517"/>
+      <c r="J27" s="518"/>
     </row>
     <row r="28" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A28" s="503">
+      <c r="A28" s="502">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="523" t="s">
+      <c r="B28" s="522" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="524"/>
-      <c r="D28" s="525"/>
-      <c r="E28" s="508" t="str">
+      <c r="C28" s="523"/>
+      <c r="D28" s="524"/>
+      <c r="E28" s="507" t="str">
         <f>Данные!C16</f>
         <v>XXI-В-30-4А-700</v>
       </c>
-      <c r="F28" s="509"/>
-      <c r="G28" s="512">
+      <c r="F28" s="508"/>
+      <c r="G28" s="511">
         <f>Данные!B16</f>
         <v>26</v>
       </c>
-      <c r="H28" s="514"/>
-      <c r="I28" s="515"/>
-      <c r="J28" s="516"/>
+      <c r="H28" s="513"/>
+      <c r="I28" s="514"/>
+      <c r="J28" s="515"/>
     </row>
     <row r="29" spans="1:10" ht="46.2" customHeight="1">
-      <c r="A29" s="504"/>
-      <c r="B29" s="555" t="str">
+      <c r="A29" s="503"/>
+      <c r="B29" s="554" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C29" s="556"/>
-      <c r="D29" s="557"/>
-      <c r="E29" s="510"/>
-      <c r="F29" s="511"/>
-      <c r="G29" s="513"/>
-      <c r="H29" s="517"/>
-      <c r="I29" s="518"/>
-      <c r="J29" s="519"/>
+      <c r="C29" s="555"/>
+      <c r="D29" s="556"/>
+      <c r="E29" s="509"/>
+      <c r="F29" s="510"/>
+      <c r="G29" s="512"/>
+      <c r="H29" s="516"/>
+      <c r="I29" s="517"/>
+      <c r="J29" s="518"/>
     </row>
     <row r="30" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A30" s="503">
+      <c r="A30" s="502">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="523" t="s">
+      <c r="B30" s="522" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="524"/>
-      <c r="D30" s="525"/>
-      <c r="E30" s="508" t="str">
+      <c r="C30" s="523"/>
+      <c r="D30" s="524"/>
+      <c r="E30" s="507" t="str">
         <f>Данные!C17</f>
         <v>XXI-В-30-4А-700</v>
       </c>
-      <c r="F30" s="509"/>
-      <c r="G30" s="512">
+      <c r="F30" s="508"/>
+      <c r="G30" s="511">
         <f>Данные!B17</f>
         <v>26</v>
       </c>
-      <c r="H30" s="514"/>
-      <c r="I30" s="515"/>
-      <c r="J30" s="516"/>
+      <c r="H30" s="513"/>
+      <c r="I30" s="514"/>
+      <c r="J30" s="515"/>
     </row>
     <row r="31" spans="1:10" ht="48.6" customHeight="1">
-      <c r="A31" s="504"/>
-      <c r="B31" s="555" t="str">
+      <c r="A31" s="503"/>
+      <c r="B31" s="554" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C31" s="556"/>
-      <c r="D31" s="557"/>
-      <c r="E31" s="527"/>
-      <c r="F31" s="511"/>
-      <c r="G31" s="513"/>
-      <c r="H31" s="517"/>
-      <c r="I31" s="518"/>
-      <c r="J31" s="519"/>
+      <c r="C31" s="555"/>
+      <c r="D31" s="556"/>
+      <c r="E31" s="526"/>
+      <c r="F31" s="510"/>
+      <c r="G31" s="512"/>
+      <c r="H31" s="516"/>
+      <c r="I31" s="517"/>
+      <c r="J31" s="518"/>
     </row>
     <row r="32" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A32" s="503">
+      <c r="A32" s="502">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="523" t="s">
+      <c r="B32" s="522" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="524"/>
-      <c r="D32" s="525"/>
-      <c r="E32" s="508" t="str">
+      <c r="C32" s="523"/>
+      <c r="D32" s="524"/>
+      <c r="E32" s="507" t="str">
         <f>Данные!C18</f>
         <v>XXI-В-30-4А-700</v>
       </c>
-      <c r="F32" s="509"/>
-      <c r="G32" s="512" t="s">
+      <c r="F32" s="508"/>
+      <c r="G32" s="511" t="s">
         <v>60</v>
       </c>
-      <c r="H32" s="514"/>
-      <c r="I32" s="515"/>
-      <c r="J32" s="516"/>
+      <c r="H32" s="513"/>
+      <c r="I32" s="514"/>
+      <c r="J32" s="515"/>
     </row>
     <row r="33" spans="1:10" ht="44.4" customHeight="1">
-      <c r="A33" s="504"/>
-      <c r="B33" s="555" t="str">
+      <c r="A33" s="503"/>
+      <c r="B33" s="554" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C33" s="556"/>
-      <c r="D33" s="557"/>
-      <c r="E33" s="527"/>
-      <c r="F33" s="511"/>
-      <c r="G33" s="513"/>
-      <c r="H33" s="517"/>
-      <c r="I33" s="518"/>
-      <c r="J33" s="519"/>
+      <c r="C33" s="555"/>
+      <c r="D33" s="556"/>
+      <c r="E33" s="526"/>
+      <c r="F33" s="510"/>
+      <c r="G33" s="512"/>
+      <c r="H33" s="516"/>
+      <c r="I33" s="517"/>
+      <c r="J33" s="518"/>
     </row>
     <row r="34" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A34" s="503">
+      <c r="A34" s="502">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="523" t="s">
+      <c r="B34" s="522" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="524"/>
-      <c r="D34" s="525"/>
-      <c r="E34" s="508" t="str">
+      <c r="C34" s="523"/>
+      <c r="D34" s="524"/>
+      <c r="E34" s="507" t="str">
         <f>Данные!C19</f>
         <v>XXI-В-30-4А-700</v>
       </c>
-      <c r="F34" s="509"/>
-      <c r="G34" s="512" t="s">
+      <c r="F34" s="508"/>
+      <c r="G34" s="511" t="s">
         <v>60</v>
       </c>
-      <c r="H34" s="514"/>
-      <c r="I34" s="515"/>
-      <c r="J34" s="516"/>
+      <c r="H34" s="513"/>
+      <c r="I34" s="514"/>
+      <c r="J34" s="515"/>
     </row>
     <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A35" s="504"/>
-      <c r="B35" s="555" t="str">
+      <c r="A35" s="503"/>
+      <c r="B35" s="554" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C35" s="556"/>
-      <c r="D35" s="557"/>
-      <c r="E35" s="527"/>
-      <c r="F35" s="511"/>
-      <c r="G35" s="513"/>
-      <c r="H35" s="517"/>
-      <c r="I35" s="518"/>
-      <c r="J35" s="519"/>
+      <c r="C35" s="555"/>
+      <c r="D35" s="556"/>
+      <c r="E35" s="526"/>
+      <c r="F35" s="510"/>
+      <c r="G35" s="512"/>
+      <c r="H35" s="516"/>
+      <c r="I35" s="517"/>
+      <c r="J35" s="518"/>
     </row>
     <row r="36" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A36" s="503">
+      <c r="A36" s="502">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="523" t="s">
+      <c r="B36" s="522" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="524"/>
-      <c r="D36" s="525"/>
-      <c r="E36" s="508" t="str">
+      <c r="C36" s="523"/>
+      <c r="D36" s="524"/>
+      <c r="E36" s="507" t="str">
         <f>Данные!C20</f>
         <v>XXI-В-30-4А-700</v>
       </c>
-      <c r="F36" s="509"/>
-      <c r="G36" s="512" t="s">
+      <c r="F36" s="508"/>
+      <c r="G36" s="511" t="s">
         <v>60</v>
       </c>
-      <c r="H36" s="514"/>
-      <c r="I36" s="515"/>
-      <c r="J36" s="516"/>
+      <c r="H36" s="513"/>
+      <c r="I36" s="514"/>
+      <c r="J36" s="515"/>
     </row>
     <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A37" s="504"/>
-      <c r="B37" s="555" t="str">
+      <c r="A37" s="503"/>
+      <c r="B37" s="554" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C37" s="556"/>
-      <c r="D37" s="557"/>
-      <c r="E37" s="527"/>
-      <c r="F37" s="511"/>
-      <c r="G37" s="513"/>
-      <c r="H37" s="517"/>
-      <c r="I37" s="518"/>
-      <c r="J37" s="519"/>
+      <c r="C37" s="555"/>
+      <c r="D37" s="556"/>
+      <c r="E37" s="526"/>
+      <c r="F37" s="510"/>
+      <c r="G37" s="512"/>
+      <c r="H37" s="516"/>
+      <c r="I37" s="517"/>
+      <c r="J37" s="518"/>
     </row>
     <row r="38" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A38" s="503">
+      <c r="A38" s="502">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="523" t="s">
+      <c r="B38" s="522" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="524"/>
-      <c r="D38" s="525"/>
-      <c r="E38" s="508" t="str">
+      <c r="C38" s="523"/>
+      <c r="D38" s="524"/>
+      <c r="E38" s="507" t="str">
         <f>Данные!C21</f>
         <v>XXI-В-30-4А-700</v>
       </c>
-      <c r="F38" s="509"/>
-      <c r="G38" s="512">
+      <c r="F38" s="508"/>
+      <c r="G38" s="511">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="H38" s="514"/>
-      <c r="I38" s="515"/>
-      <c r="J38" s="516"/>
+      <c r="H38" s="513"/>
+      <c r="I38" s="514"/>
+      <c r="J38" s="515"/>
     </row>
     <row r="39" spans="1:10" ht="49.2" customHeight="1">
-      <c r="A39" s="504"/>
-      <c r="B39" s="555" t="str">
+      <c r="A39" s="503"/>
+      <c r="B39" s="554" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C39" s="556"/>
-      <c r="D39" s="557"/>
-      <c r="E39" s="527"/>
-      <c r="F39" s="511"/>
-      <c r="G39" s="513"/>
-      <c r="H39" s="517"/>
-      <c r="I39" s="518"/>
-      <c r="J39" s="519"/>
+      <c r="C39" s="555"/>
+      <c r="D39" s="556"/>
+      <c r="E39" s="526"/>
+      <c r="F39" s="510"/>
+      <c r="G39" s="512"/>
+      <c r="H39" s="516"/>
+      <c r="I39" s="517"/>
+      <c r="J39" s="518"/>
     </row>
     <row r="40" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A40" s="503">
+      <c r="A40" s="502">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="523" t="s">
+      <c r="B40" s="522" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="524"/>
-      <c r="D40" s="525"/>
-      <c r="E40" s="508" t="str">
+      <c r="C40" s="523"/>
+      <c r="D40" s="524"/>
+      <c r="E40" s="507" t="str">
         <f>Данные!C23</f>
         <v>XXI-В-30-4А-700</v>
       </c>
-      <c r="F40" s="509"/>
-      <c r="G40" s="512">
+      <c r="F40" s="508"/>
+      <c r="G40" s="511">
         <f>Данные!B23</f>
         <v>18</v>
       </c>
-      <c r="H40" s="514"/>
-      <c r="I40" s="515"/>
-      <c r="J40" s="516"/>
+      <c r="H40" s="513"/>
+      <c r="I40" s="514"/>
+      <c r="J40" s="515"/>
     </row>
     <row r="41" spans="1:10" ht="47.4" customHeight="1">
-      <c r="A41" s="504"/>
-      <c r="B41" s="555" t="str">
+      <c r="A41" s="503"/>
+      <c r="B41" s="554" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C41" s="556"/>
-      <c r="D41" s="557"/>
-      <c r="E41" s="527"/>
-      <c r="F41" s="511"/>
-      <c r="G41" s="513"/>
-      <c r="H41" s="517"/>
-      <c r="I41" s="518"/>
-      <c r="J41" s="519"/>
+      <c r="C41" s="555"/>
+      <c r="D41" s="556"/>
+      <c r="E41" s="526"/>
+      <c r="F41" s="510"/>
+      <c r="G41" s="512"/>
+      <c r="H41" s="516"/>
+      <c r="I41" s="517"/>
+      <c r="J41" s="518"/>
     </row>
     <row r="42" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A42" s="503">
+      <c r="A42" s="502">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="523" t="s">
+      <c r="B42" s="522" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="524"/>
-      <c r="D42" s="525"/>
-      <c r="E42" s="508" t="str">
+      <c r="C42" s="523"/>
+      <c r="D42" s="524"/>
+      <c r="E42" s="507" t="str">
         <f>Данные!C25</f>
         <v>XXI-В-30-4А-700</v>
       </c>
-      <c r="F42" s="509"/>
-      <c r="G42" s="512">
+      <c r="F42" s="508"/>
+      <c r="G42" s="511">
         <f>Данные!B25</f>
         <v>18</v>
       </c>
-      <c r="H42" s="514"/>
-      <c r="I42" s="515"/>
-      <c r="J42" s="516"/>
+      <c r="H42" s="513"/>
+      <c r="I42" s="514"/>
+      <c r="J42" s="515"/>
     </row>
     <row r="43" spans="1:10" ht="48.6" customHeight="1">
-      <c r="A43" s="504"/>
-      <c r="B43" s="555" t="str">
+      <c r="A43" s="503"/>
+      <c r="B43" s="554" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C43" s="556"/>
-      <c r="D43" s="557"/>
-      <c r="E43" s="527"/>
-      <c r="F43" s="511"/>
-      <c r="G43" s="513"/>
-      <c r="H43" s="517"/>
-      <c r="I43" s="518"/>
-      <c r="J43" s="519"/>
+      <c r="C43" s="555"/>
+      <c r="D43" s="556"/>
+      <c r="E43" s="526"/>
+      <c r="F43" s="510"/>
+      <c r="G43" s="512"/>
+      <c r="H43" s="516"/>
+      <c r="I43" s="517"/>
+      <c r="J43" s="518"/>
     </row>
     <row r="44" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A44" s="503">
+      <c r="A44" s="502">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="523" t="s">
+      <c r="B44" s="522" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="524"/>
-      <c r="D44" s="525"/>
-      <c r="E44" s="508" t="s">
+      <c r="C44" s="523"/>
+      <c r="D44" s="524"/>
+      <c r="E44" s="507" t="s">
         <v>60</v>
       </c>
-      <c r="F44" s="509"/>
-      <c r="G44" s="512">
+      <c r="F44" s="508"/>
+      <c r="G44" s="511">
         <f>Данные!B26</f>
         <v>18</v>
       </c>
-      <c r="H44" s="514"/>
-      <c r="I44" s="515"/>
-      <c r="J44" s="516"/>
+      <c r="H44" s="513"/>
+      <c r="I44" s="514"/>
+      <c r="J44" s="515"/>
     </row>
     <row r="45" spans="1:10" ht="40.799999999999997" customHeight="1">
-      <c r="A45" s="504"/>
-      <c r="B45" s="555" t="str">
+      <c r="A45" s="503"/>
+      <c r="B45" s="554" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C45" s="556"/>
-      <c r="D45" s="557"/>
-      <c r="E45" s="527"/>
-      <c r="F45" s="511"/>
-      <c r="G45" s="513"/>
-      <c r="H45" s="517"/>
-      <c r="I45" s="518"/>
-      <c r="J45" s="519"/>
+      <c r="C45" s="555"/>
+      <c r="D45" s="556"/>
+      <c r="E45" s="526"/>
+      <c r="F45" s="510"/>
+      <c r="G45" s="512"/>
+      <c r="H45" s="516"/>
+      <c r="I45" s="517"/>
+      <c r="J45" s="518"/>
     </row>
     <row r="46" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A46" s="503">
+      <c r="A46" s="502">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="523" t="s">
+      <c r="B46" s="522" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="524"/>
-      <c r="D46" s="525"/>
-      <c r="E46" s="508" t="str">
+      <c r="C46" s="523"/>
+      <c r="D46" s="524"/>
+      <c r="E46" s="507" t="str">
         <f>Данные!C24</f>
         <v>XXI-В-30-4А-700</v>
       </c>
-      <c r="F46" s="509"/>
-      <c r="G46" s="512">
+      <c r="F46" s="508"/>
+      <c r="G46" s="511">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="514"/>
-      <c r="I46" s="515"/>
-      <c r="J46" s="516"/>
+      <c r="H46" s="513"/>
+      <c r="I46" s="514"/>
+      <c r="J46" s="515"/>
     </row>
     <row r="47" spans="1:10" ht="42.6" customHeight="1">
-      <c r="A47" s="504"/>
-      <c r="B47" s="555" t="str">
+      <c r="A47" s="503"/>
+      <c r="B47" s="554" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C47" s="556"/>
-      <c r="D47" s="557"/>
-      <c r="E47" s="527"/>
-      <c r="F47" s="511"/>
-      <c r="G47" s="513"/>
-      <c r="H47" s="517"/>
-      <c r="I47" s="518"/>
-      <c r="J47" s="519"/>
+      <c r="C47" s="555"/>
+      <c r="D47" s="556"/>
+      <c r="E47" s="526"/>
+      <c r="F47" s="510"/>
+      <c r="G47" s="512"/>
+      <c r="H47" s="516"/>
+      <c r="I47" s="517"/>
+      <c r="J47" s="518"/>
     </row>
     <row r="48" spans="1:10" ht="15.6">
       <c r="A48" s="313"/>
@@ -12200,47 +12201,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8">
       <c r="A2" s="65"/>
-      <c r="B2" s="561"/>
-      <c r="C2" s="562"/>
-      <c r="D2" s="563"/>
-      <c r="E2" s="570" t="s">
+      <c r="B2" s="560"/>
+      <c r="C2" s="561"/>
+      <c r="D2" s="562"/>
+      <c r="E2" s="569" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="571"/>
-      <c r="G2" s="571"/>
-      <c r="H2" s="572"/>
-      <c r="I2" s="577" t="s">
+      <c r="F2" s="570"/>
+      <c r="G2" s="570"/>
+      <c r="H2" s="571"/>
+      <c r="I2" s="576" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="578"/>
-      <c r="K2" s="581">
+      <c r="J2" s="577"/>
+      <c r="K2" s="580">
         <f>Данные!B14</f>
         <v>22</v>
       </c>
-      <c r="L2" s="582"/>
+      <c r="L2" s="581"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="573"/>
-      <c r="Q2" s="573"/>
+      <c r="P2" s="572"/>
+      <c r="Q2" s="572"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="23.4" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="564"/>
-      <c r="C3" s="565"/>
-      <c r="D3" s="566"/>
-      <c r="E3" s="574" t="s">
+      <c r="B3" s="563"/>
+      <c r="C3" s="564"/>
+      <c r="D3" s="565"/>
+      <c r="E3" s="573" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="575"/>
-      <c r="G3" s="575"/>
-      <c r="H3" s="576"/>
-      <c r="I3" s="579"/>
-      <c r="J3" s="580"/>
-      <c r="K3" s="583"/>
-      <c r="L3" s="584"/>
+      <c r="F3" s="574"/>
+      <c r="G3" s="574"/>
+      <c r="H3" s="575"/>
+      <c r="I3" s="578"/>
+      <c r="J3" s="579"/>
+      <c r="K3" s="582"/>
+      <c r="L3" s="583"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12251,9 +12252,9 @@
     </row>
     <row r="4" spans="1:19" ht="23.4" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="567"/>
-      <c r="C4" s="568"/>
-      <c r="D4" s="569"/>
+      <c r="B4" s="566"/>
+      <c r="C4" s="567"/>
+      <c r="D4" s="568"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12272,22 +12273,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="588" t="s">
+      <c r="B5" s="587" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="589"/>
-      <c r="D5" s="549" t="str">
+      <c r="C5" s="588"/>
+      <c r="D5" s="548" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="550"/>
-      <c r="F5" s="550"/>
-      <c r="G5" s="550"/>
-      <c r="H5" s="551"/>
-      <c r="I5" s="590"/>
-      <c r="J5" s="591"/>
-      <c r="K5" s="550"/>
-      <c r="L5" s="551"/>
+      <c r="E5" s="549"/>
+      <c r="F5" s="549"/>
+      <c r="G5" s="549"/>
+      <c r="H5" s="550"/>
+      <c r="I5" s="589"/>
+      <c r="J5" s="590"/>
+      <c r="K5" s="549"/>
+      <c r="L5" s="550"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12298,22 +12299,22 @@
     </row>
     <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="588" t="s">
+      <c r="B6" s="587" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="592"/>
-      <c r="D6" s="543" t="str">
+      <c r="C6" s="591"/>
+      <c r="D6" s="542" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="590"/>
-      <c r="J6" s="591"/>
-      <c r="K6" s="550"/>
-      <c r="L6" s="551"/>
+      <c r="E6" s="592"/>
+      <c r="F6" s="592"/>
+      <c r="G6" s="592"/>
+      <c r="H6" s="593"/>
+      <c r="I6" s="589"/>
+      <c r="J6" s="590"/>
+      <c r="K6" s="549"/>
+      <c r="L6" s="550"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12324,27 +12325,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="595" t="s">
+      <c r="B7" s="594" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="596"/>
-      <c r="D7" s="552">
+      <c r="C7" s="595"/>
+      <c r="D7" s="551">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="597"/>
-      <c r="F7" s="597"/>
-      <c r="G7" s="597"/>
-      <c r="H7" s="598"/>
-      <c r="I7" s="595" t="s">
+      <c r="E7" s="596"/>
+      <c r="F7" s="596"/>
+      <c r="G7" s="596"/>
+      <c r="H7" s="597"/>
+      <c r="I7" s="594" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="599"/>
-      <c r="K7" s="540">
+      <c r="J7" s="598"/>
+      <c r="K7" s="539">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="541"/>
+      <c r="L7" s="540"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12409,7 +12410,7 @@
     </row>
     <row r="10" spans="1:19" ht="23.25" customHeight="1">
       <c r="A10" s="78"/>
-      <c r="B10" s="493" t="s">
+      <c r="B10" s="492" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="93">
@@ -12442,7 +12443,7 @@
     </row>
     <row r="11" spans="1:19" ht="23.25" customHeight="1">
       <c r="A11" s="78"/>
-      <c r="B11" s="494" t="s">
+      <c r="B11" s="493" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="324">
@@ -12475,7 +12476,7 @@
     </row>
     <row r="12" spans="1:19" ht="23.25" customHeight="1">
       <c r="A12" s="78"/>
-      <c r="B12" s="494" t="s">
+      <c r="B12" s="493" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="98">
@@ -12508,7 +12509,7 @@
     </row>
     <row r="13" spans="1:19" ht="23.25" customHeight="1">
       <c r="A13" s="78"/>
-      <c r="B13" s="494" t="s">
+      <c r="B13" s="493" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="324">
@@ -12541,7 +12542,7 @@
     </row>
     <row r="14" spans="1:19" ht="23.25" customHeight="1">
       <c r="A14" s="78"/>
-      <c r="B14" s="494" t="s">
+      <c r="B14" s="493" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="324">
@@ -12574,7 +12575,7 @@
     </row>
     <row r="15" spans="1:19" ht="23.25" customHeight="1">
       <c r="A15" s="78"/>
-      <c r="B15" s="494" t="s">
+      <c r="B15" s="493" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="388">
@@ -12607,7 +12608,7 @@
     </row>
     <row r="16" spans="1:19" ht="23.25" customHeight="1">
       <c r="A16" s="78"/>
-      <c r="B16" s="494" t="s">
+      <c r="B16" s="493" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="98">
@@ -12640,7 +12641,7 @@
     </row>
     <row r="17" spans="1:19" ht="23.25" customHeight="1">
       <c r="A17" s="78"/>
-      <c r="B17" s="494" t="s">
+      <c r="B17" s="493" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="324">
@@ -12655,7 +12656,7 @@
       <c r="F17" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="491" t="s">
+      <c r="G17" s="490" t="s">
         <v>22</v>
       </c>
       <c r="H17" s="99"/>
@@ -12673,7 +12674,7 @@
     </row>
     <row r="18" spans="1:19" ht="39.6">
       <c r="A18" s="78"/>
-      <c r="B18" s="495" t="s">
+      <c r="B18" s="494" t="s">
         <v>150</v>
       </c>
       <c r="C18" s="363" t="s">
@@ -12706,7 +12707,7 @@
     </row>
     <row r="19" spans="1:19" ht="23.25" customHeight="1">
       <c r="A19" s="78"/>
-      <c r="B19" s="495" t="s">
+      <c r="B19" s="494" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="363">
@@ -12739,7 +12740,7 @@
     </row>
     <row r="20" spans="1:19" ht="52.8">
       <c r="A20" s="78"/>
-      <c r="B20" s="495" t="s">
+      <c r="B20" s="494" t="s">
         <v>148</v>
       </c>
       <c r="C20" s="363">
@@ -12768,7 +12769,7 @@
     </row>
     <row r="21" spans="1:19" ht="52.8">
       <c r="A21" s="78"/>
-      <c r="B21" s="495" t="s">
+      <c r="B21" s="494" t="s">
         <v>149</v>
       </c>
       <c r="C21" s="363">
@@ -12797,7 +12798,7 @@
     </row>
     <row r="22" spans="1:19" ht="39.6">
       <c r="A22" s="78"/>
-      <c r="B22" s="495" t="s">
+      <c r="B22" s="494" t="s">
         <v>134</v>
       </c>
       <c r="C22" s="325">
@@ -12830,7 +12831,7 @@
     </row>
     <row r="23" spans="1:19" ht="39.6">
       <c r="A23" s="78"/>
-      <c r="B23" s="495" t="s">
+      <c r="B23" s="494" t="s">
         <v>135</v>
       </c>
       <c r="C23" s="325" t="s">
@@ -12863,12 +12864,12 @@
     </row>
     <row r="24" spans="1:19" ht="14.4">
       <c r="A24" s="78"/>
-      <c r="B24" s="600" t="s">
+      <c r="B24" s="599" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="601"/>
-      <c r="D24" s="601"/>
-      <c r="E24" s="602"/>
+      <c r="C24" s="600"/>
+      <c r="D24" s="600"/>
+      <c r="E24" s="601"/>
       <c r="F24" s="118" t="s">
         <v>16</v>
       </c>
@@ -12890,16 +12891,16 @@
     </row>
     <row r="25" spans="1:19" ht="15" thickBot="1">
       <c r="A25" s="78"/>
-      <c r="B25" s="585" t="s">
+      <c r="B25" s="584" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="586"/>
-      <c r="D25" s="586"/>
-      <c r="E25" s="587"/>
+      <c r="C25" s="585"/>
+      <c r="D25" s="585"/>
+      <c r="E25" s="586"/>
       <c r="F25" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="492" t="s">
+      <c r="G25" s="491" t="s">
         <v>45</v>
       </c>
       <c r="H25" s="109"/>
@@ -13024,50 +13025,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1">
       <c r="A2" s="65"/>
-      <c r="B2" s="603">
+      <c r="B2" s="602">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="604"/>
-      <c r="D2" s="605"/>
-      <c r="E2" s="612" t="s">
+      <c r="C2" s="603"/>
+      <c r="D2" s="604"/>
+      <c r="E2" s="611" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="613"/>
-      <c r="G2" s="613"/>
-      <c r="H2" s="614"/>
-      <c r="I2" s="618" t="s">
+      <c r="F2" s="612"/>
+      <c r="G2" s="612"/>
+      <c r="H2" s="613"/>
+      <c r="I2" s="617" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="619"/>
-      <c r="K2" s="622">
+      <c r="J2" s="618"/>
+      <c r="K2" s="621">
         <f>Данные!B15</f>
         <v>22</v>
       </c>
-      <c r="L2" s="623"/>
+      <c r="L2" s="622"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="573"/>
-      <c r="Q2" s="573"/>
+      <c r="P2" s="572"/>
+      <c r="Q2" s="572"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="606"/>
-      <c r="C3" s="607"/>
-      <c r="D3" s="608"/>
-      <c r="E3" s="615" t="s">
+      <c r="B3" s="605"/>
+      <c r="C3" s="606"/>
+      <c r="D3" s="607"/>
+      <c r="E3" s="614" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="616"/>
-      <c r="G3" s="616"/>
-      <c r="H3" s="617"/>
-      <c r="I3" s="620"/>
-      <c r="J3" s="621"/>
-      <c r="K3" s="624"/>
-      <c r="L3" s="625"/>
+      <c r="F3" s="615"/>
+      <c r="G3" s="615"/>
+      <c r="H3" s="616"/>
+      <c r="I3" s="619"/>
+      <c r="J3" s="620"/>
+      <c r="K3" s="623"/>
+      <c r="L3" s="624"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -13078,9 +13079,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="609"/>
-      <c r="C4" s="610"/>
-      <c r="D4" s="611"/>
+      <c r="B4" s="608"/>
+      <c r="C4" s="609"/>
+      <c r="D4" s="610"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -13099,22 +13100,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="588" t="s">
+      <c r="B5" s="587" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="626"/>
-      <c r="D5" s="549" t="str">
+      <c r="C5" s="625"/>
+      <c r="D5" s="548" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="550"/>
-      <c r="F5" s="550"/>
-      <c r="G5" s="550"/>
-      <c r="H5" s="551"/>
-      <c r="I5" s="627"/>
-      <c r="J5" s="628"/>
-      <c r="K5" s="629"/>
-      <c r="L5" s="551"/>
+      <c r="E5" s="549"/>
+      <c r="F5" s="549"/>
+      <c r="G5" s="549"/>
+      <c r="H5" s="550"/>
+      <c r="I5" s="626"/>
+      <c r="J5" s="627"/>
+      <c r="K5" s="628"/>
+      <c r="L5" s="550"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -13125,22 +13126,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="588" t="s">
+      <c r="B6" s="587" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="626"/>
-      <c r="D6" s="543" t="str">
+      <c r="C6" s="625"/>
+      <c r="D6" s="542" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="627"/>
-      <c r="J6" s="628"/>
-      <c r="K6" s="629"/>
-      <c r="L6" s="551"/>
+      <c r="E6" s="592"/>
+      <c r="F6" s="592"/>
+      <c r="G6" s="592"/>
+      <c r="H6" s="593"/>
+      <c r="I6" s="626"/>
+      <c r="J6" s="627"/>
+      <c r="K6" s="628"/>
+      <c r="L6" s="550"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -13151,27 +13152,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="595" t="s">
+      <c r="B7" s="594" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="630"/>
-      <c r="D7" s="552">
+      <c r="C7" s="629"/>
+      <c r="D7" s="551">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="597"/>
-      <c r="F7" s="597"/>
-      <c r="G7" s="597"/>
-      <c r="H7" s="598"/>
-      <c r="I7" s="631" t="s">
+      <c r="E7" s="596"/>
+      <c r="F7" s="596"/>
+      <c r="G7" s="596"/>
+      <c r="H7" s="597"/>
+      <c r="I7" s="630" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="630"/>
-      <c r="K7" s="540">
+      <c r="J7" s="629"/>
+      <c r="K7" s="539">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="541"/>
+      <c r="L7" s="540"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -13239,7 +13240,7 @@
       <c r="B10" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="500" t="s">
+      <c r="C10" s="499" t="s">
         <v>137</v>
       </c>
       <c r="D10" s="93">
@@ -13368,13 +13369,13 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1">
       <c r="A14" s="78"/>
-      <c r="B14" s="600" t="s">
+      <c r="B14" s="599" t="s">
         <v>144</v>
       </c>
-      <c r="C14" s="601"/>
-      <c r="D14" s="601"/>
-      <c r="E14" s="601"/>
-      <c r="F14" s="632"/>
+      <c r="C14" s="600"/>
+      <c r="D14" s="600"/>
+      <c r="E14" s="600"/>
+      <c r="F14" s="631"/>
       <c r="G14" s="56" t="s">
         <v>76</v>
       </c>
@@ -13393,12 +13394,12 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
       <c r="A15" s="78"/>
-      <c r="B15" s="585" t="s">
+      <c r="B15" s="584" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="586"/>
-      <c r="D15" s="586"/>
-      <c r="E15" s="587"/>
+      <c r="C15" s="585"/>
+      <c r="D15" s="585"/>
+      <c r="E15" s="586"/>
       <c r="F15" s="118" t="s">
         <v>16</v>
       </c>
@@ -13542,47 +13543,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1">
       <c r="A2" s="65"/>
-      <c r="B2" s="561"/>
-      <c r="C2" s="562"/>
-      <c r="D2" s="563"/>
-      <c r="E2" s="570" t="s">
+      <c r="B2" s="560"/>
+      <c r="C2" s="561"/>
+      <c r="D2" s="562"/>
+      <c r="E2" s="569" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="571"/>
-      <c r="G2" s="571"/>
-      <c r="H2" s="572"/>
-      <c r="I2" s="577" t="s">
+      <c r="F2" s="570"/>
+      <c r="G2" s="570"/>
+      <c r="H2" s="571"/>
+      <c r="I2" s="576" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="578"/>
-      <c r="K2" s="581">
+      <c r="J2" s="577"/>
+      <c r="K2" s="580">
         <f>Данные!B16</f>
         <v>26</v>
       </c>
-      <c r="L2" s="582"/>
+      <c r="L2" s="581"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="573"/>
-      <c r="Q2" s="573"/>
+      <c r="P2" s="572"/>
+      <c r="Q2" s="572"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="564"/>
-      <c r="C3" s="565"/>
-      <c r="D3" s="566"/>
-      <c r="E3" s="574" t="s">
+      <c r="B3" s="563"/>
+      <c r="C3" s="564"/>
+      <c r="D3" s="565"/>
+      <c r="E3" s="573" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="575"/>
-      <c r="G3" s="575"/>
-      <c r="H3" s="576"/>
-      <c r="I3" s="579"/>
-      <c r="J3" s="580"/>
-      <c r="K3" s="583"/>
-      <c r="L3" s="584"/>
+      <c r="F3" s="574"/>
+      <c r="G3" s="574"/>
+      <c r="H3" s="575"/>
+      <c r="I3" s="578"/>
+      <c r="J3" s="579"/>
+      <c r="K3" s="582"/>
+      <c r="L3" s="583"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -13593,9 +13594,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="567"/>
-      <c r="C4" s="568"/>
-      <c r="D4" s="569"/>
+      <c r="B4" s="566"/>
+      <c r="C4" s="567"/>
+      <c r="D4" s="568"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13614,22 +13615,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="588" t="s">
+      <c r="B5" s="587" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="589"/>
-      <c r="D5" s="549" t="str">
+      <c r="C5" s="588"/>
+      <c r="D5" s="548" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="550"/>
-      <c r="F5" s="550"/>
-      <c r="G5" s="550"/>
-      <c r="H5" s="551"/>
-      <c r="I5" s="590"/>
-      <c r="J5" s="591"/>
-      <c r="K5" s="550"/>
-      <c r="L5" s="551"/>
+      <c r="E5" s="549"/>
+      <c r="F5" s="549"/>
+      <c r="G5" s="549"/>
+      <c r="H5" s="550"/>
+      <c r="I5" s="589"/>
+      <c r="J5" s="590"/>
+      <c r="K5" s="549"/>
+      <c r="L5" s="550"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -13640,22 +13641,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="588" t="s">
+      <c r="B6" s="587" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="592"/>
-      <c r="D6" s="543" t="str">
+      <c r="C6" s="591"/>
+      <c r="D6" s="542" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="590"/>
-      <c r="J6" s="591"/>
-      <c r="K6" s="550"/>
-      <c r="L6" s="551"/>
+      <c r="E6" s="592"/>
+      <c r="F6" s="592"/>
+      <c r="G6" s="592"/>
+      <c r="H6" s="593"/>
+      <c r="I6" s="589"/>
+      <c r="J6" s="590"/>
+      <c r="K6" s="549"/>
+      <c r="L6" s="550"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -13666,27 +13667,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="595" t="s">
+      <c r="B7" s="594" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="596"/>
-      <c r="D7" s="552">
+      <c r="C7" s="595"/>
+      <c r="D7" s="551">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="597"/>
-      <c r="F7" s="597"/>
-      <c r="G7" s="597"/>
-      <c r="H7" s="598"/>
-      <c r="I7" s="595" t="s">
+      <c r="E7" s="596"/>
+      <c r="F7" s="596"/>
+      <c r="G7" s="596"/>
+      <c r="H7" s="597"/>
+      <c r="I7" s="594" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="599"/>
-      <c r="K7" s="540">
+      <c r="J7" s="598"/>
+      <c r="K7" s="539">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="541"/>
+      <c r="L7" s="540"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -14169,9 +14170,6 @@
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="E2:H2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B7:C7"/>
@@ -14187,6 +14185,9 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="E2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -14254,47 +14255,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1">
       <c r="A2" s="6"/>
-      <c r="B2" s="561"/>
-      <c r="C2" s="562"/>
-      <c r="D2" s="563"/>
-      <c r="E2" s="570" t="s">
+      <c r="B2" s="560"/>
+      <c r="C2" s="561"/>
+      <c r="D2" s="562"/>
+      <c r="E2" s="569" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="571"/>
-      <c r="G2" s="571"/>
-      <c r="H2" s="572"/>
-      <c r="I2" s="577" t="s">
+      <c r="F2" s="570"/>
+      <c r="G2" s="570"/>
+      <c r="H2" s="571"/>
+      <c r="I2" s="576" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="578"/>
-      <c r="K2" s="581">
+      <c r="J2" s="577"/>
+      <c r="K2" s="580">
         <f>Данные!B17</f>
         <v>26</v>
       </c>
-      <c r="L2" s="582"/>
+      <c r="L2" s="581"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="633"/>
-      <c r="Q2" s="633"/>
+      <c r="P2" s="632"/>
+      <c r="Q2" s="632"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="6"/>
-      <c r="B3" s="564"/>
-      <c r="C3" s="565"/>
-      <c r="D3" s="566"/>
-      <c r="E3" s="574" t="s">
+      <c r="B3" s="563"/>
+      <c r="C3" s="564"/>
+      <c r="D3" s="565"/>
+      <c r="E3" s="573" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="575"/>
-      <c r="G3" s="575"/>
-      <c r="H3" s="576"/>
-      <c r="I3" s="579"/>
-      <c r="J3" s="580"/>
-      <c r="K3" s="583"/>
-      <c r="L3" s="584"/>
+      <c r="F3" s="574"/>
+      <c r="G3" s="574"/>
+      <c r="H3" s="575"/>
+      <c r="I3" s="578"/>
+      <c r="J3" s="579"/>
+      <c r="K3" s="582"/>
+      <c r="L3" s="583"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -14305,9 +14306,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="6"/>
-      <c r="B4" s="567"/>
-      <c r="C4" s="568"/>
-      <c r="D4" s="569"/>
+      <c r="B4" s="566"/>
+      <c r="C4" s="567"/>
+      <c r="D4" s="568"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -14326,22 +14327,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="6"/>
-      <c r="B5" s="588" t="s">
+      <c r="B5" s="587" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="589"/>
-      <c r="D5" s="549" t="str">
+      <c r="C5" s="588"/>
+      <c r="D5" s="548" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="550"/>
-      <c r="F5" s="550"/>
-      <c r="G5" s="550"/>
-      <c r="H5" s="551"/>
-      <c r="I5" s="590"/>
-      <c r="J5" s="591"/>
-      <c r="K5" s="550"/>
-      <c r="L5" s="551"/>
+      <c r="E5" s="549"/>
+      <c r="F5" s="549"/>
+      <c r="G5" s="549"/>
+      <c r="H5" s="550"/>
+      <c r="I5" s="589"/>
+      <c r="J5" s="590"/>
+      <c r="K5" s="549"/>
+      <c r="L5" s="550"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -14352,22 +14353,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="588" t="s">
+      <c r="B6" s="587" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="592"/>
-      <c r="D6" s="543" t="str">
+      <c r="C6" s="591"/>
+      <c r="D6" s="542" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="590"/>
-      <c r="J6" s="591"/>
-      <c r="K6" s="550"/>
-      <c r="L6" s="551"/>
+      <c r="E6" s="592"/>
+      <c r="F6" s="592"/>
+      <c r="G6" s="592"/>
+      <c r="H6" s="593"/>
+      <c r="I6" s="589"/>
+      <c r="J6" s="590"/>
+      <c r="K6" s="549"/>
+      <c r="L6" s="550"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -14378,27 +14379,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="6"/>
-      <c r="B7" s="595" t="s">
+      <c r="B7" s="594" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="596"/>
-      <c r="D7" s="552">
+      <c r="C7" s="595"/>
+      <c r="D7" s="551">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="597"/>
-      <c r="F7" s="597"/>
-      <c r="G7" s="597"/>
-      <c r="H7" s="598"/>
-      <c r="I7" s="595" t="s">
+      <c r="E7" s="596"/>
+      <c r="F7" s="596"/>
+      <c r="G7" s="596"/>
+      <c r="H7" s="597"/>
+      <c r="I7" s="594" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="599"/>
-      <c r="K7" s="540">
+      <c r="J7" s="598"/>
+      <c r="K7" s="539">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="541"/>
+      <c r="L7" s="540"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -14772,60 +14773,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1">
       <c r="A2" s="65"/>
-      <c r="B2" s="603"/>
-      <c r="C2" s="604"/>
-      <c r="D2" s="605"/>
-      <c r="E2" s="612" t="s">
+      <c r="B2" s="602"/>
+      <c r="C2" s="603"/>
+      <c r="D2" s="604"/>
+      <c r="E2" s="611" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="613"/>
-      <c r="G2" s="613"/>
-      <c r="H2" s="614"/>
-      <c r="I2" s="618" t="s">
+      <c r="F2" s="612"/>
+      <c r="G2" s="612"/>
+      <c r="H2" s="613"/>
+      <c r="I2" s="617" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="619"/>
-      <c r="K2" s="622">
+      <c r="J2" s="618"/>
+      <c r="K2" s="621">
         <f>Данные!B18</f>
         <v>0</v>
       </c>
-      <c r="L2" s="623"/>
-      <c r="M2" s="634"/>
-      <c r="N2" s="635"/>
-      <c r="O2" s="635"/>
-      <c r="P2" s="635"/>
-      <c r="Q2" s="635"/>
-      <c r="R2" s="636"/>
+      <c r="L2" s="622"/>
+      <c r="M2" s="633"/>
+      <c r="N2" s="634"/>
+      <c r="O2" s="634"/>
+      <c r="P2" s="634"/>
+      <c r="Q2" s="634"/>
+      <c r="R2" s="635"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="65"/>
-      <c r="B3" s="606"/>
-      <c r="C3" s="607"/>
-      <c r="D3" s="608"/>
-      <c r="E3" s="615" t="s">
+      <c r="B3" s="605"/>
+      <c r="C3" s="606"/>
+      <c r="D3" s="607"/>
+      <c r="E3" s="614" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="616"/>
-      <c r="G3" s="616"/>
-      <c r="H3" s="617"/>
-      <c r="I3" s="620"/>
-      <c r="J3" s="621"/>
-      <c r="K3" s="624"/>
-      <c r="L3" s="625"/>
-      <c r="M3" s="637"/>
-      <c r="N3" s="638"/>
-      <c r="O3" s="638"/>
-      <c r="P3" s="638"/>
-      <c r="Q3" s="638"/>
-      <c r="R3" s="639"/>
+      <c r="F3" s="615"/>
+      <c r="G3" s="615"/>
+      <c r="H3" s="616"/>
+      <c r="I3" s="619"/>
+      <c r="J3" s="620"/>
+      <c r="K3" s="623"/>
+      <c r="L3" s="624"/>
+      <c r="M3" s="636"/>
+      <c r="N3" s="637"/>
+      <c r="O3" s="637"/>
+      <c r="P3" s="637"/>
+      <c r="Q3" s="637"/>
+      <c r="R3" s="638"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="65"/>
-      <c r="B4" s="609"/>
-      <c r="C4" s="610"/>
-      <c r="D4" s="611"/>
+      <c r="B4" s="608"/>
+      <c r="C4" s="609"/>
+      <c r="D4" s="610"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -14834,95 +14835,95 @@
       <c r="J4" s="251"/>
       <c r="K4" s="254"/>
       <c r="L4" s="255"/>
-      <c r="M4" s="637"/>
-      <c r="N4" s="638"/>
-      <c r="O4" s="638"/>
-      <c r="P4" s="638"/>
-      <c r="Q4" s="638"/>
-      <c r="R4" s="639"/>
+      <c r="M4" s="636"/>
+      <c r="N4" s="637"/>
+      <c r="O4" s="637"/>
+      <c r="P4" s="637"/>
+      <c r="Q4" s="637"/>
+      <c r="R4" s="638"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="65"/>
-      <c r="B5" s="588" t="s">
+      <c r="B5" s="587" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="626"/>
-      <c r="D5" s="549" t="str">
+      <c r="C5" s="625"/>
+      <c r="D5" s="548" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="550"/>
-      <c r="F5" s="550"/>
-      <c r="G5" s="550"/>
-      <c r="H5" s="551"/>
-      <c r="I5" s="627"/>
-      <c r="J5" s="628"/>
-      <c r="K5" s="629"/>
-      <c r="L5" s="551"/>
-      <c r="M5" s="637"/>
-      <c r="N5" s="638"/>
-      <c r="O5" s="638"/>
-      <c r="P5" s="638"/>
-      <c r="Q5" s="638"/>
-      <c r="R5" s="639"/>
+      <c r="E5" s="549"/>
+      <c r="F5" s="549"/>
+      <c r="G5" s="549"/>
+      <c r="H5" s="550"/>
+      <c r="I5" s="626"/>
+      <c r="J5" s="627"/>
+      <c r="K5" s="628"/>
+      <c r="L5" s="550"/>
+      <c r="M5" s="636"/>
+      <c r="N5" s="637"/>
+      <c r="O5" s="637"/>
+      <c r="P5" s="637"/>
+      <c r="Q5" s="637"/>
+      <c r="R5" s="638"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="65"/>
-      <c r="B6" s="588" t="s">
+      <c r="B6" s="587" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="626"/>
-      <c r="D6" s="543" t="str">
+      <c r="C6" s="625"/>
+      <c r="D6" s="542" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="627"/>
-      <c r="J6" s="628"/>
-      <c r="K6" s="629"/>
-      <c r="L6" s="551"/>
-      <c r="M6" s="637"/>
-      <c r="N6" s="638"/>
-      <c r="O6" s="638"/>
-      <c r="P6" s="638"/>
-      <c r="Q6" s="638"/>
-      <c r="R6" s="639"/>
+      <c r="E6" s="592"/>
+      <c r="F6" s="592"/>
+      <c r="G6" s="592"/>
+      <c r="H6" s="593"/>
+      <c r="I6" s="626"/>
+      <c r="J6" s="627"/>
+      <c r="K6" s="628"/>
+      <c r="L6" s="550"/>
+      <c r="M6" s="636"/>
+      <c r="N6" s="637"/>
+      <c r="O6" s="637"/>
+      <c r="P6" s="637"/>
+      <c r="Q6" s="637"/>
+      <c r="R6" s="638"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="65"/>
-      <c r="B7" s="595" t="s">
+      <c r="B7" s="594" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="630"/>
-      <c r="D7" s="552">
+      <c r="C7" s="629"/>
+      <c r="D7" s="551">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="597"/>
-      <c r="F7" s="597"/>
-      <c r="G7" s="597"/>
-      <c r="H7" s="598"/>
-      <c r="I7" s="631" t="s">
+      <c r="E7" s="596"/>
+      <c r="F7" s="596"/>
+      <c r="G7" s="596"/>
+      <c r="H7" s="597"/>
+      <c r="I7" s="630" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="630"/>
-      <c r="K7" s="540">
+      <c r="J7" s="629"/>
+      <c r="K7" s="539">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="541"/>
-      <c r="M7" s="637"/>
-      <c r="N7" s="638"/>
-      <c r="O7" s="638"/>
-      <c r="P7" s="638"/>
-      <c r="Q7" s="638"/>
-      <c r="R7" s="639"/>
+      <c r="L7" s="540"/>
+      <c r="M7" s="636"/>
+      <c r="N7" s="637"/>
+      <c r="O7" s="637"/>
+      <c r="P7" s="637"/>
+      <c r="Q7" s="637"/>
+      <c r="R7" s="638"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
@@ -15344,12 +15345,12 @@
     </row>
     <row r="21" spans="1:19" ht="31.2" thickBot="1">
       <c r="A21" s="78"/>
-      <c r="B21" s="585" t="s">
+      <c r="B21" s="584" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="586"/>
-      <c r="D21" s="586"/>
-      <c r="E21" s="587"/>
+      <c r="C21" s="585"/>
+      <c r="D21" s="585"/>
+      <c r="E21" s="586"/>
       <c r="F21" s="118" t="s">
         <v>16</v>
       </c>

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-30-4А-700 (Байрон 0.7 л.)/Байрон 0.7 л. от 06.11.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-30-4А-700 (Байрон 0.7 л.)/Байрон 0.7 л. от 06.11.2019.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\XXI-В-30-4А-700 (Байрон 0.7 л.)\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C039F4FB-D499-409C-AA62-7103F2C8BB5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Детали ф-тов" sheetId="17" r:id="rId1"/>
@@ -31,19 +32,26 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Акт приемки'!$A$1:$J$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Горл. кольцо'!$A$1:$S$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Детали ф-тов'!$A$1:$J$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Паспорт!$A$1:$I$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Паспорт!$A$1:$J$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">Плунжер!$A$1:$S$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Черн. поддон'!$A$1:$S$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Черн. форма'!$A$1:$R$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Чист.  поддон'!$A$1:$S$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Чист. форма'!$A$1:$S$26</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="153">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -500,19 +508,22 @@
   <si>
     <t>Профиль чистовой формы в точках контроля увеличен от 0,4 до 0,6 мм относительно чертежа</t>
   </si>
+  <si>
+    <t>Вес, гр. (ном. 570 гр.)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="59">
+  <fonts count="59" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2194,10 +2205,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="652">
+  <cellXfs count="658">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
@@ -3397,7 +3408,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3412,7 +3423,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3463,25 +3474,25 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3493,11 +3504,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3507,7 +3518,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="94" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3521,11 +3532,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1"/>
@@ -3537,13 +3548,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3556,7 +3567,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3619,91 +3630,94 @@
     <xf numFmtId="2" fontId="58" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="47" fillId="12" borderId="94" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="47" fillId="12" borderId="94" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3719,12 +3733,6 @@
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3769,6 +3777,21 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -3777,87 +3800,6 @@
     </xf>
     <xf numFmtId="49" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3909,73 +3851,76 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3999,6 +3944,75 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4025,22 +4039,25 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4053,17 +4070,29 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 3" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Процентный" xfId="4" builtinId="5"/>
     <cellStyle name="Финансовый" xfId="3" builtinId="3"/>
   </cellStyles>
@@ -4353,7 +4382,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4399,7 +4434,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4444,7 +4485,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Прямая соединительная линия 9"/>
+        <xdr:cNvPr id="10" name="Прямая соединительная линия 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4488,7 +4535,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4537,7 +4590,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 8" descr="Fun_1"/>
+        <xdr:cNvPr id="2" name="Picture 8" descr="Fun_1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4583,7 +4642,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4627,7 +4692,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4671,7 +4742,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4720,7 +4797,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 4" descr="BOT-1_HR.jpg"/>
+        <xdr:cNvPr id="3" name="Picture 4" descr="BOT-1_HR.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4766,7 +4849,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4810,7 +4899,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4854,7 +4949,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4903,7 +5004,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4949,7 +5056,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4993,7 +5106,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5037,7 +5156,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5086,7 +5211,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1078" name="Picture 4" descr="BAF-2_HR.JPG"/>
+        <xdr:cNvPr id="1078" name="Picture 4" descr="BAF-2_HR.JPG">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000036040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5132,7 +5263,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5176,7 +5313,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5220,7 +5363,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5269,7 +5418,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 4" descr="NR-02.TIF"/>
+        <xdr:cNvPr id="3" name="Picture 4" descr="NR-02.TIF">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -5315,7 +5470,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5359,7 +5520,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Рисунок 5"/>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5402,7 +5569,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 4" descr="Iso0418(FGP)"/>
+        <xdr:cNvPr id="2" name="Picture 4" descr="Iso0418(FGP)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5448,7 +5621,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5497,7 +5676,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 5" descr="pbb.tif"/>
+        <xdr:cNvPr id="3" name="Picture 5" descr="pbb.tif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -5543,7 +5728,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5587,7 +5778,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5631,7 +5828,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5680,7 +5883,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 9" descr="THIMBLE"/>
+        <xdr:cNvPr id="2" name="Picture 9" descr="THIMBLE">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5726,7 +5935,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5770,7 +5985,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5814,7 +6035,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5863,7 +6090,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 6" descr="BLOWHEAD"/>
+        <xdr:cNvPr id="2" name="Picture 6" descr="BLOWHEAD">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5909,7 +6142,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5953,7 +6192,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5997,7 +6242,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6105,6 +6356,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -6140,6 +6408,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -6315,25 +6600,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="309"/>
+    <col min="1" max="3" width="9.140625" style="309"/>
     <col min="4" max="4" width="8" style="309" customWidth="1"/>
-    <col min="5" max="6" width="9.109375" style="309"/>
-    <col min="7" max="7" width="9.109375" style="309" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" style="309" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="309" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="309"/>
+    <col min="5" max="6" width="9.140625" style="309"/>
+    <col min="7" max="7" width="9.140625" style="309" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="309" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="309" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="309"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="371" customFormat="1" ht="15.6">
+    <row r="1" spans="1:10" s="371" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="322"/>
       <c r="B1" s="322"/>
       <c r="C1" s="322"/>
@@ -6345,7 +6630,7 @@
       <c r="I1" s="322"/>
       <c r="J1" s="314"/>
     </row>
-    <row r="2" spans="1:10" ht="15.6">
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="313"/>
       <c r="B2" s="313"/>
       <c r="C2" s="313"/>
@@ -6357,7 +6642,7 @@
       <c r="I2" s="315"/>
       <c r="J2" s="314"/>
     </row>
-    <row r="3" spans="1:10" ht="15.6">
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="313"/>
       <c r="B3" s="313"/>
       <c r="C3" s="313"/>
@@ -6369,377 +6654,377 @@
       <c r="I3" s="313"/>
       <c r="J3" s="314"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A4" s="500" t="s">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="526" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="500" t="s">
+      <c r="B4" s="526" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="500"/>
-      <c r="D4" s="500"/>
-      <c r="E4" s="500" t="s">
+      <c r="C4" s="526"/>
+      <c r="D4" s="526"/>
+      <c r="E4" s="526" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="500"/>
-      <c r="G4" s="501" t="s">
+      <c r="F4" s="526"/>
+      <c r="G4" s="527" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="500" t="s">
+      <c r="H4" s="526" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="500"/>
-      <c r="J4" s="500"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="500"/>
-      <c r="B5" s="500"/>
-      <c r="C5" s="500"/>
-      <c r="D5" s="500"/>
-      <c r="E5" s="500"/>
-      <c r="F5" s="500"/>
-      <c r="G5" s="501"/>
-      <c r="H5" s="500"/>
-      <c r="I5" s="500"/>
-      <c r="J5" s="500"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="502">
+      <c r="I4" s="526"/>
+      <c r="J4" s="526"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="526"/>
+      <c r="B5" s="526"/>
+      <c r="C5" s="526"/>
+      <c r="D5" s="526"/>
+      <c r="E5" s="526"/>
+      <c r="F5" s="526"/>
+      <c r="G5" s="527"/>
+      <c r="H5" s="526"/>
+      <c r="I5" s="526"/>
+      <c r="J5" s="526"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="501">
         <v>1</v>
       </c>
-      <c r="B6" s="504" t="s">
+      <c r="B6" s="523" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="505"/>
-      <c r="D6" s="506"/>
-      <c r="E6" s="507"/>
-      <c r="F6" s="508"/>
-      <c r="G6" s="511"/>
-      <c r="H6" s="513"/>
-      <c r="I6" s="514"/>
-      <c r="J6" s="515"/>
-    </row>
-    <row r="7" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A7" s="503"/>
-      <c r="B7" s="519"/>
-      <c r="C7" s="520"/>
-      <c r="D7" s="521"/>
-      <c r="E7" s="509"/>
-      <c r="F7" s="510"/>
-      <c r="G7" s="512"/>
-      <c r="H7" s="516"/>
-      <c r="I7" s="517"/>
-      <c r="J7" s="518"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="502">
+      <c r="C6" s="524"/>
+      <c r="D6" s="525"/>
+      <c r="E6" s="506"/>
+      <c r="F6" s="507"/>
+      <c r="G6" s="510"/>
+      <c r="H6" s="512"/>
+      <c r="I6" s="513"/>
+      <c r="J6" s="514"/>
+    </row>
+    <row r="7" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="521"/>
+      <c r="B7" s="518"/>
+      <c r="C7" s="519"/>
+      <c r="D7" s="520"/>
+      <c r="E7" s="522"/>
+      <c r="F7" s="509"/>
+      <c r="G7" s="511"/>
+      <c r="H7" s="515"/>
+      <c r="I7" s="516"/>
+      <c r="J7" s="517"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="501">
         <v>1</v>
       </c>
-      <c r="B8" s="522" t="s">
+      <c r="B8" s="503" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="523"/>
-      <c r="D8" s="524"/>
-      <c r="E8" s="507"/>
-      <c r="F8" s="508"/>
-      <c r="G8" s="511"/>
-      <c r="H8" s="513"/>
-      <c r="I8" s="514"/>
-      <c r="J8" s="515"/>
-    </row>
-    <row r="9" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A9" s="503"/>
-      <c r="B9" s="519"/>
-      <c r="C9" s="520"/>
-      <c r="D9" s="521"/>
-      <c r="E9" s="509"/>
-      <c r="F9" s="510"/>
-      <c r="G9" s="512"/>
-      <c r="H9" s="516"/>
-      <c r="I9" s="517"/>
-      <c r="J9" s="518"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="502">
+      <c r="C8" s="504"/>
+      <c r="D8" s="505"/>
+      <c r="E8" s="506"/>
+      <c r="F8" s="507"/>
+      <c r="G8" s="510"/>
+      <c r="H8" s="512"/>
+      <c r="I8" s="513"/>
+      <c r="J8" s="514"/>
+    </row>
+    <row r="9" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="521"/>
+      <c r="B9" s="518"/>
+      <c r="C9" s="519"/>
+      <c r="D9" s="520"/>
+      <c r="E9" s="522"/>
+      <c r="F9" s="509"/>
+      <c r="G9" s="511"/>
+      <c r="H9" s="515"/>
+      <c r="I9" s="516"/>
+      <c r="J9" s="517"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="501">
         <v>1</v>
       </c>
-      <c r="B10" s="522" t="s">
+      <c r="B10" s="503" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="523"/>
-      <c r="D10" s="524"/>
-      <c r="E10" s="507"/>
-      <c r="F10" s="508"/>
-      <c r="G10" s="511"/>
-      <c r="H10" s="513"/>
-      <c r="I10" s="514"/>
-      <c r="J10" s="515"/>
-    </row>
-    <row r="11" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A11" s="503"/>
-      <c r="B11" s="519"/>
-      <c r="C11" s="520"/>
-      <c r="D11" s="521"/>
-      <c r="E11" s="509"/>
-      <c r="F11" s="510"/>
-      <c r="G11" s="512"/>
-      <c r="H11" s="516"/>
-      <c r="I11" s="517"/>
-      <c r="J11" s="518"/>
-    </row>
-    <row r="12" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A12" s="502">
+      <c r="C10" s="504"/>
+      <c r="D10" s="505"/>
+      <c r="E10" s="506"/>
+      <c r="F10" s="507"/>
+      <c r="G10" s="510"/>
+      <c r="H10" s="512"/>
+      <c r="I10" s="513"/>
+      <c r="J10" s="514"/>
+    </row>
+    <row r="11" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="521"/>
+      <c r="B11" s="518"/>
+      <c r="C11" s="519"/>
+      <c r="D11" s="520"/>
+      <c r="E11" s="522"/>
+      <c r="F11" s="509"/>
+      <c r="G11" s="511"/>
+      <c r="H11" s="515"/>
+      <c r="I11" s="516"/>
+      <c r="J11" s="517"/>
+    </row>
+    <row r="12" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="501">
         <v>1</v>
       </c>
-      <c r="B12" s="522" t="s">
+      <c r="B12" s="503" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="523"/>
-      <c r="D12" s="524"/>
-      <c r="E12" s="507"/>
-      <c r="F12" s="508"/>
-      <c r="G12" s="511"/>
-      <c r="H12" s="513"/>
-      <c r="I12" s="514"/>
-      <c r="J12" s="515"/>
-    </row>
-    <row r="13" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A13" s="525"/>
-      <c r="B13" s="519"/>
-      <c r="C13" s="520"/>
-      <c r="D13" s="521"/>
-      <c r="E13" s="526"/>
-      <c r="F13" s="510"/>
-      <c r="G13" s="512"/>
-      <c r="H13" s="516"/>
-      <c r="I13" s="517"/>
-      <c r="J13" s="518"/>
-    </row>
-    <row r="14" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A14" s="502">
+      <c r="C12" s="504"/>
+      <c r="D12" s="505"/>
+      <c r="E12" s="506"/>
+      <c r="F12" s="507"/>
+      <c r="G12" s="510"/>
+      <c r="H12" s="512"/>
+      <c r="I12" s="513"/>
+      <c r="J12" s="514"/>
+    </row>
+    <row r="13" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="502"/>
+      <c r="B13" s="518"/>
+      <c r="C13" s="519"/>
+      <c r="D13" s="520"/>
+      <c r="E13" s="508"/>
+      <c r="F13" s="509"/>
+      <c r="G13" s="511"/>
+      <c r="H13" s="515"/>
+      <c r="I13" s="516"/>
+      <c r="J13" s="517"/>
+    </row>
+    <row r="14" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="501">
         <v>1</v>
       </c>
-      <c r="B14" s="522" t="s">
+      <c r="B14" s="503" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="523"/>
-      <c r="D14" s="524"/>
-      <c r="E14" s="507"/>
-      <c r="F14" s="508"/>
-      <c r="G14" s="511"/>
-      <c r="H14" s="513"/>
-      <c r="I14" s="514"/>
-      <c r="J14" s="515"/>
-    </row>
-    <row r="15" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A15" s="525"/>
-      <c r="B15" s="519"/>
-      <c r="C15" s="520"/>
-      <c r="D15" s="521"/>
-      <c r="E15" s="526"/>
-      <c r="F15" s="510"/>
-      <c r="G15" s="512"/>
-      <c r="H15" s="516"/>
-      <c r="I15" s="517"/>
-      <c r="J15" s="518"/>
-    </row>
-    <row r="16" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A16" s="502">
+      <c r="C14" s="504"/>
+      <c r="D14" s="505"/>
+      <c r="E14" s="506"/>
+      <c r="F14" s="507"/>
+      <c r="G14" s="510"/>
+      <c r="H14" s="512"/>
+      <c r="I14" s="513"/>
+      <c r="J14" s="514"/>
+    </row>
+    <row r="15" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="502"/>
+      <c r="B15" s="518"/>
+      <c r="C15" s="519"/>
+      <c r="D15" s="520"/>
+      <c r="E15" s="508"/>
+      <c r="F15" s="509"/>
+      <c r="G15" s="511"/>
+      <c r="H15" s="515"/>
+      <c r="I15" s="516"/>
+      <c r="J15" s="517"/>
+    </row>
+    <row r="16" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="501">
         <v>1</v>
       </c>
-      <c r="B16" s="522" t="s">
+      <c r="B16" s="503" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="523"/>
-      <c r="D16" s="524"/>
-      <c r="E16" s="507"/>
-      <c r="F16" s="508"/>
-      <c r="G16" s="511"/>
-      <c r="H16" s="513"/>
-      <c r="I16" s="514"/>
-      <c r="J16" s="515"/>
-    </row>
-    <row r="17" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A17" s="525"/>
-      <c r="B17" s="519"/>
-      <c r="C17" s="520"/>
-      <c r="D17" s="521"/>
-      <c r="E17" s="526"/>
-      <c r="F17" s="510"/>
-      <c r="G17" s="512"/>
-      <c r="H17" s="516"/>
-      <c r="I17" s="517"/>
-      <c r="J17" s="518"/>
-    </row>
-    <row r="18" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A18" s="502">
+      <c r="C16" s="504"/>
+      <c r="D16" s="505"/>
+      <c r="E16" s="506"/>
+      <c r="F16" s="507"/>
+      <c r="G16" s="510"/>
+      <c r="H16" s="512"/>
+      <c r="I16" s="513"/>
+      <c r="J16" s="514"/>
+    </row>
+    <row r="17" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="502"/>
+      <c r="B17" s="518"/>
+      <c r="C17" s="519"/>
+      <c r="D17" s="520"/>
+      <c r="E17" s="508"/>
+      <c r="F17" s="509"/>
+      <c r="G17" s="511"/>
+      <c r="H17" s="515"/>
+      <c r="I17" s="516"/>
+      <c r="J17" s="517"/>
+    </row>
+    <row r="18" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="501">
         <v>1</v>
       </c>
-      <c r="B18" s="522" t="s">
+      <c r="B18" s="503" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="523"/>
-      <c r="D18" s="524"/>
-      <c r="E18" s="507"/>
-      <c r="F18" s="508"/>
-      <c r="G18" s="511"/>
-      <c r="H18" s="513"/>
-      <c r="I18" s="514"/>
-      <c r="J18" s="515"/>
-    </row>
-    <row r="19" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A19" s="525"/>
-      <c r="B19" s="519"/>
-      <c r="C19" s="520"/>
-      <c r="D19" s="521"/>
-      <c r="E19" s="526"/>
-      <c r="F19" s="510"/>
-      <c r="G19" s="512"/>
-      <c r="H19" s="516"/>
-      <c r="I19" s="517"/>
-      <c r="J19" s="518"/>
-    </row>
-    <row r="20" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A20" s="502">
+      <c r="C18" s="504"/>
+      <c r="D18" s="505"/>
+      <c r="E18" s="506"/>
+      <c r="F18" s="507"/>
+      <c r="G18" s="510"/>
+      <c r="H18" s="512"/>
+      <c r="I18" s="513"/>
+      <c r="J18" s="514"/>
+    </row>
+    <row r="19" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="502"/>
+      <c r="B19" s="518"/>
+      <c r="C19" s="519"/>
+      <c r="D19" s="520"/>
+      <c r="E19" s="508"/>
+      <c r="F19" s="509"/>
+      <c r="G19" s="511"/>
+      <c r="H19" s="515"/>
+      <c r="I19" s="516"/>
+      <c r="J19" s="517"/>
+    </row>
+    <row r="20" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="501">
         <v>1</v>
       </c>
-      <c r="B20" s="522" t="s">
+      <c r="B20" s="503" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="523"/>
-      <c r="D20" s="524"/>
-      <c r="E20" s="507"/>
-      <c r="F20" s="508"/>
-      <c r="G20" s="511"/>
-      <c r="H20" s="513"/>
-      <c r="I20" s="514"/>
-      <c r="J20" s="515"/>
-    </row>
-    <row r="21" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A21" s="525"/>
-      <c r="B21" s="519"/>
-      <c r="C21" s="520"/>
-      <c r="D21" s="521"/>
-      <c r="E21" s="526"/>
-      <c r="F21" s="510"/>
-      <c r="G21" s="512"/>
-      <c r="H21" s="516"/>
-      <c r="I21" s="517"/>
-      <c r="J21" s="518"/>
-    </row>
-    <row r="22" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A22" s="502">
+      <c r="C20" s="504"/>
+      <c r="D20" s="505"/>
+      <c r="E20" s="506"/>
+      <c r="F20" s="507"/>
+      <c r="G20" s="510"/>
+      <c r="H20" s="512"/>
+      <c r="I20" s="513"/>
+      <c r="J20" s="514"/>
+    </row>
+    <row r="21" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="502"/>
+      <c r="B21" s="518"/>
+      <c r="C21" s="519"/>
+      <c r="D21" s="520"/>
+      <c r="E21" s="508"/>
+      <c r="F21" s="509"/>
+      <c r="G21" s="511"/>
+      <c r="H21" s="515"/>
+      <c r="I21" s="516"/>
+      <c r="J21" s="517"/>
+    </row>
+    <row r="22" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="501">
         <v>1</v>
       </c>
-      <c r="B22" s="522" t="s">
+      <c r="B22" s="503" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="523"/>
-      <c r="D22" s="524"/>
-      <c r="E22" s="507"/>
-      <c r="F22" s="508"/>
-      <c r="G22" s="511"/>
-      <c r="H22" s="513"/>
-      <c r="I22" s="514"/>
-      <c r="J22" s="515"/>
-    </row>
-    <row r="23" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A23" s="525"/>
-      <c r="B23" s="519"/>
-      <c r="C23" s="520"/>
-      <c r="D23" s="521"/>
-      <c r="E23" s="526"/>
-      <c r="F23" s="510"/>
-      <c r="G23" s="512"/>
-      <c r="H23" s="516"/>
-      <c r="I23" s="517"/>
-      <c r="J23" s="518"/>
-    </row>
-    <row r="24" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A24" s="502">
+      <c r="C22" s="504"/>
+      <c r="D22" s="505"/>
+      <c r="E22" s="506"/>
+      <c r="F22" s="507"/>
+      <c r="G22" s="510"/>
+      <c r="H22" s="512"/>
+      <c r="I22" s="513"/>
+      <c r="J22" s="514"/>
+    </row>
+    <row r="23" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="502"/>
+      <c r="B23" s="518"/>
+      <c r="C23" s="519"/>
+      <c r="D23" s="520"/>
+      <c r="E23" s="508"/>
+      <c r="F23" s="509"/>
+      <c r="G23" s="511"/>
+      <c r="H23" s="515"/>
+      <c r="I23" s="516"/>
+      <c r="J23" s="517"/>
+    </row>
+    <row r="24" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="501">
         <v>1</v>
       </c>
-      <c r="B24" s="522" t="s">
+      <c r="B24" s="503" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="523"/>
-      <c r="D24" s="524"/>
-      <c r="E24" s="507"/>
-      <c r="F24" s="508"/>
-      <c r="G24" s="511"/>
-      <c r="H24" s="513"/>
-      <c r="I24" s="514"/>
-      <c r="J24" s="515"/>
-    </row>
-    <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A25" s="525"/>
-      <c r="B25" s="519"/>
-      <c r="C25" s="520"/>
-      <c r="D25" s="521"/>
-      <c r="E25" s="526"/>
-      <c r="F25" s="510"/>
-      <c r="G25" s="512"/>
-      <c r="H25" s="516"/>
-      <c r="I25" s="517"/>
-      <c r="J25" s="518"/>
-    </row>
-    <row r="26" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A26" s="502">
+      <c r="C24" s="504"/>
+      <c r="D24" s="505"/>
+      <c r="E24" s="506"/>
+      <c r="F24" s="507"/>
+      <c r="G24" s="510"/>
+      <c r="H24" s="512"/>
+      <c r="I24" s="513"/>
+      <c r="J24" s="514"/>
+    </row>
+    <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="502"/>
+      <c r="B25" s="518"/>
+      <c r="C25" s="519"/>
+      <c r="D25" s="520"/>
+      <c r="E25" s="508"/>
+      <c r="F25" s="509"/>
+      <c r="G25" s="511"/>
+      <c r="H25" s="515"/>
+      <c r="I25" s="516"/>
+      <c r="J25" s="517"/>
+    </row>
+    <row r="26" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="501">
         <v>1</v>
       </c>
-      <c r="B26" s="522" t="s">
+      <c r="B26" s="503" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="523"/>
-      <c r="D26" s="524"/>
-      <c r="E26" s="507"/>
-      <c r="F26" s="508"/>
-      <c r="G26" s="511"/>
-      <c r="H26" s="513"/>
-      <c r="I26" s="514"/>
-      <c r="J26" s="515"/>
-    </row>
-    <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A27" s="525"/>
-      <c r="B27" s="519"/>
-      <c r="C27" s="520"/>
-      <c r="D27" s="521"/>
-      <c r="E27" s="526"/>
-      <c r="F27" s="510"/>
-      <c r="G27" s="512"/>
-      <c r="H27" s="516"/>
-      <c r="I27" s="517"/>
-      <c r="J27" s="518"/>
-    </row>
-    <row r="28" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A28" s="502">
+      <c r="C26" s="504"/>
+      <c r="D26" s="505"/>
+      <c r="E26" s="506"/>
+      <c r="F26" s="507"/>
+      <c r="G26" s="510"/>
+      <c r="H26" s="512"/>
+      <c r="I26" s="513"/>
+      <c r="J26" s="514"/>
+    </row>
+    <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="502"/>
+      <c r="B27" s="518"/>
+      <c r="C27" s="519"/>
+      <c r="D27" s="520"/>
+      <c r="E27" s="508"/>
+      <c r="F27" s="509"/>
+      <c r="G27" s="511"/>
+      <c r="H27" s="515"/>
+      <c r="I27" s="516"/>
+      <c r="J27" s="517"/>
+    </row>
+    <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="501">
         <v>1</v>
       </c>
-      <c r="B28" s="522" t="s">
+      <c r="B28" s="503" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="523"/>
-      <c r="D28" s="524"/>
-      <c r="E28" s="507"/>
-      <c r="F28" s="508"/>
-      <c r="G28" s="511"/>
-      <c r="H28" s="513"/>
-      <c r="I28" s="514"/>
-      <c r="J28" s="515"/>
-    </row>
-    <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A29" s="525"/>
-      <c r="B29" s="519"/>
-      <c r="C29" s="520"/>
-      <c r="D29" s="521"/>
-      <c r="E29" s="526"/>
-      <c r="F29" s="510"/>
-      <c r="G29" s="512"/>
-      <c r="H29" s="516"/>
-      <c r="I29" s="517"/>
-      <c r="J29" s="518"/>
-    </row>
-    <row r="30" spans="1:10" ht="15.6">
+      <c r="C28" s="504"/>
+      <c r="D28" s="505"/>
+      <c r="E28" s="506"/>
+      <c r="F28" s="507"/>
+      <c r="G28" s="510"/>
+      <c r="H28" s="512"/>
+      <c r="I28" s="513"/>
+      <c r="J28" s="514"/>
+    </row>
+    <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="502"/>
+      <c r="B29" s="518"/>
+      <c r="C29" s="519"/>
+      <c r="D29" s="520"/>
+      <c r="E29" s="508"/>
+      <c r="F29" s="509"/>
+      <c r="G29" s="511"/>
+      <c r="H29" s="515"/>
+      <c r="I29" s="516"/>
+      <c r="J29" s="517"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="313"/>
       <c r="B30" s="313"/>
       <c r="C30" s="313"/>
@@ -6751,7 +7036,7 @@
       <c r="I30" s="313"/>
       <c r="J30" s="314"/>
     </row>
-    <row r="31" spans="1:10" s="482" customFormat="1" ht="15.6">
+    <row r="31" spans="1:10" s="482" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="480"/>
       <c r="B31" s="480"/>
       <c r="C31" s="480"/>
@@ -6763,7 +7048,7 @@
       <c r="I31" s="480"/>
       <c r="J31" s="481"/>
     </row>
-    <row r="32" spans="1:10" s="482" customFormat="1" ht="15.6">
+    <row r="32" spans="1:10" s="482" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="480"/>
       <c r="B32" s="480"/>
       <c r="C32" s="480"/>
@@ -6775,7 +7060,7 @@
       <c r="I32" s="480"/>
       <c r="J32" s="481"/>
     </row>
-    <row r="33" spans="1:10" s="482" customFormat="1" ht="15.6">
+    <row r="33" spans="1:10" s="482" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="480"/>
       <c r="B33" s="484"/>
       <c r="C33" s="480"/>
@@ -6787,7 +7072,7 @@
       <c r="I33" s="480"/>
       <c r="J33" s="481"/>
     </row>
-    <row r="34" spans="1:10" s="482" customFormat="1" ht="15.6">
+    <row r="34" spans="1:10" s="482" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="480"/>
       <c r="B34" s="480"/>
       <c r="C34" s="480"/>
@@ -6799,7 +7084,7 @@
       <c r="I34" s="480"/>
       <c r="J34" s="481"/>
     </row>
-    <row r="35" spans="1:10" s="482" customFormat="1" ht="15.6">
+    <row r="35" spans="1:10" s="482" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="480"/>
       <c r="B35" s="480"/>
       <c r="C35" s="480"/>
@@ -6810,7 +7095,7 @@
       <c r="I35" s="480"/>
       <c r="J35" s="480"/>
     </row>
-    <row r="36" spans="1:10" s="482" customFormat="1" ht="15.6">
+    <row r="36" spans="1:10" s="482" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="480"/>
       <c r="B36" s="480"/>
       <c r="C36" s="480"/>
@@ -6821,7 +7106,7 @@
       <c r="I36" s="480"/>
       <c r="J36" s="480"/>
     </row>
-    <row r="37" spans="1:10" s="482" customFormat="1" ht="15.6">
+    <row r="37" spans="1:10" s="482" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="480"/>
       <c r="B37" s="480"/>
       <c r="C37" s="480"/>
@@ -6829,14 +7114,14 @@
       <c r="E37" s="480"/>
       <c r="I37" s="480"/>
     </row>
-    <row r="38" spans="1:10" s="482" customFormat="1" ht="17.399999999999999">
+    <row r="38" spans="1:10" s="482" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="485"/>
       <c r="B38" s="485"/>
       <c r="C38" s="485"/>
       <c r="D38" s="485"/>
       <c r="E38" s="485"/>
     </row>
-    <row r="39" spans="1:10" ht="17.399999999999999">
+    <row r="39" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="310"/>
       <c r="B39" s="310"/>
       <c r="C39" s="310"/>
@@ -6852,83 +7137,83 @@
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:J5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:J7"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:J9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:J11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:J13"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:J15"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:J17"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:J19"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:J21"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:J23"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:J25"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B27:D27"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="E28:F29"/>
     <mergeCell ref="G28:G29"/>
     <mergeCell ref="H28:J29"/>
     <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:J25"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:J23"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:J21"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:J19"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:J17"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:J15"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:J13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:J11"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:J9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:J7"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:D5"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:J5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6937,7 +7222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -6947,19 +7232,19 @@
       <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="64" customWidth="1"/>
-    <col min="4" max="6" width="5.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="64" customWidth="1"/>
+    <col min="4" max="6" width="5.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.109375" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.140625" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -6980,49 +7265,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="602"/>
-      <c r="C2" s="603"/>
-      <c r="D2" s="604"/>
-      <c r="E2" s="611" t="s">
+      <c r="B2" s="610"/>
+      <c r="C2" s="611"/>
+      <c r="D2" s="612"/>
+      <c r="E2" s="619" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="612"/>
-      <c r="G2" s="612"/>
-      <c r="H2" s="613"/>
-      <c r="I2" s="617" t="s">
+      <c r="F2" s="620"/>
+      <c r="G2" s="620"/>
+      <c r="H2" s="621"/>
+      <c r="I2" s="625" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="618"/>
-      <c r="K2" s="621">
+      <c r="J2" s="626"/>
+      <c r="K2" s="629">
         <f>Данные!B19</f>
         <v>0</v>
       </c>
-      <c r="L2" s="622"/>
+      <c r="L2" s="630"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="639"/>
-      <c r="Q2" s="639"/>
+      <c r="P2" s="640"/>
+      <c r="Q2" s="640"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="605"/>
-      <c r="C3" s="606"/>
-      <c r="D3" s="607"/>
-      <c r="E3" s="614" t="s">
+      <c r="B3" s="613"/>
+      <c r="C3" s="614"/>
+      <c r="D3" s="615"/>
+      <c r="E3" s="622" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="615"/>
-      <c r="G3" s="615"/>
-      <c r="H3" s="616"/>
-      <c r="I3" s="619"/>
-      <c r="J3" s="620"/>
-      <c r="K3" s="623"/>
-      <c r="L3" s="624"/>
+      <c r="F3" s="623"/>
+      <c r="G3" s="623"/>
+      <c r="H3" s="624"/>
+      <c r="I3" s="627"/>
+      <c r="J3" s="628"/>
+      <c r="K3" s="631"/>
+      <c r="L3" s="632"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -7031,11 +7316,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="608"/>
-      <c r="C4" s="609"/>
-      <c r="D4" s="610"/>
+      <c r="B4" s="616"/>
+      <c r="C4" s="617"/>
+      <c r="D4" s="618"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -7052,24 +7337,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="587" t="s">
+      <c r="B5" s="564" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="625"/>
-      <c r="D5" s="548" t="str">
+      <c r="C5" s="603"/>
+      <c r="D5" s="547" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="549"/>
-      <c r="F5" s="549"/>
-      <c r="G5" s="549"/>
-      <c r="H5" s="550"/>
-      <c r="I5" s="626"/>
-      <c r="J5" s="627"/>
-      <c r="K5" s="628"/>
-      <c r="L5" s="550"/>
+      <c r="E5" s="548"/>
+      <c r="F5" s="548"/>
+      <c r="G5" s="548"/>
+      <c r="H5" s="549"/>
+      <c r="I5" s="604"/>
+      <c r="J5" s="605"/>
+      <c r="K5" s="606"/>
+      <c r="L5" s="549"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -7078,24 +7363,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="587" t="s">
+      <c r="B6" s="564" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="625"/>
-      <c r="D6" s="542" t="str">
+      <c r="C6" s="603"/>
+      <c r="D6" s="541" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
-      <c r="E6" s="592"/>
-      <c r="F6" s="592"/>
-      <c r="G6" s="592"/>
-      <c r="H6" s="593"/>
-      <c r="I6" s="626"/>
-      <c r="J6" s="627"/>
-      <c r="K6" s="628"/>
-      <c r="L6" s="550"/>
+      <c r="E6" s="569"/>
+      <c r="F6" s="569"/>
+      <c r="G6" s="569"/>
+      <c r="H6" s="570"/>
+      <c r="I6" s="604"/>
+      <c r="J6" s="605"/>
+      <c r="K6" s="606"/>
+      <c r="L6" s="549"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -7104,29 +7389,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="594" t="s">
+      <c r="B7" s="571" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="629"/>
-      <c r="D7" s="551">
+      <c r="C7" s="607"/>
+      <c r="D7" s="550">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="596"/>
-      <c r="F7" s="596"/>
-      <c r="G7" s="596"/>
-      <c r="H7" s="597"/>
-      <c r="I7" s="630" t="s">
+      <c r="E7" s="573"/>
+      <c r="F7" s="573"/>
+      <c r="G7" s="573"/>
+      <c r="H7" s="574"/>
+      <c r="I7" s="608" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="629"/>
-      <c r="K7" s="539">
+      <c r="J7" s="607"/>
+      <c r="K7" s="538">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="540"/>
+      <c r="L7" s="539"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -7135,7 +7420,7 @@
       <c r="R7" s="73"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -7156,7 +7441,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="256" t="s">
         <v>17</v>
@@ -7189,7 +7474,7 @@
       <c r="R9" s="89"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="40.799999999999997">
+    <row r="10" spans="1:19" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="131" t="s">
         <v>26</v>
@@ -7222,7 +7507,7 @@
       <c r="R10" s="100"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="23.1" customHeight="1">
+    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="131" t="s">
         <v>2</v>
@@ -7255,7 +7540,7 @@
       <c r="R11" s="100"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="23.1" customHeight="1">
+    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="131" t="s">
         <v>3</v>
@@ -7288,7 +7573,7 @@
       <c r="R12" s="100"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="23.1" customHeight="1">
+    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="131" t="s">
         <v>27</v>
@@ -7321,7 +7606,7 @@
       <c r="R13" s="100"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="23.1" customHeight="1">
+    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="131" t="s">
         <v>9</v>
@@ -7354,7 +7639,7 @@
       <c r="R14" s="100"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="23.1" customHeight="1">
+    <row r="15" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="131" t="s">
         <v>5</v>
@@ -7387,14 +7672,14 @@
       <c r="R15" s="100"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1">
+    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="584" t="s">
+      <c r="B16" s="561" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="585"/>
-      <c r="D16" s="585"/>
-      <c r="E16" s="586"/>
+      <c r="C16" s="562"/>
+      <c r="D16" s="562"/>
+      <c r="E16" s="563"/>
       <c r="F16" s="261" t="s">
         <v>16</v>
       </c>
@@ -7414,7 +7699,7 @@
       <c r="R16" s="124"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1">
+    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="112"/>
       <c r="B17" s="130"/>
       <c r="C17" s="129"/>
@@ -7435,20 +7720,11 @@
       <c r="R17" s="115"/>
       <c r="S17" s="116"/>
     </row>
-    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1">
+    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B18" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
@@ -7459,6 +7735,15 @@
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
@@ -7480,7 +7765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -7490,20 +7775,20 @@
       <selection pane="bottomRight" activeCell="C10" sqref="C10:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="171" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="171" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="171" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="171" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="171" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="171" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="171" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="171" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="171" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="171" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="171" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="171" customWidth="1"/>
     <col min="8" max="18" width="9" style="171" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="171" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="171"/>
+    <col min="19" max="19" width="1.42578125" style="171" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="171"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="167"/>
       <c r="B1" s="168"/>
       <c r="C1" s="169"/>
@@ -7524,49 +7809,49 @@
       <c r="R1" s="169"/>
       <c r="S1" s="170"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="172"/>
-      <c r="B2" s="602"/>
-      <c r="C2" s="603"/>
-      <c r="D2" s="604"/>
-      <c r="E2" s="611" t="s">
+      <c r="B2" s="610"/>
+      <c r="C2" s="611"/>
+      <c r="D2" s="612"/>
+      <c r="E2" s="619" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="612"/>
-      <c r="G2" s="612"/>
-      <c r="H2" s="613"/>
-      <c r="I2" s="617" t="s">
+      <c r="F2" s="620"/>
+      <c r="G2" s="620"/>
+      <c r="H2" s="621"/>
+      <c r="I2" s="625" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="618"/>
-      <c r="K2" s="621">
+      <c r="J2" s="626"/>
+      <c r="K2" s="629">
         <f>Данные!B20</f>
         <v>0</v>
       </c>
-      <c r="L2" s="622"/>
+      <c r="L2" s="630"/>
       <c r="M2" s="173"/>
       <c r="N2" s="174"/>
       <c r="O2" s="175"/>
-      <c r="P2" s="640"/>
-      <c r="Q2" s="640"/>
+      <c r="P2" s="641"/>
+      <c r="Q2" s="641"/>
       <c r="R2" s="176"/>
       <c r="S2" s="177"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="172"/>
-      <c r="B3" s="605"/>
-      <c r="C3" s="606"/>
-      <c r="D3" s="607"/>
-      <c r="E3" s="614" t="s">
+      <c r="B3" s="613"/>
+      <c r="C3" s="614"/>
+      <c r="D3" s="615"/>
+      <c r="E3" s="622" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="615"/>
-      <c r="G3" s="615"/>
-      <c r="H3" s="616"/>
-      <c r="I3" s="619"/>
-      <c r="J3" s="620"/>
-      <c r="K3" s="623"/>
-      <c r="L3" s="624"/>
+      <c r="F3" s="623"/>
+      <c r="G3" s="623"/>
+      <c r="H3" s="624"/>
+      <c r="I3" s="627"/>
+      <c r="J3" s="628"/>
+      <c r="K3" s="631"/>
+      <c r="L3" s="632"/>
       <c r="M3" s="178"/>
       <c r="N3" s="179"/>
       <c r="O3" s="179"/>
@@ -7575,11 +7860,11 @@
       <c r="R3" s="180"/>
       <c r="S3" s="177"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="172"/>
-      <c r="B4" s="608"/>
-      <c r="C4" s="609"/>
-      <c r="D4" s="610"/>
+      <c r="B4" s="616"/>
+      <c r="C4" s="617"/>
+      <c r="D4" s="618"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -7596,24 +7881,24 @@
       <c r="R4" s="180"/>
       <c r="S4" s="177"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="172"/>
-      <c r="B5" s="587" t="s">
+      <c r="B5" s="564" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="625"/>
-      <c r="D5" s="548" t="str">
+      <c r="C5" s="603"/>
+      <c r="D5" s="547" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="549"/>
-      <c r="F5" s="549"/>
-      <c r="G5" s="549"/>
-      <c r="H5" s="550"/>
-      <c r="I5" s="626"/>
-      <c r="J5" s="627"/>
-      <c r="K5" s="628"/>
-      <c r="L5" s="550"/>
+      <c r="E5" s="548"/>
+      <c r="F5" s="548"/>
+      <c r="G5" s="548"/>
+      <c r="H5" s="549"/>
+      <c r="I5" s="604"/>
+      <c r="J5" s="605"/>
+      <c r="K5" s="606"/>
+      <c r="L5" s="549"/>
       <c r="M5" s="181"/>
       <c r="N5" s="179"/>
       <c r="O5" s="179"/>
@@ -7622,24 +7907,24 @@
       <c r="R5" s="180"/>
       <c r="S5" s="177"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="172"/>
-      <c r="B6" s="587" t="s">
+      <c r="B6" s="564" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="625"/>
-      <c r="D6" s="542" t="str">
+      <c r="C6" s="603"/>
+      <c r="D6" s="541" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
-      <c r="E6" s="592"/>
-      <c r="F6" s="592"/>
-      <c r="G6" s="592"/>
-      <c r="H6" s="593"/>
-      <c r="I6" s="626"/>
-      <c r="J6" s="627"/>
-      <c r="K6" s="628"/>
-      <c r="L6" s="550"/>
+      <c r="E6" s="569"/>
+      <c r="F6" s="569"/>
+      <c r="G6" s="569"/>
+      <c r="H6" s="570"/>
+      <c r="I6" s="604"/>
+      <c r="J6" s="605"/>
+      <c r="K6" s="606"/>
+      <c r="L6" s="549"/>
       <c r="M6" s="178"/>
       <c r="N6" s="179"/>
       <c r="O6" s="179"/>
@@ -7648,29 +7933,29 @@
       <c r="R6" s="180"/>
       <c r="S6" s="177"/>
     </row>
-    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="172"/>
-      <c r="B7" s="594" t="s">
+      <c r="B7" s="571" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="629"/>
-      <c r="D7" s="551">
+      <c r="C7" s="607"/>
+      <c r="D7" s="550">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="596"/>
-      <c r="F7" s="596"/>
-      <c r="G7" s="596"/>
-      <c r="H7" s="597"/>
-      <c r="I7" s="630" t="s">
+      <c r="E7" s="573"/>
+      <c r="F7" s="573"/>
+      <c r="G7" s="573"/>
+      <c r="H7" s="574"/>
+      <c r="I7" s="608" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="629"/>
-      <c r="K7" s="539">
+      <c r="J7" s="607"/>
+      <c r="K7" s="538">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="540"/>
+      <c r="L7" s="539"/>
       <c r="M7" s="181"/>
       <c r="N7" s="179"/>
       <c r="O7" s="179"/>
@@ -7679,7 +7964,7 @@
       <c r="R7" s="180"/>
       <c r="S7" s="177"/>
     </row>
-    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="182"/>
       <c r="B8" s="183"/>
       <c r="C8" s="184"/>
@@ -7700,7 +7985,7 @@
       <c r="R8" s="187"/>
       <c r="S8" s="188"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="189"/>
       <c r="B9" s="256" t="s">
         <v>17</v>
@@ -7733,7 +8018,7 @@
       <c r="R9" s="348"/>
       <c r="S9" s="204"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="182"/>
       <c r="B10" s="191" t="s">
         <v>25</v>
@@ -7768,7 +8053,7 @@
       <c r="R10" s="350"/>
       <c r="S10" s="188"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="182"/>
       <c r="B11" s="193" t="s">
         <v>26</v>
@@ -7801,7 +8086,7 @@
       <c r="R11" s="352"/>
       <c r="S11" s="188"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="182"/>
       <c r="B12" s="193" t="s">
         <v>2</v>
@@ -7834,7 +8119,7 @@
       <c r="R12" s="352"/>
       <c r="S12" s="188"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="182"/>
       <c r="B13" s="193" t="s">
         <v>3</v>
@@ -7867,7 +8152,7 @@
       <c r="R13" s="352"/>
       <c r="S13" s="188"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="182"/>
       <c r="B14" s="193" t="s">
         <v>27</v>
@@ -7900,7 +8185,7 @@
       <c r="R14" s="352"/>
       <c r="S14" s="188"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="182"/>
       <c r="B15" s="193" t="s">
         <v>28</v>
@@ -7933,7 +8218,7 @@
       <c r="R15" s="352"/>
       <c r="S15" s="188"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="182"/>
       <c r="B16" s="193" t="s">
         <v>4</v>
@@ -7966,7 +8251,7 @@
       <c r="R16" s="352"/>
       <c r="S16" s="188"/>
     </row>
-    <row r="17" spans="1:19" ht="30.6">
+    <row r="17" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A17" s="182"/>
       <c r="B17" s="193" t="s">
         <v>9</v>
@@ -7999,7 +8284,7 @@
       <c r="R17" s="352"/>
       <c r="S17" s="188"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="182"/>
       <c r="B18" s="193" t="s">
         <v>5</v>
@@ -8032,7 +8317,7 @@
       <c r="R18" s="352"/>
       <c r="S18" s="188"/>
     </row>
-    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1">
+    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="195"/>
       <c r="B19" s="196"/>
       <c r="C19" s="196"/>
@@ -8053,20 +8338,9 @@
       <c r="R19" s="196"/>
       <c r="S19" s="198"/>
     </row>
-    <row r="20" spans="1:19" ht="13.8" thickTop="1"/>
+    <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -8074,6 +8348,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
@@ -8093,7 +8378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -8103,20 +8388,20 @@
       <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="210" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="210" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="210" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="210" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="210" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="210" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="210" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="210" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="210" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="210" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="210" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="210" customWidth="1"/>
     <col min="8" max="18" width="9" style="210" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="210" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="210"/>
+    <col min="19" max="19" width="1.42578125" style="210" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="210"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="206"/>
       <c r="B1" s="207"/>
       <c r="C1" s="208"/>
@@ -8137,49 +8422,49 @@
       <c r="R1" s="208"/>
       <c r="S1" s="209"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="211"/>
-      <c r="B2" s="602"/>
-      <c r="C2" s="603"/>
-      <c r="D2" s="604"/>
-      <c r="E2" s="611" t="s">
+      <c r="B2" s="610"/>
+      <c r="C2" s="611"/>
+      <c r="D2" s="612"/>
+      <c r="E2" s="619" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="612"/>
-      <c r="G2" s="612"/>
-      <c r="H2" s="613"/>
-      <c r="I2" s="617" t="s">
+      <c r="F2" s="620"/>
+      <c r="G2" s="620"/>
+      <c r="H2" s="621"/>
+      <c r="I2" s="625" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="618"/>
-      <c r="K2" s="621">
+      <c r="J2" s="626"/>
+      <c r="K2" s="629">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="L2" s="622"/>
+      <c r="L2" s="630"/>
       <c r="M2" s="212"/>
       <c r="N2" s="213"/>
       <c r="O2" s="214"/>
-      <c r="P2" s="641"/>
-      <c r="Q2" s="641"/>
+      <c r="P2" s="645"/>
+      <c r="Q2" s="645"/>
       <c r="R2" s="215"/>
       <c r="S2" s="216"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="211"/>
-      <c r="B3" s="605"/>
-      <c r="C3" s="606"/>
-      <c r="D3" s="607"/>
-      <c r="E3" s="614" t="s">
+      <c r="B3" s="613"/>
+      <c r="C3" s="614"/>
+      <c r="D3" s="615"/>
+      <c r="E3" s="622" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="615"/>
-      <c r="G3" s="615"/>
-      <c r="H3" s="616"/>
-      <c r="I3" s="619"/>
-      <c r="J3" s="620"/>
-      <c r="K3" s="623"/>
-      <c r="L3" s="624"/>
+      <c r="F3" s="623"/>
+      <c r="G3" s="623"/>
+      <c r="H3" s="624"/>
+      <c r="I3" s="627"/>
+      <c r="J3" s="628"/>
+      <c r="K3" s="631"/>
+      <c r="L3" s="632"/>
       <c r="M3" s="217"/>
       <c r="N3" s="218"/>
       <c r="O3" s="218"/>
@@ -8188,11 +8473,11 @@
       <c r="R3" s="219"/>
       <c r="S3" s="216"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="211"/>
-      <c r="B4" s="608"/>
-      <c r="C4" s="609"/>
-      <c r="D4" s="610"/>
+      <c r="B4" s="616"/>
+      <c r="C4" s="617"/>
+      <c r="D4" s="618"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -8209,24 +8494,24 @@
       <c r="R4" s="219"/>
       <c r="S4" s="216"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="211"/>
-      <c r="B5" s="587" t="s">
+      <c r="B5" s="564" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="625"/>
-      <c r="D5" s="548" t="str">
+      <c r="C5" s="603"/>
+      <c r="D5" s="547" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="549"/>
-      <c r="F5" s="549"/>
-      <c r="G5" s="549"/>
-      <c r="H5" s="550"/>
-      <c r="I5" s="626"/>
-      <c r="J5" s="627"/>
-      <c r="K5" s="628"/>
-      <c r="L5" s="550"/>
+      <c r="E5" s="548"/>
+      <c r="F5" s="548"/>
+      <c r="G5" s="548"/>
+      <c r="H5" s="549"/>
+      <c r="I5" s="604"/>
+      <c r="J5" s="605"/>
+      <c r="K5" s="606"/>
+      <c r="L5" s="549"/>
       <c r="M5" s="220"/>
       <c r="N5" s="218"/>
       <c r="O5" s="218"/>
@@ -8235,24 +8520,24 @@
       <c r="R5" s="219"/>
       <c r="S5" s="216"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="211"/>
-      <c r="B6" s="587" t="s">
+      <c r="B6" s="564" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="625"/>
-      <c r="D6" s="542" t="str">
+      <c r="C6" s="603"/>
+      <c r="D6" s="541" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
-      <c r="E6" s="592"/>
-      <c r="F6" s="592"/>
-      <c r="G6" s="592"/>
-      <c r="H6" s="593"/>
-      <c r="I6" s="626"/>
-      <c r="J6" s="627"/>
-      <c r="K6" s="628"/>
-      <c r="L6" s="550"/>
+      <c r="E6" s="569"/>
+      <c r="F6" s="569"/>
+      <c r="G6" s="569"/>
+      <c r="H6" s="570"/>
+      <c r="I6" s="604"/>
+      <c r="J6" s="605"/>
+      <c r="K6" s="606"/>
+      <c r="L6" s="549"/>
       <c r="M6" s="217"/>
       <c r="N6" s="218"/>
       <c r="O6" s="218"/>
@@ -8261,29 +8546,29 @@
       <c r="R6" s="219"/>
       <c r="S6" s="216"/>
     </row>
-    <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="211"/>
-      <c r="B7" s="594" t="s">
+      <c r="B7" s="571" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="629"/>
-      <c r="D7" s="551">
+      <c r="C7" s="607"/>
+      <c r="D7" s="550">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="596"/>
-      <c r="F7" s="596"/>
-      <c r="G7" s="596"/>
-      <c r="H7" s="597"/>
-      <c r="I7" s="630" t="s">
+      <c r="E7" s="573"/>
+      <c r="F7" s="573"/>
+      <c r="G7" s="573"/>
+      <c r="H7" s="574"/>
+      <c r="I7" s="608" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="629"/>
-      <c r="K7" s="539">
+      <c r="J7" s="607"/>
+      <c r="K7" s="538">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="540"/>
+      <c r="L7" s="539"/>
       <c r="M7" s="220"/>
       <c r="N7" s="218"/>
       <c r="O7" s="218"/>
@@ -8292,7 +8577,7 @@
       <c r="R7" s="219"/>
       <c r="S7" s="216"/>
     </row>
-    <row r="8" spans="1:19" ht="5.25" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="221"/>
       <c r="B8" s="222"/>
       <c r="C8" s="223"/>
@@ -8313,7 +8598,7 @@
       <c r="R8" s="226"/>
       <c r="S8" s="227"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="228"/>
       <c r="B9" s="256" t="s">
         <v>17</v>
@@ -8346,7 +8631,7 @@
       <c r="R9" s="230"/>
       <c r="S9" s="231"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="221"/>
       <c r="B10" s="232" t="s">
         <v>25</v>
@@ -8379,7 +8664,7 @@
       <c r="R10" s="236"/>
       <c r="S10" s="227"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="221"/>
       <c r="B11" s="237" t="s">
         <v>26</v>
@@ -8412,7 +8697,7 @@
       <c r="R11" s="241"/>
       <c r="S11" s="227"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="221"/>
       <c r="B12" s="237" t="s">
         <v>2</v>
@@ -8445,7 +8730,7 @@
       <c r="R12" s="241"/>
       <c r="S12" s="227"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="221"/>
       <c r="B13" s="237" t="s">
         <v>3</v>
@@ -8478,7 +8763,7 @@
       <c r="R13" s="241"/>
       <c r="S13" s="227"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="221"/>
       <c r="B14" s="237" t="s">
         <v>27</v>
@@ -8511,7 +8796,7 @@
       <c r="R14" s="241"/>
       <c r="S14" s="227"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="221"/>
       <c r="B15" s="237" t="s">
         <v>28</v>
@@ -8544,7 +8829,7 @@
       <c r="R15" s="241"/>
       <c r="S15" s="227"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="221"/>
       <c r="B16" s="237" t="s">
         <v>9</v>
@@ -8577,7 +8862,7 @@
       <c r="R16" s="241"/>
       <c r="S16" s="227"/>
     </row>
-    <row r="17" spans="1:19" ht="24.75" customHeight="1">
+    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="221"/>
       <c r="B17" s="237" t="s">
         <v>5</v>
@@ -8610,7 +8895,7 @@
       <c r="R17" s="241"/>
       <c r="S17" s="227"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="221"/>
       <c r="B18" s="642" t="s">
         <v>53</v>
@@ -8637,7 +8922,7 @@
       <c r="R18" s="245"/>
       <c r="S18" s="227"/>
     </row>
-    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1">
+    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="246"/>
       <c r="B19" s="247"/>
       <c r="C19" s="247"/>
@@ -8658,9 +8943,17 @@
       <c r="R19" s="247"/>
       <c r="S19" s="249"/>
     </row>
-    <row r="20" spans="1:19" ht="13.8" thickTop="1"/>
+    <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
@@ -8672,14 +8965,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8719,7 +9004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -8729,20 +9014,20 @@
       <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -8763,49 +9048,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="135"/>
-      <c r="B2" s="602"/>
-      <c r="C2" s="603"/>
-      <c r="D2" s="604"/>
-      <c r="E2" s="611" t="s">
+      <c r="B2" s="610"/>
+      <c r="C2" s="611"/>
+      <c r="D2" s="612"/>
+      <c r="E2" s="619" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="612"/>
-      <c r="G2" s="612"/>
-      <c r="H2" s="613"/>
-      <c r="I2" s="617" t="s">
+      <c r="F2" s="620"/>
+      <c r="G2" s="620"/>
+      <c r="H2" s="621"/>
+      <c r="I2" s="625" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="618"/>
-      <c r="K2" s="621">
+      <c r="J2" s="626"/>
+      <c r="K2" s="629">
         <f>Данные!B25</f>
         <v>18</v>
       </c>
-      <c r="L2" s="622"/>
+      <c r="L2" s="630"/>
       <c r="M2" s="136"/>
       <c r="N2" s="137"/>
       <c r="O2" s="138"/>
-      <c r="P2" s="645"/>
-      <c r="Q2" s="645"/>
+      <c r="P2" s="646"/>
+      <c r="Q2" s="646"/>
       <c r="R2" s="139"/>
       <c r="S2" s="140"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="135"/>
-      <c r="B3" s="605"/>
-      <c r="C3" s="606"/>
-      <c r="D3" s="607"/>
-      <c r="E3" s="614" t="s">
+      <c r="B3" s="613"/>
+      <c r="C3" s="614"/>
+      <c r="D3" s="615"/>
+      <c r="E3" s="622" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="615"/>
-      <c r="G3" s="615"/>
-      <c r="H3" s="616"/>
-      <c r="I3" s="619"/>
-      <c r="J3" s="620"/>
-      <c r="K3" s="623"/>
-      <c r="L3" s="624"/>
+      <c r="F3" s="623"/>
+      <c r="G3" s="623"/>
+      <c r="H3" s="624"/>
+      <c r="I3" s="627"/>
+      <c r="J3" s="628"/>
+      <c r="K3" s="631"/>
+      <c r="L3" s="632"/>
       <c r="M3" s="141"/>
       <c r="N3" s="142"/>
       <c r="O3" s="142"/>
@@ -8814,11 +9099,11 @@
       <c r="R3" s="143"/>
       <c r="S3" s="140"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="135"/>
-      <c r="B4" s="608"/>
-      <c r="C4" s="609"/>
-      <c r="D4" s="610"/>
+      <c r="B4" s="616"/>
+      <c r="C4" s="617"/>
+      <c r="D4" s="618"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -8835,24 +9120,24 @@
       <c r="R4" s="143"/>
       <c r="S4" s="140"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="135"/>
-      <c r="B5" s="587" t="s">
+      <c r="B5" s="564" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="625"/>
-      <c r="D5" s="548" t="str">
+      <c r="C5" s="603"/>
+      <c r="D5" s="547" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="549"/>
-      <c r="F5" s="549"/>
-      <c r="G5" s="549"/>
-      <c r="H5" s="550"/>
-      <c r="I5" s="626"/>
-      <c r="J5" s="627"/>
-      <c r="K5" s="628"/>
-      <c r="L5" s="550"/>
+      <c r="E5" s="548"/>
+      <c r="F5" s="548"/>
+      <c r="G5" s="548"/>
+      <c r="H5" s="549"/>
+      <c r="I5" s="604"/>
+      <c r="J5" s="605"/>
+      <c r="K5" s="606"/>
+      <c r="L5" s="549"/>
       <c r="M5" s="144"/>
       <c r="N5" s="142"/>
       <c r="O5" s="142"/>
@@ -8861,24 +9146,24 @@
       <c r="R5" s="143"/>
       <c r="S5" s="140"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="135"/>
-      <c r="B6" s="587" t="s">
+      <c r="B6" s="564" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="625"/>
-      <c r="D6" s="542" t="str">
+      <c r="C6" s="603"/>
+      <c r="D6" s="541" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
-      <c r="E6" s="592"/>
-      <c r="F6" s="592"/>
-      <c r="G6" s="592"/>
-      <c r="H6" s="593"/>
-      <c r="I6" s="626"/>
-      <c r="J6" s="627"/>
-      <c r="K6" s="628"/>
-      <c r="L6" s="550"/>
+      <c r="E6" s="569"/>
+      <c r="F6" s="569"/>
+      <c r="G6" s="569"/>
+      <c r="H6" s="570"/>
+      <c r="I6" s="604"/>
+      <c r="J6" s="605"/>
+      <c r="K6" s="606"/>
+      <c r="L6" s="549"/>
       <c r="M6" s="141"/>
       <c r="N6" s="142"/>
       <c r="O6" s="142"/>
@@ -8887,29 +9172,29 @@
       <c r="R6" s="143"/>
       <c r="S6" s="140"/>
     </row>
-    <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="135"/>
-      <c r="B7" s="594" t="s">
+      <c r="B7" s="571" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="629"/>
-      <c r="D7" s="551">
+      <c r="C7" s="607"/>
+      <c r="D7" s="550">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="596"/>
-      <c r="F7" s="596"/>
-      <c r="G7" s="596"/>
-      <c r="H7" s="597"/>
-      <c r="I7" s="630" t="s">
+      <c r="E7" s="573"/>
+      <c r="F7" s="573"/>
+      <c r="G7" s="573"/>
+      <c r="H7" s="574"/>
+      <c r="I7" s="608" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="629"/>
-      <c r="K7" s="539">
+      <c r="J7" s="607"/>
+      <c r="K7" s="538">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="540"/>
+      <c r="L7" s="539"/>
       <c r="M7" s="144"/>
       <c r="N7" s="142"/>
       <c r="O7" s="142"/>
@@ -8918,7 +9203,7 @@
       <c r="R7" s="143"/>
       <c r="S7" s="140"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="145"/>
       <c r="C8" s="146"/>
@@ -8939,7 +9224,7 @@
       <c r="R8" s="149"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="150"/>
       <c r="B9" s="256" t="s">
         <v>17</v>
@@ -8972,7 +9257,7 @@
       <c r="R9" s="153"/>
       <c r="S9" s="154"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="155"/>
       <c r="B10" s="156" t="s">
         <v>25</v>
@@ -9005,7 +9290,7 @@
       <c r="R10" s="158"/>
       <c r="S10" s="159"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="155"/>
       <c r="B11" s="156" t="s">
         <v>26</v>
@@ -9038,7 +9323,7 @@
       <c r="R11" s="158"/>
       <c r="S11" s="159"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="155"/>
       <c r="B12" s="156" t="s">
         <v>2</v>
@@ -9071,7 +9356,7 @@
       <c r="R12" s="158"/>
       <c r="S12" s="159"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="155"/>
       <c r="B13" s="156" t="s">
         <v>3</v>
@@ -9104,7 +9389,7 @@
       <c r="R13" s="158"/>
       <c r="S13" s="159"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="155"/>
       <c r="B14" s="156" t="s">
         <v>27</v>
@@ -9137,7 +9422,7 @@
       <c r="R14" s="158"/>
       <c r="S14" s="159"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="155"/>
       <c r="B15" s="156" t="s">
         <v>28</v>
@@ -9170,7 +9455,7 @@
       <c r="R15" s="158"/>
       <c r="S15" s="159"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="155"/>
       <c r="B16" s="156" t="s">
         <v>4</v>
@@ -9203,7 +9488,7 @@
       <c r="R16" s="158"/>
       <c r="S16" s="159"/>
     </row>
-    <row r="17" spans="1:19" ht="24.75" customHeight="1">
+    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="97"/>
       <c r="C17" s="98"/>
@@ -9224,7 +9509,7 @@
       <c r="R17" s="100"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="97"/>
       <c r="C18" s="98"/>
@@ -9245,7 +9530,7 @@
       <c r="R18" s="100"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
+    <row r="19" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="78"/>
       <c r="B19" s="105"/>
       <c r="C19" s="106"/>
@@ -9266,7 +9551,7 @@
       <c r="R19" s="111"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="6" customHeight="1" thickBot="1">
+    <row r="20" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="112"/>
       <c r="B20" s="113"/>
       <c r="C20" s="113"/>
@@ -9287,20 +9572,9 @@
       <c r="R20" s="115"/>
       <c r="S20" s="116"/>
     </row>
-    <row r="21" spans="1:19" ht="13.8" thickTop="1"/>
+    <row r="21" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -9308,6 +9582,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:R19">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -9327,7 +9612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -9337,20 +9622,20 @@
       <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="267" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="267" customWidth="1"/>
     <col min="2" max="2" width="5" style="267" customWidth="1"/>
     <col min="3" max="3" width="11" style="267" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="267" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="267" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="267" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="267" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="267" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="267" customWidth="1"/>
     <col min="8" max="18" width="9" style="267" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="267" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="267"/>
+    <col min="19" max="19" width="1.42578125" style="267" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="267"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="263"/>
       <c r="B1" s="264"/>
       <c r="C1" s="265"/>
@@ -9371,49 +9656,49 @@
       <c r="R1" s="265"/>
       <c r="S1" s="266"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="268"/>
-      <c r="B2" s="602"/>
-      <c r="C2" s="603"/>
-      <c r="D2" s="604"/>
-      <c r="E2" s="611" t="s">
+      <c r="B2" s="610"/>
+      <c r="C2" s="611"/>
+      <c r="D2" s="612"/>
+      <c r="E2" s="619" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="612"/>
-      <c r="G2" s="612"/>
-      <c r="H2" s="613"/>
-      <c r="I2" s="617" t="s">
+      <c r="F2" s="620"/>
+      <c r="G2" s="620"/>
+      <c r="H2" s="621"/>
+      <c r="I2" s="625" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="618"/>
-      <c r="K2" s="646">
+      <c r="J2" s="626"/>
+      <c r="K2" s="648">
         <f>Данные!B23</f>
         <v>18</v>
       </c>
-      <c r="L2" s="647"/>
+      <c r="L2" s="649"/>
       <c r="M2" s="269"/>
       <c r="N2" s="270"/>
       <c r="O2" s="271"/>
-      <c r="P2" s="650"/>
-      <c r="Q2" s="650"/>
+      <c r="P2" s="647"/>
+      <c r="Q2" s="647"/>
       <c r="R2" s="272"/>
       <c r="S2" s="273"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="268"/>
-      <c r="B3" s="605"/>
-      <c r="C3" s="606"/>
-      <c r="D3" s="607"/>
-      <c r="E3" s="614" t="s">
+      <c r="B3" s="613"/>
+      <c r="C3" s="614"/>
+      <c r="D3" s="615"/>
+      <c r="E3" s="622" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="615"/>
-      <c r="G3" s="615"/>
-      <c r="H3" s="616"/>
-      <c r="I3" s="619"/>
-      <c r="J3" s="620"/>
-      <c r="K3" s="648"/>
-      <c r="L3" s="649"/>
+      <c r="F3" s="623"/>
+      <c r="G3" s="623"/>
+      <c r="H3" s="624"/>
+      <c r="I3" s="627"/>
+      <c r="J3" s="628"/>
+      <c r="K3" s="650"/>
+      <c r="L3" s="651"/>
       <c r="M3" s="274"/>
       <c r="N3" s="275"/>
       <c r="O3" s="275"/>
@@ -9422,11 +9707,11 @@
       <c r="R3" s="276"/>
       <c r="S3" s="273"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="268"/>
-      <c r="B4" s="608"/>
-      <c r="C4" s="609"/>
-      <c r="D4" s="610"/>
+      <c r="B4" s="616"/>
+      <c r="C4" s="617"/>
+      <c r="D4" s="618"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -9443,24 +9728,24 @@
       <c r="R4" s="276"/>
       <c r="S4" s="273"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="268"/>
-      <c r="B5" s="587" t="s">
+      <c r="B5" s="564" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="625"/>
-      <c r="D5" s="548" t="str">
+      <c r="C5" s="603"/>
+      <c r="D5" s="547" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="549"/>
-      <c r="F5" s="549"/>
-      <c r="G5" s="549"/>
-      <c r="H5" s="550"/>
-      <c r="I5" s="626"/>
-      <c r="J5" s="627"/>
-      <c r="K5" s="628"/>
-      <c r="L5" s="550"/>
+      <c r="E5" s="548"/>
+      <c r="F5" s="548"/>
+      <c r="G5" s="548"/>
+      <c r="H5" s="549"/>
+      <c r="I5" s="604"/>
+      <c r="J5" s="605"/>
+      <c r="K5" s="606"/>
+      <c r="L5" s="549"/>
       <c r="M5" s="277"/>
       <c r="N5" s="275"/>
       <c r="O5" s="275"/>
@@ -9469,24 +9754,24 @@
       <c r="R5" s="276"/>
       <c r="S5" s="273"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="268"/>
-      <c r="B6" s="587" t="s">
+      <c r="B6" s="564" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="625"/>
-      <c r="D6" s="542" t="str">
+      <c r="C6" s="603"/>
+      <c r="D6" s="541" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
-      <c r="E6" s="592"/>
-      <c r="F6" s="592"/>
-      <c r="G6" s="592"/>
-      <c r="H6" s="593"/>
-      <c r="I6" s="626"/>
-      <c r="J6" s="627"/>
-      <c r="K6" s="628"/>
-      <c r="L6" s="550"/>
+      <c r="E6" s="569"/>
+      <c r="F6" s="569"/>
+      <c r="G6" s="569"/>
+      <c r="H6" s="570"/>
+      <c r="I6" s="604"/>
+      <c r="J6" s="605"/>
+      <c r="K6" s="606"/>
+      <c r="L6" s="549"/>
       <c r="M6" s="274"/>
       <c r="N6" s="275"/>
       <c r="O6" s="275"/>
@@ -9495,29 +9780,29 @@
       <c r="R6" s="276"/>
       <c r="S6" s="273"/>
     </row>
-    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="268"/>
-      <c r="B7" s="594" t="s">
+      <c r="B7" s="571" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="629"/>
-      <c r="D7" s="551">
+      <c r="C7" s="607"/>
+      <c r="D7" s="550">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="596"/>
-      <c r="F7" s="596"/>
-      <c r="G7" s="596"/>
-      <c r="H7" s="597"/>
-      <c r="I7" s="630" t="s">
+      <c r="E7" s="573"/>
+      <c r="F7" s="573"/>
+      <c r="G7" s="573"/>
+      <c r="H7" s="574"/>
+      <c r="I7" s="608" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="629"/>
-      <c r="K7" s="539">
+      <c r="J7" s="607"/>
+      <c r="K7" s="538">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="540"/>
+      <c r="L7" s="539"/>
       <c r="M7" s="277"/>
       <c r="N7" s="275"/>
       <c r="O7" s="275"/>
@@ -9526,7 +9811,7 @@
       <c r="R7" s="276"/>
       <c r="S7" s="273"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="278"/>
       <c r="B8" s="279"/>
       <c r="C8" s="280"/>
@@ -9547,7 +9832,7 @@
       <c r="R8" s="283"/>
       <c r="S8" s="284"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="285"/>
       <c r="B9" s="256" t="s">
         <v>17</v>
@@ -9580,7 +9865,7 @@
       <c r="R9" s="354"/>
       <c r="S9" s="287"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="278"/>
       <c r="B10" s="288" t="s">
         <v>25</v>
@@ -9613,7 +9898,7 @@
       <c r="R10" s="356"/>
       <c r="S10" s="284"/>
     </row>
-    <row r="11" spans="1:19" ht="30.6">
+    <row r="11" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A11" s="278"/>
       <c r="B11" s="292" t="s">
         <v>26</v>
@@ -9646,7 +9931,7 @@
       <c r="R11" s="357"/>
       <c r="S11" s="284"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="278"/>
       <c r="B12" s="292" t="s">
         <v>2</v>
@@ -9679,7 +9964,7 @@
       <c r="R12" s="359"/>
       <c r="S12" s="284"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="278"/>
       <c r="B13" s="292" t="s">
         <v>28</v>
@@ -9712,7 +9997,7 @@
       <c r="R13" s="359"/>
       <c r="S13" s="284"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="278"/>
       <c r="B14" s="292" t="s">
         <v>4</v>
@@ -9745,7 +10030,7 @@
       <c r="R14" s="359"/>
       <c r="S14" s="284"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="278"/>
       <c r="B15" s="298"/>
       <c r="C15" s="299"/>
@@ -9766,7 +10051,7 @@
       <c r="R15" s="341"/>
       <c r="S15" s="284"/>
     </row>
-    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1">
+    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="301"/>
       <c r="B16" s="302"/>
       <c r="C16" s="302"/>
@@ -9787,10 +10072,9 @@
       <c r="R16" s="302"/>
       <c r="S16" s="304"/>
     </row>
-    <row r="17" ht="13.8" thickTop="1"/>
+    <row r="17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
@@ -9808,6 +10092,7 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B2:D4"/>
+    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9833,30 +10118,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="392"/>
       <c r="B1" s="488" t="s">
         <v>132</v>
@@ -9875,7 +10160,7 @@
       <c r="K1" s="392"/>
       <c r="L1" s="392"/>
     </row>
-    <row r="2" spans="1:13" ht="15.6">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="392"/>
       <c r="B2" s="392" t="s">
         <v>108</v>
@@ -9891,7 +10176,7 @@
       <c r="K2" s="393"/>
       <c r="L2" s="393"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B3" s="497" t="s">
         <v>142</v>
       </c>
@@ -9911,7 +10196,7 @@
       <c r="L3" s="394"/>
       <c r="M3" s="395"/>
     </row>
-    <row r="4" spans="1:13" ht="16.2" thickBot="1">
+    <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="395"/>
       <c r="B4" s="396"/>
       <c r="C4" s="396"/>
@@ -9923,7 +10208,7 @@
       <c r="K4" s="394"/>
       <c r="M4" s="374"/>
     </row>
-    <row r="5" spans="1:13" ht="66.599999999999994" thickBot="1">
+    <row r="5" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="399" t="s">
         <v>109</v>
       </c>
@@ -9953,7 +10238,7 @@
       <c r="K5" s="402"/>
       <c r="L5" s="402"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="403">
         <v>1</v>
       </c>
@@ -9983,7 +10268,7 @@
       <c r="K6" s="395"/>
       <c r="L6" s="407"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="408">
         <f>A6+1</f>
         <v>2</v>
@@ -10014,7 +10299,7 @@
       <c r="K7" s="395"/>
       <c r="L7" s="407"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="408">
         <f t="shared" ref="A8:A17" si="1">A7+1</f>
         <v>3</v>
@@ -10045,7 +10330,7 @@
       <c r="K8" s="395"/>
       <c r="L8" s="407"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="408">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -10076,7 +10361,7 @@
       <c r="K9" s="395"/>
       <c r="L9" s="407"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="408">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -10107,7 +10392,7 @@
       <c r="K10" s="413"/>
       <c r="L10" s="407"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="408">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -10138,7 +10423,7 @@
       <c r="K11" s="395"/>
       <c r="L11" s="407"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="408">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -10170,7 +10455,7 @@
       <c r="L12" s="407"/>
       <c r="M12" s="415"/>
     </row>
-    <row r="13" spans="1:13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="408">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -10202,7 +10487,7 @@
       <c r="L13" s="407"/>
       <c r="M13" s="415"/>
     </row>
-    <row r="14" spans="1:13" ht="14.25" customHeight="1">
+    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="408">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -10235,7 +10520,7 @@
       <c r="K14" s="413"/>
       <c r="L14" s="407"/>
     </row>
-    <row r="15" spans="1:13" ht="14.25" customHeight="1">
+    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="408">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -10266,7 +10551,7 @@
       <c r="K15" s="413"/>
       <c r="L15" s="407"/>
     </row>
-    <row r="16" spans="1:13" ht="14.25" customHeight="1">
+    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="408">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -10297,7 +10582,7 @@
       <c r="K16" s="413"/>
       <c r="L16" s="407"/>
     </row>
-    <row r="17" spans="1:12" ht="14.25" customHeight="1" thickBot="1">
+    <row r="17" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="417">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -10328,7 +10613,7 @@
       <c r="K17" s="413"/>
       <c r="L17" s="407"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="422"/>
       <c r="B18" s="478"/>
       <c r="C18" s="395"/>
@@ -10340,7 +10625,7 @@
       <c r="I18" s="395"/>
       <c r="J18" s="395"/>
     </row>
-    <row r="19" spans="1:12" ht="16.2" thickBot="1">
+    <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="395"/>
       <c r="B19" s="423" t="s">
         <v>116</v>
@@ -10356,7 +10641,7 @@
       <c r="K19" s="424"/>
       <c r="L19" s="424"/>
     </row>
-    <row r="20" spans="1:12" ht="66.599999999999994" thickBot="1">
+    <row r="20" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="399" t="s">
         <v>117</v>
       </c>
@@ -10384,11 +10669,13 @@
       <c r="I20" s="427" t="s">
         <v>125</v>
       </c>
-      <c r="J20" s="402"/>
+      <c r="J20" s="427" t="s">
+        <v>152</v>
+      </c>
       <c r="K20" s="402"/>
       <c r="L20" s="402"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="428">
         <f>E6*700000</f>
         <v>15400000</v>
@@ -10396,10 +10683,10 @@
       <c r="B21" s="429">
         <v>43791</v>
       </c>
-      <c r="C21" s="651">
+      <c r="C21" s="500">
         <v>43794</v>
       </c>
-      <c r="D21" s="651">
+      <c r="D21" s="500">
         <v>43795</v>
       </c>
       <c r="E21" s="430">
@@ -10420,34 +10707,46 @@
         <f>1-G21</f>
         <v>0.96611980519480523</v>
       </c>
-      <c r="J21" s="434"/>
+      <c r="J21" s="652"/>
       <c r="K21" s="413"/>
       <c r="L21" s="413"/>
     </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1">
+    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="435"/>
-      <c r="B22" s="436"/>
-      <c r="C22" s="436"/>
-      <c r="D22" s="436"/>
-      <c r="E22" s="437"/>
-      <c r="F22" s="437"/>
+      <c r="B22" s="436">
+        <v>43998</v>
+      </c>
+      <c r="C22" s="436">
+        <v>44000</v>
+      </c>
+      <c r="D22" s="436">
+        <v>44006</v>
+      </c>
+      <c r="E22" s="437">
+        <v>382590</v>
+      </c>
+      <c r="F22" s="437">
+        <v>413025</v>
+      </c>
       <c r="G22" s="431">
         <f>F22/A$21</f>
-        <v>0</v>
+        <v>2.6819805194805195E-2</v>
       </c>
       <c r="H22" s="438">
         <f>H21-F22</f>
-        <v>14878245</v>
+        <v>14465220</v>
       </c>
       <c r="I22" s="439">
         <f>I21-G22</f>
-        <v>0.96611980519480523</v>
-      </c>
-      <c r="J22" s="395"/>
+        <v>0.93930000000000002</v>
+      </c>
+      <c r="J22" s="652">
+        <v>557</v>
+      </c>
       <c r="K22" s="395"/>
       <c r="L22" s="395"/>
     </row>
-    <row r="23" spans="1:12" ht="12.75" customHeight="1">
+    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="440"/>
       <c r="B23" s="441"/>
       <c r="C23" s="441"/>
@@ -10457,11 +10756,11 @@
       <c r="G23" s="443"/>
       <c r="H23" s="444"/>
       <c r="I23" s="445"/>
-      <c r="J23" s="434"/>
+      <c r="J23" s="653"/>
       <c r="K23" s="413"/>
       <c r="L23" s="413"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="440"/>
       <c r="B24" s="387"/>
       <c r="C24" s="387"/>
@@ -10471,11 +10770,11 @@
       <c r="G24" s="387"/>
       <c r="H24" s="387"/>
       <c r="I24" s="446"/>
-      <c r="J24" s="434"/>
+      <c r="J24" s="654"/>
       <c r="K24" s="434"/>
       <c r="L24" s="395"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="440"/>
       <c r="B25" s="441"/>
       <c r="C25" s="441"/>
@@ -10485,11 +10784,11 @@
       <c r="G25" s="447"/>
       <c r="H25" s="444"/>
       <c r="I25" s="445"/>
-      <c r="J25" s="434"/>
+      <c r="J25" s="653"/>
       <c r="K25" s="448"/>
       <c r="L25" s="395"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="440"/>
       <c r="B26" s="441"/>
       <c r="C26" s="441"/>
@@ -10499,11 +10798,11 @@
       <c r="G26" s="447"/>
       <c r="H26" s="444"/>
       <c r="I26" s="445"/>
-      <c r="J26" s="434"/>
+      <c r="J26" s="653"/>
       <c r="K26" s="434"/>
       <c r="L26" s="395"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="440"/>
       <c r="B27" s="441"/>
       <c r="C27" s="441"/>
@@ -10513,11 +10812,11 @@
       <c r="G27" s="447"/>
       <c r="H27" s="444"/>
       <c r="I27" s="445"/>
-      <c r="J27" s="434"/>
+      <c r="J27" s="653"/>
       <c r="K27" s="434"/>
       <c r="L27" s="395"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="440"/>
       <c r="B28" s="441"/>
       <c r="C28" s="441"/>
@@ -10527,11 +10826,11 @@
       <c r="G28" s="447"/>
       <c r="H28" s="444"/>
       <c r="I28" s="445"/>
-      <c r="J28" s="434"/>
+      <c r="J28" s="653"/>
       <c r="K28" s="434"/>
       <c r="L28" s="395"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="440"/>
       <c r="B29" s="441"/>
       <c r="C29" s="441"/>
@@ -10541,11 +10840,11 @@
       <c r="G29" s="449"/>
       <c r="H29" s="444"/>
       <c r="I29" s="450"/>
-      <c r="J29" s="434"/>
+      <c r="J29" s="655"/>
       <c r="K29" s="434"/>
       <c r="L29" s="395"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="440"/>
       <c r="B30" s="441"/>
       <c r="C30" s="441"/>
@@ -10555,11 +10854,11 @@
       <c r="G30" s="447"/>
       <c r="H30" s="444"/>
       <c r="I30" s="450"/>
-      <c r="J30" s="434"/>
+      <c r="J30" s="655"/>
       <c r="K30" s="434"/>
       <c r="L30" s="395"/>
     </row>
-    <row r="31" spans="1:12" ht="13.8" thickBot="1">
+    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="451"/>
       <c r="B31" s="452"/>
       <c r="C31" s="452"/>
@@ -10569,11 +10868,11 @@
       <c r="G31" s="455"/>
       <c r="H31" s="456"/>
       <c r="I31" s="457"/>
-      <c r="J31" s="395"/>
+      <c r="J31" s="656"/>
       <c r="K31" s="395"/>
       <c r="L31" s="395"/>
     </row>
-    <row r="32" spans="1:12" ht="13.8" thickBot="1">
+    <row r="32" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="458" t="s">
         <v>126</v>
       </c>
@@ -10582,29 +10881,29 @@
       <c r="D32" s="460"/>
       <c r="E32" s="461">
         <f>SUM(E21:E31)</f>
-        <v>468000</v>
+        <v>850590</v>
       </c>
       <c r="F32" s="462">
         <f>SUM(F21:F31)</f>
-        <v>521755</v>
+        <v>934780</v>
       </c>
       <c r="G32" s="463">
         <f>SUM(G21:G31)</f>
-        <v>3.3880194805194802E-2</v>
+        <v>6.0699999999999997E-2</v>
       </c>
       <c r="H32" s="464">
         <f>A21-F32</f>
-        <v>14878245</v>
+        <v>14465220</v>
       </c>
       <c r="I32" s="465">
         <f>1-G32</f>
-        <v>0.96611980519480523</v>
-      </c>
-      <c r="J32" s="466"/>
+        <v>0.93930000000000002</v>
+      </c>
+      <c r="J32" s="657"/>
       <c r="K32" s="466"/>
       <c r="L32" s="466"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="395"/>
       <c r="B35" s="395"/>
       <c r="C35" s="395"/>
@@ -10616,13 +10915,13 @@
       <c r="I35" s="395"/>
       <c r="J35" s="395"/>
     </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A36" s="529" t="s">
+    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="530" t="s">
         <v>127</v>
       </c>
-      <c r="B36" s="529"/>
-      <c r="C36" s="529"/>
-      <c r="D36" s="529"/>
+      <c r="B36" s="530"/>
+      <c r="C36" s="530"/>
+      <c r="D36" s="530"/>
       <c r="E36" s="395"/>
       <c r="F36" s="395"/>
       <c r="G36" s="395"/>
@@ -10630,11 +10929,11 @@
       <c r="I36" s="395"/>
       <c r="J36" s="395"/>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="530" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="531" t="s">
         <v>128</v>
       </c>
-      <c r="B37" s="530"/>
+      <c r="B37" s="531"/>
       <c r="C37" s="467" t="s">
         <v>129</v>
       </c>
@@ -10648,19 +10947,19 @@
       <c r="I37" s="395"/>
       <c r="J37" s="395"/>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="527">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="528">
         <f>A21-F32</f>
-        <v>14878245</v>
-      </c>
-      <c r="B38" s="528"/>
+        <v>14465220</v>
+      </c>
+      <c r="B38" s="529"/>
       <c r="C38" s="468">
         <f>1-G32</f>
-        <v>0.96611980519480523</v>
+        <v>0.93930000000000002</v>
       </c>
       <c r="D38" s="469">
         <f>(C38/0.8)*100</f>
-        <v>120.76497564935065</v>
+        <v>117.41249999999998</v>
       </c>
       <c r="E38" s="470" t="s">
         <v>131</v>
@@ -10671,7 +10970,7 @@
       <c r="I38" s="470"/>
       <c r="J38" s="470"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="395"/>
       <c r="B39" s="395"/>
       <c r="C39" s="395"/>
@@ -10679,7 +10978,7 @@
       <c r="E39" s="395"/>
       <c r="F39" s="395"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="395"/>
       <c r="B40" s="395"/>
       <c r="C40" s="395"/>
@@ -10694,7 +10993,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.6">
+    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="395"/>
       <c r="B41" s="471"/>
       <c r="C41" s="471"/>
@@ -10706,7 +11005,7 @@
       <c r="I41" s="395"/>
       <c r="J41" s="395"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="472"/>
       <c r="B42" s="472"/>
       <c r="C42" s="472"/>
@@ -10715,10 +11014,10 @@
       <c r="F42" s="472"/>
       <c r="G42" s="472"/>
       <c r="H42" s="472"/>
-      <c r="I42" s="531"/>
-      <c r="J42" s="532"/>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="I42" s="532"/>
+      <c r="J42" s="533"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="473"/>
       <c r="B43" s="474"/>
       <c r="C43" s="474"/>
@@ -10728,7 +11027,7 @@
       <c r="G43" s="421"/>
       <c r="H43" s="474"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="473"/>
       <c r="B44" s="474"/>
       <c r="C44" s="474"/>
@@ -10738,7 +11037,7 @@
       <c r="G44" s="421"/>
       <c r="H44" s="474"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="473"/>
       <c r="B45" s="474"/>
       <c r="C45" s="474"/>
@@ -10748,7 +11047,7 @@
       <c r="G45" s="421"/>
       <c r="H45" s="474"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="473"/>
       <c r="B46" s="474"/>
       <c r="C46" s="474"/>
@@ -10758,7 +11057,7 @@
       <c r="G46" s="421"/>
       <c r="H46" s="474"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="473"/>
       <c r="B47" s="474"/>
       <c r="C47" s="474"/>
@@ -10768,7 +11067,7 @@
       <c r="G47" s="421"/>
       <c r="H47" s="474"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="473"/>
       <c r="B48" s="474"/>
       <c r="C48" s="413"/>
@@ -10778,7 +11077,7 @@
       <c r="G48" s="413"/>
       <c r="H48" s="413"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="473"/>
       <c r="B49" s="474"/>
       <c r="C49" s="474"/>
@@ -10788,7 +11087,7 @@
       <c r="G49" s="421"/>
       <c r="H49" s="474"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="473"/>
       <c r="B50" s="474"/>
       <c r="C50" s="474"/>
@@ -10798,7 +11097,7 @@
       <c r="G50" s="421"/>
       <c r="H50" s="474"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="473"/>
       <c r="B51" s="474"/>
       <c r="C51" s="474"/>
@@ -10808,11 +11107,11 @@
       <c r="G51" s="421"/>
       <c r="H51" s="474"/>
     </row>
-    <row r="52" spans="1:10" ht="15.6">
+    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="395"/>
-      <c r="B52" s="533"/>
-      <c r="C52" s="533"/>
-      <c r="D52" s="534"/>
+      <c r="B52" s="534"/>
+      <c r="C52" s="534"/>
+      <c r="D52" s="535"/>
       <c r="E52" s="470"/>
       <c r="F52" s="395"/>
       <c r="G52" s="395"/>
@@ -10820,7 +11119,7 @@
       <c r="I52" s="395"/>
       <c r="J52" s="395"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="472"/>
       <c r="B53" s="472"/>
       <c r="C53" s="472"/>
@@ -10829,10 +11128,10 @@
       <c r="F53" s="472"/>
       <c r="G53" s="472"/>
       <c r="H53" s="472"/>
-      <c r="I53" s="531"/>
-      <c r="J53" s="532"/>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="I53" s="532"/>
+      <c r="J53" s="533"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="473"/>
       <c r="B54" s="395"/>
       <c r="C54" s="395"/>
@@ -10841,10 +11140,10 @@
       <c r="F54" s="421"/>
       <c r="G54" s="421"/>
       <c r="H54" s="474"/>
-      <c r="I54" s="535"/>
-      <c r="J54" s="535"/>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="I54" s="536"/>
+      <c r="J54" s="536"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="473"/>
       <c r="B55" s="395"/>
       <c r="C55" s="395"/>
@@ -10853,10 +11152,10 @@
       <c r="F55" s="413"/>
       <c r="G55" s="413"/>
       <c r="H55" s="413"/>
-      <c r="I55" s="535"/>
-      <c r="J55" s="535"/>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="I55" s="536"/>
+      <c r="J55" s="536"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="395"/>
       <c r="B56" s="395"/>
       <c r="C56" s="395"/>
@@ -10866,13 +11165,13 @@
       <c r="G56" s="395"/>
       <c r="H56" s="395"/>
     </row>
-    <row r="61" spans="1:10">
-      <c r="B61" s="531"/>
-      <c r="C61" s="532"/>
-    </row>
-    <row r="68" spans="2:3">
-      <c r="B68" s="531"/>
-      <c r="C68" s="532"/>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B61" s="532"/>
+      <c r="C61" s="533"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B68" s="532"/>
+      <c r="C68" s="533"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -10889,98 +11188,95 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="9" max="1048575" man="1"/>
-  </colBreaks>
+  <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B18" sqref="B18:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A1" s="541" t="s">
+    <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="540" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="545"/>
-      <c r="C1" s="545"/>
-      <c r="D1" s="545"/>
-      <c r="E1" s="545"/>
+      <c r="B1" s="544"/>
+      <c r="C1" s="544"/>
+      <c r="D1" s="544"/>
+      <c r="E1" s="544"/>
       <c r="G1" s="373" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1">
-      <c r="A2" s="542" t="s">
+    <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="541" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="543"/>
-      <c r="C2" s="543"/>
-      <c r="D2" s="543"/>
-      <c r="E2" s="544"/>
+      <c r="B2" s="542"/>
+      <c r="C2" s="542"/>
+      <c r="D2" s="542"/>
+      <c r="E2" s="543"/>
       <c r="G2" s="372" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.8" thickTop="1">
+    <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="G3" s="372" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A4" s="546" t="s">
+    <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="545" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="547"/>
-      <c r="C4" s="547"/>
-      <c r="D4" s="547"/>
-      <c r="E4" s="547"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A5" s="548" t="s">
+      <c r="B4" s="546"/>
+      <c r="C4" s="546"/>
+      <c r="D4" s="546"/>
+      <c r="E4" s="546"/>
+    </row>
+    <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="547" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="549"/>
-      <c r="C5" s="549"/>
-      <c r="D5" s="549"/>
-      <c r="E5" s="550"/>
-    </row>
-    <row r="6" spans="1:11" ht="13.8" thickTop="1"/>
-    <row r="7" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A7" s="541" t="s">
+      <c r="B5" s="548"/>
+      <c r="C5" s="548"/>
+      <c r="D5" s="548"/>
+      <c r="E5" s="549"/>
+    </row>
+    <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="540" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="545"/>
-      <c r="C7" s="545"/>
-      <c r="D7" s="545"/>
-      <c r="E7" s="545"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A8" s="551"/>
-      <c r="B8" s="552"/>
-      <c r="C8" s="552"/>
-      <c r="D8" s="552"/>
-      <c r="E8" s="553"/>
-    </row>
-    <row r="10" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A10" s="541" t="s">
+      <c r="B7" s="544"/>
+      <c r="C7" s="544"/>
+      <c r="D7" s="544"/>
+      <c r="E7" s="544"/>
+    </row>
+    <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="550"/>
+      <c r="B8" s="551"/>
+      <c r="C8" s="551"/>
+      <c r="D8" s="551"/>
+      <c r="E8" s="552"/>
+    </row>
+    <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="540" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="541"/>
+      <c r="B10" s="540"/>
       <c r="C10" s="374"/>
       <c r="D10" s="382" t="s">
         <v>92</v>
@@ -10990,36 +11286,36 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A11" s="539"/>
-      <c r="B11" s="540"/>
+    <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="538"/>
+      <c r="B11" s="539"/>
       <c r="D11" s="381">
         <v>43775</v>
       </c>
-      <c r="F11" s="536" t="s">
+      <c r="F11" s="553" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="536"/>
-      <c r="H11" s="536"/>
-      <c r="I11" s="536"/>
-      <c r="J11" s="537" t="s">
+      <c r="G11" s="553"/>
+      <c r="H11" s="553"/>
+      <c r="I11" s="553"/>
+      <c r="J11" s="554" t="s">
         <v>97</v>
       </c>
-      <c r="K11" s="537"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="F12" s="536" t="s">
+      <c r="K11" s="554"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F12" s="553" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="536"/>
-      <c r="H12" s="536"/>
-      <c r="I12" s="536"/>
-      <c r="J12" s="537" t="s">
+      <c r="G12" s="553"/>
+      <c r="H12" s="553"/>
+      <c r="I12" s="553"/>
+      <c r="J12" s="554" t="s">
         <v>98</v>
       </c>
-      <c r="K12" s="537"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="K12" s="554"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="375" t="s">
         <v>86</v>
       </c>
@@ -11029,18 +11325,18 @@
       <c r="C13" s="386" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="536" t="s">
+      <c r="F13" s="553" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="536"/>
-      <c r="H13" s="536"/>
-      <c r="I13" s="536"/>
-      <c r="J13" s="537" t="s">
+      <c r="G13" s="553"/>
+      <c r="H13" s="553"/>
+      <c r="I13" s="553"/>
+      <c r="J13" s="554" t="s">
         <v>99</v>
       </c>
-      <c r="K13" s="537"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="K13" s="554"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="377" t="s">
         <v>42</v>
       </c>
@@ -11051,7 +11347,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="377" t="s">
         <v>43</v>
       </c>
@@ -11062,7 +11358,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="377" t="s">
         <v>38</v>
       </c>
@@ -11073,7 +11369,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="377" t="s">
         <v>23</v>
       </c>
@@ -11084,7 +11380,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="377" t="s">
         <v>46</v>
       </c>
@@ -11093,7 +11389,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="377" t="s">
         <v>88</v>
       </c>
@@ -11102,7 +11398,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="377" t="s">
         <v>50</v>
       </c>
@@ -11111,7 +11407,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="377" t="s">
         <v>52</v>
       </c>
@@ -11122,7 +11418,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="377" t="s">
         <v>89</v>
       </c>
@@ -11131,7 +11427,7 @@
       </c>
       <c r="C22" s="384"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="377" t="s">
         <v>55</v>
       </c>
@@ -11142,7 +11438,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="377" t="s">
         <v>69</v>
       </c>
@@ -11153,7 +11449,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="379" t="s">
         <v>54</v>
       </c>
@@ -11164,7 +11460,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="379" t="s">
         <v>104</v>
       </c>
@@ -11173,30 +11469,36 @@
       </c>
       <c r="C26" s="387"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="379" t="s">
         <v>90</v>
       </c>
       <c r="B27" s="391"/>
       <c r="C27" s="387"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="383"/>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="538" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="537" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="538"/>
-      <c r="C29" s="538"/>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="B29" s="537"/>
+      <c r="C29" s="537"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="373" t="s">
         <v>143</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -11206,12 +11508,6 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -11219,25 +11515,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:K57"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A17" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H24" sqref="H24:J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="309"/>
+    <col min="1" max="3" width="9.140625" style="309"/>
     <col min="4" max="4" width="8" style="309" customWidth="1"/>
-    <col min="5" max="6" width="9.109375" style="309"/>
-    <col min="7" max="7" width="9.109375" style="309" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" style="309" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="309" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="309"/>
+    <col min="5" max="6" width="9.140625" style="309"/>
+    <col min="7" max="7" width="9.140625" style="309" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="309" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="309" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="309"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="369" customFormat="1" ht="17.399999999999999">
+    <row r="2" spans="1:11" s="369" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G2" s="318" t="s">
         <v>57</v>
       </c>
@@ -11246,7 +11542,7 @@
       <c r="J2" s="319"/>
       <c r="K2" s="319"/>
     </row>
-    <row r="3" spans="1:11" s="369" customFormat="1" ht="17.399999999999999">
+    <row r="3" spans="1:11" s="369" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G3" s="318" t="s">
         <v>100</v>
       </c>
@@ -11255,7 +11551,7 @@
       <c r="J3" s="319"/>
       <c r="K3" s="319"/>
     </row>
-    <row r="4" spans="1:11" s="369" customFormat="1" ht="17.399999999999999">
+    <row r="4" spans="1:11" s="369" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G4" s="318" t="s">
         <v>103</v>
       </c>
@@ -11264,8 +11560,8 @@
       <c r="J4" s="319"/>
       <c r="K4" s="319"/>
     </row>
-    <row r="5" spans="1:11" s="369" customFormat="1"/>
-    <row r="6" spans="1:11" s="369" customFormat="1" ht="17.399999999999999">
+    <row r="5" spans="1:11" s="369" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:11" s="369" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G6" s="370"/>
       <c r="H6" s="318" t="s">
         <v>101</v>
@@ -11273,12 +11569,12 @@
       <c r="I6" s="319"/>
       <c r="J6" s="319"/>
     </row>
-    <row r="7" spans="1:11" s="369" customFormat="1" ht="17.399999999999999">
+    <row r="7" spans="1:11" s="369" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="H7" s="319"/>
       <c r="I7" s="319"/>
       <c r="J7" s="319"/>
     </row>
-    <row r="8" spans="1:11" s="369" customFormat="1" ht="18">
+    <row r="8" spans="1:11" s="369" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G8" s="312" t="s">
         <v>58</v>
       </c>
@@ -11288,50 +11584,50 @@
       </c>
       <c r="J8" s="319"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
-      <c r="A11" s="558" t="s">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="556" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="558"/>
-      <c r="C11" s="558"/>
-      <c r="D11" s="558"/>
-      <c r="E11" s="558"/>
-      <c r="F11" s="558"/>
-      <c r="G11" s="558"/>
-      <c r="H11" s="558"/>
-      <c r="I11" s="558"/>
-      <c r="J11" s="558"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1">
-      <c r="A12" s="557" t="s">
+      <c r="B11" s="556"/>
+      <c r="C11" s="556"/>
+      <c r="D11" s="556"/>
+      <c r="E11" s="556"/>
+      <c r="F11" s="556"/>
+      <c r="G11" s="556"/>
+      <c r="H11" s="556"/>
+      <c r="I11" s="556"/>
+      <c r="J11" s="556"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="555" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="557"/>
-      <c r="C12" s="557"/>
-      <c r="D12" s="557"/>
-      <c r="E12" s="557"/>
-      <c r="F12" s="557"/>
-      <c r="G12" s="557"/>
-      <c r="H12" s="557"/>
-      <c r="I12" s="557"/>
-      <c r="J12" s="557"/>
-    </row>
-    <row r="13" spans="1:11" ht="18" customHeight="1">
-      <c r="A13" s="559" t="str">
+      <c r="B12" s="555"/>
+      <c r="C12" s="555"/>
+      <c r="D12" s="555"/>
+      <c r="E12" s="555"/>
+      <c r="F12" s="555"/>
+      <c r="G12" s="555"/>
+      <c r="H12" s="555"/>
+      <c r="I12" s="555"/>
+      <c r="J12" s="555"/>
+    </row>
+    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="557" t="str">
         <f>Данные!A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
-      <c r="B13" s="558"/>
-      <c r="C13" s="558"/>
-      <c r="D13" s="558"/>
-      <c r="E13" s="558"/>
-      <c r="F13" s="558"/>
-      <c r="G13" s="558"/>
-      <c r="H13" s="558"/>
-      <c r="I13" s="558"/>
-      <c r="J13" s="558"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.6">
+      <c r="B13" s="556"/>
+      <c r="C13" s="556"/>
+      <c r="D13" s="556"/>
+      <c r="E13" s="556"/>
+      <c r="F13" s="556"/>
+      <c r="G13" s="556"/>
+      <c r="H13" s="556"/>
+      <c r="I13" s="556"/>
+      <c r="J13" s="556"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="313" t="s">
         <v>59</v>
       </c>
@@ -11348,7 +11644,7 @@
       <c r="I15" s="313"/>
       <c r="J15" s="314"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6">
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="313" t="s">
         <v>94</v>
       </c>
@@ -11362,7 +11658,7 @@
       <c r="I16" s="313"/>
       <c r="J16" s="314"/>
     </row>
-    <row r="17" spans="1:10" s="371" customFormat="1" ht="15.6">
+    <row r="17" spans="1:10" s="371" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="321" t="s">
         <v>60</v>
       </c>
@@ -11383,7 +11679,7 @@
       </c>
       <c r="J17" s="314"/>
     </row>
-    <row r="18" spans="1:10" s="371" customFormat="1" ht="15.6">
+    <row r="18" spans="1:10" s="371" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="321" t="s">
         <v>60</v>
       </c>
@@ -11404,7 +11700,7 @@
       </c>
       <c r="J18" s="314"/>
     </row>
-    <row r="19" spans="1:10" s="371" customFormat="1" ht="15.6">
+    <row r="19" spans="1:10" s="371" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="322"/>
       <c r="B19" s="322"/>
       <c r="C19" s="322"/>
@@ -11422,7 +11718,7 @@
       </c>
       <c r="J19" s="314"/>
     </row>
-    <row r="20" spans="1:10" ht="15.6">
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="313" t="s">
         <v>74</v>
       </c>
@@ -11439,7 +11735,7 @@
       </c>
       <c r="J20" s="314"/>
     </row>
-    <row r="21" spans="1:10" ht="15.6">
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="313" t="s">
         <v>75</v>
       </c>
@@ -11453,494 +11749,494 @@
       <c r="I21" s="313"/>
       <c r="J21" s="314"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A22" s="500" t="s">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="526" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="500" t="s">
+      <c r="B22" s="526" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="500"/>
-      <c r="D22" s="500"/>
-      <c r="E22" s="500" t="s">
+      <c r="C22" s="526"/>
+      <c r="D22" s="526"/>
+      <c r="E22" s="526" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="500"/>
-      <c r="G22" s="501" t="s">
+      <c r="F22" s="526"/>
+      <c r="G22" s="527" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="500" t="s">
+      <c r="H22" s="526" t="s">
         <v>68</v>
       </c>
-      <c r="I22" s="500"/>
-      <c r="J22" s="500"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="500"/>
-      <c r="B23" s="500"/>
-      <c r="C23" s="500"/>
-      <c r="D23" s="500"/>
-      <c r="E23" s="500"/>
-      <c r="F23" s="500"/>
-      <c r="G23" s="501"/>
-      <c r="H23" s="500"/>
-      <c r="I23" s="500"/>
-      <c r="J23" s="500"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="502">
+      <c r="I22" s="526"/>
+      <c r="J22" s="526"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="526"/>
+      <c r="B23" s="526"/>
+      <c r="C23" s="526"/>
+      <c r="D23" s="526"/>
+      <c r="E23" s="526"/>
+      <c r="F23" s="526"/>
+      <c r="G23" s="527"/>
+      <c r="H23" s="526"/>
+      <c r="I23" s="526"/>
+      <c r="J23" s="526"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="501">
         <v>1</v>
       </c>
-      <c r="B24" s="522" t="s">
+      <c r="B24" s="503" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="523"/>
-      <c r="D24" s="524"/>
-      <c r="E24" s="507" t="str">
+      <c r="C24" s="504"/>
+      <c r="D24" s="505"/>
+      <c r="E24" s="506" t="str">
         <f>Данные!C14</f>
         <v>XXI-В-30-4А-700</v>
       </c>
-      <c r="F24" s="508"/>
-      <c r="G24" s="511">
+      <c r="F24" s="507"/>
+      <c r="G24" s="510">
         <f>Данные!B14</f>
         <v>22</v>
       </c>
-      <c r="H24" s="513" t="s">
+      <c r="H24" s="512" t="s">
         <v>151</v>
       </c>
-      <c r="I24" s="514"/>
-      <c r="J24" s="515"/>
-    </row>
-    <row r="25" spans="1:10" ht="45.6" customHeight="1">
-      <c r="A25" s="503"/>
-      <c r="B25" s="554" t="str">
+      <c r="I24" s="513"/>
+      <c r="J24" s="514"/>
+    </row>
+    <row r="25" spans="1:10" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="521"/>
+      <c r="B25" s="558" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C25" s="555"/>
-      <c r="D25" s="556"/>
-      <c r="E25" s="509"/>
-      <c r="F25" s="510"/>
-      <c r="G25" s="512"/>
-      <c r="H25" s="516"/>
-      <c r="I25" s="517"/>
-      <c r="J25" s="518"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="502">
+      <c r="C25" s="559"/>
+      <c r="D25" s="560"/>
+      <c r="E25" s="522"/>
+      <c r="F25" s="509"/>
+      <c r="G25" s="511"/>
+      <c r="H25" s="515"/>
+      <c r="I25" s="516"/>
+      <c r="J25" s="517"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="501">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="522" t="s">
+      <c r="B26" s="503" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="523"/>
-      <c r="D26" s="524"/>
-      <c r="E26" s="507" t="str">
+      <c r="C26" s="504"/>
+      <c r="D26" s="505"/>
+      <c r="E26" s="506" t="str">
         <f>Данные!C15</f>
         <v>XXI-В-30-4А-700</v>
       </c>
-      <c r="F26" s="508"/>
-      <c r="G26" s="511">
+      <c r="F26" s="507"/>
+      <c r="G26" s="510">
         <f>Данные!B15</f>
         <v>22</v>
       </c>
-      <c r="H26" s="513"/>
-      <c r="I26" s="514"/>
-      <c r="J26" s="515"/>
-    </row>
-    <row r="27" spans="1:10" ht="44.4" customHeight="1">
-      <c r="A27" s="503"/>
-      <c r="B27" s="554" t="str">
+      <c r="H26" s="512"/>
+      <c r="I26" s="513"/>
+      <c r="J26" s="514"/>
+    </row>
+    <row r="27" spans="1:10" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="521"/>
+      <c r="B27" s="558" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C27" s="555"/>
-      <c r="D27" s="556"/>
-      <c r="E27" s="509"/>
-      <c r="F27" s="510"/>
-      <c r="G27" s="512"/>
-      <c r="H27" s="516"/>
-      <c r="I27" s="517"/>
-      <c r="J27" s="518"/>
-    </row>
-    <row r="28" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A28" s="502">
+      <c r="C27" s="559"/>
+      <c r="D27" s="560"/>
+      <c r="E27" s="522"/>
+      <c r="F27" s="509"/>
+      <c r="G27" s="511"/>
+      <c r="H27" s="515"/>
+      <c r="I27" s="516"/>
+      <c r="J27" s="517"/>
+    </row>
+    <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="501">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="522" t="s">
+      <c r="B28" s="503" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="523"/>
-      <c r="D28" s="524"/>
-      <c r="E28" s="507" t="str">
+      <c r="C28" s="504"/>
+      <c r="D28" s="505"/>
+      <c r="E28" s="506" t="str">
         <f>Данные!C16</f>
         <v>XXI-В-30-4А-700</v>
       </c>
-      <c r="F28" s="508"/>
-      <c r="G28" s="511">
+      <c r="F28" s="507"/>
+      <c r="G28" s="510">
         <f>Данные!B16</f>
         <v>26</v>
       </c>
-      <c r="H28" s="513"/>
-      <c r="I28" s="514"/>
-      <c r="J28" s="515"/>
-    </row>
-    <row r="29" spans="1:10" ht="46.2" customHeight="1">
-      <c r="A29" s="503"/>
-      <c r="B29" s="554" t="str">
+      <c r="H28" s="512"/>
+      <c r="I28" s="513"/>
+      <c r="J28" s="514"/>
+    </row>
+    <row r="29" spans="1:10" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="521"/>
+      <c r="B29" s="558" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C29" s="555"/>
-      <c r="D29" s="556"/>
-      <c r="E29" s="509"/>
-      <c r="F29" s="510"/>
-      <c r="G29" s="512"/>
-      <c r="H29" s="516"/>
-      <c r="I29" s="517"/>
-      <c r="J29" s="518"/>
-    </row>
-    <row r="30" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A30" s="502">
+      <c r="C29" s="559"/>
+      <c r="D29" s="560"/>
+      <c r="E29" s="522"/>
+      <c r="F29" s="509"/>
+      <c r="G29" s="511"/>
+      <c r="H29" s="515"/>
+      <c r="I29" s="516"/>
+      <c r="J29" s="517"/>
+    </row>
+    <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="501">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="522" t="s">
+      <c r="B30" s="503" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="523"/>
-      <c r="D30" s="524"/>
-      <c r="E30" s="507" t="str">
+      <c r="C30" s="504"/>
+      <c r="D30" s="505"/>
+      <c r="E30" s="506" t="str">
         <f>Данные!C17</f>
         <v>XXI-В-30-4А-700</v>
       </c>
-      <c r="F30" s="508"/>
-      <c r="G30" s="511">
+      <c r="F30" s="507"/>
+      <c r="G30" s="510">
         <f>Данные!B17</f>
         <v>26</v>
       </c>
-      <c r="H30" s="513"/>
-      <c r="I30" s="514"/>
-      <c r="J30" s="515"/>
-    </row>
-    <row r="31" spans="1:10" ht="48.6" customHeight="1">
-      <c r="A31" s="503"/>
-      <c r="B31" s="554" t="str">
+      <c r="H30" s="512"/>
+      <c r="I30" s="513"/>
+      <c r="J30" s="514"/>
+    </row>
+    <row r="31" spans="1:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="521"/>
+      <c r="B31" s="558" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C31" s="555"/>
-      <c r="D31" s="556"/>
-      <c r="E31" s="526"/>
-      <c r="F31" s="510"/>
-      <c r="G31" s="512"/>
-      <c r="H31" s="516"/>
-      <c r="I31" s="517"/>
-      <c r="J31" s="518"/>
-    </row>
-    <row r="32" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A32" s="502">
+      <c r="C31" s="559"/>
+      <c r="D31" s="560"/>
+      <c r="E31" s="508"/>
+      <c r="F31" s="509"/>
+      <c r="G31" s="511"/>
+      <c r="H31" s="515"/>
+      <c r="I31" s="516"/>
+      <c r="J31" s="517"/>
+    </row>
+    <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="501">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="522" t="s">
+      <c r="B32" s="503" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="523"/>
-      <c r="D32" s="524"/>
-      <c r="E32" s="507" t="str">
+      <c r="C32" s="504"/>
+      <c r="D32" s="505"/>
+      <c r="E32" s="506" t="str">
         <f>Данные!C18</f>
         <v>XXI-В-30-4А-700</v>
       </c>
-      <c r="F32" s="508"/>
-      <c r="G32" s="511" t="s">
+      <c r="F32" s="507"/>
+      <c r="G32" s="510" t="s">
         <v>60</v>
       </c>
-      <c r="H32" s="513"/>
-      <c r="I32" s="514"/>
-      <c r="J32" s="515"/>
-    </row>
-    <row r="33" spans="1:10" ht="44.4" customHeight="1">
-      <c r="A33" s="503"/>
-      <c r="B33" s="554" t="str">
+      <c r="H32" s="512"/>
+      <c r="I32" s="513"/>
+      <c r="J32" s="514"/>
+    </row>
+    <row r="33" spans="1:10" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="521"/>
+      <c r="B33" s="558" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C33" s="555"/>
-      <c r="D33" s="556"/>
-      <c r="E33" s="526"/>
-      <c r="F33" s="510"/>
-      <c r="G33" s="512"/>
-      <c r="H33" s="516"/>
-      <c r="I33" s="517"/>
-      <c r="J33" s="518"/>
-    </row>
-    <row r="34" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A34" s="502">
+      <c r="C33" s="559"/>
+      <c r="D33" s="560"/>
+      <c r="E33" s="508"/>
+      <c r="F33" s="509"/>
+      <c r="G33" s="511"/>
+      <c r="H33" s="515"/>
+      <c r="I33" s="516"/>
+      <c r="J33" s="517"/>
+    </row>
+    <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="501">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="522" t="s">
+      <c r="B34" s="503" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="523"/>
-      <c r="D34" s="524"/>
-      <c r="E34" s="507" t="str">
+      <c r="C34" s="504"/>
+      <c r="D34" s="505"/>
+      <c r="E34" s="506" t="str">
         <f>Данные!C19</f>
         <v>XXI-В-30-4А-700</v>
       </c>
-      <c r="F34" s="508"/>
-      <c r="G34" s="511" t="s">
+      <c r="F34" s="507"/>
+      <c r="G34" s="510" t="s">
         <v>60</v>
       </c>
-      <c r="H34" s="513"/>
-      <c r="I34" s="514"/>
-      <c r="J34" s="515"/>
-    </row>
-    <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A35" s="503"/>
-      <c r="B35" s="554" t="str">
+      <c r="H34" s="512"/>
+      <c r="I34" s="513"/>
+      <c r="J34" s="514"/>
+    </row>
+    <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="521"/>
+      <c r="B35" s="558" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C35" s="555"/>
-      <c r="D35" s="556"/>
-      <c r="E35" s="526"/>
-      <c r="F35" s="510"/>
-      <c r="G35" s="512"/>
-      <c r="H35" s="516"/>
-      <c r="I35" s="517"/>
-      <c r="J35" s="518"/>
-    </row>
-    <row r="36" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A36" s="502">
+      <c r="C35" s="559"/>
+      <c r="D35" s="560"/>
+      <c r="E35" s="508"/>
+      <c r="F35" s="509"/>
+      <c r="G35" s="511"/>
+      <c r="H35" s="515"/>
+      <c r="I35" s="516"/>
+      <c r="J35" s="517"/>
+    </row>
+    <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="501">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="522" t="s">
+      <c r="B36" s="503" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="523"/>
-      <c r="D36" s="524"/>
-      <c r="E36" s="507" t="str">
+      <c r="C36" s="504"/>
+      <c r="D36" s="505"/>
+      <c r="E36" s="506" t="str">
         <f>Данные!C20</f>
         <v>XXI-В-30-4А-700</v>
       </c>
-      <c r="F36" s="508"/>
-      <c r="G36" s="511" t="s">
+      <c r="F36" s="507"/>
+      <c r="G36" s="510" t="s">
         <v>60</v>
       </c>
-      <c r="H36" s="513"/>
-      <c r="I36" s="514"/>
-      <c r="J36" s="515"/>
-    </row>
-    <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A37" s="503"/>
-      <c r="B37" s="554" t="str">
+      <c r="H36" s="512"/>
+      <c r="I36" s="513"/>
+      <c r="J36" s="514"/>
+    </row>
+    <row r="37" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="521"/>
+      <c r="B37" s="558" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C37" s="555"/>
-      <c r="D37" s="556"/>
-      <c r="E37" s="526"/>
-      <c r="F37" s="510"/>
-      <c r="G37" s="512"/>
-      <c r="H37" s="516"/>
-      <c r="I37" s="517"/>
-      <c r="J37" s="518"/>
-    </row>
-    <row r="38" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A38" s="502">
+      <c r="C37" s="559"/>
+      <c r="D37" s="560"/>
+      <c r="E37" s="508"/>
+      <c r="F37" s="509"/>
+      <c r="G37" s="511"/>
+      <c r="H37" s="515"/>
+      <c r="I37" s="516"/>
+      <c r="J37" s="517"/>
+    </row>
+    <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="501">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="522" t="s">
+      <c r="B38" s="503" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="523"/>
-      <c r="D38" s="524"/>
-      <c r="E38" s="507" t="str">
+      <c r="C38" s="504"/>
+      <c r="D38" s="505"/>
+      <c r="E38" s="506" t="str">
         <f>Данные!C21</f>
         <v>XXI-В-30-4А-700</v>
       </c>
-      <c r="F38" s="508"/>
-      <c r="G38" s="511">
+      <c r="F38" s="507"/>
+      <c r="G38" s="510">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="H38" s="513"/>
-      <c r="I38" s="514"/>
-      <c r="J38" s="515"/>
-    </row>
-    <row r="39" spans="1:10" ht="49.2" customHeight="1">
-      <c r="A39" s="503"/>
-      <c r="B39" s="554" t="str">
+      <c r="H38" s="512"/>
+      <c r="I38" s="513"/>
+      <c r="J38" s="514"/>
+    </row>
+    <row r="39" spans="1:10" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="521"/>
+      <c r="B39" s="558" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C39" s="555"/>
-      <c r="D39" s="556"/>
-      <c r="E39" s="526"/>
-      <c r="F39" s="510"/>
-      <c r="G39" s="512"/>
-      <c r="H39" s="516"/>
-      <c r="I39" s="517"/>
-      <c r="J39" s="518"/>
-    </row>
-    <row r="40" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A40" s="502">
+      <c r="C39" s="559"/>
+      <c r="D39" s="560"/>
+      <c r="E39" s="508"/>
+      <c r="F39" s="509"/>
+      <c r="G39" s="511"/>
+      <c r="H39" s="515"/>
+      <c r="I39" s="516"/>
+      <c r="J39" s="517"/>
+    </row>
+    <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="501">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="522" t="s">
+      <c r="B40" s="503" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="523"/>
-      <c r="D40" s="524"/>
-      <c r="E40" s="507" t="str">
+      <c r="C40" s="504"/>
+      <c r="D40" s="505"/>
+      <c r="E40" s="506" t="str">
         <f>Данные!C23</f>
         <v>XXI-В-30-4А-700</v>
       </c>
-      <c r="F40" s="508"/>
-      <c r="G40" s="511">
+      <c r="F40" s="507"/>
+      <c r="G40" s="510">
         <f>Данные!B23</f>
         <v>18</v>
       </c>
-      <c r="H40" s="513"/>
-      <c r="I40" s="514"/>
-      <c r="J40" s="515"/>
-    </row>
-    <row r="41" spans="1:10" ht="47.4" customHeight="1">
-      <c r="A41" s="503"/>
-      <c r="B41" s="554" t="str">
+      <c r="H40" s="512"/>
+      <c r="I40" s="513"/>
+      <c r="J40" s="514"/>
+    </row>
+    <row r="41" spans="1:10" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="521"/>
+      <c r="B41" s="558" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C41" s="555"/>
-      <c r="D41" s="556"/>
-      <c r="E41" s="526"/>
-      <c r="F41" s="510"/>
-      <c r="G41" s="512"/>
-      <c r="H41" s="516"/>
-      <c r="I41" s="517"/>
-      <c r="J41" s="518"/>
-    </row>
-    <row r="42" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A42" s="502">
+      <c r="C41" s="559"/>
+      <c r="D41" s="560"/>
+      <c r="E41" s="508"/>
+      <c r="F41" s="509"/>
+      <c r="G41" s="511"/>
+      <c r="H41" s="515"/>
+      <c r="I41" s="516"/>
+      <c r="J41" s="517"/>
+    </row>
+    <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="501">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="522" t="s">
+      <c r="B42" s="503" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="523"/>
-      <c r="D42" s="524"/>
-      <c r="E42" s="507" t="str">
+      <c r="C42" s="504"/>
+      <c r="D42" s="505"/>
+      <c r="E42" s="506" t="str">
         <f>Данные!C25</f>
         <v>XXI-В-30-4А-700</v>
       </c>
-      <c r="F42" s="508"/>
-      <c r="G42" s="511">
+      <c r="F42" s="507"/>
+      <c r="G42" s="510">
         <f>Данные!B25</f>
         <v>18</v>
       </c>
-      <c r="H42" s="513"/>
-      <c r="I42" s="514"/>
-      <c r="J42" s="515"/>
-    </row>
-    <row r="43" spans="1:10" ht="48.6" customHeight="1">
-      <c r="A43" s="503"/>
-      <c r="B43" s="554" t="str">
+      <c r="H42" s="512"/>
+      <c r="I42" s="513"/>
+      <c r="J42" s="514"/>
+    </row>
+    <row r="43" spans="1:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="521"/>
+      <c r="B43" s="558" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C43" s="555"/>
-      <c r="D43" s="556"/>
-      <c r="E43" s="526"/>
-      <c r="F43" s="510"/>
-      <c r="G43" s="512"/>
-      <c r="H43" s="516"/>
-      <c r="I43" s="517"/>
-      <c r="J43" s="518"/>
-    </row>
-    <row r="44" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A44" s="502">
+      <c r="C43" s="559"/>
+      <c r="D43" s="560"/>
+      <c r="E43" s="508"/>
+      <c r="F43" s="509"/>
+      <c r="G43" s="511"/>
+      <c r="H43" s="515"/>
+      <c r="I43" s="516"/>
+      <c r="J43" s="517"/>
+    </row>
+    <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="501">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="522" t="s">
+      <c r="B44" s="503" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="523"/>
-      <c r="D44" s="524"/>
-      <c r="E44" s="507" t="s">
+      <c r="C44" s="504"/>
+      <c r="D44" s="505"/>
+      <c r="E44" s="506" t="s">
         <v>60</v>
       </c>
-      <c r="F44" s="508"/>
-      <c r="G44" s="511">
+      <c r="F44" s="507"/>
+      <c r="G44" s="510">
         <f>Данные!B26</f>
         <v>18</v>
       </c>
-      <c r="H44" s="513"/>
-      <c r="I44" s="514"/>
-      <c r="J44" s="515"/>
-    </row>
-    <row r="45" spans="1:10" ht="40.799999999999997" customHeight="1">
-      <c r="A45" s="503"/>
-      <c r="B45" s="554" t="str">
+      <c r="H44" s="512"/>
+      <c r="I44" s="513"/>
+      <c r="J44" s="514"/>
+    </row>
+    <row r="45" spans="1:10" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="521"/>
+      <c r="B45" s="558" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C45" s="555"/>
-      <c r="D45" s="556"/>
-      <c r="E45" s="526"/>
-      <c r="F45" s="510"/>
-      <c r="G45" s="512"/>
-      <c r="H45" s="516"/>
-      <c r="I45" s="517"/>
-      <c r="J45" s="518"/>
-    </row>
-    <row r="46" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A46" s="502">
+      <c r="C45" s="559"/>
+      <c r="D45" s="560"/>
+      <c r="E45" s="508"/>
+      <c r="F45" s="509"/>
+      <c r="G45" s="511"/>
+      <c r="H45" s="515"/>
+      <c r="I45" s="516"/>
+      <c r="J45" s="517"/>
+    </row>
+    <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="501">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="522" t="s">
+      <c r="B46" s="503" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="523"/>
-      <c r="D46" s="524"/>
-      <c r="E46" s="507" t="str">
+      <c r="C46" s="504"/>
+      <c r="D46" s="505"/>
+      <c r="E46" s="506" t="str">
         <f>Данные!C24</f>
         <v>XXI-В-30-4А-700</v>
       </c>
-      <c r="F46" s="508"/>
-      <c r="G46" s="511">
+      <c r="F46" s="507"/>
+      <c r="G46" s="510">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="513"/>
-      <c r="I46" s="514"/>
-      <c r="J46" s="515"/>
-    </row>
-    <row r="47" spans="1:10" ht="42.6" customHeight="1">
-      <c r="A47" s="503"/>
-      <c r="B47" s="554" t="str">
+      <c r="H46" s="512"/>
+      <c r="I46" s="513"/>
+      <c r="J46" s="514"/>
+    </row>
+    <row r="47" spans="1:10" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="521"/>
+      <c r="B47" s="558" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C47" s="555"/>
-      <c r="D47" s="556"/>
-      <c r="E47" s="526"/>
-      <c r="F47" s="510"/>
-      <c r="G47" s="512"/>
-      <c r="H47" s="516"/>
-      <c r="I47" s="517"/>
-      <c r="J47" s="518"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.6">
+      <c r="C47" s="559"/>
+      <c r="D47" s="560"/>
+      <c r="E47" s="508"/>
+      <c r="F47" s="509"/>
+      <c r="G47" s="511"/>
+      <c r="H47" s="515"/>
+      <c r="I47" s="516"/>
+      <c r="J47" s="517"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="313"/>
       <c r="B48" s="313"/>
       <c r="C48" s="313"/>
@@ -11952,7 +12248,7 @@
       <c r="I48" s="313"/>
       <c r="J48" s="314"/>
     </row>
-    <row r="49" spans="1:10" ht="15.6">
+    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="313" t="s">
         <v>70</v>
       </c>
@@ -11966,7 +12262,7 @@
       <c r="I49" s="313"/>
       <c r="J49" s="314"/>
     </row>
-    <row r="50" spans="1:10" ht="15.6">
+    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="313"/>
       <c r="B50" s="313"/>
       <c r="C50" s="313"/>
@@ -11978,7 +12274,7 @@
       <c r="I50" s="313"/>
       <c r="J50" s="314"/>
     </row>
-    <row r="51" spans="1:10" ht="15.6">
+    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="313"/>
       <c r="B51" s="316" t="s">
         <v>71</v>
@@ -11994,7 +12290,7 @@
       <c r="I51" s="313"/>
       <c r="J51" s="314"/>
     </row>
-    <row r="52" spans="1:10" ht="15.6">
+    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="313"/>
       <c r="B52" s="313"/>
       <c r="C52" s="313"/>
@@ -12006,7 +12302,7 @@
       <c r="I52" s="313"/>
       <c r="J52" s="314"/>
     </row>
-    <row r="53" spans="1:10" ht="15.6">
+    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="313"/>
       <c r="B53" s="313"/>
       <c r="C53" s="313"/>
@@ -12020,7 +12316,7 @@
       </c>
       <c r="J53" s="313"/>
     </row>
-    <row r="54" spans="1:10" ht="15.6">
+    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="313"/>
       <c r="B54" s="313"/>
       <c r="C54" s="313"/>
@@ -12031,7 +12327,7 @@
       <c r="I54" s="313"/>
       <c r="J54" s="313"/>
     </row>
-    <row r="55" spans="1:10" ht="15.6">
+    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="313"/>
       <c r="B55" s="313"/>
       <c r="C55" s="313"/>
@@ -12044,14 +12340,14 @@
         <v>Д.Е. Серков</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="17.399999999999999">
+    <row r="56" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="310"/>
       <c r="B56" s="310"/>
       <c r="C56" s="310"/>
       <c r="D56" s="310"/>
       <c r="E56" s="310"/>
     </row>
-    <row r="57" spans="1:10" ht="17.399999999999999">
+    <row r="57" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="310"/>
       <c r="B57" s="310"/>
       <c r="C57" s="310"/>
@@ -12067,6 +12363,70 @@
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -12083,70 +12443,6 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -12155,7 +12451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -12165,20 +12461,20 @@
       <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="0.88671875" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="0.85546875" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -12199,49 +12495,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="560"/>
-      <c r="C2" s="561"/>
-      <c r="D2" s="562"/>
-      <c r="E2" s="569" t="s">
+      <c r="B2" s="579"/>
+      <c r="C2" s="580"/>
+      <c r="D2" s="581"/>
+      <c r="E2" s="588" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="570"/>
-      <c r="G2" s="570"/>
-      <c r="H2" s="571"/>
-      <c r="I2" s="576" t="s">
+      <c r="F2" s="589"/>
+      <c r="G2" s="589"/>
+      <c r="H2" s="590"/>
+      <c r="I2" s="595" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="577"/>
-      <c r="K2" s="580">
+      <c r="J2" s="596"/>
+      <c r="K2" s="599">
         <f>Данные!B14</f>
         <v>22</v>
       </c>
-      <c r="L2" s="581"/>
+      <c r="L2" s="600"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="572"/>
-      <c r="Q2" s="572"/>
+      <c r="P2" s="591"/>
+      <c r="Q2" s="591"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="23.4" thickBot="1">
+    <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="563"/>
-      <c r="C3" s="564"/>
-      <c r="D3" s="565"/>
-      <c r="E3" s="573" t="s">
+      <c r="B3" s="582"/>
+      <c r="C3" s="583"/>
+      <c r="D3" s="584"/>
+      <c r="E3" s="592" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="574"/>
-      <c r="G3" s="574"/>
-      <c r="H3" s="575"/>
-      <c r="I3" s="578"/>
-      <c r="J3" s="579"/>
-      <c r="K3" s="582"/>
-      <c r="L3" s="583"/>
+      <c r="F3" s="593"/>
+      <c r="G3" s="593"/>
+      <c r="H3" s="594"/>
+      <c r="I3" s="597"/>
+      <c r="J3" s="598"/>
+      <c r="K3" s="601"/>
+      <c r="L3" s="602"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12250,11 +12546,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="23.4" thickBot="1">
+    <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="566"/>
-      <c r="C4" s="567"/>
-      <c r="D4" s="568"/>
+      <c r="B4" s="585"/>
+      <c r="C4" s="586"/>
+      <c r="D4" s="587"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12271,24 +12567,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="587" t="s">
+      <c r="B5" s="564" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="588"/>
-      <c r="D5" s="548" t="str">
+      <c r="C5" s="565"/>
+      <c r="D5" s="547" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="549"/>
-      <c r="F5" s="549"/>
-      <c r="G5" s="549"/>
-      <c r="H5" s="550"/>
-      <c r="I5" s="589"/>
-      <c r="J5" s="590"/>
-      <c r="K5" s="549"/>
-      <c r="L5" s="550"/>
+      <c r="E5" s="548"/>
+      <c r="F5" s="548"/>
+      <c r="G5" s="548"/>
+      <c r="H5" s="549"/>
+      <c r="I5" s="566"/>
+      <c r="J5" s="567"/>
+      <c r="K5" s="548"/>
+      <c r="L5" s="549"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12297,24 +12593,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="587" t="s">
+      <c r="B6" s="564" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="591"/>
-      <c r="D6" s="542" t="str">
+      <c r="C6" s="568"/>
+      <c r="D6" s="541" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
-      <c r="E6" s="592"/>
-      <c r="F6" s="592"/>
-      <c r="G6" s="592"/>
-      <c r="H6" s="593"/>
-      <c r="I6" s="589"/>
-      <c r="J6" s="590"/>
-      <c r="K6" s="549"/>
-      <c r="L6" s="550"/>
+      <c r="E6" s="569"/>
+      <c r="F6" s="569"/>
+      <c r="G6" s="569"/>
+      <c r="H6" s="570"/>
+      <c r="I6" s="566"/>
+      <c r="J6" s="567"/>
+      <c r="K6" s="548"/>
+      <c r="L6" s="549"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12323,29 +12619,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="594" t="s">
+      <c r="B7" s="571" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="595"/>
-      <c r="D7" s="551">
+      <c r="C7" s="572"/>
+      <c r="D7" s="550">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="596"/>
-      <c r="F7" s="596"/>
-      <c r="G7" s="596"/>
-      <c r="H7" s="597"/>
-      <c r="I7" s="594" t="s">
+      <c r="E7" s="573"/>
+      <c r="F7" s="573"/>
+      <c r="G7" s="573"/>
+      <c r="H7" s="574"/>
+      <c r="I7" s="571" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="598"/>
-      <c r="K7" s="539">
+      <c r="J7" s="575"/>
+      <c r="K7" s="538">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="540"/>
+      <c r="L7" s="539"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12354,7 +12650,7 @@
       <c r="R7" s="77"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -12375,7 +12671,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="21" thickBot="1">
+    <row r="9" spans="1:19" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -12408,7 +12704,7 @@
       <c r="R9" s="327"/>
       <c r="S9" s="199"/>
     </row>
-    <row r="10" spans="1:19" ht="23.25" customHeight="1">
+    <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="492" t="s">
         <v>25</v>
@@ -12441,7 +12737,7 @@
       <c r="R10" s="329"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="23.25" customHeight="1">
+    <row r="11" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="493" t="s">
         <v>26</v>
@@ -12474,7 +12770,7 @@
       <c r="R11" s="331"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="23.25" customHeight="1">
+    <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="493" t="s">
         <v>2</v>
@@ -12507,7 +12803,7 @@
       <c r="R12" s="331"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="23.25" customHeight="1">
+    <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="493" t="s">
         <v>3</v>
@@ -12540,7 +12836,7 @@
       <c r="R13" s="331"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="23.25" customHeight="1">
+    <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="493" t="s">
         <v>27</v>
@@ -12573,7 +12869,7 @@
       <c r="R14" s="331"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="23.25" customHeight="1">
+    <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="493" t="s">
         <v>9</v>
@@ -12606,7 +12902,7 @@
       <c r="R15" s="331"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="23.25" customHeight="1">
+    <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="493" t="s">
         <v>5</v>
@@ -12639,7 +12935,7 @@
       <c r="R16" s="331"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="23.25" customHeight="1">
+    <row r="17" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="493" t="s">
         <v>30</v>
@@ -12672,7 +12968,7 @@
       <c r="R17" s="331"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="39.6">
+    <row r="18" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="494" t="s">
         <v>150</v>
@@ -12705,7 +13001,7 @@
       <c r="R18" s="333"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="23.25" customHeight="1">
+    <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="494" t="s">
         <v>33</v>
@@ -12738,7 +13034,7 @@
       <c r="R19" s="333"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="52.8">
+    <row r="20" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="78"/>
       <c r="B20" s="494" t="s">
         <v>148</v>
@@ -12767,7 +13063,7 @@
       <c r="R20" s="333"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="52.8">
+    <row r="21" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="78"/>
       <c r="B21" s="494" t="s">
         <v>149</v>
@@ -12796,7 +13092,7 @@
       <c r="R21" s="333"/>
       <c r="S21" s="86"/>
     </row>
-    <row r="22" spans="1:19" ht="39.6">
+    <row r="22" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" s="78"/>
       <c r="B22" s="494" t="s">
         <v>134</v>
@@ -12829,7 +13125,7 @@
       <c r="R22" s="333"/>
       <c r="S22" s="86"/>
     </row>
-    <row r="23" spans="1:19" ht="39.6">
+    <row r="23" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
       <c r="B23" s="494" t="s">
         <v>135</v>
@@ -12862,14 +13158,14 @@
       <c r="R23" s="333"/>
       <c r="S23" s="86"/>
     </row>
-    <row r="24" spans="1:19" ht="14.4">
+    <row r="24" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="78"/>
-      <c r="B24" s="599" t="s">
+      <c r="B24" s="576" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="600"/>
-      <c r="D24" s="600"/>
-      <c r="E24" s="601"/>
+      <c r="C24" s="577"/>
+      <c r="D24" s="577"/>
+      <c r="E24" s="578"/>
       <c r="F24" s="118" t="s">
         <v>16</v>
       </c>
@@ -12889,14 +13185,14 @@
       <c r="R24" s="333"/>
       <c r="S24" s="86"/>
     </row>
-    <row r="25" spans="1:19" ht="15" thickBot="1">
+    <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="78"/>
-      <c r="B25" s="584" t="s">
+      <c r="B25" s="561" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="585"/>
-      <c r="D25" s="585"/>
-      <c r="E25" s="586"/>
+      <c r="C25" s="562"/>
+      <c r="D25" s="562"/>
+      <c r="E25" s="563"/>
       <c r="F25" s="118" t="s">
         <v>16</v>
       </c>
@@ -12916,7 +13212,7 @@
       <c r="R25" s="335"/>
       <c r="S25" s="86"/>
     </row>
-    <row r="26" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="26" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="112"/>
       <c r="B26" s="113"/>
       <c r="C26" s="113"/>
@@ -12937,9 +13233,15 @@
       <c r="R26" s="115"/>
       <c r="S26" s="116"/>
     </row>
-    <row r="27" spans="1:19" ht="13.5" customHeight="1" thickTop="1"/>
+    <row r="27" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -12954,12 +13256,6 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R25">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
@@ -12979,7 +13275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -12989,20 +13285,20 @@
       <selection pane="bottomRight" activeCell="B14" sqref="B14:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="64" customWidth="1"/>
     <col min="4" max="5" width="6" style="64" customWidth="1"/>
     <col min="6" max="6" width="7" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -13023,52 +13319,52 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="602">
+      <c r="B2" s="610">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="603"/>
-      <c r="D2" s="604"/>
-      <c r="E2" s="611" t="s">
+      <c r="C2" s="611"/>
+      <c r="D2" s="612"/>
+      <c r="E2" s="619" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="612"/>
-      <c r="G2" s="612"/>
-      <c r="H2" s="613"/>
-      <c r="I2" s="617" t="s">
+      <c r="F2" s="620"/>
+      <c r="G2" s="620"/>
+      <c r="H2" s="621"/>
+      <c r="I2" s="625" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="618"/>
-      <c r="K2" s="621">
+      <c r="J2" s="626"/>
+      <c r="K2" s="629">
         <f>Данные!B15</f>
         <v>22</v>
       </c>
-      <c r="L2" s="622"/>
+      <c r="L2" s="630"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="572"/>
-      <c r="Q2" s="572"/>
+      <c r="P2" s="591"/>
+      <c r="Q2" s="591"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="605"/>
-      <c r="C3" s="606"/>
-      <c r="D3" s="607"/>
-      <c r="E3" s="614" t="s">
+      <c r="B3" s="613"/>
+      <c r="C3" s="614"/>
+      <c r="D3" s="615"/>
+      <c r="E3" s="622" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="615"/>
-      <c r="G3" s="615"/>
-      <c r="H3" s="616"/>
-      <c r="I3" s="619"/>
-      <c r="J3" s="620"/>
-      <c r="K3" s="623"/>
-      <c r="L3" s="624"/>
+      <c r="F3" s="623"/>
+      <c r="G3" s="623"/>
+      <c r="H3" s="624"/>
+      <c r="I3" s="627"/>
+      <c r="J3" s="628"/>
+      <c r="K3" s="631"/>
+      <c r="L3" s="632"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -13077,11 +13373,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="608"/>
-      <c r="C4" s="609"/>
-      <c r="D4" s="610"/>
+      <c r="B4" s="616"/>
+      <c r="C4" s="617"/>
+      <c r="D4" s="618"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -13098,24 +13394,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="587" t="s">
+      <c r="B5" s="564" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="625"/>
-      <c r="D5" s="548" t="str">
+      <c r="C5" s="603"/>
+      <c r="D5" s="547" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="549"/>
-      <c r="F5" s="549"/>
-      <c r="G5" s="549"/>
-      <c r="H5" s="550"/>
-      <c r="I5" s="626"/>
-      <c r="J5" s="627"/>
-      <c r="K5" s="628"/>
-      <c r="L5" s="550"/>
+      <c r="E5" s="548"/>
+      <c r="F5" s="548"/>
+      <c r="G5" s="548"/>
+      <c r="H5" s="549"/>
+      <c r="I5" s="604"/>
+      <c r="J5" s="605"/>
+      <c r="K5" s="606"/>
+      <c r="L5" s="549"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -13124,24 +13420,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="587" t="s">
+      <c r="B6" s="564" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="625"/>
-      <c r="D6" s="542" t="str">
+      <c r="C6" s="603"/>
+      <c r="D6" s="541" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
-      <c r="E6" s="592"/>
-      <c r="F6" s="592"/>
-      <c r="G6" s="592"/>
-      <c r="H6" s="593"/>
-      <c r="I6" s="626"/>
-      <c r="J6" s="627"/>
-      <c r="K6" s="628"/>
-      <c r="L6" s="550"/>
+      <c r="E6" s="569"/>
+      <c r="F6" s="569"/>
+      <c r="G6" s="569"/>
+      <c r="H6" s="570"/>
+      <c r="I6" s="604"/>
+      <c r="J6" s="605"/>
+      <c r="K6" s="606"/>
+      <c r="L6" s="549"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -13150,29 +13446,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="594" t="s">
+      <c r="B7" s="571" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="629"/>
-      <c r="D7" s="551">
+      <c r="C7" s="607"/>
+      <c r="D7" s="550">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="596"/>
-      <c r="F7" s="596"/>
-      <c r="G7" s="596"/>
-      <c r="H7" s="597"/>
-      <c r="I7" s="630" t="s">
+      <c r="E7" s="573"/>
+      <c r="F7" s="573"/>
+      <c r="G7" s="573"/>
+      <c r="H7" s="574"/>
+      <c r="I7" s="608" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="629"/>
-      <c r="K7" s="539">
+      <c r="J7" s="607"/>
+      <c r="K7" s="538">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="540"/>
+      <c r="L7" s="539"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -13181,7 +13477,7 @@
       <c r="R7" s="73"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -13202,7 +13498,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -13235,7 +13531,7 @@
       <c r="R9" s="327"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="30.6">
+    <row r="10" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -13268,7 +13564,7 @@
       <c r="R10" s="329"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="97" t="s">
         <v>28</v>
@@ -13301,7 +13597,7 @@
       <c r="R11" s="331"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="97" t="s">
         <v>4</v>
@@ -13334,7 +13630,7 @@
       <c r="R12" s="331"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="97" t="s">
         <v>5</v>
@@ -13367,15 +13663,15 @@
       <c r="R13" s="331"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="599" t="s">
+      <c r="B14" s="576" t="s">
         <v>144</v>
       </c>
-      <c r="C14" s="600"/>
-      <c r="D14" s="600"/>
-      <c r="E14" s="600"/>
-      <c r="F14" s="631"/>
+      <c r="C14" s="577"/>
+      <c r="D14" s="577"/>
+      <c r="E14" s="577"/>
+      <c r="F14" s="609"/>
       <c r="G14" s="56" t="s">
         <v>76</v>
       </c>
@@ -13392,14 +13688,14 @@
       <c r="R14" s="333"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78"/>
-      <c r="B15" s="584" t="s">
+      <c r="B15" s="561" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="585"/>
-      <c r="D15" s="585"/>
-      <c r="E15" s="586"/>
+      <c r="C15" s="562"/>
+      <c r="D15" s="562"/>
+      <c r="E15" s="563"/>
       <c r="F15" s="118" t="s">
         <v>16</v>
       </c>
@@ -13419,7 +13715,7 @@
       <c r="R15" s="335"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1">
+    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="112"/>
       <c r="B16" s="113"/>
       <c r="C16" s="113"/>
@@ -13440,16 +13736,22 @@
       <c r="R16" s="115"/>
       <c r="S16" s="116"/>
     </row>
-    <row r="17" spans="2:16" ht="13.5" customHeight="1" thickTop="1">
+    <row r="17" spans="2:16" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B17" s="125"/>
       <c r="P17" s="126"/>
     </row>
-    <row r="18" spans="2:16" ht="12.75" customHeight="1">
+    <row r="18" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="125"/>
       <c r="P18" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -13464,12 +13766,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="notBetween">
@@ -13497,7 +13793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -13507,20 +13803,20 @@
       <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="0.88671875" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="64" customWidth="1"/>
-    <col min="4" max="5" width="5.6640625" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.44140625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="64" customWidth="1"/>
+    <col min="1" max="1" width="0.85546875" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="64" customWidth="1"/>
+    <col min="4" max="5" width="5.7109375" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="0.5546875" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="0.5703125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="6.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:24" ht="6.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -13541,49 +13837,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:24" ht="21.75" customHeight="1">
+    <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="560"/>
-      <c r="C2" s="561"/>
-      <c r="D2" s="562"/>
-      <c r="E2" s="569" t="s">
+      <c r="B2" s="579"/>
+      <c r="C2" s="580"/>
+      <c r="D2" s="581"/>
+      <c r="E2" s="588" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="570"/>
-      <c r="G2" s="570"/>
-      <c r="H2" s="571"/>
-      <c r="I2" s="576" t="s">
+      <c r="F2" s="589"/>
+      <c r="G2" s="589"/>
+      <c r="H2" s="590"/>
+      <c r="I2" s="595" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="577"/>
-      <c r="K2" s="580">
+      <c r="J2" s="596"/>
+      <c r="K2" s="599">
         <f>Данные!B16</f>
         <v>26</v>
       </c>
-      <c r="L2" s="581"/>
+      <c r="L2" s="600"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="572"/>
-      <c r="Q2" s="572"/>
+      <c r="P2" s="591"/>
+      <c r="Q2" s="591"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="563"/>
-      <c r="C3" s="564"/>
-      <c r="D3" s="565"/>
-      <c r="E3" s="573" t="s">
+      <c r="B3" s="582"/>
+      <c r="C3" s="583"/>
+      <c r="D3" s="584"/>
+      <c r="E3" s="592" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="574"/>
-      <c r="G3" s="574"/>
-      <c r="H3" s="575"/>
-      <c r="I3" s="578"/>
-      <c r="J3" s="579"/>
-      <c r="K3" s="582"/>
-      <c r="L3" s="583"/>
+      <c r="F3" s="593"/>
+      <c r="G3" s="593"/>
+      <c r="H3" s="594"/>
+      <c r="I3" s="597"/>
+      <c r="J3" s="598"/>
+      <c r="K3" s="601"/>
+      <c r="L3" s="602"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -13592,11 +13888,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
+    <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="566"/>
-      <c r="C4" s="567"/>
-      <c r="D4" s="568"/>
+      <c r="B4" s="585"/>
+      <c r="C4" s="586"/>
+      <c r="D4" s="587"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13613,24 +13909,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="587" t="s">
+      <c r="B5" s="564" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="588"/>
-      <c r="D5" s="548" t="str">
+      <c r="C5" s="565"/>
+      <c r="D5" s="547" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="549"/>
-      <c r="F5" s="549"/>
-      <c r="G5" s="549"/>
-      <c r="H5" s="550"/>
-      <c r="I5" s="589"/>
-      <c r="J5" s="590"/>
-      <c r="K5" s="549"/>
-      <c r="L5" s="550"/>
+      <c r="E5" s="548"/>
+      <c r="F5" s="548"/>
+      <c r="G5" s="548"/>
+      <c r="H5" s="549"/>
+      <c r="I5" s="566"/>
+      <c r="J5" s="567"/>
+      <c r="K5" s="548"/>
+      <c r="L5" s="549"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -13639,24 +13935,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="587" t="s">
+      <c r="B6" s="564" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="591"/>
-      <c r="D6" s="542" t="str">
+      <c r="C6" s="568"/>
+      <c r="D6" s="541" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
-      <c r="E6" s="592"/>
-      <c r="F6" s="592"/>
-      <c r="G6" s="592"/>
-      <c r="H6" s="593"/>
-      <c r="I6" s="589"/>
-      <c r="J6" s="590"/>
-      <c r="K6" s="549"/>
-      <c r="L6" s="550"/>
+      <c r="E6" s="569"/>
+      <c r="F6" s="569"/>
+      <c r="G6" s="569"/>
+      <c r="H6" s="570"/>
+      <c r="I6" s="566"/>
+      <c r="J6" s="567"/>
+      <c r="K6" s="548"/>
+      <c r="L6" s="549"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -13665,29 +13961,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="594" t="s">
+      <c r="B7" s="571" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="595"/>
-      <c r="D7" s="551">
+      <c r="C7" s="572"/>
+      <c r="D7" s="550">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="596"/>
-      <c r="F7" s="596"/>
-      <c r="G7" s="596"/>
-      <c r="H7" s="597"/>
-      <c r="I7" s="594" t="s">
+      <c r="E7" s="573"/>
+      <c r="F7" s="573"/>
+      <c r="G7" s="573"/>
+      <c r="H7" s="574"/>
+      <c r="I7" s="571" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="598"/>
-      <c r="K7" s="539">
+      <c r="J7" s="575"/>
+      <c r="K7" s="538">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="540"/>
+      <c r="L7" s="539"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -13696,7 +13992,7 @@
       <c r="R7" s="77"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:24" ht="3.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:24" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -13717,7 +14013,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:24" ht="31.2" thickBot="1">
+    <row r="9" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -13753,7 +14049,7 @@
       <c r="W9" s="91"/>
       <c r="X9" s="91"/>
     </row>
-    <row r="10" spans="1:24" ht="24.75" customHeight="1">
+    <row r="10" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -13789,7 +14085,7 @@
       <c r="W10" s="91"/>
       <c r="X10" s="91"/>
     </row>
-    <row r="11" spans="1:24" ht="24.75" customHeight="1">
+    <row r="11" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="97" t="s">
         <v>3</v>
@@ -13825,7 +14121,7 @@
       <c r="W11" s="101"/>
       <c r="X11" s="91"/>
     </row>
-    <row r="12" spans="1:24" ht="24.75" customHeight="1">
+    <row r="12" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="97" t="s">
         <v>27</v>
@@ -13861,7 +14157,7 @@
       <c r="W12" s="102"/>
       <c r="X12" s="91"/>
     </row>
-    <row r="13" spans="1:24" ht="24.75" customHeight="1">
+    <row r="13" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="97" t="s">
         <v>4</v>
@@ -13897,7 +14193,7 @@
       <c r="W13" s="102"/>
       <c r="X13" s="91"/>
     </row>
-    <row r="14" spans="1:24" ht="24.75" customHeight="1">
+    <row r="14" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="97" t="s">
         <v>5</v>
@@ -13933,7 +14229,7 @@
       <c r="W14" s="102"/>
       <c r="X14" s="91"/>
     </row>
-    <row r="15" spans="1:24" ht="24.75" customHeight="1">
+    <row r="15" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="97" t="s">
         <v>30</v>
@@ -13969,7 +14265,7 @@
       <c r="W15" s="101"/>
       <c r="X15" s="91"/>
     </row>
-    <row r="16" spans="1:24" ht="24.75" customHeight="1">
+    <row r="16" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="97" t="s">
         <v>31</v>
@@ -14005,7 +14301,7 @@
       <c r="W16" s="102"/>
       <c r="X16" s="91"/>
     </row>
-    <row r="17" spans="1:24" ht="24.75" customHeight="1">
+    <row r="17" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="105" t="s">
         <v>32</v>
@@ -14041,7 +14337,7 @@
       <c r="W17" s="101"/>
       <c r="X17" s="91"/>
     </row>
-    <row r="18" spans="1:24" ht="24.75" customHeight="1">
+    <row r="18" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="105" t="s">
         <v>33</v>
@@ -14077,7 +14373,7 @@
       <c r="W18" s="101"/>
       <c r="X18" s="91"/>
     </row>
-    <row r="19" spans="1:24" ht="30.6">
+    <row r="19" spans="1:24" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="105" t="s">
         <v>34</v>
@@ -14113,7 +14409,7 @@
       <c r="W19" s="101"/>
       <c r="X19" s="91"/>
     </row>
-    <row r="20" spans="1:24" ht="31.2" thickBot="1">
+    <row r="20" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78"/>
       <c r="B20" s="105" t="s">
         <v>35</v>
@@ -14146,7 +14442,7 @@
       <c r="R20" s="335"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:24" ht="13.8" thickBot="1">
+    <row r="21" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="112"/>
       <c r="B21" s="113"/>
       <c r="C21" s="113"/>
@@ -14167,10 +14463,9 @@
       <c r="R21" s="115"/>
       <c r="S21" s="116"/>
     </row>
-    <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1"/>
+    <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
@@ -14188,6 +14483,7 @@
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -14209,7 +14505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -14219,20 +14515,20 @@
       <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="5" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="5" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="5" customWidth="1"/>
     <col min="8" max="18" width="9" style="5" customWidth="1"/>
-    <col min="19" max="19" width="0.88671875" style="5" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="5"/>
+    <col min="19" max="19" width="0.85546875" style="5" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -14253,49 +14549,49 @@
       <c r="R1" s="3"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="560"/>
-      <c r="C2" s="561"/>
-      <c r="D2" s="562"/>
-      <c r="E2" s="569" t="s">
+      <c r="B2" s="579"/>
+      <c r="C2" s="580"/>
+      <c r="D2" s="581"/>
+      <c r="E2" s="588" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="570"/>
-      <c r="G2" s="570"/>
-      <c r="H2" s="571"/>
-      <c r="I2" s="576" t="s">
+      <c r="F2" s="589"/>
+      <c r="G2" s="589"/>
+      <c r="H2" s="590"/>
+      <c r="I2" s="595" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="577"/>
-      <c r="K2" s="580">
+      <c r="J2" s="596"/>
+      <c r="K2" s="599">
         <f>Данные!B17</f>
         <v>26</v>
       </c>
-      <c r="L2" s="581"/>
+      <c r="L2" s="600"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="632"/>
-      <c r="Q2" s="632"/>
+      <c r="P2" s="633"/>
+      <c r="Q2" s="633"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="563"/>
-      <c r="C3" s="564"/>
-      <c r="D3" s="565"/>
-      <c r="E3" s="573" t="s">
+      <c r="B3" s="582"/>
+      <c r="C3" s="583"/>
+      <c r="D3" s="584"/>
+      <c r="E3" s="592" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="574"/>
-      <c r="G3" s="574"/>
-      <c r="H3" s="575"/>
-      <c r="I3" s="578"/>
-      <c r="J3" s="579"/>
-      <c r="K3" s="582"/>
-      <c r="L3" s="583"/>
+      <c r="F3" s="593"/>
+      <c r="G3" s="593"/>
+      <c r="H3" s="594"/>
+      <c r="I3" s="597"/>
+      <c r="J3" s="598"/>
+      <c r="K3" s="601"/>
+      <c r="L3" s="602"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -14304,11 +14600,11 @@
       <c r="R3" s="15"/>
       <c r="S3" s="11"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="566"/>
-      <c r="C4" s="567"/>
-      <c r="D4" s="568"/>
+      <c r="B4" s="585"/>
+      <c r="C4" s="586"/>
+      <c r="D4" s="587"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -14325,24 +14621,24 @@
       <c r="R4" s="15"/>
       <c r="S4" s="11"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="587" t="s">
+      <c r="B5" s="564" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="588"/>
-      <c r="D5" s="548" t="str">
+      <c r="C5" s="565"/>
+      <c r="D5" s="547" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="549"/>
-      <c r="F5" s="549"/>
-      <c r="G5" s="549"/>
-      <c r="H5" s="550"/>
-      <c r="I5" s="589"/>
-      <c r="J5" s="590"/>
-      <c r="K5" s="549"/>
-      <c r="L5" s="550"/>
+      <c r="E5" s="548"/>
+      <c r="F5" s="548"/>
+      <c r="G5" s="548"/>
+      <c r="H5" s="549"/>
+      <c r="I5" s="566"/>
+      <c r="J5" s="567"/>
+      <c r="K5" s="548"/>
+      <c r="L5" s="549"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -14351,24 +14647,24 @@
       <c r="R5" s="15"/>
       <c r="S5" s="11"/>
     </row>
-    <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="587" t="s">
+      <c r="B6" s="564" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="591"/>
-      <c r="D6" s="542" t="str">
+      <c r="C6" s="568"/>
+      <c r="D6" s="541" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
-      <c r="E6" s="592"/>
-      <c r="F6" s="592"/>
-      <c r="G6" s="592"/>
-      <c r="H6" s="593"/>
-      <c r="I6" s="589"/>
-      <c r="J6" s="590"/>
-      <c r="K6" s="549"/>
-      <c r="L6" s="550"/>
+      <c r="E6" s="569"/>
+      <c r="F6" s="569"/>
+      <c r="G6" s="569"/>
+      <c r="H6" s="570"/>
+      <c r="I6" s="566"/>
+      <c r="J6" s="567"/>
+      <c r="K6" s="548"/>
+      <c r="L6" s="549"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -14377,29 +14673,29 @@
       <c r="R6" s="15"/>
       <c r="S6" s="11"/>
     </row>
-    <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="594" t="s">
+      <c r="B7" s="571" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="595"/>
-      <c r="D7" s="551">
+      <c r="C7" s="572"/>
+      <c r="D7" s="550">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="596"/>
-      <c r="F7" s="596"/>
-      <c r="G7" s="596"/>
-      <c r="H7" s="597"/>
-      <c r="I7" s="594" t="s">
+      <c r="E7" s="573"/>
+      <c r="F7" s="573"/>
+      <c r="G7" s="573"/>
+      <c r="H7" s="574"/>
+      <c r="I7" s="571" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="598"/>
-      <c r="K7" s="539">
+      <c r="J7" s="575"/>
+      <c r="K7" s="538">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="540"/>
+      <c r="L7" s="539"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -14408,7 +14704,7 @@
       <c r="R7" s="23"/>
       <c r="S7" s="11"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="25"/>
       <c r="C8" s="26"/>
@@ -14429,7 +14725,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="32"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -14462,7 +14758,7 @@
       <c r="R9" s="337"/>
       <c r="S9" s="38"/>
     </row>
-    <row r="10" spans="1:19" ht="31.2" thickBot="1">
+    <row r="10" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="50" t="s">
         <v>6</v>
@@ -14495,7 +14791,7 @@
       <c r="R10" s="339"/>
       <c r="S10" s="32"/>
     </row>
-    <row r="11" spans="1:19" ht="23.1" customHeight="1">
+    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
       <c r="B11" s="50" t="s">
         <v>2</v>
@@ -14528,7 +14824,7 @@
       <c r="R11" s="339"/>
       <c r="S11" s="32"/>
     </row>
-    <row r="12" spans="1:19" ht="23.1" customHeight="1">
+    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24"/>
       <c r="B12" s="50" t="s">
         <v>3</v>
@@ -14561,7 +14857,7 @@
       <c r="R12" s="339"/>
       <c r="S12" s="32"/>
     </row>
-    <row r="13" spans="1:19" ht="23.1" customHeight="1">
+    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24"/>
       <c r="B13" s="50" t="s">
         <v>7</v>
@@ -14594,7 +14890,7 @@
       <c r="R13" s="339"/>
       <c r="S13" s="32"/>
     </row>
-    <row r="14" spans="1:19" ht="23.1" customHeight="1">
+    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="24"/>
       <c r="B14" s="50" t="s">
         <v>8</v>
@@ -14627,7 +14923,7 @@
       <c r="R14" s="339"/>
       <c r="S14" s="32"/>
     </row>
-    <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1">
+    <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="57" t="s">
         <v>4</v>
@@ -14660,7 +14956,7 @@
       <c r="R15" s="341"/>
       <c r="S15" s="32"/>
     </row>
-    <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
       <c r="B16" s="40"/>
       <c r="C16" s="41"/>
@@ -14681,9 +14977,20 @@
       <c r="R16" s="46"/>
       <c r="S16" s="43"/>
     </row>
-    <row r="17" ht="13.5" customHeight="1" thickTop="1"/>
+    <row r="17" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -14691,17 +14998,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="B2:D4"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -14724,7 +15020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -14737,20 +15033,20 @@
       <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="64" customWidth="1"/>
-    <col min="8" max="18" width="8.88671875" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="64" customWidth="1"/>
+    <col min="8" max="18" width="8.85546875" style="64" customWidth="1"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -14771,62 +15067,62 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="602"/>
-      <c r="C2" s="603"/>
-      <c r="D2" s="604"/>
-      <c r="E2" s="611" t="s">
+      <c r="B2" s="610"/>
+      <c r="C2" s="611"/>
+      <c r="D2" s="612"/>
+      <c r="E2" s="619" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="612"/>
-      <c r="G2" s="612"/>
-      <c r="H2" s="613"/>
-      <c r="I2" s="617" t="s">
+      <c r="F2" s="620"/>
+      <c r="G2" s="620"/>
+      <c r="H2" s="621"/>
+      <c r="I2" s="625" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="618"/>
-      <c r="K2" s="621">
+      <c r="J2" s="626"/>
+      <c r="K2" s="629">
         <f>Данные!B18</f>
         <v>0</v>
       </c>
-      <c r="L2" s="622"/>
-      <c r="M2" s="633"/>
-      <c r="N2" s="634"/>
-      <c r="O2" s="634"/>
-      <c r="P2" s="634"/>
-      <c r="Q2" s="634"/>
-      <c r="R2" s="635"/>
+      <c r="L2" s="630"/>
+      <c r="M2" s="634"/>
+      <c r="N2" s="635"/>
+      <c r="O2" s="635"/>
+      <c r="P2" s="635"/>
+      <c r="Q2" s="635"/>
+      <c r="R2" s="636"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="605"/>
-      <c r="C3" s="606"/>
-      <c r="D3" s="607"/>
-      <c r="E3" s="614" t="s">
+      <c r="B3" s="613"/>
+      <c r="C3" s="614"/>
+      <c r="D3" s="615"/>
+      <c r="E3" s="622" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="615"/>
-      <c r="G3" s="615"/>
-      <c r="H3" s="616"/>
-      <c r="I3" s="619"/>
-      <c r="J3" s="620"/>
-      <c r="K3" s="623"/>
-      <c r="L3" s="624"/>
-      <c r="M3" s="636"/>
-      <c r="N3" s="637"/>
-      <c r="O3" s="637"/>
-      <c r="P3" s="637"/>
-      <c r="Q3" s="637"/>
-      <c r="R3" s="638"/>
+      <c r="F3" s="623"/>
+      <c r="G3" s="623"/>
+      <c r="H3" s="624"/>
+      <c r="I3" s="627"/>
+      <c r="J3" s="628"/>
+      <c r="K3" s="631"/>
+      <c r="L3" s="632"/>
+      <c r="M3" s="637"/>
+      <c r="N3" s="638"/>
+      <c r="O3" s="638"/>
+      <c r="P3" s="638"/>
+      <c r="Q3" s="638"/>
+      <c r="R3" s="639"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="608"/>
-      <c r="C4" s="609"/>
-      <c r="D4" s="610"/>
+      <c r="B4" s="616"/>
+      <c r="C4" s="617"/>
+      <c r="D4" s="618"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -14835,98 +15131,98 @@
       <c r="J4" s="251"/>
       <c r="K4" s="254"/>
       <c r="L4" s="255"/>
-      <c r="M4" s="636"/>
-      <c r="N4" s="637"/>
-      <c r="O4" s="637"/>
-      <c r="P4" s="637"/>
-      <c r="Q4" s="637"/>
-      <c r="R4" s="638"/>
+      <c r="M4" s="637"/>
+      <c r="N4" s="638"/>
+      <c r="O4" s="638"/>
+      <c r="P4" s="638"/>
+      <c r="Q4" s="638"/>
+      <c r="R4" s="639"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="587" t="s">
+      <c r="B5" s="564" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="625"/>
-      <c r="D5" s="548" t="str">
+      <c r="C5" s="603"/>
+      <c r="D5" s="547" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="549"/>
-      <c r="F5" s="549"/>
-      <c r="G5" s="549"/>
-      <c r="H5" s="550"/>
-      <c r="I5" s="626"/>
-      <c r="J5" s="627"/>
-      <c r="K5" s="628"/>
-      <c r="L5" s="550"/>
-      <c r="M5" s="636"/>
-      <c r="N5" s="637"/>
-      <c r="O5" s="637"/>
-      <c r="P5" s="637"/>
-      <c r="Q5" s="637"/>
-      <c r="R5" s="638"/>
+      <c r="E5" s="548"/>
+      <c r="F5" s="548"/>
+      <c r="G5" s="548"/>
+      <c r="H5" s="549"/>
+      <c r="I5" s="604"/>
+      <c r="J5" s="605"/>
+      <c r="K5" s="606"/>
+      <c r="L5" s="549"/>
+      <c r="M5" s="637"/>
+      <c r="N5" s="638"/>
+      <c r="O5" s="638"/>
+      <c r="P5" s="638"/>
+      <c r="Q5" s="638"/>
+      <c r="R5" s="639"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="587" t="s">
+      <c r="B6" s="564" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="625"/>
-      <c r="D6" s="542" t="str">
+      <c r="C6" s="603"/>
+      <c r="D6" s="541" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
-      <c r="E6" s="592"/>
-      <c r="F6" s="592"/>
-      <c r="G6" s="592"/>
-      <c r="H6" s="593"/>
-      <c r="I6" s="626"/>
-      <c r="J6" s="627"/>
-      <c r="K6" s="628"/>
-      <c r="L6" s="550"/>
-      <c r="M6" s="636"/>
-      <c r="N6" s="637"/>
-      <c r="O6" s="637"/>
-      <c r="P6" s="637"/>
-      <c r="Q6" s="637"/>
-      <c r="R6" s="638"/>
+      <c r="E6" s="569"/>
+      <c r="F6" s="569"/>
+      <c r="G6" s="569"/>
+      <c r="H6" s="570"/>
+      <c r="I6" s="604"/>
+      <c r="J6" s="605"/>
+      <c r="K6" s="606"/>
+      <c r="L6" s="549"/>
+      <c r="M6" s="637"/>
+      <c r="N6" s="638"/>
+      <c r="O6" s="638"/>
+      <c r="P6" s="638"/>
+      <c r="Q6" s="638"/>
+      <c r="R6" s="639"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="594" t="s">
+      <c r="B7" s="571" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="629"/>
-      <c r="D7" s="551">
+      <c r="C7" s="607"/>
+      <c r="D7" s="550">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="596"/>
-      <c r="F7" s="596"/>
-      <c r="G7" s="596"/>
-      <c r="H7" s="597"/>
-      <c r="I7" s="630" t="s">
+      <c r="E7" s="573"/>
+      <c r="F7" s="573"/>
+      <c r="G7" s="573"/>
+      <c r="H7" s="574"/>
+      <c r="I7" s="608" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="629"/>
-      <c r="K7" s="539">
+      <c r="J7" s="607"/>
+      <c r="K7" s="538">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="540"/>
-      <c r="M7" s="636"/>
-      <c r="N7" s="637"/>
-      <c r="O7" s="637"/>
-      <c r="P7" s="637"/>
-      <c r="Q7" s="637"/>
-      <c r="R7" s="638"/>
+      <c r="L7" s="539"/>
+      <c r="M7" s="637"/>
+      <c r="N7" s="638"/>
+      <c r="O7" s="638"/>
+      <c r="P7" s="638"/>
+      <c r="Q7" s="638"/>
+      <c r="R7" s="639"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -14947,7 +15243,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="256" t="s">
         <v>17</v>
@@ -14980,7 +15276,7 @@
       <c r="R9" s="89"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="24.15" customHeight="1">
+    <row r="10" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -15013,7 +15309,7 @@
       <c r="R10" s="96"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="24.15" customHeight="1">
+    <row r="11" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="202" t="s">
         <v>26</v>
@@ -15046,7 +15342,7 @@
       <c r="R11" s="100"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="24.15" customHeight="1">
+    <row r="12" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="202" t="s">
         <v>2</v>
@@ -15079,7 +15375,7 @@
       <c r="R12" s="100"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="24.15" customHeight="1">
+    <row r="13" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="202" t="s">
         <v>3</v>
@@ -15112,7 +15408,7 @@
       <c r="R13" s="100"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="24.15" customHeight="1">
+    <row r="14" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="97" t="s">
         <v>27</v>
@@ -15145,7 +15441,7 @@
       <c r="R14" s="100"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="24.15" customHeight="1">
+    <row r="15" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="97" t="s">
         <v>28</v>
@@ -15178,7 +15474,7 @@
       <c r="R15" s="100"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="24.15" customHeight="1">
+    <row r="16" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="97" t="s">
         <v>9</v>
@@ -15211,7 +15507,7 @@
       <c r="R16" s="100"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="24.15" customHeight="1">
+    <row r="17" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="97" t="s">
         <v>29</v>
@@ -15244,7 +15540,7 @@
       <c r="R17" s="100"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="24.15" customHeight="1">
+    <row r="18" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="97" t="s">
         <v>30</v>
@@ -15277,7 +15573,7 @@
       <c r="R18" s="100"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="24.15" customHeight="1">
+    <row r="19" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="97" t="s">
         <v>35</v>
@@ -15310,7 +15606,7 @@
       <c r="R19" s="100"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="24.15" customHeight="1">
+    <row r="20" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="78"/>
       <c r="B20" s="97" t="s">
         <v>39</v>
@@ -15343,14 +15639,14 @@
       <c r="R20" s="108"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="31.2" thickBot="1">
+    <row r="21" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
-      <c r="B21" s="584" t="s">
+      <c r="B21" s="561" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="585"/>
-      <c r="D21" s="585"/>
-      <c r="E21" s="586"/>
+      <c r="C21" s="562"/>
+      <c r="D21" s="562"/>
+      <c r="E21" s="563"/>
       <c r="F21" s="118" t="s">
         <v>16</v>
       </c>
@@ -15370,7 +15666,7 @@
       <c r="R21" s="111"/>
       <c r="S21" s="86"/>
     </row>
-    <row r="22" spans="1:19" ht="6" customHeight="1" thickBot="1">
+    <row r="22" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="112"/>
       <c r="B22" s="113"/>
       <c r="C22" s="113"/>
@@ -15391,18 +15687,11 @@
       <c r="R22" s="115"/>
       <c r="S22" s="116"/>
     </row>
-    <row r="23" spans="1:19" ht="13.5" customHeight="1" thickTop="1">
+    <row r="23" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B23" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="M2:R7"/>
     <mergeCell ref="E2:H2"/>
@@ -15415,6 +15704,13 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-30-4А-700 (Байрон 0.7 л.)/Байрон 0.7 л. от 06.11.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-30-4А-700 (Байрон 0.7 л.)/Байрон 0.7 л. от 06.11.2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\XXI-В-30-4А-700 (Байрон 0.7 л.)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C039F4FB-D499-409C-AA62-7103F2C8BB5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E75398-E4A6-4329-B413-3925BB51C036}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Детали ф-тов" sheetId="17" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="153">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -2208,7 +2208,7 @@
     <xf numFmtId="164" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="658">
+  <cellXfs count="657">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
@@ -3505,9 +3505,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3633,6 +3630,24 @@
     <xf numFmtId="14" fontId="17" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4069,24 +4084,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6655,374 +6652,374 @@
       <c r="J3" s="314"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="526" t="s">
+      <c r="A4" s="531" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="526" t="s">
+      <c r="B4" s="531" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="526"/>
-      <c r="D4" s="526"/>
-      <c r="E4" s="526" t="s">
+      <c r="C4" s="531"/>
+      <c r="D4" s="531"/>
+      <c r="E4" s="531" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="526"/>
-      <c r="G4" s="527" t="s">
+      <c r="F4" s="531"/>
+      <c r="G4" s="532" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="526" t="s">
+      <c r="H4" s="531" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="526"/>
-      <c r="J4" s="526"/>
+      <c r="I4" s="531"/>
+      <c r="J4" s="531"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="526"/>
-      <c r="B5" s="526"/>
-      <c r="C5" s="526"/>
-      <c r="D5" s="526"/>
-      <c r="E5" s="526"/>
-      <c r="F5" s="526"/>
-      <c r="G5" s="527"/>
-      <c r="H5" s="526"/>
-      <c r="I5" s="526"/>
-      <c r="J5" s="526"/>
+      <c r="A5" s="531"/>
+      <c r="B5" s="531"/>
+      <c r="C5" s="531"/>
+      <c r="D5" s="531"/>
+      <c r="E5" s="531"/>
+      <c r="F5" s="531"/>
+      <c r="G5" s="532"/>
+      <c r="H5" s="531"/>
+      <c r="I5" s="531"/>
+      <c r="J5" s="531"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="501">
+      <c r="A6" s="506">
         <v>1</v>
       </c>
-      <c r="B6" s="523" t="s">
+      <c r="B6" s="528" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="524"/>
-      <c r="D6" s="525"/>
-      <c r="E6" s="506"/>
-      <c r="F6" s="507"/>
-      <c r="G6" s="510"/>
-      <c r="H6" s="512"/>
-      <c r="I6" s="513"/>
-      <c r="J6" s="514"/>
+      <c r="C6" s="529"/>
+      <c r="D6" s="530"/>
+      <c r="E6" s="511"/>
+      <c r="F6" s="512"/>
+      <c r="G6" s="515"/>
+      <c r="H6" s="517"/>
+      <c r="I6" s="518"/>
+      <c r="J6" s="519"/>
     </row>
     <row r="7" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="521"/>
-      <c r="B7" s="518"/>
-      <c r="C7" s="519"/>
-      <c r="D7" s="520"/>
-      <c r="E7" s="522"/>
-      <c r="F7" s="509"/>
-      <c r="G7" s="511"/>
-      <c r="H7" s="515"/>
-      <c r="I7" s="516"/>
-      <c r="J7" s="517"/>
+      <c r="A7" s="526"/>
+      <c r="B7" s="523"/>
+      <c r="C7" s="524"/>
+      <c r="D7" s="525"/>
+      <c r="E7" s="527"/>
+      <c r="F7" s="514"/>
+      <c r="G7" s="516"/>
+      <c r="H7" s="520"/>
+      <c r="I7" s="521"/>
+      <c r="J7" s="522"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="501">
+      <c r="A8" s="506">
         <v>1</v>
       </c>
-      <c r="B8" s="503" t="s">
+      <c r="B8" s="508" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="504"/>
-      <c r="D8" s="505"/>
-      <c r="E8" s="506"/>
-      <c r="F8" s="507"/>
-      <c r="G8" s="510"/>
-      <c r="H8" s="512"/>
-      <c r="I8" s="513"/>
-      <c r="J8" s="514"/>
+      <c r="C8" s="509"/>
+      <c r="D8" s="510"/>
+      <c r="E8" s="511"/>
+      <c r="F8" s="512"/>
+      <c r="G8" s="515"/>
+      <c r="H8" s="517"/>
+      <c r="I8" s="518"/>
+      <c r="J8" s="519"/>
     </row>
     <row r="9" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="521"/>
-      <c r="B9" s="518"/>
-      <c r="C9" s="519"/>
-      <c r="D9" s="520"/>
-      <c r="E9" s="522"/>
-      <c r="F9" s="509"/>
-      <c r="G9" s="511"/>
-      <c r="H9" s="515"/>
-      <c r="I9" s="516"/>
-      <c r="J9" s="517"/>
+      <c r="A9" s="526"/>
+      <c r="B9" s="523"/>
+      <c r="C9" s="524"/>
+      <c r="D9" s="525"/>
+      <c r="E9" s="527"/>
+      <c r="F9" s="514"/>
+      <c r="G9" s="516"/>
+      <c r="H9" s="520"/>
+      <c r="I9" s="521"/>
+      <c r="J9" s="522"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="501">
+      <c r="A10" s="506">
         <v>1</v>
       </c>
-      <c r="B10" s="503" t="s">
+      <c r="B10" s="508" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="504"/>
-      <c r="D10" s="505"/>
-      <c r="E10" s="506"/>
-      <c r="F10" s="507"/>
-      <c r="G10" s="510"/>
-      <c r="H10" s="512"/>
-      <c r="I10" s="513"/>
-      <c r="J10" s="514"/>
+      <c r="C10" s="509"/>
+      <c r="D10" s="510"/>
+      <c r="E10" s="511"/>
+      <c r="F10" s="512"/>
+      <c r="G10" s="515"/>
+      <c r="H10" s="517"/>
+      <c r="I10" s="518"/>
+      <c r="J10" s="519"/>
     </row>
     <row r="11" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="521"/>
-      <c r="B11" s="518"/>
-      <c r="C11" s="519"/>
-      <c r="D11" s="520"/>
-      <c r="E11" s="522"/>
-      <c r="F11" s="509"/>
-      <c r="G11" s="511"/>
-      <c r="H11" s="515"/>
-      <c r="I11" s="516"/>
-      <c r="J11" s="517"/>
+      <c r="A11" s="526"/>
+      <c r="B11" s="523"/>
+      <c r="C11" s="524"/>
+      <c r="D11" s="525"/>
+      <c r="E11" s="527"/>
+      <c r="F11" s="514"/>
+      <c r="G11" s="516"/>
+      <c r="H11" s="520"/>
+      <c r="I11" s="521"/>
+      <c r="J11" s="522"/>
     </row>
     <row r="12" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="501">
+      <c r="A12" s="506">
         <v>1</v>
       </c>
-      <c r="B12" s="503" t="s">
+      <c r="B12" s="508" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="504"/>
-      <c r="D12" s="505"/>
-      <c r="E12" s="506"/>
-      <c r="F12" s="507"/>
-      <c r="G12" s="510"/>
-      <c r="H12" s="512"/>
-      <c r="I12" s="513"/>
-      <c r="J12" s="514"/>
+      <c r="C12" s="509"/>
+      <c r="D12" s="510"/>
+      <c r="E12" s="511"/>
+      <c r="F12" s="512"/>
+      <c r="G12" s="515"/>
+      <c r="H12" s="517"/>
+      <c r="I12" s="518"/>
+      <c r="J12" s="519"/>
     </row>
     <row r="13" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="502"/>
-      <c r="B13" s="518"/>
-      <c r="C13" s="519"/>
-      <c r="D13" s="520"/>
-      <c r="E13" s="508"/>
-      <c r="F13" s="509"/>
-      <c r="G13" s="511"/>
-      <c r="H13" s="515"/>
-      <c r="I13" s="516"/>
-      <c r="J13" s="517"/>
+      <c r="A13" s="507"/>
+      <c r="B13" s="523"/>
+      <c r="C13" s="524"/>
+      <c r="D13" s="525"/>
+      <c r="E13" s="513"/>
+      <c r="F13" s="514"/>
+      <c r="G13" s="516"/>
+      <c r="H13" s="520"/>
+      <c r="I13" s="521"/>
+      <c r="J13" s="522"/>
     </row>
     <row r="14" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="501">
+      <c r="A14" s="506">
         <v>1</v>
       </c>
-      <c r="B14" s="503" t="s">
+      <c r="B14" s="508" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="504"/>
-      <c r="D14" s="505"/>
-      <c r="E14" s="506"/>
-      <c r="F14" s="507"/>
-      <c r="G14" s="510"/>
-      <c r="H14" s="512"/>
-      <c r="I14" s="513"/>
-      <c r="J14" s="514"/>
+      <c r="C14" s="509"/>
+      <c r="D14" s="510"/>
+      <c r="E14" s="511"/>
+      <c r="F14" s="512"/>
+      <c r="G14" s="515"/>
+      <c r="H14" s="517"/>
+      <c r="I14" s="518"/>
+      <c r="J14" s="519"/>
     </row>
     <row r="15" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="502"/>
-      <c r="B15" s="518"/>
-      <c r="C15" s="519"/>
-      <c r="D15" s="520"/>
-      <c r="E15" s="508"/>
-      <c r="F15" s="509"/>
-      <c r="G15" s="511"/>
-      <c r="H15" s="515"/>
-      <c r="I15" s="516"/>
-      <c r="J15" s="517"/>
+      <c r="A15" s="507"/>
+      <c r="B15" s="523"/>
+      <c r="C15" s="524"/>
+      <c r="D15" s="525"/>
+      <c r="E15" s="513"/>
+      <c r="F15" s="514"/>
+      <c r="G15" s="516"/>
+      <c r="H15" s="520"/>
+      <c r="I15" s="521"/>
+      <c r="J15" s="522"/>
     </row>
     <row r="16" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="501">
+      <c r="A16" s="506">
         <v>1</v>
       </c>
-      <c r="B16" s="503" t="s">
+      <c r="B16" s="508" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="504"/>
-      <c r="D16" s="505"/>
-      <c r="E16" s="506"/>
-      <c r="F16" s="507"/>
-      <c r="G16" s="510"/>
-      <c r="H16" s="512"/>
-      <c r="I16" s="513"/>
-      <c r="J16" s="514"/>
+      <c r="C16" s="509"/>
+      <c r="D16" s="510"/>
+      <c r="E16" s="511"/>
+      <c r="F16" s="512"/>
+      <c r="G16" s="515"/>
+      <c r="H16" s="517"/>
+      <c r="I16" s="518"/>
+      <c r="J16" s="519"/>
     </row>
     <row r="17" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="502"/>
-      <c r="B17" s="518"/>
-      <c r="C17" s="519"/>
-      <c r="D17" s="520"/>
-      <c r="E17" s="508"/>
-      <c r="F17" s="509"/>
-      <c r="G17" s="511"/>
-      <c r="H17" s="515"/>
-      <c r="I17" s="516"/>
-      <c r="J17" s="517"/>
+      <c r="A17" s="507"/>
+      <c r="B17" s="523"/>
+      <c r="C17" s="524"/>
+      <c r="D17" s="525"/>
+      <c r="E17" s="513"/>
+      <c r="F17" s="514"/>
+      <c r="G17" s="516"/>
+      <c r="H17" s="520"/>
+      <c r="I17" s="521"/>
+      <c r="J17" s="522"/>
     </row>
     <row r="18" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="501">
+      <c r="A18" s="506">
         <v>1</v>
       </c>
-      <c r="B18" s="503" t="s">
+      <c r="B18" s="508" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="504"/>
-      <c r="D18" s="505"/>
-      <c r="E18" s="506"/>
-      <c r="F18" s="507"/>
-      <c r="G18" s="510"/>
-      <c r="H18" s="512"/>
-      <c r="I18" s="513"/>
-      <c r="J18" s="514"/>
+      <c r="C18" s="509"/>
+      <c r="D18" s="510"/>
+      <c r="E18" s="511"/>
+      <c r="F18" s="512"/>
+      <c r="G18" s="515"/>
+      <c r="H18" s="517"/>
+      <c r="I18" s="518"/>
+      <c r="J18" s="519"/>
     </row>
     <row r="19" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="502"/>
-      <c r="B19" s="518"/>
-      <c r="C19" s="519"/>
-      <c r="D19" s="520"/>
-      <c r="E19" s="508"/>
-      <c r="F19" s="509"/>
-      <c r="G19" s="511"/>
-      <c r="H19" s="515"/>
-      <c r="I19" s="516"/>
-      <c r="J19" s="517"/>
+      <c r="A19" s="507"/>
+      <c r="B19" s="523"/>
+      <c r="C19" s="524"/>
+      <c r="D19" s="525"/>
+      <c r="E19" s="513"/>
+      <c r="F19" s="514"/>
+      <c r="G19" s="516"/>
+      <c r="H19" s="520"/>
+      <c r="I19" s="521"/>
+      <c r="J19" s="522"/>
     </row>
     <row r="20" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="501">
+      <c r="A20" s="506">
         <v>1</v>
       </c>
-      <c r="B20" s="503" t="s">
+      <c r="B20" s="508" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="504"/>
-      <c r="D20" s="505"/>
-      <c r="E20" s="506"/>
-      <c r="F20" s="507"/>
-      <c r="G20" s="510"/>
-      <c r="H20" s="512"/>
-      <c r="I20" s="513"/>
-      <c r="J20" s="514"/>
+      <c r="C20" s="509"/>
+      <c r="D20" s="510"/>
+      <c r="E20" s="511"/>
+      <c r="F20" s="512"/>
+      <c r="G20" s="515"/>
+      <c r="H20" s="517"/>
+      <c r="I20" s="518"/>
+      <c r="J20" s="519"/>
     </row>
     <row r="21" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="502"/>
-      <c r="B21" s="518"/>
-      <c r="C21" s="519"/>
-      <c r="D21" s="520"/>
-      <c r="E21" s="508"/>
-      <c r="F21" s="509"/>
-      <c r="G21" s="511"/>
-      <c r="H21" s="515"/>
-      <c r="I21" s="516"/>
-      <c r="J21" s="517"/>
+      <c r="A21" s="507"/>
+      <c r="B21" s="523"/>
+      <c r="C21" s="524"/>
+      <c r="D21" s="525"/>
+      <c r="E21" s="513"/>
+      <c r="F21" s="514"/>
+      <c r="G21" s="516"/>
+      <c r="H21" s="520"/>
+      <c r="I21" s="521"/>
+      <c r="J21" s="522"/>
     </row>
     <row r="22" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="501">
+      <c r="A22" s="506">
         <v>1</v>
       </c>
-      <c r="B22" s="503" t="s">
+      <c r="B22" s="508" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="504"/>
-      <c r="D22" s="505"/>
-      <c r="E22" s="506"/>
-      <c r="F22" s="507"/>
-      <c r="G22" s="510"/>
-      <c r="H22" s="512"/>
-      <c r="I22" s="513"/>
-      <c r="J22" s="514"/>
+      <c r="C22" s="509"/>
+      <c r="D22" s="510"/>
+      <c r="E22" s="511"/>
+      <c r="F22" s="512"/>
+      <c r="G22" s="515"/>
+      <c r="H22" s="517"/>
+      <c r="I22" s="518"/>
+      <c r="J22" s="519"/>
     </row>
     <row r="23" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="502"/>
-      <c r="B23" s="518"/>
-      <c r="C23" s="519"/>
-      <c r="D23" s="520"/>
-      <c r="E23" s="508"/>
-      <c r="F23" s="509"/>
-      <c r="G23" s="511"/>
-      <c r="H23" s="515"/>
-      <c r="I23" s="516"/>
-      <c r="J23" s="517"/>
+      <c r="A23" s="507"/>
+      <c r="B23" s="523"/>
+      <c r="C23" s="524"/>
+      <c r="D23" s="525"/>
+      <c r="E23" s="513"/>
+      <c r="F23" s="514"/>
+      <c r="G23" s="516"/>
+      <c r="H23" s="520"/>
+      <c r="I23" s="521"/>
+      <c r="J23" s="522"/>
     </row>
     <row r="24" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="501">
+      <c r="A24" s="506">
         <v>1</v>
       </c>
-      <c r="B24" s="503" t="s">
+      <c r="B24" s="508" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="504"/>
-      <c r="D24" s="505"/>
-      <c r="E24" s="506"/>
-      <c r="F24" s="507"/>
-      <c r="G24" s="510"/>
-      <c r="H24" s="512"/>
-      <c r="I24" s="513"/>
-      <c r="J24" s="514"/>
+      <c r="C24" s="509"/>
+      <c r="D24" s="510"/>
+      <c r="E24" s="511"/>
+      <c r="F24" s="512"/>
+      <c r="G24" s="515"/>
+      <c r="H24" s="517"/>
+      <c r="I24" s="518"/>
+      <c r="J24" s="519"/>
     </row>
     <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="502"/>
-      <c r="B25" s="518"/>
-      <c r="C25" s="519"/>
-      <c r="D25" s="520"/>
-      <c r="E25" s="508"/>
-      <c r="F25" s="509"/>
-      <c r="G25" s="511"/>
-      <c r="H25" s="515"/>
-      <c r="I25" s="516"/>
-      <c r="J25" s="517"/>
+      <c r="A25" s="507"/>
+      <c r="B25" s="523"/>
+      <c r="C25" s="524"/>
+      <c r="D25" s="525"/>
+      <c r="E25" s="513"/>
+      <c r="F25" s="514"/>
+      <c r="G25" s="516"/>
+      <c r="H25" s="520"/>
+      <c r="I25" s="521"/>
+      <c r="J25" s="522"/>
     </row>
     <row r="26" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="501">
+      <c r="A26" s="506">
         <v>1</v>
       </c>
-      <c r="B26" s="503" t="s">
+      <c r="B26" s="508" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="504"/>
-      <c r="D26" s="505"/>
-      <c r="E26" s="506"/>
-      <c r="F26" s="507"/>
-      <c r="G26" s="510"/>
-      <c r="H26" s="512"/>
-      <c r="I26" s="513"/>
-      <c r="J26" s="514"/>
+      <c r="C26" s="509"/>
+      <c r="D26" s="510"/>
+      <c r="E26" s="511"/>
+      <c r="F26" s="512"/>
+      <c r="G26" s="515"/>
+      <c r="H26" s="517"/>
+      <c r="I26" s="518"/>
+      <c r="J26" s="519"/>
     </row>
     <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="502"/>
-      <c r="B27" s="518"/>
-      <c r="C27" s="519"/>
-      <c r="D27" s="520"/>
-      <c r="E27" s="508"/>
-      <c r="F27" s="509"/>
-      <c r="G27" s="511"/>
-      <c r="H27" s="515"/>
-      <c r="I27" s="516"/>
-      <c r="J27" s="517"/>
+      <c r="A27" s="507"/>
+      <c r="B27" s="523"/>
+      <c r="C27" s="524"/>
+      <c r="D27" s="525"/>
+      <c r="E27" s="513"/>
+      <c r="F27" s="514"/>
+      <c r="G27" s="516"/>
+      <c r="H27" s="520"/>
+      <c r="I27" s="521"/>
+      <c r="J27" s="522"/>
     </row>
     <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="501">
+      <c r="A28" s="506">
         <v>1</v>
       </c>
-      <c r="B28" s="503" t="s">
+      <c r="B28" s="508" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="504"/>
-      <c r="D28" s="505"/>
-      <c r="E28" s="506"/>
-      <c r="F28" s="507"/>
-      <c r="G28" s="510"/>
-      <c r="H28" s="512"/>
-      <c r="I28" s="513"/>
-      <c r="J28" s="514"/>
+      <c r="C28" s="509"/>
+      <c r="D28" s="510"/>
+      <c r="E28" s="511"/>
+      <c r="F28" s="512"/>
+      <c r="G28" s="515"/>
+      <c r="H28" s="517"/>
+      <c r="I28" s="518"/>
+      <c r="J28" s="519"/>
     </row>
     <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="502"/>
-      <c r="B29" s="518"/>
-      <c r="C29" s="519"/>
-      <c r="D29" s="520"/>
-      <c r="E29" s="508"/>
-      <c r="F29" s="509"/>
-      <c r="G29" s="511"/>
-      <c r="H29" s="515"/>
-      <c r="I29" s="516"/>
-      <c r="J29" s="517"/>
+      <c r="A29" s="507"/>
+      <c r="B29" s="523"/>
+      <c r="C29" s="524"/>
+      <c r="D29" s="525"/>
+      <c r="E29" s="513"/>
+      <c r="F29" s="514"/>
+      <c r="G29" s="516"/>
+      <c r="H29" s="520"/>
+      <c r="I29" s="521"/>
+      <c r="J29" s="522"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="313"/>
@@ -7036,90 +7033,90 @@
       <c r="I30" s="313"/>
       <c r="J30" s="314"/>
     </row>
-    <row r="31" spans="1:10" s="482" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="480"/>
-      <c r="B31" s="480"/>
-      <c r="C31" s="480"/>
-      <c r="D31" s="480"/>
-      <c r="E31" s="480"/>
-      <c r="F31" s="480"/>
-      <c r="G31" s="480"/>
-      <c r="H31" s="480"/>
-      <c r="I31" s="480"/>
-      <c r="J31" s="481"/>
-    </row>
-    <row r="32" spans="1:10" s="482" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="480"/>
-      <c r="B32" s="480"/>
-      <c r="C32" s="480"/>
-      <c r="D32" s="483"/>
-      <c r="E32" s="483"/>
-      <c r="F32" s="483"/>
-      <c r="G32" s="483"/>
-      <c r="H32" s="483"/>
-      <c r="I32" s="480"/>
-      <c r="J32" s="481"/>
-    </row>
-    <row r="33" spans="1:10" s="482" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="480"/>
-      <c r="B33" s="484"/>
-      <c r="C33" s="480"/>
-      <c r="D33" s="480"/>
-      <c r="E33" s="480"/>
-      <c r="F33" s="480"/>
-      <c r="G33" s="480"/>
-      <c r="H33" s="480"/>
-      <c r="I33" s="480"/>
-      <c r="J33" s="481"/>
-    </row>
-    <row r="34" spans="1:10" s="482" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="480"/>
-      <c r="B34" s="480"/>
-      <c r="C34" s="480"/>
-      <c r="D34" s="480"/>
-      <c r="E34" s="480"/>
-      <c r="F34" s="480"/>
-      <c r="G34" s="480"/>
-      <c r="H34" s="480"/>
-      <c r="I34" s="480"/>
-      <c r="J34" s="481"/>
-    </row>
-    <row r="35" spans="1:10" s="482" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="480"/>
-      <c r="B35" s="480"/>
-      <c r="C35" s="480"/>
-      <c r="D35" s="480"/>
-      <c r="E35" s="480"/>
-      <c r="G35" s="480"/>
-      <c r="H35" s="480"/>
-      <c r="I35" s="480"/>
-      <c r="J35" s="480"/>
-    </row>
-    <row r="36" spans="1:10" s="482" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="480"/>
-      <c r="B36" s="480"/>
-      <c r="C36" s="480"/>
-      <c r="D36" s="480"/>
-      <c r="E36" s="480"/>
-      <c r="G36" s="480"/>
-      <c r="H36" s="480"/>
-      <c r="I36" s="480"/>
-      <c r="J36" s="480"/>
-    </row>
-    <row r="37" spans="1:10" s="482" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="480"/>
-      <c r="B37" s="480"/>
-      <c r="C37" s="480"/>
-      <c r="D37" s="480"/>
-      <c r="E37" s="480"/>
-      <c r="I37" s="480"/>
-    </row>
-    <row r="38" spans="1:10" s="482" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38" s="485"/>
-      <c r="B38" s="485"/>
-      <c r="C38" s="485"/>
-      <c r="D38" s="485"/>
-      <c r="E38" s="485"/>
+    <row r="31" spans="1:10" s="481" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="479"/>
+      <c r="B31" s="479"/>
+      <c r="C31" s="479"/>
+      <c r="D31" s="479"/>
+      <c r="E31" s="479"/>
+      <c r="F31" s="479"/>
+      <c r="G31" s="479"/>
+      <c r="H31" s="479"/>
+      <c r="I31" s="479"/>
+      <c r="J31" s="480"/>
+    </row>
+    <row r="32" spans="1:10" s="481" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="479"/>
+      <c r="B32" s="479"/>
+      <c r="C32" s="479"/>
+      <c r="D32" s="482"/>
+      <c r="E32" s="482"/>
+      <c r="F32" s="482"/>
+      <c r="G32" s="482"/>
+      <c r="H32" s="482"/>
+      <c r="I32" s="479"/>
+      <c r="J32" s="480"/>
+    </row>
+    <row r="33" spans="1:10" s="481" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="479"/>
+      <c r="B33" s="483"/>
+      <c r="C33" s="479"/>
+      <c r="D33" s="479"/>
+      <c r="E33" s="479"/>
+      <c r="F33" s="479"/>
+      <c r="G33" s="479"/>
+      <c r="H33" s="479"/>
+      <c r="I33" s="479"/>
+      <c r="J33" s="480"/>
+    </row>
+    <row r="34" spans="1:10" s="481" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="479"/>
+      <c r="B34" s="479"/>
+      <c r="C34" s="479"/>
+      <c r="D34" s="479"/>
+      <c r="E34" s="479"/>
+      <c r="F34" s="479"/>
+      <c r="G34" s="479"/>
+      <c r="H34" s="479"/>
+      <c r="I34" s="479"/>
+      <c r="J34" s="480"/>
+    </row>
+    <row r="35" spans="1:10" s="481" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="479"/>
+      <c r="B35" s="479"/>
+      <c r="C35" s="479"/>
+      <c r="D35" s="479"/>
+      <c r="E35" s="479"/>
+      <c r="G35" s="479"/>
+      <c r="H35" s="479"/>
+      <c r="I35" s="479"/>
+      <c r="J35" s="479"/>
+    </row>
+    <row r="36" spans="1:10" s="481" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="479"/>
+      <c r="B36" s="479"/>
+      <c r="C36" s="479"/>
+      <c r="D36" s="479"/>
+      <c r="E36" s="479"/>
+      <c r="G36" s="479"/>
+      <c r="H36" s="479"/>
+      <c r="I36" s="479"/>
+      <c r="J36" s="479"/>
+    </row>
+    <row r="37" spans="1:10" s="481" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="479"/>
+      <c r="B37" s="479"/>
+      <c r="C37" s="479"/>
+      <c r="D37" s="479"/>
+      <c r="E37" s="479"/>
+      <c r="I37" s="479"/>
+    </row>
+    <row r="38" spans="1:10" s="481" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A38" s="484"/>
+      <c r="B38" s="484"/>
+      <c r="C38" s="484"/>
+      <c r="D38" s="484"/>
+      <c r="E38" s="484"/>
     </row>
     <row r="39" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="310"/>
@@ -7267,47 +7264,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="610"/>
-      <c r="C2" s="611"/>
-      <c r="D2" s="612"/>
-      <c r="E2" s="619" t="s">
+      <c r="B2" s="615"/>
+      <c r="C2" s="616"/>
+      <c r="D2" s="617"/>
+      <c r="E2" s="624" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="620"/>
-      <c r="G2" s="620"/>
-      <c r="H2" s="621"/>
-      <c r="I2" s="625" t="s">
+      <c r="F2" s="625"/>
+      <c r="G2" s="625"/>
+      <c r="H2" s="626"/>
+      <c r="I2" s="630" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="626"/>
-      <c r="K2" s="629">
+      <c r="J2" s="631"/>
+      <c r="K2" s="634">
         <f>Данные!B19</f>
         <v>0</v>
       </c>
-      <c r="L2" s="630"/>
+      <c r="L2" s="635"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="640"/>
-      <c r="Q2" s="640"/>
+      <c r="P2" s="645"/>
+      <c r="Q2" s="645"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="613"/>
-      <c r="C3" s="614"/>
-      <c r="D3" s="615"/>
-      <c r="E3" s="622" t="s">
+      <c r="B3" s="618"/>
+      <c r="C3" s="619"/>
+      <c r="D3" s="620"/>
+      <c r="E3" s="627" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="623"/>
-      <c r="G3" s="623"/>
-      <c r="H3" s="624"/>
-      <c r="I3" s="627"/>
-      <c r="J3" s="628"/>
-      <c r="K3" s="631"/>
-      <c r="L3" s="632"/>
+      <c r="F3" s="628"/>
+      <c r="G3" s="628"/>
+      <c r="H3" s="629"/>
+      <c r="I3" s="632"/>
+      <c r="J3" s="633"/>
+      <c r="K3" s="636"/>
+      <c r="L3" s="637"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -7318,9 +7315,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="616"/>
-      <c r="C4" s="617"/>
-      <c r="D4" s="618"/>
+      <c r="B4" s="621"/>
+      <c r="C4" s="622"/>
+      <c r="D4" s="623"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -7339,22 +7336,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="564" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="603"/>
-      <c r="D5" s="547" t="str">
+      <c r="C5" s="608"/>
+      <c r="D5" s="552" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="548"/>
-      <c r="F5" s="548"/>
-      <c r="G5" s="548"/>
-      <c r="H5" s="549"/>
-      <c r="I5" s="604"/>
-      <c r="J5" s="605"/>
-      <c r="K5" s="606"/>
-      <c r="L5" s="549"/>
+      <c r="E5" s="553"/>
+      <c r="F5" s="553"/>
+      <c r="G5" s="553"/>
+      <c r="H5" s="554"/>
+      <c r="I5" s="609"/>
+      <c r="J5" s="610"/>
+      <c r="K5" s="611"/>
+      <c r="L5" s="554"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -7365,22 +7362,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="564" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="603"/>
-      <c r="D6" s="541" t="str">
+      <c r="C6" s="608"/>
+      <c r="D6" s="546" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
-      <c r="E6" s="569"/>
-      <c r="F6" s="569"/>
-      <c r="G6" s="569"/>
-      <c r="H6" s="570"/>
-      <c r="I6" s="604"/>
-      <c r="J6" s="605"/>
-      <c r="K6" s="606"/>
-      <c r="L6" s="549"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="609"/>
+      <c r="J6" s="610"/>
+      <c r="K6" s="611"/>
+      <c r="L6" s="554"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -7391,27 +7388,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="571" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="607"/>
-      <c r="D7" s="550">
+      <c r="C7" s="612"/>
+      <c r="D7" s="555">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="573"/>
-      <c r="F7" s="573"/>
-      <c r="G7" s="573"/>
-      <c r="H7" s="574"/>
-      <c r="I7" s="608" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="613" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="607"/>
-      <c r="K7" s="538">
+      <c r="J7" s="612"/>
+      <c r="K7" s="543">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="539"/>
+      <c r="L7" s="544"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -7674,12 +7671,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="561" t="s">
+      <c r="B16" s="566" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="562"/>
-      <c r="D16" s="562"/>
-      <c r="E16" s="563"/>
+      <c r="C16" s="567"/>
+      <c r="D16" s="567"/>
+      <c r="E16" s="568"/>
       <c r="F16" s="261" t="s">
         <v>16</v>
       </c>
@@ -7811,47 +7808,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="172"/>
-      <c r="B2" s="610"/>
-      <c r="C2" s="611"/>
-      <c r="D2" s="612"/>
-      <c r="E2" s="619" t="s">
+      <c r="B2" s="615"/>
+      <c r="C2" s="616"/>
+      <c r="D2" s="617"/>
+      <c r="E2" s="624" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="620"/>
-      <c r="G2" s="620"/>
-      <c r="H2" s="621"/>
-      <c r="I2" s="625" t="s">
+      <c r="F2" s="625"/>
+      <c r="G2" s="625"/>
+      <c r="H2" s="626"/>
+      <c r="I2" s="630" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="626"/>
-      <c r="K2" s="629">
+      <c r="J2" s="631"/>
+      <c r="K2" s="634">
         <f>Данные!B20</f>
         <v>0</v>
       </c>
-      <c r="L2" s="630"/>
+      <c r="L2" s="635"/>
       <c r="M2" s="173"/>
       <c r="N2" s="174"/>
       <c r="O2" s="175"/>
-      <c r="P2" s="641"/>
-      <c r="Q2" s="641"/>
+      <c r="P2" s="646"/>
+      <c r="Q2" s="646"/>
       <c r="R2" s="176"/>
       <c r="S2" s="177"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="172"/>
-      <c r="B3" s="613"/>
-      <c r="C3" s="614"/>
-      <c r="D3" s="615"/>
-      <c r="E3" s="622" t="s">
+      <c r="B3" s="618"/>
+      <c r="C3" s="619"/>
+      <c r="D3" s="620"/>
+      <c r="E3" s="627" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="623"/>
-      <c r="G3" s="623"/>
-      <c r="H3" s="624"/>
-      <c r="I3" s="627"/>
-      <c r="J3" s="628"/>
-      <c r="K3" s="631"/>
-      <c r="L3" s="632"/>
+      <c r="F3" s="628"/>
+      <c r="G3" s="628"/>
+      <c r="H3" s="629"/>
+      <c r="I3" s="632"/>
+      <c r="J3" s="633"/>
+      <c r="K3" s="636"/>
+      <c r="L3" s="637"/>
       <c r="M3" s="178"/>
       <c r="N3" s="179"/>
       <c r="O3" s="179"/>
@@ -7862,9 +7859,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="172"/>
-      <c r="B4" s="616"/>
-      <c r="C4" s="617"/>
-      <c r="D4" s="618"/>
+      <c r="B4" s="621"/>
+      <c r="C4" s="622"/>
+      <c r="D4" s="623"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -7883,22 +7880,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="172"/>
-      <c r="B5" s="564" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="603"/>
-      <c r="D5" s="547" t="str">
+      <c r="C5" s="608"/>
+      <c r="D5" s="552" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="548"/>
-      <c r="F5" s="548"/>
-      <c r="G5" s="548"/>
-      <c r="H5" s="549"/>
-      <c r="I5" s="604"/>
-      <c r="J5" s="605"/>
-      <c r="K5" s="606"/>
-      <c r="L5" s="549"/>
+      <c r="E5" s="553"/>
+      <c r="F5" s="553"/>
+      <c r="G5" s="553"/>
+      <c r="H5" s="554"/>
+      <c r="I5" s="609"/>
+      <c r="J5" s="610"/>
+      <c r="K5" s="611"/>
+      <c r="L5" s="554"/>
       <c r="M5" s="181"/>
       <c r="N5" s="179"/>
       <c r="O5" s="179"/>
@@ -7909,22 +7906,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="172"/>
-      <c r="B6" s="564" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="603"/>
-      <c r="D6" s="541" t="str">
+      <c r="C6" s="608"/>
+      <c r="D6" s="546" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
-      <c r="E6" s="569"/>
-      <c r="F6" s="569"/>
-      <c r="G6" s="569"/>
-      <c r="H6" s="570"/>
-      <c r="I6" s="604"/>
-      <c r="J6" s="605"/>
-      <c r="K6" s="606"/>
-      <c r="L6" s="549"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="609"/>
+      <c r="J6" s="610"/>
+      <c r="K6" s="611"/>
+      <c r="L6" s="554"/>
       <c r="M6" s="178"/>
       <c r="N6" s="179"/>
       <c r="O6" s="179"/>
@@ -7935,27 +7932,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="172"/>
-      <c r="B7" s="571" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="607"/>
-      <c r="D7" s="550">
+      <c r="C7" s="612"/>
+      <c r="D7" s="555">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="573"/>
-      <c r="F7" s="573"/>
-      <c r="G7" s="573"/>
-      <c r="H7" s="574"/>
-      <c r="I7" s="608" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="613" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="607"/>
-      <c r="K7" s="538">
+      <c r="J7" s="612"/>
+      <c r="K7" s="543">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="539"/>
+      <c r="L7" s="544"/>
       <c r="M7" s="181"/>
       <c r="N7" s="179"/>
       <c r="O7" s="179"/>
@@ -8424,47 +8421,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="211"/>
-      <c r="B2" s="610"/>
-      <c r="C2" s="611"/>
-      <c r="D2" s="612"/>
-      <c r="E2" s="619" t="s">
+      <c r="B2" s="615"/>
+      <c r="C2" s="616"/>
+      <c r="D2" s="617"/>
+      <c r="E2" s="624" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="620"/>
-      <c r="G2" s="620"/>
-      <c r="H2" s="621"/>
-      <c r="I2" s="625" t="s">
+      <c r="F2" s="625"/>
+      <c r="G2" s="625"/>
+      <c r="H2" s="626"/>
+      <c r="I2" s="630" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="626"/>
-      <c r="K2" s="629">
+      <c r="J2" s="631"/>
+      <c r="K2" s="634">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="L2" s="630"/>
+      <c r="L2" s="635"/>
       <c r="M2" s="212"/>
       <c r="N2" s="213"/>
       <c r="O2" s="214"/>
-      <c r="P2" s="645"/>
-      <c r="Q2" s="645"/>
+      <c r="P2" s="650"/>
+      <c r="Q2" s="650"/>
       <c r="R2" s="215"/>
       <c r="S2" s="216"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="211"/>
-      <c r="B3" s="613"/>
-      <c r="C3" s="614"/>
-      <c r="D3" s="615"/>
-      <c r="E3" s="622" t="s">
+      <c r="B3" s="618"/>
+      <c r="C3" s="619"/>
+      <c r="D3" s="620"/>
+      <c r="E3" s="627" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="623"/>
-      <c r="G3" s="623"/>
-      <c r="H3" s="624"/>
-      <c r="I3" s="627"/>
-      <c r="J3" s="628"/>
-      <c r="K3" s="631"/>
-      <c r="L3" s="632"/>
+      <c r="F3" s="628"/>
+      <c r="G3" s="628"/>
+      <c r="H3" s="629"/>
+      <c r="I3" s="632"/>
+      <c r="J3" s="633"/>
+      <c r="K3" s="636"/>
+      <c r="L3" s="637"/>
       <c r="M3" s="217"/>
       <c r="N3" s="218"/>
       <c r="O3" s="218"/>
@@ -8475,9 +8472,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="211"/>
-      <c r="B4" s="616"/>
-      <c r="C4" s="617"/>
-      <c r="D4" s="618"/>
+      <c r="B4" s="621"/>
+      <c r="C4" s="622"/>
+      <c r="D4" s="623"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -8496,22 +8493,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="211"/>
-      <c r="B5" s="564" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="603"/>
-      <c r="D5" s="547" t="str">
+      <c r="C5" s="608"/>
+      <c r="D5" s="552" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="548"/>
-      <c r="F5" s="548"/>
-      <c r="G5" s="548"/>
-      <c r="H5" s="549"/>
-      <c r="I5" s="604"/>
-      <c r="J5" s="605"/>
-      <c r="K5" s="606"/>
-      <c r="L5" s="549"/>
+      <c r="E5" s="553"/>
+      <c r="F5" s="553"/>
+      <c r="G5" s="553"/>
+      <c r="H5" s="554"/>
+      <c r="I5" s="609"/>
+      <c r="J5" s="610"/>
+      <c r="K5" s="611"/>
+      <c r="L5" s="554"/>
       <c r="M5" s="220"/>
       <c r="N5" s="218"/>
       <c r="O5" s="218"/>
@@ -8522,22 +8519,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="211"/>
-      <c r="B6" s="564" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="603"/>
-      <c r="D6" s="541" t="str">
+      <c r="C6" s="608"/>
+      <c r="D6" s="546" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
-      <c r="E6" s="569"/>
-      <c r="F6" s="569"/>
-      <c r="G6" s="569"/>
-      <c r="H6" s="570"/>
-      <c r="I6" s="604"/>
-      <c r="J6" s="605"/>
-      <c r="K6" s="606"/>
-      <c r="L6" s="549"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="609"/>
+      <c r="J6" s="610"/>
+      <c r="K6" s="611"/>
+      <c r="L6" s="554"/>
       <c r="M6" s="217"/>
       <c r="N6" s="218"/>
       <c r="O6" s="218"/>
@@ -8548,27 +8545,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="211"/>
-      <c r="B7" s="571" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="607"/>
-      <c r="D7" s="550">
+      <c r="C7" s="612"/>
+      <c r="D7" s="555">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="573"/>
-      <c r="F7" s="573"/>
-      <c r="G7" s="573"/>
-      <c r="H7" s="574"/>
-      <c r="I7" s="608" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="613" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="607"/>
-      <c r="K7" s="538">
+      <c r="J7" s="612"/>
+      <c r="K7" s="543">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="539"/>
+      <c r="L7" s="544"/>
       <c r="M7" s="220"/>
       <c r="N7" s="218"/>
       <c r="O7" s="218"/>
@@ -8897,12 +8894,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="221"/>
-      <c r="B18" s="642" t="s">
+      <c r="B18" s="647" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="643"/>
-      <c r="D18" s="643"/>
-      <c r="E18" s="644"/>
+      <c r="C18" s="648"/>
+      <c r="D18" s="648"/>
+      <c r="E18" s="649"/>
       <c r="F18" s="118" t="s">
         <v>16</v>
       </c>
@@ -9050,47 +9047,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="135"/>
-      <c r="B2" s="610"/>
-      <c r="C2" s="611"/>
-      <c r="D2" s="612"/>
-      <c r="E2" s="619" t="s">
+      <c r="B2" s="615"/>
+      <c r="C2" s="616"/>
+      <c r="D2" s="617"/>
+      <c r="E2" s="624" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="620"/>
-      <c r="G2" s="620"/>
-      <c r="H2" s="621"/>
-      <c r="I2" s="625" t="s">
+      <c r="F2" s="625"/>
+      <c r="G2" s="625"/>
+      <c r="H2" s="626"/>
+      <c r="I2" s="630" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="626"/>
-      <c r="K2" s="629">
+      <c r="J2" s="631"/>
+      <c r="K2" s="634">
         <f>Данные!B25</f>
         <v>18</v>
       </c>
-      <c r="L2" s="630"/>
+      <c r="L2" s="635"/>
       <c r="M2" s="136"/>
       <c r="N2" s="137"/>
       <c r="O2" s="138"/>
-      <c r="P2" s="646"/>
-      <c r="Q2" s="646"/>
+      <c r="P2" s="651"/>
+      <c r="Q2" s="651"/>
       <c r="R2" s="139"/>
       <c r="S2" s="140"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="135"/>
-      <c r="B3" s="613"/>
-      <c r="C3" s="614"/>
-      <c r="D3" s="615"/>
-      <c r="E3" s="622" t="s">
+      <c r="B3" s="618"/>
+      <c r="C3" s="619"/>
+      <c r="D3" s="620"/>
+      <c r="E3" s="627" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="623"/>
-      <c r="G3" s="623"/>
-      <c r="H3" s="624"/>
-      <c r="I3" s="627"/>
-      <c r="J3" s="628"/>
-      <c r="K3" s="631"/>
-      <c r="L3" s="632"/>
+      <c r="F3" s="628"/>
+      <c r="G3" s="628"/>
+      <c r="H3" s="629"/>
+      <c r="I3" s="632"/>
+      <c r="J3" s="633"/>
+      <c r="K3" s="636"/>
+      <c r="L3" s="637"/>
       <c r="M3" s="141"/>
       <c r="N3" s="142"/>
       <c r="O3" s="142"/>
@@ -9101,9 +9098,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="135"/>
-      <c r="B4" s="616"/>
-      <c r="C4" s="617"/>
-      <c r="D4" s="618"/>
+      <c r="B4" s="621"/>
+      <c r="C4" s="622"/>
+      <c r="D4" s="623"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -9122,22 +9119,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="135"/>
-      <c r="B5" s="564" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="603"/>
-      <c r="D5" s="547" t="str">
+      <c r="C5" s="608"/>
+      <c r="D5" s="552" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="548"/>
-      <c r="F5" s="548"/>
-      <c r="G5" s="548"/>
-      <c r="H5" s="549"/>
-      <c r="I5" s="604"/>
-      <c r="J5" s="605"/>
-      <c r="K5" s="606"/>
-      <c r="L5" s="549"/>
+      <c r="E5" s="553"/>
+      <c r="F5" s="553"/>
+      <c r="G5" s="553"/>
+      <c r="H5" s="554"/>
+      <c r="I5" s="609"/>
+      <c r="J5" s="610"/>
+      <c r="K5" s="611"/>
+      <c r="L5" s="554"/>
       <c r="M5" s="144"/>
       <c r="N5" s="142"/>
       <c r="O5" s="142"/>
@@ -9148,22 +9145,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="135"/>
-      <c r="B6" s="564" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="603"/>
-      <c r="D6" s="541" t="str">
+      <c r="C6" s="608"/>
+      <c r="D6" s="546" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
-      <c r="E6" s="569"/>
-      <c r="F6" s="569"/>
-      <c r="G6" s="569"/>
-      <c r="H6" s="570"/>
-      <c r="I6" s="604"/>
-      <c r="J6" s="605"/>
-      <c r="K6" s="606"/>
-      <c r="L6" s="549"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="609"/>
+      <c r="J6" s="610"/>
+      <c r="K6" s="611"/>
+      <c r="L6" s="554"/>
       <c r="M6" s="141"/>
       <c r="N6" s="142"/>
       <c r="O6" s="142"/>
@@ -9174,27 +9171,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="135"/>
-      <c r="B7" s="571" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="607"/>
-      <c r="D7" s="550">
+      <c r="C7" s="612"/>
+      <c r="D7" s="555">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="573"/>
-      <c r="F7" s="573"/>
-      <c r="G7" s="573"/>
-      <c r="H7" s="574"/>
-      <c r="I7" s="608" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="613" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="607"/>
-      <c r="K7" s="538">
+      <c r="J7" s="612"/>
+      <c r="K7" s="543">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="539"/>
+      <c r="L7" s="544"/>
       <c r="M7" s="144"/>
       <c r="N7" s="142"/>
       <c r="O7" s="142"/>
@@ -9658,47 +9655,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="268"/>
-      <c r="B2" s="610"/>
-      <c r="C2" s="611"/>
-      <c r="D2" s="612"/>
-      <c r="E2" s="619" t="s">
+      <c r="B2" s="615"/>
+      <c r="C2" s="616"/>
+      <c r="D2" s="617"/>
+      <c r="E2" s="624" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="620"/>
-      <c r="G2" s="620"/>
-      <c r="H2" s="621"/>
-      <c r="I2" s="625" t="s">
+      <c r="F2" s="625"/>
+      <c r="G2" s="625"/>
+      <c r="H2" s="626"/>
+      <c r="I2" s="630" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="626"/>
-      <c r="K2" s="648">
+      <c r="J2" s="631"/>
+      <c r="K2" s="653">
         <f>Данные!B23</f>
         <v>18</v>
       </c>
-      <c r="L2" s="649"/>
+      <c r="L2" s="654"/>
       <c r="M2" s="269"/>
       <c r="N2" s="270"/>
       <c r="O2" s="271"/>
-      <c r="P2" s="647"/>
-      <c r="Q2" s="647"/>
+      <c r="P2" s="652"/>
+      <c r="Q2" s="652"/>
       <c r="R2" s="272"/>
       <c r="S2" s="273"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="268"/>
-      <c r="B3" s="613"/>
-      <c r="C3" s="614"/>
-      <c r="D3" s="615"/>
-      <c r="E3" s="622" t="s">
+      <c r="B3" s="618"/>
+      <c r="C3" s="619"/>
+      <c r="D3" s="620"/>
+      <c r="E3" s="627" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="623"/>
-      <c r="G3" s="623"/>
-      <c r="H3" s="624"/>
-      <c r="I3" s="627"/>
-      <c r="J3" s="628"/>
-      <c r="K3" s="650"/>
-      <c r="L3" s="651"/>
+      <c r="F3" s="628"/>
+      <c r="G3" s="628"/>
+      <c r="H3" s="629"/>
+      <c r="I3" s="632"/>
+      <c r="J3" s="633"/>
+      <c r="K3" s="655"/>
+      <c r="L3" s="656"/>
       <c r="M3" s="274"/>
       <c r="N3" s="275"/>
       <c r="O3" s="275"/>
@@ -9709,9 +9706,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="268"/>
-      <c r="B4" s="616"/>
-      <c r="C4" s="617"/>
-      <c r="D4" s="618"/>
+      <c r="B4" s="621"/>
+      <c r="C4" s="622"/>
+      <c r="D4" s="623"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -9730,22 +9727,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="268"/>
-      <c r="B5" s="564" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="603"/>
-      <c r="D5" s="547" t="str">
+      <c r="C5" s="608"/>
+      <c r="D5" s="552" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="548"/>
-      <c r="F5" s="548"/>
-      <c r="G5" s="548"/>
-      <c r="H5" s="549"/>
-      <c r="I5" s="604"/>
-      <c r="J5" s="605"/>
-      <c r="K5" s="606"/>
-      <c r="L5" s="549"/>
+      <c r="E5" s="553"/>
+      <c r="F5" s="553"/>
+      <c r="G5" s="553"/>
+      <c r="H5" s="554"/>
+      <c r="I5" s="609"/>
+      <c r="J5" s="610"/>
+      <c r="K5" s="611"/>
+      <c r="L5" s="554"/>
       <c r="M5" s="277"/>
       <c r="N5" s="275"/>
       <c r="O5" s="275"/>
@@ -9756,22 +9753,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="268"/>
-      <c r="B6" s="564" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="603"/>
-      <c r="D6" s="541" t="str">
+      <c r="C6" s="608"/>
+      <c r="D6" s="546" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
-      <c r="E6" s="569"/>
-      <c r="F6" s="569"/>
-      <c r="G6" s="569"/>
-      <c r="H6" s="570"/>
-      <c r="I6" s="604"/>
-      <c r="J6" s="605"/>
-      <c r="K6" s="606"/>
-      <c r="L6" s="549"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="609"/>
+      <c r="J6" s="610"/>
+      <c r="K6" s="611"/>
+      <c r="L6" s="554"/>
       <c r="M6" s="274"/>
       <c r="N6" s="275"/>
       <c r="O6" s="275"/>
@@ -9782,27 +9779,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="268"/>
-      <c r="B7" s="571" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="607"/>
-      <c r="D7" s="550">
+      <c r="C7" s="612"/>
+      <c r="D7" s="555">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="573"/>
-      <c r="F7" s="573"/>
-      <c r="G7" s="573"/>
-      <c r="H7" s="574"/>
-      <c r="I7" s="608" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="613" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="607"/>
-      <c r="K7" s="538">
+      <c r="J7" s="612"/>
+      <c r="K7" s="543">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="539"/>
+      <c r="L7" s="544"/>
       <c r="M7" s="277"/>
       <c r="N7" s="275"/>
       <c r="O7" s="275"/>
@@ -10075,6 +10072,10 @@
     <row r="17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
@@ -10089,10 +10090,6 @@
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -10121,8 +10118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10143,11 +10140,11 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="392"/>
-      <c r="B1" s="488" t="s">
+      <c r="B1" s="487" t="s">
         <v>132</v>
       </c>
       <c r="C1" s="392"/>
-      <c r="D1" s="489" t="str">
+      <c r="D1" s="488" t="str">
         <f>Данные!A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
@@ -10177,21 +10174,21 @@
       <c r="L2" s="393"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="497" t="s">
+      <c r="B3" s="496" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="498">
+      <c r="C3" s="497">
         <f>Данные!D11</f>
         <v>43775</v>
       </c>
-      <c r="D3" s="496" t="s">
+      <c r="D3" s="495" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="496"/>
-      <c r="F3" s="496"/>
-      <c r="G3" s="496"/>
-      <c r="H3" s="496"/>
-      <c r="I3" s="496"/>
+      <c r="E3" s="495"/>
+      <c r="F3" s="495"/>
+      <c r="G3" s="495"/>
+      <c r="H3" s="495"/>
+      <c r="I3" s="495"/>
       <c r="K3" s="394"/>
       <c r="L3" s="394"/>
       <c r="M3" s="395"/>
@@ -10218,7 +10215,7 @@
       <c r="C5" s="400" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="486" t="s">
+      <c r="D5" s="485" t="s">
         <v>111</v>
       </c>
       <c r="E5" s="400" t="s">
@@ -10242,7 +10239,7 @@
       <c r="A6" s="403">
         <v>1</v>
       </c>
-      <c r="B6" s="476" t="str">
+      <c r="B6" s="475" t="str">
         <f>Данные!A14</f>
         <v>Чистовая форма</v>
       </c>
@@ -10504,7 +10501,7 @@
         <f>Данные!$B22</f>
         <v>нет</v>
       </c>
-      <c r="E14" s="495" t="s">
+      <c r="E14" s="494" t="s">
         <v>91</v>
       </c>
       <c r="F14" s="391"/>
@@ -10587,11 +10584,11 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B17" s="477" t="str">
+      <c r="B17" s="476" t="str">
         <f>Данные!A25</f>
         <v>Дутьевая головка</v>
       </c>
-      <c r="C17" s="479" t="str">
+      <c r="C17" s="478" t="str">
         <f>Данные!C25</f>
         <v>XXI-В-30-4А-700</v>
       </c>
@@ -10615,9 +10612,9 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="422"/>
-      <c r="B18" s="478"/>
+      <c r="B18" s="477"/>
       <c r="C18" s="395"/>
-      <c r="D18" s="487"/>
+      <c r="D18" s="486"/>
       <c r="E18" s="395"/>
       <c r="F18" s="395"/>
       <c r="G18" s="395"/>
@@ -10683,10 +10680,10 @@
       <c r="B21" s="429">
         <v>43791</v>
       </c>
-      <c r="C21" s="500">
+      <c r="C21" s="499">
         <v>43794</v>
       </c>
-      <c r="D21" s="500">
+      <c r="D21" s="499">
         <v>43795</v>
       </c>
       <c r="E21" s="430">
@@ -10707,7 +10704,7 @@
         <f>1-G21</f>
         <v>0.96611980519480523</v>
       </c>
-      <c r="J21" s="652"/>
+      <c r="J21" s="500"/>
       <c r="K21" s="413"/>
       <c r="L21" s="413"/>
     </row>
@@ -10740,7 +10737,7 @@
         <f>I21-G22</f>
         <v>0.93930000000000002</v>
       </c>
-      <c r="J22" s="652">
+      <c r="J22" s="500">
         <v>557</v>
       </c>
       <c r="K22" s="395"/>
@@ -10748,15 +10745,36 @@
     </row>
     <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="440"/>
-      <c r="B23" s="441"/>
-      <c r="C23" s="441"/>
-      <c r="D23" s="441"/>
-      <c r="E23" s="442"/>
-      <c r="F23" s="442"/>
-      <c r="G23" s="443"/>
-      <c r="H23" s="444"/>
-      <c r="I23" s="445"/>
-      <c r="J23" s="653"/>
+      <c r="B23" s="441">
+        <v>44267</v>
+      </c>
+      <c r="C23" s="441">
+        <v>44269</v>
+      </c>
+      <c r="D23" s="441">
+        <v>44287</v>
+      </c>
+      <c r="E23" s="442">
+        <v>372060</v>
+      </c>
+      <c r="F23" s="442">
+        <v>409389</v>
+      </c>
+      <c r="G23" s="431">
+        <f>F23/A$21</f>
+        <v>2.6583701298701298E-2</v>
+      </c>
+      <c r="H23" s="438">
+        <f>H22-F23</f>
+        <v>14055831</v>
+      </c>
+      <c r="I23" s="439">
+        <f>I22-G23</f>
+        <v>0.91271629870129878</v>
+      </c>
+      <c r="J23" s="501">
+        <v>558</v>
+      </c>
       <c r="K23" s="413"/>
       <c r="L23" s="413"/>
     </row>
@@ -10769,8 +10787,8 @@
       <c r="F24" s="387"/>
       <c r="G24" s="387"/>
       <c r="H24" s="387"/>
-      <c r="I24" s="446"/>
-      <c r="J24" s="654"/>
+      <c r="I24" s="445"/>
+      <c r="J24" s="502"/>
       <c r="K24" s="434"/>
       <c r="L24" s="395"/>
     </row>
@@ -10781,11 +10799,11 @@
       <c r="D25" s="441"/>
       <c r="E25" s="442"/>
       <c r="F25" s="442"/>
-      <c r="G25" s="447"/>
-      <c r="H25" s="444"/>
-      <c r="I25" s="445"/>
-      <c r="J25" s="653"/>
-      <c r="K25" s="448"/>
+      <c r="G25" s="446"/>
+      <c r="H25" s="443"/>
+      <c r="I25" s="444"/>
+      <c r="J25" s="501"/>
+      <c r="K25" s="447"/>
       <c r="L25" s="395"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -10795,10 +10813,10 @@
       <c r="D26" s="441"/>
       <c r="E26" s="442"/>
       <c r="F26" s="442"/>
-      <c r="G26" s="447"/>
-      <c r="H26" s="444"/>
-      <c r="I26" s="445"/>
-      <c r="J26" s="653"/>
+      <c r="G26" s="446"/>
+      <c r="H26" s="443"/>
+      <c r="I26" s="444"/>
+      <c r="J26" s="501"/>
       <c r="K26" s="434"/>
       <c r="L26" s="395"/>
     </row>
@@ -10807,12 +10825,12 @@
       <c r="B27" s="441"/>
       <c r="C27" s="441"/>
       <c r="D27" s="441"/>
-      <c r="E27" s="444"/>
+      <c r="E27" s="443"/>
       <c r="F27" s="442"/>
-      <c r="G27" s="447"/>
-      <c r="H27" s="444"/>
-      <c r="I27" s="445"/>
-      <c r="J27" s="653"/>
+      <c r="G27" s="446"/>
+      <c r="H27" s="443"/>
+      <c r="I27" s="444"/>
+      <c r="J27" s="501"/>
       <c r="K27" s="434"/>
       <c r="L27" s="395"/>
     </row>
@@ -10821,12 +10839,12 @@
       <c r="B28" s="441"/>
       <c r="C28" s="441"/>
       <c r="D28" s="441"/>
-      <c r="E28" s="444"/>
+      <c r="E28" s="443"/>
       <c r="F28" s="442"/>
-      <c r="G28" s="447"/>
-      <c r="H28" s="444"/>
-      <c r="I28" s="445"/>
-      <c r="J28" s="653"/>
+      <c r="G28" s="446"/>
+      <c r="H28" s="443"/>
+      <c r="I28" s="444"/>
+      <c r="J28" s="501"/>
       <c r="K28" s="434"/>
       <c r="L28" s="395"/>
     </row>
@@ -10837,10 +10855,10 @@
       <c r="D29" s="387"/>
       <c r="E29" s="387"/>
       <c r="F29" s="442"/>
-      <c r="G29" s="449"/>
-      <c r="H29" s="444"/>
-      <c r="I29" s="450"/>
-      <c r="J29" s="655"/>
+      <c r="G29" s="448"/>
+      <c r="H29" s="443"/>
+      <c r="I29" s="449"/>
+      <c r="J29" s="503"/>
       <c r="K29" s="434"/>
       <c r="L29" s="395"/>
     </row>
@@ -10851,57 +10869,57 @@
       <c r="D30" s="387"/>
       <c r="E30" s="387"/>
       <c r="F30" s="442"/>
-      <c r="G30" s="447"/>
-      <c r="H30" s="444"/>
-      <c r="I30" s="450"/>
-      <c r="J30" s="655"/>
+      <c r="G30" s="446"/>
+      <c r="H30" s="443"/>
+      <c r="I30" s="449"/>
+      <c r="J30" s="503"/>
       <c r="K30" s="434"/>
       <c r="L30" s="395"/>
     </row>
     <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="451"/>
-      <c r="B31" s="452"/>
-      <c r="C31" s="452"/>
-      <c r="D31" s="453"/>
-      <c r="E31" s="453"/>
-      <c r="F31" s="454"/>
-      <c r="G31" s="455"/>
-      <c r="H31" s="456"/>
-      <c r="I31" s="457"/>
-      <c r="J31" s="656"/>
+      <c r="A31" s="450"/>
+      <c r="B31" s="451"/>
+      <c r="C31" s="451"/>
+      <c r="D31" s="452"/>
+      <c r="E31" s="452"/>
+      <c r="F31" s="453"/>
+      <c r="G31" s="454"/>
+      <c r="H31" s="455"/>
+      <c r="I31" s="456"/>
+      <c r="J31" s="504"/>
       <c r="K31" s="395"/>
       <c r="L31" s="395"/>
     </row>
     <row r="32" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="458" t="s">
+      <c r="A32" s="457" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="459"/>
-      <c r="C32" s="459"/>
-      <c r="D32" s="460"/>
-      <c r="E32" s="461">
+      <c r="B32" s="458"/>
+      <c r="C32" s="458"/>
+      <c r="D32" s="459"/>
+      <c r="E32" s="460">
         <f>SUM(E21:E31)</f>
-        <v>850590</v>
-      </c>
-      <c r="F32" s="462">
+        <v>1222650</v>
+      </c>
+      <c r="F32" s="461">
         <f>SUM(F21:F31)</f>
-        <v>934780</v>
-      </c>
-      <c r="G32" s="463">
+        <v>1344169</v>
+      </c>
+      <c r="G32" s="462">
         <f>SUM(G21:G31)</f>
-        <v>6.0699999999999997E-2</v>
-      </c>
-      <c r="H32" s="464">
+        <v>8.7283701298701291E-2</v>
+      </c>
+      <c r="H32" s="463">
         <f>A21-F32</f>
-        <v>14465220</v>
-      </c>
-      <c r="I32" s="465">
+        <v>14055831</v>
+      </c>
+      <c r="I32" s="464">
         <f>1-G32</f>
-        <v>0.93930000000000002</v>
-      </c>
-      <c r="J32" s="657"/>
-      <c r="K32" s="466"/>
-      <c r="L32" s="466"/>
+        <v>0.91271629870129867</v>
+      </c>
+      <c r="J32" s="505"/>
+      <c r="K32" s="465"/>
+      <c r="L32" s="465"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="395"/>
@@ -10916,12 +10934,12 @@
       <c r="J35" s="395"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="530" t="s">
+      <c r="A36" s="535" t="s">
         <v>127</v>
       </c>
-      <c r="B36" s="530"/>
-      <c r="C36" s="530"/>
-      <c r="D36" s="530"/>
+      <c r="B36" s="535"/>
+      <c r="C36" s="535"/>
+      <c r="D36" s="535"/>
       <c r="E36" s="395"/>
       <c r="F36" s="395"/>
       <c r="G36" s="395"/>
@@ -10930,14 +10948,14 @@
       <c r="J36" s="395"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="531" t="s">
+      <c r="A37" s="536" t="s">
         <v>128</v>
       </c>
-      <c r="B37" s="531"/>
-      <c r="C37" s="467" t="s">
+      <c r="B37" s="536"/>
+      <c r="C37" s="466" t="s">
         <v>129</v>
       </c>
-      <c r="D37" s="467" t="s">
+      <c r="D37" s="466" t="s">
         <v>130</v>
       </c>
       <c r="E37" s="395"/>
@@ -10948,27 +10966,27 @@
       <c r="J37" s="395"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="528">
+      <c r="A38" s="533">
         <f>A21-F32</f>
-        <v>14465220</v>
-      </c>
-      <c r="B38" s="529"/>
-      <c r="C38" s="468">
+        <v>14055831</v>
+      </c>
+      <c r="B38" s="534"/>
+      <c r="C38" s="467">
         <f>1-G32</f>
-        <v>0.93930000000000002</v>
-      </c>
-      <c r="D38" s="469">
+        <v>0.91271629870129867</v>
+      </c>
+      <c r="D38" s="468">
         <f>(C38/0.8)*100</f>
-        <v>117.41249999999998</v>
-      </c>
-      <c r="E38" s="470" t="s">
+        <v>114.08953733766232</v>
+      </c>
+      <c r="E38" s="469" t="s">
         <v>131</v>
       </c>
-      <c r="F38" s="470"/>
-      <c r="G38" s="470"/>
-      <c r="H38" s="470"/>
-      <c r="I38" s="470"/>
-      <c r="J38" s="470"/>
+      <c r="F38" s="469"/>
+      <c r="G38" s="469"/>
+      <c r="H38" s="469"/>
+      <c r="I38" s="469"/>
+      <c r="J38" s="469"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="395"/>
@@ -10995,8 +11013,8 @@
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="395"/>
-      <c r="B41" s="471"/>
-      <c r="C41" s="471"/>
+      <c r="B41" s="470"/>
+      <c r="C41" s="470"/>
       <c r="D41" s="395"/>
       <c r="E41" s="395"/>
       <c r="F41" s="395"/>
@@ -11006,113 +11024,113 @@
       <c r="J41" s="395"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="472"/>
-      <c r="B42" s="472"/>
-      <c r="C42" s="472"/>
-      <c r="D42" s="472"/>
-      <c r="E42" s="472"/>
-      <c r="F42" s="472"/>
-      <c r="G42" s="472"/>
-      <c r="H42" s="472"/>
-      <c r="I42" s="532"/>
-      <c r="J42" s="533"/>
+      <c r="A42" s="471"/>
+      <c r="B42" s="471"/>
+      <c r="C42" s="471"/>
+      <c r="D42" s="471"/>
+      <c r="E42" s="471"/>
+      <c r="F42" s="471"/>
+      <c r="G42" s="471"/>
+      <c r="H42" s="471"/>
+      <c r="I42" s="537"/>
+      <c r="J42" s="538"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="473"/>
-      <c r="B43" s="474"/>
-      <c r="C43" s="474"/>
+      <c r="A43" s="472"/>
+      <c r="B43" s="473"/>
+      <c r="C43" s="473"/>
       <c r="D43" s="395"/>
       <c r="E43" s="395"/>
-      <c r="F43" s="474"/>
+      <c r="F43" s="473"/>
       <c r="G43" s="421"/>
-      <c r="H43" s="474"/>
+      <c r="H43" s="473"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="473"/>
-      <c r="B44" s="474"/>
-      <c r="C44" s="474"/>
-      <c r="D44" s="474"/>
-      <c r="E44" s="474"/>
-      <c r="F44" s="474"/>
+      <c r="A44" s="472"/>
+      <c r="B44" s="473"/>
+      <c r="C44" s="473"/>
+      <c r="D44" s="473"/>
+      <c r="E44" s="473"/>
+      <c r="F44" s="473"/>
       <c r="G44" s="421"/>
-      <c r="H44" s="474"/>
+      <c r="H44" s="473"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="473"/>
-      <c r="B45" s="474"/>
-      <c r="C45" s="474"/>
+      <c r="A45" s="472"/>
+      <c r="B45" s="473"/>
+      <c r="C45" s="473"/>
       <c r="D45" s="395"/>
       <c r="E45" s="395"/>
-      <c r="F45" s="474"/>
+      <c r="F45" s="473"/>
       <c r="G45" s="421"/>
-      <c r="H45" s="474"/>
+      <c r="H45" s="473"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="473"/>
-      <c r="B46" s="474"/>
-      <c r="C46" s="474"/>
-      <c r="D46" s="474"/>
-      <c r="E46" s="474"/>
-      <c r="F46" s="474"/>
+      <c r="A46" s="472"/>
+      <c r="B46" s="473"/>
+      <c r="C46" s="473"/>
+      <c r="D46" s="473"/>
+      <c r="E46" s="473"/>
+      <c r="F46" s="473"/>
       <c r="G46" s="421"/>
-      <c r="H46" s="474"/>
+      <c r="H46" s="473"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="473"/>
-      <c r="B47" s="474"/>
-      <c r="C47" s="474"/>
+      <c r="A47" s="472"/>
+      <c r="B47" s="473"/>
+      <c r="C47" s="473"/>
       <c r="D47" s="395"/>
       <c r="E47" s="395"/>
-      <c r="F47" s="474"/>
+      <c r="F47" s="473"/>
       <c r="G47" s="421"/>
-      <c r="H47" s="474"/>
+      <c r="H47" s="473"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="473"/>
-      <c r="B48" s="474"/>
+      <c r="A48" s="472"/>
+      <c r="B48" s="473"/>
       <c r="C48" s="413"/>
-      <c r="D48" s="475"/>
-      <c r="E48" s="475"/>
+      <c r="D48" s="474"/>
+      <c r="E48" s="474"/>
       <c r="F48" s="413"/>
       <c r="G48" s="413"/>
       <c r="H48" s="413"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="473"/>
-      <c r="B49" s="474"/>
-      <c r="C49" s="474"/>
-      <c r="D49" s="474"/>
-      <c r="E49" s="474"/>
-      <c r="F49" s="474"/>
+      <c r="A49" s="472"/>
+      <c r="B49" s="473"/>
+      <c r="C49" s="473"/>
+      <c r="D49" s="473"/>
+      <c r="E49" s="473"/>
+      <c r="F49" s="473"/>
       <c r="G49" s="421"/>
-      <c r="H49" s="474"/>
+      <c r="H49" s="473"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="473"/>
-      <c r="B50" s="474"/>
-      <c r="C50" s="474"/>
-      <c r="D50" s="474"/>
-      <c r="E50" s="474"/>
-      <c r="F50" s="474"/>
+      <c r="A50" s="472"/>
+      <c r="B50" s="473"/>
+      <c r="C50" s="473"/>
+      <c r="D50" s="473"/>
+      <c r="E50" s="473"/>
+      <c r="F50" s="473"/>
       <c r="G50" s="421"/>
-      <c r="H50" s="474"/>
+      <c r="H50" s="473"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="473"/>
-      <c r="B51" s="474"/>
-      <c r="C51" s="474"/>
+      <c r="A51" s="472"/>
+      <c r="B51" s="473"/>
+      <c r="C51" s="473"/>
       <c r="D51" s="395"/>
       <c r="E51" s="395"/>
-      <c r="F51" s="474"/>
+      <c r="F51" s="473"/>
       <c r="G51" s="421"/>
-      <c r="H51" s="474"/>
+      <c r="H51" s="473"/>
     </row>
     <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="395"/>
-      <c r="B52" s="534"/>
-      <c r="C52" s="534"/>
-      <c r="D52" s="535"/>
-      <c r="E52" s="470"/>
+      <c r="B52" s="539"/>
+      <c r="C52" s="539"/>
+      <c r="D52" s="540"/>
+      <c r="E52" s="469"/>
       <c r="F52" s="395"/>
       <c r="G52" s="395"/>
       <c r="H52" s="395"/>
@@ -11120,31 +11138,31 @@
       <c r="J52" s="395"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="472"/>
-      <c r="B53" s="472"/>
-      <c r="C53" s="472"/>
-      <c r="D53" s="472"/>
-      <c r="E53" s="472"/>
-      <c r="F53" s="472"/>
-      <c r="G53" s="472"/>
-      <c r="H53" s="472"/>
-      <c r="I53" s="532"/>
-      <c r="J53" s="533"/>
+      <c r="A53" s="471"/>
+      <c r="B53" s="471"/>
+      <c r="C53" s="471"/>
+      <c r="D53" s="471"/>
+      <c r="E53" s="471"/>
+      <c r="F53" s="471"/>
+      <c r="G53" s="471"/>
+      <c r="H53" s="471"/>
+      <c r="I53" s="537"/>
+      <c r="J53" s="538"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="473"/>
+      <c r="A54" s="472"/>
       <c r="B54" s="395"/>
       <c r="C54" s="395"/>
       <c r="D54" s="395"/>
       <c r="E54" s="395"/>
       <c r="F54" s="421"/>
       <c r="G54" s="421"/>
-      <c r="H54" s="474"/>
-      <c r="I54" s="536"/>
-      <c r="J54" s="536"/>
+      <c r="H54" s="473"/>
+      <c r="I54" s="541"/>
+      <c r="J54" s="541"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="473"/>
+      <c r="A55" s="472"/>
       <c r="B55" s="395"/>
       <c r="C55" s="395"/>
       <c r="D55" s="413"/>
@@ -11152,8 +11170,8 @@
       <c r="F55" s="413"/>
       <c r="G55" s="413"/>
       <c r="H55" s="413"/>
-      <c r="I55" s="536"/>
-      <c r="J55" s="536"/>
+      <c r="I55" s="541"/>
+      <c r="J55" s="541"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="395"/>
@@ -11166,12 +11184,12 @@
       <c r="H56" s="395"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="532"/>
-      <c r="C61" s="533"/>
+      <c r="B61" s="537"/>
+      <c r="C61" s="538"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="532"/>
-      <c r="C68" s="533"/>
+      <c r="B68" s="537"/>
+      <c r="C68" s="538"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -11194,10 +11212,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:B20"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11209,25 +11227,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="540" t="s">
+      <c r="A1" s="545" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="544"/>
-      <c r="C1" s="544"/>
-      <c r="D1" s="544"/>
-      <c r="E1" s="544"/>
+      <c r="B1" s="549"/>
+      <c r="C1" s="549"/>
+      <c r="D1" s="549"/>
+      <c r="E1" s="549"/>
       <c r="G1" s="373" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="541" t="s">
+      <c r="A2" s="546" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="542"/>
-      <c r="C2" s="542"/>
-      <c r="D2" s="542"/>
-      <c r="E2" s="543"/>
+      <c r="B2" s="547"/>
+      <c r="C2" s="547"/>
+      <c r="D2" s="547"/>
+      <c r="E2" s="548"/>
       <c r="G2" s="372" t="s">
         <v>78</v>
       </c>
@@ -11238,45 +11256,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="545" t="s">
+      <c r="A4" s="550" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="546"/>
-      <c r="C4" s="546"/>
-      <c r="D4" s="546"/>
-      <c r="E4" s="546"/>
+      <c r="B4" s="551"/>
+      <c r="C4" s="551"/>
+      <c r="D4" s="551"/>
+      <c r="E4" s="551"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="547" t="s">
+      <c r="A5" s="552" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="548"/>
-      <c r="C5" s="548"/>
-      <c r="D5" s="548"/>
-      <c r="E5" s="549"/>
+      <c r="B5" s="553"/>
+      <c r="C5" s="553"/>
+      <c r="D5" s="553"/>
+      <c r="E5" s="554"/>
     </row>
     <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="540" t="s">
+      <c r="A7" s="545" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="544"/>
-      <c r="C7" s="544"/>
-      <c r="D7" s="544"/>
-      <c r="E7" s="544"/>
+      <c r="B7" s="549"/>
+      <c r="C7" s="549"/>
+      <c r="D7" s="549"/>
+      <c r="E7" s="549"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="550"/>
-      <c r="B8" s="551"/>
-      <c r="C8" s="551"/>
-      <c r="D8" s="551"/>
-      <c r="E8" s="552"/>
+      <c r="A8" s="555"/>
+      <c r="B8" s="556"/>
+      <c r="C8" s="556"/>
+      <c r="D8" s="556"/>
+      <c r="E8" s="557"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="540" t="s">
+      <c r="A10" s="545" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="540"/>
+      <c r="B10" s="545"/>
       <c r="C10" s="374"/>
       <c r="D10" s="382" t="s">
         <v>92</v>
@@ -11287,33 +11305,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="538"/>
-      <c r="B11" s="539"/>
+      <c r="A11" s="543"/>
+      <c r="B11" s="544"/>
       <c r="D11" s="381">
         <v>43775</v>
       </c>
-      <c r="F11" s="553" t="s">
+      <c r="F11" s="558" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="553"/>
-      <c r="H11" s="553"/>
-      <c r="I11" s="553"/>
-      <c r="J11" s="554" t="s">
+      <c r="G11" s="558"/>
+      <c r="H11" s="558"/>
+      <c r="I11" s="558"/>
+      <c r="J11" s="559" t="s">
         <v>97</v>
       </c>
-      <c r="K11" s="554"/>
+      <c r="K11" s="559"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F12" s="553" t="s">
+      <c r="F12" s="558" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="553"/>
-      <c r="H12" s="553"/>
-      <c r="I12" s="553"/>
-      <c r="J12" s="554" t="s">
+      <c r="G12" s="558"/>
+      <c r="H12" s="558"/>
+      <c r="I12" s="558"/>
+      <c r="J12" s="559" t="s">
         <v>98</v>
       </c>
-      <c r="K12" s="554"/>
+      <c r="K12" s="559"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="375" t="s">
@@ -11325,16 +11343,16 @@
       <c r="C13" s="386" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="553" t="s">
+      <c r="F13" s="558" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="553"/>
-      <c r="H13" s="553"/>
-      <c r="I13" s="553"/>
-      <c r="J13" s="554" t="s">
+      <c r="G13" s="558"/>
+      <c r="H13" s="558"/>
+      <c r="I13" s="558"/>
+      <c r="J13" s="559" t="s">
         <v>99</v>
       </c>
-      <c r="K13" s="554"/>
+      <c r="K13" s="559"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="377" t="s">
@@ -11480,15 +11498,20 @@
       <c r="A28" s="383"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="537" t="s">
+      <c r="A29" s="542" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="537"/>
-      <c r="C29" s="537"/>
+      <c r="B29" s="542"/>
+      <c r="C29" s="542"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="373" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -11518,7 +11541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:K57"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A17" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A32" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H24" sqref="H24:J25"/>
     </sheetView>
   </sheetViews>
@@ -11585,47 +11608,47 @@
       <c r="J8" s="319"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="556" t="s">
+      <c r="A11" s="561" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="556"/>
-      <c r="C11" s="556"/>
-      <c r="D11" s="556"/>
-      <c r="E11" s="556"/>
-      <c r="F11" s="556"/>
-      <c r="G11" s="556"/>
-      <c r="H11" s="556"/>
-      <c r="I11" s="556"/>
-      <c r="J11" s="556"/>
+      <c r="B11" s="561"/>
+      <c r="C11" s="561"/>
+      <c r="D11" s="561"/>
+      <c r="E11" s="561"/>
+      <c r="F11" s="561"/>
+      <c r="G11" s="561"/>
+      <c r="H11" s="561"/>
+      <c r="I11" s="561"/>
+      <c r="J11" s="561"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="555" t="s">
+      <c r="A12" s="560" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="555"/>
-      <c r="C12" s="555"/>
-      <c r="D12" s="555"/>
-      <c r="E12" s="555"/>
-      <c r="F12" s="555"/>
-      <c r="G12" s="555"/>
-      <c r="H12" s="555"/>
-      <c r="I12" s="555"/>
-      <c r="J12" s="555"/>
+      <c r="B12" s="560"/>
+      <c r="C12" s="560"/>
+      <c r="D12" s="560"/>
+      <c r="E12" s="560"/>
+      <c r="F12" s="560"/>
+      <c r="G12" s="560"/>
+      <c r="H12" s="560"/>
+      <c r="I12" s="560"/>
+      <c r="J12" s="560"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="557" t="str">
+      <c r="A13" s="562" t="str">
         <f>Данные!A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
-      <c r="B13" s="556"/>
-      <c r="C13" s="556"/>
-      <c r="D13" s="556"/>
-      <c r="E13" s="556"/>
-      <c r="F13" s="556"/>
-      <c r="G13" s="556"/>
-      <c r="H13" s="556"/>
-      <c r="I13" s="556"/>
-      <c r="J13" s="556"/>
+      <c r="B13" s="561"/>
+      <c r="C13" s="561"/>
+      <c r="D13" s="561"/>
+      <c r="E13" s="561"/>
+      <c r="F13" s="561"/>
+      <c r="G13" s="561"/>
+      <c r="H13" s="561"/>
+      <c r="I13" s="561"/>
+      <c r="J13" s="561"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="313" t="s">
@@ -11750,491 +11773,491 @@
       <c r="J21" s="314"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="526" t="s">
+      <c r="A22" s="531" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="526" t="s">
+      <c r="B22" s="531" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="526"/>
-      <c r="D22" s="526"/>
-      <c r="E22" s="526" t="s">
+      <c r="C22" s="531"/>
+      <c r="D22" s="531"/>
+      <c r="E22" s="531" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="526"/>
-      <c r="G22" s="527" t="s">
+      <c r="F22" s="531"/>
+      <c r="G22" s="532" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="526" t="s">
+      <c r="H22" s="531" t="s">
         <v>68</v>
       </c>
-      <c r="I22" s="526"/>
-      <c r="J22" s="526"/>
+      <c r="I22" s="531"/>
+      <c r="J22" s="531"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="526"/>
-      <c r="B23" s="526"/>
-      <c r="C23" s="526"/>
-      <c r="D23" s="526"/>
-      <c r="E23" s="526"/>
-      <c r="F23" s="526"/>
-      <c r="G23" s="527"/>
-      <c r="H23" s="526"/>
-      <c r="I23" s="526"/>
-      <c r="J23" s="526"/>
+      <c r="A23" s="531"/>
+      <c r="B23" s="531"/>
+      <c r="C23" s="531"/>
+      <c r="D23" s="531"/>
+      <c r="E23" s="531"/>
+      <c r="F23" s="531"/>
+      <c r="G23" s="532"/>
+      <c r="H23" s="531"/>
+      <c r="I23" s="531"/>
+      <c r="J23" s="531"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="501">
+      <c r="A24" s="506">
         <v>1</v>
       </c>
-      <c r="B24" s="503" t="s">
+      <c r="B24" s="508" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="504"/>
-      <c r="D24" s="505"/>
-      <c r="E24" s="506" t="str">
+      <c r="C24" s="509"/>
+      <c r="D24" s="510"/>
+      <c r="E24" s="511" t="str">
         <f>Данные!C14</f>
         <v>XXI-В-30-4А-700</v>
       </c>
-      <c r="F24" s="507"/>
-      <c r="G24" s="510">
+      <c r="F24" s="512"/>
+      <c r="G24" s="515">
         <f>Данные!B14</f>
         <v>22</v>
       </c>
-      <c r="H24" s="512" t="s">
+      <c r="H24" s="517" t="s">
         <v>151</v>
       </c>
-      <c r="I24" s="513"/>
-      <c r="J24" s="514"/>
+      <c r="I24" s="518"/>
+      <c r="J24" s="519"/>
     </row>
     <row r="25" spans="1:10" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="521"/>
-      <c r="B25" s="558" t="str">
+      <c r="A25" s="526"/>
+      <c r="B25" s="563" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C25" s="559"/>
-      <c r="D25" s="560"/>
-      <c r="E25" s="522"/>
-      <c r="F25" s="509"/>
-      <c r="G25" s="511"/>
-      <c r="H25" s="515"/>
-      <c r="I25" s="516"/>
-      <c r="J25" s="517"/>
+      <c r="C25" s="564"/>
+      <c r="D25" s="565"/>
+      <c r="E25" s="527"/>
+      <c r="F25" s="514"/>
+      <c r="G25" s="516"/>
+      <c r="H25" s="520"/>
+      <c r="I25" s="521"/>
+      <c r="J25" s="522"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="501">
+      <c r="A26" s="506">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="503" t="s">
+      <c r="B26" s="508" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="504"/>
-      <c r="D26" s="505"/>
-      <c r="E26" s="506" t="str">
+      <c r="C26" s="509"/>
+      <c r="D26" s="510"/>
+      <c r="E26" s="511" t="str">
         <f>Данные!C15</f>
         <v>XXI-В-30-4А-700</v>
       </c>
-      <c r="F26" s="507"/>
-      <c r="G26" s="510">
+      <c r="F26" s="512"/>
+      <c r="G26" s="515">
         <f>Данные!B15</f>
         <v>22</v>
       </c>
-      <c r="H26" s="512"/>
-      <c r="I26" s="513"/>
-      <c r="J26" s="514"/>
+      <c r="H26" s="517"/>
+      <c r="I26" s="518"/>
+      <c r="J26" s="519"/>
     </row>
     <row r="27" spans="1:10" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="521"/>
-      <c r="B27" s="558" t="str">
+      <c r="A27" s="526"/>
+      <c r="B27" s="563" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C27" s="559"/>
-      <c r="D27" s="560"/>
-      <c r="E27" s="522"/>
-      <c r="F27" s="509"/>
-      <c r="G27" s="511"/>
-      <c r="H27" s="515"/>
-      <c r="I27" s="516"/>
-      <c r="J27" s="517"/>
+      <c r="C27" s="564"/>
+      <c r="D27" s="565"/>
+      <c r="E27" s="527"/>
+      <c r="F27" s="514"/>
+      <c r="G27" s="516"/>
+      <c r="H27" s="520"/>
+      <c r="I27" s="521"/>
+      <c r="J27" s="522"/>
     </row>
     <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="501">
+      <c r="A28" s="506">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="503" t="s">
+      <c r="B28" s="508" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="504"/>
-      <c r="D28" s="505"/>
-      <c r="E28" s="506" t="str">
+      <c r="C28" s="509"/>
+      <c r="D28" s="510"/>
+      <c r="E28" s="511" t="str">
         <f>Данные!C16</f>
         <v>XXI-В-30-4А-700</v>
       </c>
-      <c r="F28" s="507"/>
-      <c r="G28" s="510">
+      <c r="F28" s="512"/>
+      <c r="G28" s="515">
         <f>Данные!B16</f>
         <v>26</v>
       </c>
-      <c r="H28" s="512"/>
-      <c r="I28" s="513"/>
-      <c r="J28" s="514"/>
+      <c r="H28" s="517"/>
+      <c r="I28" s="518"/>
+      <c r="J28" s="519"/>
     </row>
     <row r="29" spans="1:10" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="521"/>
-      <c r="B29" s="558" t="str">
+      <c r="A29" s="526"/>
+      <c r="B29" s="563" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C29" s="559"/>
-      <c r="D29" s="560"/>
-      <c r="E29" s="522"/>
-      <c r="F29" s="509"/>
-      <c r="G29" s="511"/>
-      <c r="H29" s="515"/>
-      <c r="I29" s="516"/>
-      <c r="J29" s="517"/>
+      <c r="C29" s="564"/>
+      <c r="D29" s="565"/>
+      <c r="E29" s="527"/>
+      <c r="F29" s="514"/>
+      <c r="G29" s="516"/>
+      <c r="H29" s="520"/>
+      <c r="I29" s="521"/>
+      <c r="J29" s="522"/>
     </row>
     <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="501">
+      <c r="A30" s="506">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="503" t="s">
+      <c r="B30" s="508" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="504"/>
-      <c r="D30" s="505"/>
-      <c r="E30" s="506" t="str">
+      <c r="C30" s="509"/>
+      <c r="D30" s="510"/>
+      <c r="E30" s="511" t="str">
         <f>Данные!C17</f>
         <v>XXI-В-30-4А-700</v>
       </c>
-      <c r="F30" s="507"/>
-      <c r="G30" s="510">
+      <c r="F30" s="512"/>
+      <c r="G30" s="515">
         <f>Данные!B17</f>
         <v>26</v>
       </c>
-      <c r="H30" s="512"/>
-      <c r="I30" s="513"/>
-      <c r="J30" s="514"/>
+      <c r="H30" s="517"/>
+      <c r="I30" s="518"/>
+      <c r="J30" s="519"/>
     </row>
     <row r="31" spans="1:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="521"/>
-      <c r="B31" s="558" t="str">
+      <c r="A31" s="526"/>
+      <c r="B31" s="563" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C31" s="559"/>
-      <c r="D31" s="560"/>
-      <c r="E31" s="508"/>
-      <c r="F31" s="509"/>
-      <c r="G31" s="511"/>
-      <c r="H31" s="515"/>
-      <c r="I31" s="516"/>
-      <c r="J31" s="517"/>
+      <c r="C31" s="564"/>
+      <c r="D31" s="565"/>
+      <c r="E31" s="513"/>
+      <c r="F31" s="514"/>
+      <c r="G31" s="516"/>
+      <c r="H31" s="520"/>
+      <c r="I31" s="521"/>
+      <c r="J31" s="522"/>
     </row>
     <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="501">
+      <c r="A32" s="506">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="503" t="s">
+      <c r="B32" s="508" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="504"/>
-      <c r="D32" s="505"/>
-      <c r="E32" s="506" t="str">
+      <c r="C32" s="509"/>
+      <c r="D32" s="510"/>
+      <c r="E32" s="511" t="str">
         <f>Данные!C18</f>
         <v>XXI-В-30-4А-700</v>
       </c>
-      <c r="F32" s="507"/>
-      <c r="G32" s="510" t="s">
+      <c r="F32" s="512"/>
+      <c r="G32" s="515" t="s">
         <v>60</v>
       </c>
-      <c r="H32" s="512"/>
-      <c r="I32" s="513"/>
-      <c r="J32" s="514"/>
+      <c r="H32" s="517"/>
+      <c r="I32" s="518"/>
+      <c r="J32" s="519"/>
     </row>
     <row r="33" spans="1:10" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="521"/>
-      <c r="B33" s="558" t="str">
+      <c r="A33" s="526"/>
+      <c r="B33" s="563" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C33" s="559"/>
-      <c r="D33" s="560"/>
-      <c r="E33" s="508"/>
-      <c r="F33" s="509"/>
-      <c r="G33" s="511"/>
-      <c r="H33" s="515"/>
-      <c r="I33" s="516"/>
-      <c r="J33" s="517"/>
+      <c r="C33" s="564"/>
+      <c r="D33" s="565"/>
+      <c r="E33" s="513"/>
+      <c r="F33" s="514"/>
+      <c r="G33" s="516"/>
+      <c r="H33" s="520"/>
+      <c r="I33" s="521"/>
+      <c r="J33" s="522"/>
     </row>
     <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="501">
+      <c r="A34" s="506">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="503" t="s">
+      <c r="B34" s="508" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="504"/>
-      <c r="D34" s="505"/>
-      <c r="E34" s="506" t="str">
+      <c r="C34" s="509"/>
+      <c r="D34" s="510"/>
+      <c r="E34" s="511" t="str">
         <f>Данные!C19</f>
         <v>XXI-В-30-4А-700</v>
       </c>
-      <c r="F34" s="507"/>
-      <c r="G34" s="510" t="s">
+      <c r="F34" s="512"/>
+      <c r="G34" s="515" t="s">
         <v>60</v>
       </c>
-      <c r="H34" s="512"/>
-      <c r="I34" s="513"/>
-      <c r="J34" s="514"/>
+      <c r="H34" s="517"/>
+      <c r="I34" s="518"/>
+      <c r="J34" s="519"/>
     </row>
     <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="521"/>
-      <c r="B35" s="558" t="str">
+      <c r="A35" s="526"/>
+      <c r="B35" s="563" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C35" s="559"/>
-      <c r="D35" s="560"/>
-      <c r="E35" s="508"/>
-      <c r="F35" s="509"/>
-      <c r="G35" s="511"/>
-      <c r="H35" s="515"/>
-      <c r="I35" s="516"/>
-      <c r="J35" s="517"/>
+      <c r="C35" s="564"/>
+      <c r="D35" s="565"/>
+      <c r="E35" s="513"/>
+      <c r="F35" s="514"/>
+      <c r="G35" s="516"/>
+      <c r="H35" s="520"/>
+      <c r="I35" s="521"/>
+      <c r="J35" s="522"/>
     </row>
     <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="501">
+      <c r="A36" s="506">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="503" t="s">
+      <c r="B36" s="508" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="504"/>
-      <c r="D36" s="505"/>
-      <c r="E36" s="506" t="str">
+      <c r="C36" s="509"/>
+      <c r="D36" s="510"/>
+      <c r="E36" s="511" t="str">
         <f>Данные!C20</f>
         <v>XXI-В-30-4А-700</v>
       </c>
-      <c r="F36" s="507"/>
-      <c r="G36" s="510" t="s">
+      <c r="F36" s="512"/>
+      <c r="G36" s="515" t="s">
         <v>60</v>
       </c>
-      <c r="H36" s="512"/>
-      <c r="I36" s="513"/>
-      <c r="J36" s="514"/>
+      <c r="H36" s="517"/>
+      <c r="I36" s="518"/>
+      <c r="J36" s="519"/>
     </row>
     <row r="37" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="521"/>
-      <c r="B37" s="558" t="str">
+      <c r="A37" s="526"/>
+      <c r="B37" s="563" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C37" s="559"/>
-      <c r="D37" s="560"/>
-      <c r="E37" s="508"/>
-      <c r="F37" s="509"/>
-      <c r="G37" s="511"/>
-      <c r="H37" s="515"/>
-      <c r="I37" s="516"/>
-      <c r="J37" s="517"/>
+      <c r="C37" s="564"/>
+      <c r="D37" s="565"/>
+      <c r="E37" s="513"/>
+      <c r="F37" s="514"/>
+      <c r="G37" s="516"/>
+      <c r="H37" s="520"/>
+      <c r="I37" s="521"/>
+      <c r="J37" s="522"/>
     </row>
     <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="501">
+      <c r="A38" s="506">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="503" t="s">
+      <c r="B38" s="508" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="504"/>
-      <c r="D38" s="505"/>
-      <c r="E38" s="506" t="str">
+      <c r="C38" s="509"/>
+      <c r="D38" s="510"/>
+      <c r="E38" s="511" t="str">
         <f>Данные!C21</f>
         <v>XXI-В-30-4А-700</v>
       </c>
-      <c r="F38" s="507"/>
-      <c r="G38" s="510">
+      <c r="F38" s="512"/>
+      <c r="G38" s="515">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="H38" s="512"/>
-      <c r="I38" s="513"/>
-      <c r="J38" s="514"/>
+      <c r="H38" s="517"/>
+      <c r="I38" s="518"/>
+      <c r="J38" s="519"/>
     </row>
     <row r="39" spans="1:10" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="521"/>
-      <c r="B39" s="558" t="str">
+      <c r="A39" s="526"/>
+      <c r="B39" s="563" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C39" s="559"/>
-      <c r="D39" s="560"/>
-      <c r="E39" s="508"/>
-      <c r="F39" s="509"/>
-      <c r="G39" s="511"/>
-      <c r="H39" s="515"/>
-      <c r="I39" s="516"/>
-      <c r="J39" s="517"/>
+      <c r="C39" s="564"/>
+      <c r="D39" s="565"/>
+      <c r="E39" s="513"/>
+      <c r="F39" s="514"/>
+      <c r="G39" s="516"/>
+      <c r="H39" s="520"/>
+      <c r="I39" s="521"/>
+      <c r="J39" s="522"/>
     </row>
     <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="501">
+      <c r="A40" s="506">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="503" t="s">
+      <c r="B40" s="508" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="504"/>
-      <c r="D40" s="505"/>
-      <c r="E40" s="506" t="str">
+      <c r="C40" s="509"/>
+      <c r="D40" s="510"/>
+      <c r="E40" s="511" t="str">
         <f>Данные!C23</f>
         <v>XXI-В-30-4А-700</v>
       </c>
-      <c r="F40" s="507"/>
-      <c r="G40" s="510">
+      <c r="F40" s="512"/>
+      <c r="G40" s="515">
         <f>Данные!B23</f>
         <v>18</v>
       </c>
-      <c r="H40" s="512"/>
-      <c r="I40" s="513"/>
-      <c r="J40" s="514"/>
+      <c r="H40" s="517"/>
+      <c r="I40" s="518"/>
+      <c r="J40" s="519"/>
     </row>
     <row r="41" spans="1:10" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="521"/>
-      <c r="B41" s="558" t="str">
+      <c r="A41" s="526"/>
+      <c r="B41" s="563" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C41" s="559"/>
-      <c r="D41" s="560"/>
-      <c r="E41" s="508"/>
-      <c r="F41" s="509"/>
-      <c r="G41" s="511"/>
-      <c r="H41" s="515"/>
-      <c r="I41" s="516"/>
-      <c r="J41" s="517"/>
+      <c r="C41" s="564"/>
+      <c r="D41" s="565"/>
+      <c r="E41" s="513"/>
+      <c r="F41" s="514"/>
+      <c r="G41" s="516"/>
+      <c r="H41" s="520"/>
+      <c r="I41" s="521"/>
+      <c r="J41" s="522"/>
     </row>
     <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="501">
+      <c r="A42" s="506">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="503" t="s">
+      <c r="B42" s="508" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="504"/>
-      <c r="D42" s="505"/>
-      <c r="E42" s="506" t="str">
+      <c r="C42" s="509"/>
+      <c r="D42" s="510"/>
+      <c r="E42" s="511" t="str">
         <f>Данные!C25</f>
         <v>XXI-В-30-4А-700</v>
       </c>
-      <c r="F42" s="507"/>
-      <c r="G42" s="510">
+      <c r="F42" s="512"/>
+      <c r="G42" s="515">
         <f>Данные!B25</f>
         <v>18</v>
       </c>
-      <c r="H42" s="512"/>
-      <c r="I42" s="513"/>
-      <c r="J42" s="514"/>
+      <c r="H42" s="517"/>
+      <c r="I42" s="518"/>
+      <c r="J42" s="519"/>
     </row>
     <row r="43" spans="1:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="521"/>
-      <c r="B43" s="558" t="str">
+      <c r="A43" s="526"/>
+      <c r="B43" s="563" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C43" s="559"/>
-      <c r="D43" s="560"/>
-      <c r="E43" s="508"/>
-      <c r="F43" s="509"/>
-      <c r="G43" s="511"/>
-      <c r="H43" s="515"/>
-      <c r="I43" s="516"/>
-      <c r="J43" s="517"/>
+      <c r="C43" s="564"/>
+      <c r="D43" s="565"/>
+      <c r="E43" s="513"/>
+      <c r="F43" s="514"/>
+      <c r="G43" s="516"/>
+      <c r="H43" s="520"/>
+      <c r="I43" s="521"/>
+      <c r="J43" s="522"/>
     </row>
     <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="501">
+      <c r="A44" s="506">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="503" t="s">
+      <c r="B44" s="508" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="504"/>
-      <c r="D44" s="505"/>
-      <c r="E44" s="506" t="s">
+      <c r="C44" s="509"/>
+      <c r="D44" s="510"/>
+      <c r="E44" s="511" t="s">
         <v>60</v>
       </c>
-      <c r="F44" s="507"/>
-      <c r="G44" s="510">
+      <c r="F44" s="512"/>
+      <c r="G44" s="515">
         <f>Данные!B26</f>
         <v>18</v>
       </c>
-      <c r="H44" s="512"/>
-      <c r="I44" s="513"/>
-      <c r="J44" s="514"/>
+      <c r="H44" s="517"/>
+      <c r="I44" s="518"/>
+      <c r="J44" s="519"/>
     </row>
     <row r="45" spans="1:10" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="521"/>
-      <c r="B45" s="558" t="str">
+      <c r="A45" s="526"/>
+      <c r="B45" s="563" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C45" s="559"/>
-      <c r="D45" s="560"/>
-      <c r="E45" s="508"/>
-      <c r="F45" s="509"/>
-      <c r="G45" s="511"/>
-      <c r="H45" s="515"/>
-      <c r="I45" s="516"/>
-      <c r="J45" s="517"/>
+      <c r="C45" s="564"/>
+      <c r="D45" s="565"/>
+      <c r="E45" s="513"/>
+      <c r="F45" s="514"/>
+      <c r="G45" s="516"/>
+      <c r="H45" s="520"/>
+      <c r="I45" s="521"/>
+      <c r="J45" s="522"/>
     </row>
     <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="501">
+      <c r="A46" s="506">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="503" t="s">
+      <c r="B46" s="508" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="504"/>
-      <c r="D46" s="505"/>
-      <c r="E46" s="506" t="str">
+      <c r="C46" s="509"/>
+      <c r="D46" s="510"/>
+      <c r="E46" s="511" t="str">
         <f>Данные!C24</f>
         <v>XXI-В-30-4А-700</v>
       </c>
-      <c r="F46" s="507"/>
-      <c r="G46" s="510">
+      <c r="F46" s="512"/>
+      <c r="G46" s="515">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="512"/>
-      <c r="I46" s="513"/>
-      <c r="J46" s="514"/>
+      <c r="H46" s="517"/>
+      <c r="I46" s="518"/>
+      <c r="J46" s="519"/>
     </row>
     <row r="47" spans="1:10" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="521"/>
-      <c r="B47" s="558" t="str">
+      <c r="A47" s="526"/>
+      <c r="B47" s="563" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-30-4А-700 БАЙРОН)</v>
       </c>
-      <c r="C47" s="559"/>
-      <c r="D47" s="560"/>
-      <c r="E47" s="508"/>
-      <c r="F47" s="509"/>
-      <c r="G47" s="511"/>
-      <c r="H47" s="515"/>
-      <c r="I47" s="516"/>
-      <c r="J47" s="517"/>
+      <c r="C47" s="564"/>
+      <c r="D47" s="565"/>
+      <c r="E47" s="513"/>
+      <c r="F47" s="514"/>
+      <c r="G47" s="516"/>
+      <c r="H47" s="520"/>
+      <c r="I47" s="521"/>
+      <c r="J47" s="522"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="313"/>
@@ -12497,47 +12520,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="579"/>
-      <c r="C2" s="580"/>
-      <c r="D2" s="581"/>
-      <c r="E2" s="588" t="s">
+      <c r="B2" s="584"/>
+      <c r="C2" s="585"/>
+      <c r="D2" s="586"/>
+      <c r="E2" s="593" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="589"/>
-      <c r="G2" s="589"/>
-      <c r="H2" s="590"/>
-      <c r="I2" s="595" t="s">
+      <c r="F2" s="594"/>
+      <c r="G2" s="594"/>
+      <c r="H2" s="595"/>
+      <c r="I2" s="600" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="596"/>
-      <c r="K2" s="599">
+      <c r="J2" s="601"/>
+      <c r="K2" s="604">
         <f>Данные!B14</f>
         <v>22</v>
       </c>
-      <c r="L2" s="600"/>
+      <c r="L2" s="605"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="591"/>
-      <c r="Q2" s="591"/>
+      <c r="P2" s="596"/>
+      <c r="Q2" s="596"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="582"/>
-      <c r="C3" s="583"/>
-      <c r="D3" s="584"/>
-      <c r="E3" s="592" t="s">
+      <c r="B3" s="587"/>
+      <c r="C3" s="588"/>
+      <c r="D3" s="589"/>
+      <c r="E3" s="597" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="593"/>
-      <c r="G3" s="593"/>
-      <c r="H3" s="594"/>
-      <c r="I3" s="597"/>
-      <c r="J3" s="598"/>
-      <c r="K3" s="601"/>
-      <c r="L3" s="602"/>
+      <c r="F3" s="598"/>
+      <c r="G3" s="598"/>
+      <c r="H3" s="599"/>
+      <c r="I3" s="602"/>
+      <c r="J3" s="603"/>
+      <c r="K3" s="606"/>
+      <c r="L3" s="607"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12548,9 +12571,9 @@
     </row>
     <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="585"/>
-      <c r="C4" s="586"/>
-      <c r="D4" s="587"/>
+      <c r="B4" s="590"/>
+      <c r="C4" s="591"/>
+      <c r="D4" s="592"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12569,22 +12592,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="564" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="565"/>
-      <c r="D5" s="547" t="str">
+      <c r="C5" s="570"/>
+      <c r="D5" s="552" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="548"/>
-      <c r="F5" s="548"/>
-      <c r="G5" s="548"/>
-      <c r="H5" s="549"/>
-      <c r="I5" s="566"/>
-      <c r="J5" s="567"/>
-      <c r="K5" s="548"/>
-      <c r="L5" s="549"/>
+      <c r="E5" s="553"/>
+      <c r="F5" s="553"/>
+      <c r="G5" s="553"/>
+      <c r="H5" s="554"/>
+      <c r="I5" s="571"/>
+      <c r="J5" s="572"/>
+      <c r="K5" s="553"/>
+      <c r="L5" s="554"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12595,22 +12618,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="564" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="568"/>
-      <c r="D6" s="541" t="str">
+      <c r="C6" s="573"/>
+      <c r="D6" s="546" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
-      <c r="E6" s="569"/>
-      <c r="F6" s="569"/>
-      <c r="G6" s="569"/>
-      <c r="H6" s="570"/>
-      <c r="I6" s="566"/>
-      <c r="J6" s="567"/>
-      <c r="K6" s="548"/>
-      <c r="L6" s="549"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="571"/>
+      <c r="J6" s="572"/>
+      <c r="K6" s="553"/>
+      <c r="L6" s="554"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12621,27 +12644,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="571" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="572"/>
-      <c r="D7" s="550">
+      <c r="C7" s="577"/>
+      <c r="D7" s="555">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="573"/>
-      <c r="F7" s="573"/>
-      <c r="G7" s="573"/>
-      <c r="H7" s="574"/>
-      <c r="I7" s="571" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="576" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="575"/>
-      <c r="K7" s="538">
+      <c r="J7" s="580"/>
+      <c r="K7" s="543">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="539"/>
+      <c r="L7" s="544"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12706,7 +12729,7 @@
     </row>
     <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
-      <c r="B10" s="492" t="s">
+      <c r="B10" s="491" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="93">
@@ -12739,7 +12762,7 @@
     </row>
     <row r="11" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
-      <c r="B11" s="493" t="s">
+      <c r="B11" s="492" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="324">
@@ -12772,7 +12795,7 @@
     </row>
     <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
-      <c r="B12" s="493" t="s">
+      <c r="B12" s="492" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="98">
@@ -12805,7 +12828,7 @@
     </row>
     <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
-      <c r="B13" s="493" t="s">
+      <c r="B13" s="492" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="324">
@@ -12838,7 +12861,7 @@
     </row>
     <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="493" t="s">
+      <c r="B14" s="492" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="324">
@@ -12871,7 +12894,7 @@
     </row>
     <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
-      <c r="B15" s="493" t="s">
+      <c r="B15" s="492" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="388">
@@ -12904,7 +12927,7 @@
     </row>
     <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
-      <c r="B16" s="493" t="s">
+      <c r="B16" s="492" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="98">
@@ -12937,7 +12960,7 @@
     </row>
     <row r="17" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
-      <c r="B17" s="493" t="s">
+      <c r="B17" s="492" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="324">
@@ -12952,7 +12975,7 @@
       <c r="F17" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="490" t="s">
+      <c r="G17" s="489" t="s">
         <v>22</v>
       </c>
       <c r="H17" s="99"/>
@@ -12970,7 +12993,7 @@
     </row>
     <row r="18" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
-      <c r="B18" s="494" t="s">
+      <c r="B18" s="493" t="s">
         <v>150</v>
       </c>
       <c r="C18" s="363" t="s">
@@ -13003,7 +13026,7 @@
     </row>
     <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
-      <c r="B19" s="494" t="s">
+      <c r="B19" s="493" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="363">
@@ -13036,7 +13059,7 @@
     </row>
     <row r="20" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="78"/>
-      <c r="B20" s="494" t="s">
+      <c r="B20" s="493" t="s">
         <v>148</v>
       </c>
       <c r="C20" s="363">
@@ -13065,7 +13088,7 @@
     </row>
     <row r="21" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="78"/>
-      <c r="B21" s="494" t="s">
+      <c r="B21" s="493" t="s">
         <v>149</v>
       </c>
       <c r="C21" s="363">
@@ -13094,7 +13117,7 @@
     </row>
     <row r="22" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" s="78"/>
-      <c r="B22" s="494" t="s">
+      <c r="B22" s="493" t="s">
         <v>134</v>
       </c>
       <c r="C22" s="325">
@@ -13127,7 +13150,7 @@
     </row>
     <row r="23" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="494" t="s">
+      <c r="B23" s="493" t="s">
         <v>135</v>
       </c>
       <c r="C23" s="325" t="s">
@@ -13160,12 +13183,12 @@
     </row>
     <row r="24" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="78"/>
-      <c r="B24" s="576" t="s">
+      <c r="B24" s="581" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="577"/>
-      <c r="D24" s="577"/>
-      <c r="E24" s="578"/>
+      <c r="C24" s="582"/>
+      <c r="D24" s="582"/>
+      <c r="E24" s="583"/>
       <c r="F24" s="118" t="s">
         <v>16</v>
       </c>
@@ -13187,16 +13210,16 @@
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="78"/>
-      <c r="B25" s="561" t="s">
+      <c r="B25" s="566" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="562"/>
-      <c r="D25" s="562"/>
-      <c r="E25" s="563"/>
+      <c r="C25" s="567"/>
+      <c r="D25" s="567"/>
+      <c r="E25" s="568"/>
       <c r="F25" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="491" t="s">
+      <c r="G25" s="490" t="s">
         <v>45</v>
       </c>
       <c r="H25" s="109"/>
@@ -13321,50 +13344,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="610">
+      <c r="B2" s="615">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="611"/>
-      <c r="D2" s="612"/>
-      <c r="E2" s="619" t="s">
+      <c r="C2" s="616"/>
+      <c r="D2" s="617"/>
+      <c r="E2" s="624" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="620"/>
-      <c r="G2" s="620"/>
-      <c r="H2" s="621"/>
-      <c r="I2" s="625" t="s">
+      <c r="F2" s="625"/>
+      <c r="G2" s="625"/>
+      <c r="H2" s="626"/>
+      <c r="I2" s="630" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="626"/>
-      <c r="K2" s="629">
+      <c r="J2" s="631"/>
+      <c r="K2" s="634">
         <f>Данные!B15</f>
         <v>22</v>
       </c>
-      <c r="L2" s="630"/>
+      <c r="L2" s="635"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="591"/>
-      <c r="Q2" s="591"/>
+      <c r="P2" s="596"/>
+      <c r="Q2" s="596"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="613"/>
-      <c r="C3" s="614"/>
-      <c r="D3" s="615"/>
-      <c r="E3" s="622" t="s">
+      <c r="B3" s="618"/>
+      <c r="C3" s="619"/>
+      <c r="D3" s="620"/>
+      <c r="E3" s="627" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="623"/>
-      <c r="G3" s="623"/>
-      <c r="H3" s="624"/>
-      <c r="I3" s="627"/>
-      <c r="J3" s="628"/>
-      <c r="K3" s="631"/>
-      <c r="L3" s="632"/>
+      <c r="F3" s="628"/>
+      <c r="G3" s="628"/>
+      <c r="H3" s="629"/>
+      <c r="I3" s="632"/>
+      <c r="J3" s="633"/>
+      <c r="K3" s="636"/>
+      <c r="L3" s="637"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -13375,9 +13398,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="616"/>
-      <c r="C4" s="617"/>
-      <c r="D4" s="618"/>
+      <c r="B4" s="621"/>
+      <c r="C4" s="622"/>
+      <c r="D4" s="623"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -13396,22 +13419,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="564" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="603"/>
-      <c r="D5" s="547" t="str">
+      <c r="C5" s="608"/>
+      <c r="D5" s="552" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="548"/>
-      <c r="F5" s="548"/>
-      <c r="G5" s="548"/>
-      <c r="H5" s="549"/>
-      <c r="I5" s="604"/>
-      <c r="J5" s="605"/>
-      <c r="K5" s="606"/>
-      <c r="L5" s="549"/>
+      <c r="E5" s="553"/>
+      <c r="F5" s="553"/>
+      <c r="G5" s="553"/>
+      <c r="H5" s="554"/>
+      <c r="I5" s="609"/>
+      <c r="J5" s="610"/>
+      <c r="K5" s="611"/>
+      <c r="L5" s="554"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -13422,22 +13445,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="564" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="603"/>
-      <c r="D6" s="541" t="str">
+      <c r="C6" s="608"/>
+      <c r="D6" s="546" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
-      <c r="E6" s="569"/>
-      <c r="F6" s="569"/>
-      <c r="G6" s="569"/>
-      <c r="H6" s="570"/>
-      <c r="I6" s="604"/>
-      <c r="J6" s="605"/>
-      <c r="K6" s="606"/>
-      <c r="L6" s="549"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="609"/>
+      <c r="J6" s="610"/>
+      <c r="K6" s="611"/>
+      <c r="L6" s="554"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -13448,27 +13471,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="571" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="607"/>
-      <c r="D7" s="550">
+      <c r="C7" s="612"/>
+      <c r="D7" s="555">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="573"/>
-      <c r="F7" s="573"/>
-      <c r="G7" s="573"/>
-      <c r="H7" s="574"/>
-      <c r="I7" s="608" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="613" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="607"/>
-      <c r="K7" s="538">
+      <c r="J7" s="612"/>
+      <c r="K7" s="543">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="539"/>
+      <c r="L7" s="544"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -13536,7 +13559,7 @@
       <c r="B10" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="499" t="s">
+      <c r="C10" s="498" t="s">
         <v>137</v>
       </c>
       <c r="D10" s="93">
@@ -13665,13 +13688,13 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="576" t="s">
+      <c r="B14" s="581" t="s">
         <v>144</v>
       </c>
-      <c r="C14" s="577"/>
-      <c r="D14" s="577"/>
-      <c r="E14" s="577"/>
-      <c r="F14" s="609"/>
+      <c r="C14" s="582"/>
+      <c r="D14" s="582"/>
+      <c r="E14" s="582"/>
+      <c r="F14" s="614"/>
       <c r="G14" s="56" t="s">
         <v>76</v>
       </c>
@@ -13690,12 +13713,12 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78"/>
-      <c r="B15" s="561" t="s">
+      <c r="B15" s="566" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="562"/>
-      <c r="D15" s="562"/>
-      <c r="E15" s="563"/>
+      <c r="C15" s="567"/>
+      <c r="D15" s="567"/>
+      <c r="E15" s="568"/>
       <c r="F15" s="118" t="s">
         <v>16</v>
       </c>
@@ -13839,47 +13862,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="579"/>
-      <c r="C2" s="580"/>
-      <c r="D2" s="581"/>
-      <c r="E2" s="588" t="s">
+      <c r="B2" s="584"/>
+      <c r="C2" s="585"/>
+      <c r="D2" s="586"/>
+      <c r="E2" s="593" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="589"/>
-      <c r="G2" s="589"/>
-      <c r="H2" s="590"/>
-      <c r="I2" s="595" t="s">
+      <c r="F2" s="594"/>
+      <c r="G2" s="594"/>
+      <c r="H2" s="595"/>
+      <c r="I2" s="600" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="596"/>
-      <c r="K2" s="599">
+      <c r="J2" s="601"/>
+      <c r="K2" s="604">
         <f>Данные!B16</f>
         <v>26</v>
       </c>
-      <c r="L2" s="600"/>
+      <c r="L2" s="605"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="591"/>
-      <c r="Q2" s="591"/>
+      <c r="P2" s="596"/>
+      <c r="Q2" s="596"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="582"/>
-      <c r="C3" s="583"/>
-      <c r="D3" s="584"/>
-      <c r="E3" s="592" t="s">
+      <c r="B3" s="587"/>
+      <c r="C3" s="588"/>
+      <c r="D3" s="589"/>
+      <c r="E3" s="597" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="593"/>
-      <c r="G3" s="593"/>
-      <c r="H3" s="594"/>
-      <c r="I3" s="597"/>
-      <c r="J3" s="598"/>
-      <c r="K3" s="601"/>
-      <c r="L3" s="602"/>
+      <c r="F3" s="598"/>
+      <c r="G3" s="598"/>
+      <c r="H3" s="599"/>
+      <c r="I3" s="602"/>
+      <c r="J3" s="603"/>
+      <c r="K3" s="606"/>
+      <c r="L3" s="607"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -13890,9 +13913,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="585"/>
-      <c r="C4" s="586"/>
-      <c r="D4" s="587"/>
+      <c r="B4" s="590"/>
+      <c r="C4" s="591"/>
+      <c r="D4" s="592"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13911,22 +13934,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="564" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="565"/>
-      <c r="D5" s="547" t="str">
+      <c r="C5" s="570"/>
+      <c r="D5" s="552" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="548"/>
-      <c r="F5" s="548"/>
-      <c r="G5" s="548"/>
-      <c r="H5" s="549"/>
-      <c r="I5" s="566"/>
-      <c r="J5" s="567"/>
-      <c r="K5" s="548"/>
-      <c r="L5" s="549"/>
+      <c r="E5" s="553"/>
+      <c r="F5" s="553"/>
+      <c r="G5" s="553"/>
+      <c r="H5" s="554"/>
+      <c r="I5" s="571"/>
+      <c r="J5" s="572"/>
+      <c r="K5" s="553"/>
+      <c r="L5" s="554"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -13937,22 +13960,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="564" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="568"/>
-      <c r="D6" s="541" t="str">
+      <c r="C6" s="573"/>
+      <c r="D6" s="546" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
-      <c r="E6" s="569"/>
-      <c r="F6" s="569"/>
-      <c r="G6" s="569"/>
-      <c r="H6" s="570"/>
-      <c r="I6" s="566"/>
-      <c r="J6" s="567"/>
-      <c r="K6" s="548"/>
-      <c r="L6" s="549"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="571"/>
+      <c r="J6" s="572"/>
+      <c r="K6" s="553"/>
+      <c r="L6" s="554"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -13963,27 +13986,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="571" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="572"/>
-      <c r="D7" s="550">
+      <c r="C7" s="577"/>
+      <c r="D7" s="555">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="573"/>
-      <c r="F7" s="573"/>
-      <c r="G7" s="573"/>
-      <c r="H7" s="574"/>
-      <c r="I7" s="571" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="576" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="575"/>
-      <c r="K7" s="538">
+      <c r="J7" s="580"/>
+      <c r="K7" s="543">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="539"/>
+      <c r="L7" s="544"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -14466,6 +14489,10 @@
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
@@ -14480,10 +14507,6 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -14551,47 +14574,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="579"/>
-      <c r="C2" s="580"/>
-      <c r="D2" s="581"/>
-      <c r="E2" s="588" t="s">
+      <c r="B2" s="584"/>
+      <c r="C2" s="585"/>
+      <c r="D2" s="586"/>
+      <c r="E2" s="593" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="589"/>
-      <c r="G2" s="589"/>
-      <c r="H2" s="590"/>
-      <c r="I2" s="595" t="s">
+      <c r="F2" s="594"/>
+      <c r="G2" s="594"/>
+      <c r="H2" s="595"/>
+      <c r="I2" s="600" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="596"/>
-      <c r="K2" s="599">
+      <c r="J2" s="601"/>
+      <c r="K2" s="604">
         <f>Данные!B17</f>
         <v>26</v>
       </c>
-      <c r="L2" s="600"/>
+      <c r="L2" s="605"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="633"/>
-      <c r="Q2" s="633"/>
+      <c r="P2" s="638"/>
+      <c r="Q2" s="638"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="582"/>
-      <c r="C3" s="583"/>
-      <c r="D3" s="584"/>
-      <c r="E3" s="592" t="s">
+      <c r="B3" s="587"/>
+      <c r="C3" s="588"/>
+      <c r="D3" s="589"/>
+      <c r="E3" s="597" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="593"/>
-      <c r="G3" s="593"/>
-      <c r="H3" s="594"/>
-      <c r="I3" s="597"/>
-      <c r="J3" s="598"/>
-      <c r="K3" s="601"/>
-      <c r="L3" s="602"/>
+      <c r="F3" s="598"/>
+      <c r="G3" s="598"/>
+      <c r="H3" s="599"/>
+      <c r="I3" s="602"/>
+      <c r="J3" s="603"/>
+      <c r="K3" s="606"/>
+      <c r="L3" s="607"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -14602,9 +14625,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="585"/>
-      <c r="C4" s="586"/>
-      <c r="D4" s="587"/>
+      <c r="B4" s="590"/>
+      <c r="C4" s="591"/>
+      <c r="D4" s="592"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -14623,22 +14646,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="564" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="565"/>
-      <c r="D5" s="547" t="str">
+      <c r="C5" s="570"/>
+      <c r="D5" s="552" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="548"/>
-      <c r="F5" s="548"/>
-      <c r="G5" s="548"/>
-      <c r="H5" s="549"/>
-      <c r="I5" s="566"/>
-      <c r="J5" s="567"/>
-      <c r="K5" s="548"/>
-      <c r="L5" s="549"/>
+      <c r="E5" s="553"/>
+      <c r="F5" s="553"/>
+      <c r="G5" s="553"/>
+      <c r="H5" s="554"/>
+      <c r="I5" s="571"/>
+      <c r="J5" s="572"/>
+      <c r="K5" s="553"/>
+      <c r="L5" s="554"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -14649,22 +14672,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="564" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="568"/>
-      <c r="D6" s="541" t="str">
+      <c r="C6" s="573"/>
+      <c r="D6" s="546" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
-      <c r="E6" s="569"/>
-      <c r="F6" s="569"/>
-      <c r="G6" s="569"/>
-      <c r="H6" s="570"/>
-      <c r="I6" s="566"/>
-      <c r="J6" s="567"/>
-      <c r="K6" s="548"/>
-      <c r="L6" s="549"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="571"/>
+      <c r="J6" s="572"/>
+      <c r="K6" s="553"/>
+      <c r="L6" s="554"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -14675,27 +14698,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="571" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="572"/>
-      <c r="D7" s="550">
+      <c r="C7" s="577"/>
+      <c r="D7" s="555">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="573"/>
-      <c r="F7" s="573"/>
-      <c r="G7" s="573"/>
-      <c r="H7" s="574"/>
-      <c r="I7" s="571" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="576" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="575"/>
-      <c r="K7" s="538">
+      <c r="J7" s="580"/>
+      <c r="K7" s="543">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="539"/>
+      <c r="L7" s="544"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -15069,60 +15092,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="610"/>
-      <c r="C2" s="611"/>
-      <c r="D2" s="612"/>
-      <c r="E2" s="619" t="s">
+      <c r="B2" s="615"/>
+      <c r="C2" s="616"/>
+      <c r="D2" s="617"/>
+      <c r="E2" s="624" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="620"/>
-      <c r="G2" s="620"/>
-      <c r="H2" s="621"/>
-      <c r="I2" s="625" t="s">
+      <c r="F2" s="625"/>
+      <c r="G2" s="625"/>
+      <c r="H2" s="626"/>
+      <c r="I2" s="630" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="626"/>
-      <c r="K2" s="629">
+      <c r="J2" s="631"/>
+      <c r="K2" s="634">
         <f>Данные!B18</f>
         <v>0</v>
       </c>
-      <c r="L2" s="630"/>
-      <c r="M2" s="634"/>
-      <c r="N2" s="635"/>
-      <c r="O2" s="635"/>
-      <c r="P2" s="635"/>
-      <c r="Q2" s="635"/>
-      <c r="R2" s="636"/>
+      <c r="L2" s="635"/>
+      <c r="M2" s="639"/>
+      <c r="N2" s="640"/>
+      <c r="O2" s="640"/>
+      <c r="P2" s="640"/>
+      <c r="Q2" s="640"/>
+      <c r="R2" s="641"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="613"/>
-      <c r="C3" s="614"/>
-      <c r="D3" s="615"/>
-      <c r="E3" s="622" t="s">
+      <c r="B3" s="618"/>
+      <c r="C3" s="619"/>
+      <c r="D3" s="620"/>
+      <c r="E3" s="627" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="623"/>
-      <c r="G3" s="623"/>
-      <c r="H3" s="624"/>
-      <c r="I3" s="627"/>
-      <c r="J3" s="628"/>
-      <c r="K3" s="631"/>
-      <c r="L3" s="632"/>
-      <c r="M3" s="637"/>
-      <c r="N3" s="638"/>
-      <c r="O3" s="638"/>
-      <c r="P3" s="638"/>
-      <c r="Q3" s="638"/>
-      <c r="R3" s="639"/>
+      <c r="F3" s="628"/>
+      <c r="G3" s="628"/>
+      <c r="H3" s="629"/>
+      <c r="I3" s="632"/>
+      <c r="J3" s="633"/>
+      <c r="K3" s="636"/>
+      <c r="L3" s="637"/>
+      <c r="M3" s="642"/>
+      <c r="N3" s="643"/>
+      <c r="O3" s="643"/>
+      <c r="P3" s="643"/>
+      <c r="Q3" s="643"/>
+      <c r="R3" s="644"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="616"/>
-      <c r="C4" s="617"/>
-      <c r="D4" s="618"/>
+      <c r="B4" s="621"/>
+      <c r="C4" s="622"/>
+      <c r="D4" s="623"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -15131,95 +15154,95 @@
       <c r="J4" s="251"/>
       <c r="K4" s="254"/>
       <c r="L4" s="255"/>
-      <c r="M4" s="637"/>
-      <c r="N4" s="638"/>
-      <c r="O4" s="638"/>
-      <c r="P4" s="638"/>
-      <c r="Q4" s="638"/>
-      <c r="R4" s="639"/>
+      <c r="M4" s="642"/>
+      <c r="N4" s="643"/>
+      <c r="O4" s="643"/>
+      <c r="P4" s="643"/>
+      <c r="Q4" s="643"/>
+      <c r="R4" s="644"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="564" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="603"/>
-      <c r="D5" s="547" t="str">
+      <c r="C5" s="608"/>
+      <c r="D5" s="552" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="548"/>
-      <c r="F5" s="548"/>
-      <c r="G5" s="548"/>
-      <c r="H5" s="549"/>
-      <c r="I5" s="604"/>
-      <c r="J5" s="605"/>
-      <c r="K5" s="606"/>
-      <c r="L5" s="549"/>
-      <c r="M5" s="637"/>
-      <c r="N5" s="638"/>
-      <c r="O5" s="638"/>
-      <c r="P5" s="638"/>
-      <c r="Q5" s="638"/>
-      <c r="R5" s="639"/>
+      <c r="E5" s="553"/>
+      <c r="F5" s="553"/>
+      <c r="G5" s="553"/>
+      <c r="H5" s="554"/>
+      <c r="I5" s="609"/>
+      <c r="J5" s="610"/>
+      <c r="K5" s="611"/>
+      <c r="L5" s="554"/>
+      <c r="M5" s="642"/>
+      <c r="N5" s="643"/>
+      <c r="O5" s="643"/>
+      <c r="P5" s="643"/>
+      <c r="Q5" s="643"/>
+      <c r="R5" s="644"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="564" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="603"/>
-      <c r="D6" s="541" t="str">
+      <c r="C6" s="608"/>
+      <c r="D6" s="546" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-30-4А-700 (Байрон 0.7 л.)</v>
       </c>
-      <c r="E6" s="569"/>
-      <c r="F6" s="569"/>
-      <c r="G6" s="569"/>
-      <c r="H6" s="570"/>
-      <c r="I6" s="604"/>
-      <c r="J6" s="605"/>
-      <c r="K6" s="606"/>
-      <c r="L6" s="549"/>
-      <c r="M6" s="637"/>
-      <c r="N6" s="638"/>
-      <c r="O6" s="638"/>
-      <c r="P6" s="638"/>
-      <c r="Q6" s="638"/>
-      <c r="R6" s="639"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="609"/>
+      <c r="J6" s="610"/>
+      <c r="K6" s="611"/>
+      <c r="L6" s="554"/>
+      <c r="M6" s="642"/>
+      <c r="N6" s="643"/>
+      <c r="O6" s="643"/>
+      <c r="P6" s="643"/>
+      <c r="Q6" s="643"/>
+      <c r="R6" s="644"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="571" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="607"/>
-      <c r="D7" s="550">
+      <c r="C7" s="612"/>
+      <c r="D7" s="555">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="573"/>
-      <c r="F7" s="573"/>
-      <c r="G7" s="573"/>
-      <c r="H7" s="574"/>
-      <c r="I7" s="608" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="613" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="607"/>
-      <c r="K7" s="538">
+      <c r="J7" s="612"/>
+      <c r="K7" s="543">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="539"/>
-      <c r="M7" s="637"/>
-      <c r="N7" s="638"/>
-      <c r="O7" s="638"/>
-      <c r="P7" s="638"/>
-      <c r="Q7" s="638"/>
-      <c r="R7" s="639"/>
+      <c r="L7" s="544"/>
+      <c r="M7" s="642"/>
+      <c r="N7" s="643"/>
+      <c r="O7" s="643"/>
+      <c r="P7" s="643"/>
+      <c r="Q7" s="643"/>
+      <c r="R7" s="644"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15641,12 +15664,12 @@
     </row>
     <row r="21" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
-      <c r="B21" s="561" t="s">
+      <c r="B21" s="566" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="562"/>
-      <c r="D21" s="562"/>
-      <c r="E21" s="563"/>
+      <c r="C21" s="567"/>
+      <c r="D21" s="567"/>
+      <c r="E21" s="568"/>
       <c r="F21" s="118" t="s">
         <v>16</v>
       </c>
